--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12504" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
     <sheet name="BranchData" sheetId="2" r:id="rId2"/>
+    <sheet name="GLCategories" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="446">
   <si>
     <t>Abilene</t>
   </si>
@@ -661,6 +662,708 @@
   </si>
   <si>
     <t>LocationCode</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>540</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>575</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>640</t>
+  </si>
+  <si>
+    <t>685</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>845</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>LocGLStr</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>LOCNCODE</t>
+  </si>
+  <si>
+    <t>ABILENE</t>
+  </si>
+  <si>
+    <t>ALTA VISTA</t>
+  </si>
+  <si>
+    <t>BENNINGTON</t>
+  </si>
+  <si>
+    <t>BENTON</t>
+  </si>
+  <si>
+    <t>BUHLER</t>
+  </si>
+  <si>
+    <t>BURNS</t>
+  </si>
+  <si>
+    <t>CASTLETON</t>
+  </si>
+  <si>
+    <t>ELYRIA</t>
+  </si>
+  <si>
+    <t>FLORENCE</t>
+  </si>
+  <si>
+    <t>GALVA</t>
+  </si>
+  <si>
+    <t>GOESSEL</t>
+  </si>
+  <si>
+    <t>GROVELAND</t>
+  </si>
+  <si>
+    <t>HERINGTON</t>
+  </si>
+  <si>
+    <t>LINDSBORG</t>
+  </si>
+  <si>
+    <t>LONGFORD</t>
+  </si>
+  <si>
+    <t>MARQUETTE</t>
+  </si>
+  <si>
+    <t>ONAGA</t>
+  </si>
+  <si>
+    <t>PEABODY</t>
+  </si>
+  <si>
+    <t>SALINA</t>
+  </si>
+  <si>
+    <t>SOLOMON</t>
+  </si>
+  <si>
+    <t>TALMAGE</t>
+  </si>
+  <si>
+    <t>WALTON</t>
+  </si>
+  <si>
+    <t>WHITEWATER</t>
+  </si>
+  <si>
+    <t>STORE</t>
+  </si>
+  <si>
+    <t>MHSTORE</t>
+  </si>
+  <si>
+    <t>MANHATTAN</t>
+  </si>
+  <si>
+    <t>MCPHERSON</t>
+  </si>
+  <si>
+    <t>MOUNDRIDGE</t>
+  </si>
+  <si>
+    <t>WESTMORE</t>
+  </si>
+  <si>
+    <t>660</t>
+  </si>
+  <si>
+    <t>576</t>
+  </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>CapacityFert</t>
+  </si>
+  <si>
+    <t>CapacityFuel</t>
+  </si>
+  <si>
+    <t>CapacityGrain</t>
+  </si>
+  <si>
+    <t>Commercial Petroleum</t>
+  </si>
+  <si>
+    <t>Conway</t>
+  </si>
+  <si>
+    <t>Emporia</t>
+  </si>
+  <si>
+    <t>Haven Commodities</t>
+  </si>
+  <si>
+    <t>Lyons</t>
+  </si>
+  <si>
+    <t>Niles</t>
+  </si>
+  <si>
+    <t>Olsburg</t>
+  </si>
+  <si>
+    <t>McPherson RFD</t>
+  </si>
+  <si>
+    <t>Bulk Petroleum</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>VolFert</t>
+  </si>
+  <si>
+    <t>VolFuel</t>
+  </si>
+  <si>
+    <t>VolGrain</t>
+  </si>
+  <si>
+    <t>VolAppl</t>
+  </si>
+  <si>
+    <t>TMA Administrative</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>Precision Ag</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>Hutchinson Fertilizer Plant</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>Peace Creek</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>Pretty Prairie</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>RFD</t>
+  </si>
+  <si>
+    <t>MCPBULK</t>
+  </si>
+  <si>
+    <t>COMMERCIAL</t>
+  </si>
+  <si>
+    <t>DIRECTFUEL</t>
+  </si>
+  <si>
+    <t>CONWAY</t>
+  </si>
+  <si>
+    <t>PRECAG</t>
+  </si>
+  <si>
+    <t>RICECOAERI</t>
+  </si>
+  <si>
+    <t>EMPORIA</t>
+  </si>
+  <si>
+    <t>LYONS</t>
+  </si>
+  <si>
+    <t>HAV-COMMOD</t>
+  </si>
+  <si>
+    <t>COMM-HAVEN</t>
+  </si>
+  <si>
+    <t>COMM-HUTCH</t>
+  </si>
+  <si>
+    <t>MCCLAIN</t>
+  </si>
+  <si>
+    <t>McClain</t>
+  </si>
+  <si>
+    <t>OLSBURG</t>
+  </si>
+  <si>
+    <t>PEACE CREE</t>
+  </si>
+  <si>
+    <t>MNACSGMT</t>
+  </si>
+  <si>
+    <t>9805</t>
+  </si>
+  <si>
+    <t>9810</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>9825</t>
+  </si>
+  <si>
+    <t>9820</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>800 E 1ST ST</t>
+  </si>
+  <si>
+    <t>67410-2809</t>
+  </si>
+  <si>
+    <t>6889 W OLD HIGHWAY 40</t>
+  </si>
+  <si>
+    <t>BAVARIA</t>
+  </si>
+  <si>
+    <t>67401-9702</t>
+  </si>
+  <si>
+    <t>201 S STRUBLE ST</t>
+  </si>
+  <si>
+    <t>67422-5020</t>
+  </si>
+  <si>
+    <t>2418 SW BUTLER RD</t>
+  </si>
+  <si>
+    <t>127 S MAIN ST</t>
+  </si>
+  <si>
+    <t>301 E MAIN ST</t>
+  </si>
+  <si>
+    <t>66840-9755</t>
+  </si>
+  <si>
+    <t>1407 25TH AVE</t>
+  </si>
+  <si>
+    <t>CANTON</t>
+  </si>
+  <si>
+    <t>2114 W MAIN ST</t>
+  </si>
+  <si>
+    <t>HUTCHINSON</t>
+  </si>
+  <si>
+    <t>67501-8420</t>
+  </si>
+  <si>
+    <t>200 RAILROAD WAY</t>
+  </si>
+  <si>
+    <t>CULVER</t>
+  </si>
+  <si>
+    <t>67484-9134</t>
+  </si>
+  <si>
+    <t>1626 COMANCHE RD</t>
+  </si>
+  <si>
+    <t>67460-7039</t>
+  </si>
+  <si>
+    <t>151 MAIN ST</t>
+  </si>
+  <si>
+    <t>66851-9612</t>
+  </si>
+  <si>
+    <t>1066 COMANCHE RD</t>
+  </si>
+  <si>
+    <t>INMAN</t>
+  </si>
+  <si>
+    <t>67546-8113</t>
+  </si>
+  <si>
+    <t>112 W 2ND ST</t>
+  </si>
+  <si>
+    <t>HAVEN</t>
+  </si>
+  <si>
+    <t>67543-8202</t>
+  </si>
+  <si>
+    <t>416 S 5TH ST</t>
+  </si>
+  <si>
+    <t>111 E CENTER ST</t>
+  </si>
+  <si>
+    <t>67546-4621</t>
+  </si>
+  <si>
+    <t>312 E LINCOLN ST</t>
+  </si>
+  <si>
+    <t>215 E POYNTZ AVE</t>
+  </si>
+  <si>
+    <t>66502-3954</t>
+  </si>
+  <si>
+    <t>3384 EXCEL RD</t>
+  </si>
+  <si>
+    <t>66502-8721</t>
+  </si>
+  <si>
+    <t>503 N WASHINGTON ST</t>
+  </si>
+  <si>
+    <t>401 S HICKORY ST</t>
+  </si>
+  <si>
+    <t>67460-5226</t>
+  </si>
+  <si>
+    <t>500 W MARLIN ST</t>
+  </si>
+  <si>
+    <t>67460-4128</t>
+  </si>
+  <si>
+    <t>321 N MAPLE ST</t>
+  </si>
+  <si>
+    <t>67460-4214</t>
+  </si>
+  <si>
+    <t>307 W COLE ST</t>
+  </si>
+  <si>
+    <t>67107-7533</t>
+  </si>
+  <si>
+    <t>117 N EDWARDS AVE</t>
+  </si>
+  <si>
+    <t>67107-8826</t>
+  </si>
+  <si>
+    <t>1911 N MAIN ST</t>
+  </si>
+  <si>
+    <t>NORTH NEWTON</t>
+  </si>
+  <si>
+    <t>67117-5802</t>
+  </si>
+  <si>
+    <t>401 OAK DR</t>
+  </si>
+  <si>
+    <t>66521-8417</t>
+  </si>
+  <si>
+    <t>113 S MAPLE ST</t>
+  </si>
+  <si>
+    <t>66866-2500</t>
+  </si>
+  <si>
+    <t>1856 STATE ROAD 14</t>
+  </si>
+  <si>
+    <t>STERLING</t>
+  </si>
+  <si>
+    <t>67579-8803</t>
+  </si>
+  <si>
+    <t>821 N BROADWAY BLVD</t>
+  </si>
+  <si>
+    <t>67401-8281</t>
+  </si>
+  <si>
+    <t>106 N CHESTNUT ST</t>
+  </si>
+  <si>
+    <t>67480-9735</t>
+  </si>
+  <si>
+    <t>2967 MAIN ST</t>
+  </si>
+  <si>
+    <t>67482-9700</t>
+  </si>
+  <si>
+    <t>100 MAIN ST</t>
+  </si>
+  <si>
+    <t>203 S HIGHWAY 99</t>
+  </si>
+  <si>
+    <t>WESTMORELAND</t>
+  </si>
+  <si>
+    <t>66549-9553</t>
+  </si>
+  <si>
+    <t>223 S ASH ST</t>
+  </si>
+  <si>
+    <t>3101 N WASHINGTON ST</t>
+  </si>
+  <si>
+    <t>WICHITA</t>
+  </si>
+  <si>
+    <t>67219-4049</t>
+  </si>
+  <si>
+    <t>800 N MAIN ST</t>
+  </si>
+  <si>
+    <t>WINDOM</t>
+  </si>
+  <si>
+    <t>67491-9370</t>
+  </si>
+  <si>
+    <t>USPS/MELISSADATA VALIDATED ADDRESSES</t>
+  </si>
+  <si>
+    <t>CapacityAppl</t>
+  </si>
+  <si>
+    <t>ALTAVIST</t>
+  </si>
+  <si>
+    <t>BENNINGT</t>
+  </si>
+  <si>
+    <t>CASTLETO</t>
+  </si>
+  <si>
+    <t>GROVELAN</t>
+  </si>
+  <si>
+    <t>HUTCH</t>
+  </si>
+  <si>
+    <t>LINDSBOR</t>
+  </si>
+  <si>
+    <t>MANHATTA</t>
+  </si>
+  <si>
+    <t>MARQUETT</t>
+  </si>
+  <si>
+    <t>MCLAIN</t>
+  </si>
+  <si>
+    <t>MOUNDRID</t>
+  </si>
+  <si>
+    <t>PEACECRE</t>
+  </si>
+  <si>
+    <t>PRECISE</t>
+  </si>
+  <si>
+    <t>WHITEWAT</t>
+  </si>
+  <si>
+    <t>AgLocationCode</t>
   </si>
 </sst>
 </file>
@@ -696,13 +1399,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -716,7 +1456,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B48" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B48" totalsRowShown="0">
   <autoFilter ref="A1:B48"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Location"/>
@@ -727,10 +1467,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J46" totalsRowShown="0">
-  <autoFilter ref="A1:J46"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblLocation" displayName="tblLocation" ref="A1:U64" totalsRowShown="0">
+  <autoFilter ref="A1:U64"/>
+  <tableColumns count="21">
     <tableColumn id="1" name="Location"/>
+    <tableColumn id="23" name="Active"/>
     <tableColumn id="2" name="Seasonal"/>
     <tableColumn id="3" name="Address"/>
     <tableColumn id="4" name="Address 2"/>
@@ -740,6 +1481,30 @@
     <tableColumn id="8" name="Phone"/>
     <tableColumn id="9" name="Services"/>
     <tableColumn id="10" name="LocationCode"/>
+    <tableColumn id="11" name="LocGLStr" dataDxfId="10"/>
+    <tableColumn id="15" name="LOCNCODE" dataDxfId="9"/>
+    <tableColumn id="19" name="AgLocationCode" dataDxfId="8"/>
+    <tableColumn id="12" name="Latitude" dataDxfId="7"/>
+    <tableColumn id="13" name="Longitude" dataDxfId="6"/>
+    <tableColumn id="14" name="Region" dataDxfId="5"/>
+    <tableColumn id="18" name="CapacityAppl" dataDxfId="4"/>
+    <tableColumn id="16" name="CapacityFert" dataDxfId="3"/>
+    <tableColumn id="17" name="CapacityFuel" dataDxfId="2"/>
+    <tableColumn id="22" name="CapacityGrain" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B8" totalsRowShown="0">
+  <sortState ref="A2:B8">
+    <sortCondition ref="A2:A8"/>
+    <sortCondition ref="B2:B8"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Category"/>
+    <tableColumn id="2" name="MNACSGMT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1010,18 +1775,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -1029,7 +1792,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1045,7 +1808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1061,7 +1824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1085,7 +1848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1109,12 +1872,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1122,7 +1885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1130,7 +1893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1138,7 +1901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1154,7 +1917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1162,7 +1925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1186,7 +1949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1202,7 +1965,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1210,7 +1973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -1226,7 +1989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1234,7 +1997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1242,22 +2005,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -1265,7 +2028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -1273,7 +2036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -1281,7 +2044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1289,7 +2052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +2060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1305,22 +2068,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -1328,7 +2091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1336,7 +2099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -1344,7 +2107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +2115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -1360,7 +2123,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>203</v>
       </c>
@@ -1368,7 +2131,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -1386,1326 +2149,3780 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
         <v>115</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>77</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>279</v>
+      </c>
+      <c r="R1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S1" t="s">
+        <v>280</v>
+      </c>
+      <c r="T1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
       <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2">
+        <v>67410</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" s="2">
+        <v>38.914143000000003</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-97.202228000000005</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2">
+        <v>600</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>716000</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3">
+        <v>66834</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3">
+        <v>110</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="O3" s="2">
+        <v>38.862507200000003</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-96.494437399999995</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2">
+        <v>813</v>
+      </c>
+      <c r="T3" s="2">
+        <v>30000</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1216000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4">
+        <v>67401</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4">
+        <v>120</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>577000</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>357</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>358</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5">
+        <v>67422</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5">
+        <v>140</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="O5" s="2">
+        <v>39.031503800000003</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-97.592381799999998</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2">
+        <v>1740</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>551000</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6">
         <v>67107</v>
       </c>
-      <c r="H2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6">
+        <v>160</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="O6" s="2">
+        <v>37.789031000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-97.107370000000003</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2">
+        <v>304</v>
+      </c>
+      <c r="T6" s="2">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="U6" s="2">
+        <v>1581000</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF6">
+        <v>67017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>180</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3">
-        <v>67410</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4">
-        <v>66834</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5">
-        <v>67401</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6">
-        <v>67422</v>
-      </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7">
-        <v>67107</v>
-      </c>
-      <c r="H7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>116</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8">
         <v>67522</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>101</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>103</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="O8" s="2">
+        <v>38.135297999999999</v>
+      </c>
+      <c r="P8" s="2">
+        <v>-97.770600299999998</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2">
+        <v>764</v>
+      </c>
+      <c r="T8" s="2">
+        <v>32000</v>
+      </c>
+      <c r="U8" s="2">
+        <v>790000</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF8">
+        <v>67522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>250700</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>104</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9">
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10">
         <v>66840</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I10" t="s">
         <v>105</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J10" t="s">
         <v>106</v>
       </c>
-      <c r="J9">
+      <c r="K10">
         <v>220</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="L10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O10" s="2">
+        <v>38.089356199999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>-96.886448299999998</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2">
+        <v>699</v>
+      </c>
+      <c r="T10" s="2">
+        <v>64000</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1689669</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>364</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D11" t="s">
         <v>108</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10">
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11">
         <v>67428</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I11" t="s">
         <v>109</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="K11">
+        <v>230</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="Z11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF11">
+        <v>67428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>116</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>110</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F12" t="s">
         <v>111</v>
       </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11">
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12">
         <v>67501</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I12" t="s">
         <v>112</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J12" t="s">
         <v>113</v>
       </c>
-      <c r="J11">
+      <c r="K12">
         <v>240</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="L12" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="O12" s="2">
+        <v>37.867400000000004</v>
+      </c>
+      <c r="P12" s="2">
+        <v>-97.968699999999998</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2">
+        <v>677</v>
+      </c>
+      <c r="T12" s="2">
+        <v>25750</v>
+      </c>
+      <c r="U12" s="2">
+        <v>618000</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>36</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2">
+        <v>38.4475148</v>
+      </c>
+      <c r="P13" s="2">
+        <v>-97.666996100000006</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>260</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O14" s="2">
+        <v>38.370841499999997</v>
+      </c>
+      <c r="P14" s="2">
+        <v>-97.664208700000003</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>114</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>117</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D15" t="s">
         <v>118</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F15" t="s">
         <v>114</v>
       </c>
-      <c r="F12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12">
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15">
         <v>67484</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I15" t="s">
         <v>119</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="K15">
+        <v>280</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2">
+        <v>357000</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>371</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>117</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D16" t="s">
         <v>120</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F16" t="s">
         <v>121</v>
       </c>
-      <c r="F13" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13">
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16">
         <v>67460</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I16" t="s">
         <v>122</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J16" t="s">
         <v>85</v>
       </c>
-      <c r="J13">
+      <c r="K16">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="L16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2">
+        <v>38.289623200000001</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-97.618053500000002</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>258000</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>305</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>117</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D18" t="s">
         <v>123</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14">
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18">
         <v>67442</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I18" t="s">
         <v>124</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="K18">
+        <v>320</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
         <v>116</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D19" t="s">
         <v>125</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15">
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19">
         <v>66851</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I19" t="s">
         <v>126</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J19" t="s">
         <v>127</v>
       </c>
-      <c r="J15">
+      <c r="K19">
         <v>340</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="L19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="O19" s="2">
+        <v>38.242364600000002</v>
+      </c>
+      <c r="P19" s="2">
+        <v>-96.926252000000005</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2">
+        <v>250</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>262000</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D20" t="s">
         <v>129</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F20" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16">
+      <c r="G20" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20">
         <v>67443</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I20" t="s">
         <v>128</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J20" t="s">
         <v>102</v>
       </c>
-      <c r="J16">
+      <c r="K20">
         <v>360</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="L20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O20" s="2">
+        <v>38.384791</v>
+      </c>
+      <c r="P20" s="2">
+        <v>-97.538265899999999</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2">
+        <v>299</v>
+      </c>
+      <c r="T20" s="2">
+        <v>30000</v>
+      </c>
+      <c r="U20" s="2">
+        <v>643000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>117</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D21" t="s">
         <v>130</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="F17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17">
+      <c r="G21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21">
         <v>67053</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I21" t="s">
         <v>131</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J21" t="s">
         <v>132</v>
       </c>
-      <c r="J17">
+      <c r="K21">
         <v>380</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="L21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O21" s="2">
+        <v>38.205322600000002</v>
+      </c>
+      <c r="P21" s="2">
+        <v>-97.515514600000003</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2">
+        <v>630</v>
+      </c>
+      <c r="T21" s="2">
+        <v>46000</v>
+      </c>
+      <c r="U21" s="2">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>116</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D22" t="s">
         <v>133</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F22" t="s">
         <v>134</v>
       </c>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18">
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22">
         <v>67546</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I22" t="s">
         <v>135</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J22" t="s">
         <v>95</v>
       </c>
-      <c r="J18">
+      <c r="K22">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="L22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="O22" s="2">
+        <v>38.289691599999998</v>
+      </c>
+      <c r="P22" s="2">
+        <v>-97.779943399999993</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2">
+        <v>92</v>
+      </c>
+      <c r="T22" s="2">
+        <v>14225</v>
+      </c>
+      <c r="U22" s="2">
+        <v>4460181</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>116</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D23" t="s">
         <v>136</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19">
+      <c r="G23" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23">
         <v>67543</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I23" t="s">
         <v>137</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J23" t="s">
         <v>102</v>
       </c>
-      <c r="J19">
+      <c r="K23">
         <v>420</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="L23" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="P23" s="2">
+        <v>-97.784899899999999</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2">
+        <v>6992</v>
+      </c>
+      <c r="T23" s="2">
+        <v>30500</v>
+      </c>
+      <c r="U23" s="2">
+        <v>1110000</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>381</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>430</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D25" t="s">
         <v>138</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20">
+      <c r="G25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25">
         <v>67449</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I25" t="s">
         <v>139</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J25" t="s">
         <v>140</v>
       </c>
-      <c r="J20">
+      <c r="K25">
         <v>440</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="L25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2">
+        <v>38.666502000000001</v>
+      </c>
+      <c r="P25" s="2">
+        <v>-96.948407000000003</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2">
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF25">
+        <v>67443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>117</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D26" t="s">
         <v>141</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F26" t="s">
         <v>121</v>
       </c>
-      <c r="F21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G21">
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26">
         <v>67460</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I26" t="s">
         <v>142</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="K26">
+        <v>460</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>480</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>500</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>116</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D29" t="s">
         <v>143</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F29" t="s">
         <v>134</v>
       </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22">
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29">
         <v>67546</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I29" t="s">
         <v>144</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J29" t="s">
         <v>145</v>
       </c>
-      <c r="J22">
+      <c r="K29">
         <v>520</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="L29" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2">
+        <v>38.232165999999999</v>
+      </c>
+      <c r="P29" s="2">
+        <v>-97.774975999999995</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2">
+        <v>1564</v>
+      </c>
+      <c r="T29" s="2">
+        <v>20700</v>
+      </c>
+      <c r="U29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D30" t="s">
         <v>146</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F30" t="s">
         <v>20</v>
       </c>
-      <c r="F23" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23">
+      <c r="G30" t="s">
+        <v>83</v>
+      </c>
+      <c r="H30">
         <v>67456</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I30" t="s">
         <v>147</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J30" t="s">
         <v>102</v>
       </c>
-      <c r="J23">
+      <c r="K30">
         <v>540</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="L30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="O30" s="2">
+        <v>38.574119000000003</v>
+      </c>
+      <c r="P30" s="2">
+        <v>-97.671643000000003</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2">
+        <v>1071</v>
+      </c>
+      <c r="T30" s="2">
+        <v>20400</v>
+      </c>
+      <c r="U30" s="2">
+        <v>1467000</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>260</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF30">
+        <v>67456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
         <v>116</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D31" t="s">
         <v>148</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F31" t="s">
         <v>21</v>
       </c>
-      <c r="F24" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24">
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31">
         <v>67458</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I31" t="s">
         <v>149</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J31" t="s">
         <v>95</v>
       </c>
-      <c r="J24">
+      <c r="K31">
         <v>560</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="L31" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O31" s="2">
+        <v>39.169995700000001</v>
+      </c>
+      <c r="P31" s="2">
+        <v>-97.331413400000002</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2">
+        <v>730</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>570</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>40</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D34" t="s">
         <v>150</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="F25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G25">
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34">
         <v>66502</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I34" t="s">
         <v>154</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="K34">
+        <v>576</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="2">
+        <v>39.1816095</v>
+      </c>
+      <c r="P34" s="2">
+        <v>-96.557330500000006</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>48000</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>152</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>116</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D35" t="s">
         <v>153</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F35" t="s">
         <v>23</v>
       </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26">
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35">
         <v>66502</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I35" t="s">
         <v>151</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J35" t="s">
         <v>102</v>
       </c>
-      <c r="J26">
+      <c r="K35">
         <v>575</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="L35" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="O35" s="2">
+        <v>39.192815099999997</v>
+      </c>
+      <c r="P35" s="2">
+        <v>-96.505954700000004</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2">
+        <v>1492</v>
+      </c>
+      <c r="T35" s="2">
+        <v>153000</v>
+      </c>
+      <c r="U35" s="2">
+        <v>1266000</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
         <v>116</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D36" t="s">
         <v>155</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F36" t="s">
         <v>24</v>
       </c>
-      <c r="F27" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27">
+      <c r="G36" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36">
         <v>67464</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I36" t="s">
         <v>156</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J36" t="s">
         <v>102</v>
       </c>
-      <c r="J27">
+      <c r="K36">
         <v>580</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="L36" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="O36" s="2">
+        <v>38.557795300000002</v>
+      </c>
+      <c r="P36" s="2">
+        <v>-97.834316099999995</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2">
+        <v>575</v>
+      </c>
+      <c r="T36" s="2">
+        <v>36000</v>
+      </c>
+      <c r="U36" s="2">
+        <v>1615000</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF36">
+        <v>67464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>600</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O37" s="2">
+        <v>38.086703200000002</v>
+      </c>
+      <c r="P37" s="2">
+        <v>-97.263819699999999</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38">
+        <v>67460</v>
+      </c>
+      <c r="I38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38">
+        <v>30</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="2">
+        <v>38.4475148</v>
+      </c>
+      <c r="P38" s="2">
+        <v>-97.666996100000006</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>157</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>116</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D39" t="s">
         <v>158</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F39" t="s">
         <v>121</v>
       </c>
-      <c r="F28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28">
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39">
         <v>67460</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I39" t="s">
         <v>159</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J39" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="Z39" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>160</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>116</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D40" t="s">
         <v>161</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F40" t="s">
         <v>121</v>
       </c>
-      <c r="F29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29">
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40">
         <v>67460</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I40" t="s">
         <v>162</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J40" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="Z40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>32</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
         <v>116</v>
       </c>
-      <c r="C30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" t="s">
         <v>121</v>
       </c>
-      <c r="F30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30">
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42">
         <v>67460</v>
       </c>
-      <c r="H30" t="s">
-        <v>164</v>
-      </c>
-      <c r="I30" t="s">
-        <v>165</v>
-      </c>
-      <c r="J30">
+      <c r="I42" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>620</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="2">
+        <v>38.372224000000003</v>
+      </c>
+      <c r="P42" s="2">
+        <v>-97.668978899999999</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2">
+        <v>18000</v>
+      </c>
+      <c r="U42" s="2">
+        <v>1825000</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>397</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43">
+        <v>67107</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43" t="s">
+        <v>102</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="Z43" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44">
+        <v>67107</v>
+      </c>
+      <c r="I44" t="s">
+        <v>171</v>
+      </c>
+      <c r="J44" t="s">
+        <v>102</v>
+      </c>
+      <c r="K44">
+        <v>640</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="O44" s="2">
+        <v>38.202722299999998</v>
+      </c>
+      <c r="P44" s="2">
+        <v>-97.522767200000004</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2">
+        <v>1098</v>
+      </c>
+      <c r="T44" s="2">
+        <v>36300</v>
+      </c>
+      <c r="U44" s="2">
+        <v>1478000</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45">
+        <v>67107</v>
+      </c>
+      <c r="I45" t="s">
+        <v>172</v>
+      </c>
+      <c r="J45" t="s">
+        <v>173</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="Z45" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>401</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>288</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>680</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47">
+        <v>67117</v>
+      </c>
+      <c r="I47" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" t="s">
+        <v>85</v>
+      </c>
+      <c r="K47">
+        <v>660</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>436000</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>404</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>682</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>9500</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49">
+        <v>66521</v>
+      </c>
+      <c r="I49" t="s">
+        <v>178</v>
+      </c>
+      <c r="J49" t="s">
+        <v>102</v>
+      </c>
+      <c r="K49">
+        <v>685</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O49" s="2">
+        <v>39.480414099999997</v>
+      </c>
+      <c r="P49" s="2">
+        <v>-96.177394699999994</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2">
+        <v>763</v>
+      </c>
+      <c r="T49" s="2">
+        <v>40100</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1413000</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>406</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50">
+        <v>66866</v>
+      </c>
+      <c r="I50" t="s">
+        <v>180</v>
+      </c>
+      <c r="J50" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50">
+        <v>700</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O50" s="2">
+        <v>38.164371600000003</v>
+      </c>
+      <c r="P50" s="2">
+        <v>-97.103965099999996</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2">
+        <v>673</v>
+      </c>
+      <c r="T50" s="2">
+        <v>22000</v>
+      </c>
+      <c r="U50" s="2">
+        <v>801000</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>327</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>720</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>322</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>740</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54" t="s">
+        <v>83</v>
+      </c>
+      <c r="H54">
+        <v>67579</v>
+      </c>
+      <c r="I54" t="s">
+        <v>184</v>
+      </c>
+      <c r="J54" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54">
+        <v>60</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>2178000</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>410</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55" t="s">
+        <v>83</v>
+      </c>
+      <c r="H55">
+        <v>67476</v>
+      </c>
+      <c r="I55" t="s">
+        <v>188</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+      <c r="K55">
+        <v>760</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2">
+        <v>52</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>279000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" t="s">
+        <v>189</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56">
+        <v>67401</v>
+      </c>
+      <c r="J56" t="s">
+        <v>140</v>
+      </c>
+      <c r="K56">
+        <v>780</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="2">
+        <v>38.855463999999998</v>
+      </c>
+      <c r="P56" s="2">
+        <v>-97.614002999999997</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>24000</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>413</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
         <v>116</v>
       </c>
-      <c r="C31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31">
-        <v>67460</v>
-      </c>
-      <c r="H31" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
+      <c r="F57" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H57">
+        <v>67480</v>
+      </c>
+      <c r="I57" t="s">
+        <v>192</v>
+      </c>
+      <c r="J57" t="s">
+        <v>113</v>
+      </c>
+      <c r="K57">
+        <v>800</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O57" s="2">
+        <v>38.917464000000002</v>
+      </c>
+      <c r="P57" s="2">
+        <v>-97.374758999999997</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2">
+        <v>950</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>608000</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58">
+        <v>67482</v>
+      </c>
+      <c r="I58" t="s">
+        <v>194</v>
+      </c>
+      <c r="J58" t="s">
+        <v>102</v>
+      </c>
+      <c r="K58">
+        <v>820</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O58" s="2">
+        <v>39.026199400000003</v>
+      </c>
+      <c r="P58" s="2">
+        <v>-97.259965699999995</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2">
+        <v>1210</v>
+      </c>
+      <c r="T58" s="2">
+        <v>22500</v>
+      </c>
+      <c r="U58" s="2">
+        <v>1267820</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>317</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>18</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60">
+        <v>67151</v>
+      </c>
+      <c r="I60" t="s">
+        <v>196</v>
+      </c>
+      <c r="J60" t="s">
+        <v>102</v>
+      </c>
+      <c r="K60">
+        <v>840</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O60" s="2">
+        <v>38.218391099999998</v>
+      </c>
+      <c r="P60" s="2">
+        <v>-97.229442399999996</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2">
+        <v>1735</v>
+      </c>
+      <c r="T60" s="2">
+        <v>42000</v>
+      </c>
+      <c r="U60" s="2">
+        <v>3262000</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF60">
+        <v>67151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61">
+        <v>66549</v>
+      </c>
+      <c r="I61" t="s">
+        <v>198</v>
+      </c>
+      <c r="J61" t="s">
+        <v>199</v>
+      </c>
+      <c r="K61">
+        <v>845</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="2">
+        <v>39.3915431</v>
+      </c>
+      <c r="P61" s="2">
+        <v>-96.410154700000007</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2">
+        <v>21</v>
+      </c>
+      <c r="T61" s="2">
+        <v>44000</v>
+      </c>
+      <c r="U61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>34</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62">
+        <v>67154</v>
+      </c>
+      <c r="I62" t="s">
+        <v>202</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+      <c r="K62">
+        <v>860</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O62" s="2">
+        <v>37.962503599999998</v>
+      </c>
+      <c r="P62" s="2">
+        <v>-97.150157199999995</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2">
+        <v>1530</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0</v>
+      </c>
+      <c r="U62" s="2">
+        <v>1113000</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF62">
+        <v>67154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" t="s">
+        <v>204</v>
+      </c>
+      <c r="F63" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63">
+        <v>67201</v>
+      </c>
+      <c r="I63" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" t="s">
         <v>85</v>
       </c>
-      <c r="J31">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32">
-        <v>67107</v>
-      </c>
-      <c r="H32" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33">
-        <v>67107</v>
-      </c>
-      <c r="H33" t="s">
-        <v>171</v>
-      </c>
-      <c r="I33" t="s">
-        <v>102</v>
-      </c>
-      <c r="J33">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="K63">
+        <v>880</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>1985000</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB63" t="s">
+        <v>424</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
         <v>117</v>
       </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-      <c r="E34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G34">
-        <v>67117</v>
-      </c>
-      <c r="H34" t="s">
-        <v>176</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="D64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64">
+        <v>67491</v>
+      </c>
+      <c r="I64" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" t="s">
-        <v>177</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
-      </c>
-      <c r="G35">
-        <v>66521</v>
-      </c>
-      <c r="H35" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>179</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36">
-        <v>66866</v>
-      </c>
-      <c r="H36" t="s">
-        <v>180</v>
-      </c>
-      <c r="I36" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" t="s">
-        <v>183</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G37">
-        <v>67579</v>
-      </c>
-      <c r="H37" t="s">
-        <v>184</v>
-      </c>
-      <c r="I37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G38">
-        <v>67476</v>
-      </c>
-      <c r="H38" t="s">
-        <v>188</v>
-      </c>
-      <c r="I38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>189</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" t="s">
-        <v>83</v>
-      </c>
-      <c r="G39">
-        <v>67401</v>
-      </c>
-      <c r="I39" t="s">
-        <v>140</v>
-      </c>
-      <c r="J39">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E40" t="s">
-        <v>30</v>
-      </c>
-      <c r="F40" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40">
-        <v>67480</v>
-      </c>
-      <c r="H40" t="s">
-        <v>192</v>
-      </c>
-      <c r="I40" t="s">
-        <v>113</v>
-      </c>
-      <c r="J40">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
-        <v>193</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41">
-        <v>67482</v>
-      </c>
-      <c r="H41" t="s">
-        <v>194</v>
-      </c>
-      <c r="I41" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>195</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42">
-        <v>67151</v>
-      </c>
-      <c r="H42" t="s">
-        <v>196</v>
-      </c>
-      <c r="I42" t="s">
-        <v>102</v>
-      </c>
-      <c r="J42">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" t="s">
-        <v>197</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-      <c r="F43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G43">
-        <v>66549</v>
-      </c>
-      <c r="H43" t="s">
-        <v>198</v>
-      </c>
-      <c r="I43" t="s">
-        <v>199</v>
-      </c>
-      <c r="J43">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" t="s">
-        <v>201</v>
-      </c>
-      <c r="E44" t="s">
-        <v>200</v>
-      </c>
-      <c r="F44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44">
-        <v>67154</v>
-      </c>
-      <c r="H44" t="s">
-        <v>202</v>
-      </c>
-      <c r="I44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" t="s">
-        <v>204</v>
-      </c>
-      <c r="E45" t="s">
-        <v>205</v>
-      </c>
-      <c r="F45" t="s">
-        <v>83</v>
-      </c>
-      <c r="G45">
-        <v>67201</v>
-      </c>
-      <c r="H45" t="s">
-        <v>206</v>
-      </c>
-      <c r="I45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="K64">
+        <v>900</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>469000</v>
+      </c>
+      <c r="Z64" t="s">
         <v>35</v>
       </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46">
-        <v>67491</v>
-      </c>
-      <c r="H46" t="s">
-        <v>208</v>
-      </c>
-      <c r="I46" t="s">
-        <v>85</v>
-      </c>
+      <c r="AA64" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup scale="44" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
     <sheet name="BranchData" sheetId="2" r:id="rId2"/>
-    <sheet name="GLCategories" sheetId="3" r:id="rId3"/>
+    <sheet name="TMALocations" sheetId="4" r:id="rId3"/>
+    <sheet name="GLCategories" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="663">
   <si>
     <t>Abilene</t>
   </si>
@@ -1364,6 +1365,657 @@
   </si>
   <si>
     <t>AgLocationCode</t>
+  </si>
+  <si>
+    <t>816 N. Halstead St.</t>
+  </si>
+  <si>
+    <t>Hutchinson-HCE</t>
+  </si>
+  <si>
+    <t>(620) 257-2300</t>
+  </si>
+  <si>
+    <t>1630 Ave Q</t>
+  </si>
+  <si>
+    <t>Kansas Ethanol</t>
+  </si>
+  <si>
+    <t>KANSAS ETHANOL</t>
+  </si>
+  <si>
+    <t>CANTON TERM BUNKER</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
+  </si>
+  <si>
+    <t>CANTON TERMINAL</t>
+  </si>
+  <si>
+    <t>(620) 278-2147</t>
+  </si>
+  <si>
+    <t>(620) 278-2141</t>
+  </si>
+  <si>
+    <t>309 S Broadway</t>
+  </si>
+  <si>
+    <t>(620) 257-2614</t>
+  </si>
+  <si>
+    <t>2015 Ave R</t>
+  </si>
+  <si>
+    <t>Saxman</t>
+  </si>
+  <si>
+    <t>SAXMAN</t>
+  </si>
+  <si>
+    <t>(620) 257-2640</t>
+  </si>
+  <si>
+    <t>1550 Ave F</t>
+  </si>
+  <si>
+    <t>Pollard</t>
+  </si>
+  <si>
+    <t>POLLARD</t>
+  </si>
+  <si>
+    <t>(620) 257-3602</t>
+  </si>
+  <si>
+    <t>(620) 257-2181</t>
+  </si>
+  <si>
+    <t>321 N Grand</t>
+  </si>
+  <si>
+    <t>Lyons-CPC</t>
+  </si>
+  <si>
+    <t>LYONS - CPC</t>
+  </si>
+  <si>
+    <t>(785) 472-3130</t>
+  </si>
+  <si>
+    <t>(785) 472-5271</t>
+  </si>
+  <si>
+    <t>101 S Main</t>
+  </si>
+  <si>
+    <t>Lorraine</t>
+  </si>
+  <si>
+    <t>LORRAINE</t>
+  </si>
+  <si>
+    <t>(620) 824-6377</t>
+  </si>
+  <si>
+    <t>(620) 824-6323</t>
+  </si>
+  <si>
+    <t>803 Main Street</t>
+  </si>
+  <si>
+    <t>Geneseo</t>
+  </si>
+  <si>
+    <t>GENESEO</t>
+  </si>
+  <si>
+    <t>(620) 257-2636</t>
+  </si>
+  <si>
+    <t>405 N State ST</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>FREDERICK</t>
+  </si>
+  <si>
+    <t>(620) 587-3575</t>
+  </si>
+  <si>
+    <t>(620) 587-3346</t>
+  </si>
+  <si>
+    <t>1097 NE 130 AVE</t>
+  </si>
+  <si>
+    <t>Claflin</t>
+  </si>
+  <si>
+    <t>CLAFLIN</t>
+  </si>
+  <si>
+    <t>(620) 938-2970</t>
+  </si>
+  <si>
+    <t>(620) 938-2979</t>
+  </si>
+  <si>
+    <t>602 Main ST</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>CHASE</t>
+  </si>
+  <si>
+    <t>(620) 562-3613</t>
+  </si>
+  <si>
+    <t>(620) 562-3611</t>
+  </si>
+  <si>
+    <t>105 N 3RD</t>
+  </si>
+  <si>
+    <t>Bushton</t>
+  </si>
+  <si>
+    <t>BUSHTON</t>
+  </si>
+  <si>
+    <t>(620) 534-2145</t>
+  </si>
+  <si>
+    <t>100 S Pioneer</t>
+  </si>
+  <si>
+    <t>Alden</t>
+  </si>
+  <si>
+    <t>ALDEN</t>
+  </si>
+  <si>
+    <t>(620) 422-3435</t>
+  </si>
+  <si>
+    <t>(620) 567-2345</t>
+  </si>
+  <si>
+    <t>20 N. Main Street</t>
+  </si>
+  <si>
+    <t>Partridge</t>
+  </si>
+  <si>
+    <t>PARTRIDGE</t>
+  </si>
+  <si>
+    <t>(620) 662-0263</t>
+  </si>
+  <si>
+    <t>(620) 662-1550</t>
+  </si>
+  <si>
+    <t>3819 S. Whiteside Rd</t>
+  </si>
+  <si>
+    <t>Whiteside</t>
+  </si>
+  <si>
+    <t>WHITESIDE</t>
+  </si>
+  <si>
+    <t>(620) 665-8404</t>
+  </si>
+  <si>
+    <t>(620) 665-5575</t>
+  </si>
+  <si>
+    <t>1200 W. 4th Street</t>
+  </si>
+  <si>
+    <t>(620) 422-5288</t>
+  </si>
+  <si>
+    <t>(620) 422-3207</t>
+  </si>
+  <si>
+    <t>1 S. Nickerson</t>
+  </si>
+  <si>
+    <t>Nickerson</t>
+  </si>
+  <si>
+    <t>NICKERSON</t>
+  </si>
+  <si>
+    <t>(316) 796-0367</t>
+  </si>
+  <si>
+    <t>15802 W 109th N</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>BENTLEY</t>
+  </si>
+  <si>
+    <t>(620) 463-2760</t>
+  </si>
+  <si>
+    <t>(620) 463-2320</t>
+  </si>
+  <si>
+    <t>20920 SW 84th</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t>PATTERSON</t>
+  </si>
+  <si>
+    <t>(316) 667-2286</t>
+  </si>
+  <si>
+    <t>(316) 667-2441</t>
+  </si>
+  <si>
+    <t>625 S. Ohio</t>
+  </si>
+  <si>
+    <t>Mt. Hope</t>
+  </si>
+  <si>
+    <t>MOUNT HOPE</t>
+  </si>
+  <si>
+    <t>(316) 835-3737</t>
+  </si>
+  <si>
+    <t>(316) 835-2261</t>
+  </si>
+  <si>
+    <t>302 W. First</t>
+  </si>
+  <si>
+    <t>Halstead</t>
+  </si>
+  <si>
+    <t>HALSTEAD EAST</t>
+  </si>
+  <si>
+    <t>HALSTEAD WEST</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>(620) 628-7919</t>
+  </si>
+  <si>
+    <t>(620) 628-4459</t>
+  </si>
+  <si>
+    <t>209 S. Main</t>
+  </si>
+  <si>
+    <t>(620) 382-3981</t>
+  </si>
+  <si>
+    <t>(620) 382-2263</t>
+  </si>
+  <si>
+    <t>403 S. 3rd St.</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>(620) 483-3110</t>
+  </si>
+  <si>
+    <t>(620) 483-3645</t>
+  </si>
+  <si>
+    <t>113 East Main St.</t>
+  </si>
+  <si>
+    <t>Lehigh</t>
+  </si>
+  <si>
+    <t>LEHIGH</t>
+  </si>
+  <si>
+    <t>HILLSBORO BUNKER</t>
+  </si>
+  <si>
+    <t>(620) 947-2498</t>
+  </si>
+  <si>
+    <t>(888) 366-2667</t>
+  </si>
+  <si>
+    <t>(620) 947-2604</t>
+  </si>
+  <si>
+    <t>(620) 947-3917</t>
+  </si>
+  <si>
+    <t>135 North Main St.</t>
+  </si>
+  <si>
+    <t>Hillsboro</t>
+  </si>
+  <si>
+    <t>HILLSBORO</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>ALTA VISTA BUNKER</t>
+  </si>
+  <si>
+    <t>401 Oak Drive</t>
+  </si>
+  <si>
+    <t>417 Washington Street</t>
+  </si>
+  <si>
+    <t>(316) 778-1182</t>
+  </si>
+  <si>
+    <t>103 N. Main St</t>
+  </si>
+  <si>
+    <t>BENTON BUNKER</t>
+  </si>
+  <si>
+    <t>(316) 799-2159</t>
+  </si>
+  <si>
+    <t>223 S. Ash</t>
+  </si>
+  <si>
+    <t>(316) 283-1971</t>
+  </si>
+  <si>
+    <t>1911 Main St</t>
+  </si>
+  <si>
+    <t>NEWTON</t>
+  </si>
+  <si>
+    <t>151 S. Main St</t>
+  </si>
+  <si>
+    <t>BURNS BUNKER</t>
+  </si>
+  <si>
+    <t>(620) 726-5289</t>
+  </si>
+  <si>
+    <t>301 E. Main St</t>
+  </si>
+  <si>
+    <t>(620) 983-2130</t>
+  </si>
+  <si>
+    <t>113 S. Maple</t>
+  </si>
+  <si>
+    <t>WALTON BUNKER</t>
+  </si>
+  <si>
+    <t>(620) 837-4781</t>
+  </si>
+  <si>
+    <t>(877) 837-3030</t>
+  </si>
+  <si>
+    <t>DIRECT - WALTON</t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>BENNINGTON BUNKER</t>
+  </si>
+  <si>
+    <t>NILES</t>
+  </si>
+  <si>
+    <t>(785) 488-3839</t>
+  </si>
+  <si>
+    <t>(785) 263-2933</t>
+  </si>
+  <si>
+    <t>800 E 1st St</t>
+  </si>
+  <si>
+    <t>(785) 655-3318</t>
+  </si>
+  <si>
+    <t>106 S Chestnut St</t>
+  </si>
+  <si>
+    <t>(785) 388-2757</t>
+  </si>
+  <si>
+    <t>203 S. Santa Fe</t>
+  </si>
+  <si>
+    <t>(785) 388-2430</t>
+  </si>
+  <si>
+    <t>(800) 338-0417</t>
+  </si>
+  <si>
+    <t>2967 Main St</t>
+  </si>
+  <si>
+    <t>(785) 546-2213</t>
+  </si>
+  <si>
+    <t>503 N. Washington</t>
+  </si>
+  <si>
+    <t>MARQUETTE BUNKER</t>
+  </si>
+  <si>
+    <t>RICE COUNTY BUNKER</t>
+  </si>
+  <si>
+    <t>1856 State Rd. Highway 14</t>
+  </si>
+  <si>
+    <t>Rice County - MKC</t>
+  </si>
+  <si>
+    <t>RICE COUNTY MKC</t>
+  </si>
+  <si>
+    <t>MCPHERSON TERMINAL</t>
+  </si>
+  <si>
+    <t>HILTON</t>
+  </si>
+  <si>
+    <t>MARLIN</t>
+  </si>
+  <si>
+    <t>HICKORY</t>
+  </si>
+  <si>
+    <t>(785) 823-8405</t>
+  </si>
+  <si>
+    <t>800 North Main Street</t>
+  </si>
+  <si>
+    <t>East Smoky Valley Rd</t>
+  </si>
+  <si>
+    <t>ROXBURY</t>
+  </si>
+  <si>
+    <t>227 N. Main St</t>
+  </si>
+  <si>
+    <t>FALUN</t>
+  </si>
+  <si>
+    <t>(620) 345-8797</t>
+  </si>
+  <si>
+    <t>(620) 345-8323</t>
+  </si>
+  <si>
+    <t>1626 Comanche Rd.</t>
+  </si>
+  <si>
+    <t>(620) 834-2215</t>
+  </si>
+  <si>
+    <t>1354 Main Street</t>
+  </si>
+  <si>
+    <t>(620) 459-6608</t>
+  </si>
+  <si>
+    <t>2114 W. Main St</t>
+  </si>
+  <si>
+    <t>(785) 667-3391</t>
+  </si>
+  <si>
+    <t>229 N. Main St</t>
+  </si>
+  <si>
+    <t>BRIDGEPORT</t>
+  </si>
+  <si>
+    <t>(620) 654-3327</t>
+  </si>
+  <si>
+    <t>101 N. Main St</t>
+  </si>
+  <si>
+    <t>700 E Centennial</t>
+  </si>
+  <si>
+    <t>(620) 465-3688</t>
+  </si>
+  <si>
+    <t>(800) 551-2667</t>
+  </si>
+  <si>
+    <t>(620) 465-2591</t>
+  </si>
+  <si>
+    <t>112 W. 2nd</t>
+  </si>
+  <si>
+    <t>(785) 227-4457</t>
+  </si>
+  <si>
+    <t>(800) 240-1754</t>
+  </si>
+  <si>
+    <t>(785) 227-3361</t>
+  </si>
+  <si>
+    <t>320 E. Grant St.</t>
+  </si>
+  <si>
+    <t>500 W. Marlin</t>
+  </si>
+  <si>
+    <t>GROVELAND BUNKER</t>
+  </si>
+  <si>
+    <t>(620) 585-2428</t>
+  </si>
+  <si>
+    <t>(888) 993-2667</t>
+  </si>
+  <si>
+    <t>1066 Pennsylvania Ave</t>
+  </si>
+  <si>
+    <t>(620) 543-2223</t>
+  </si>
+  <si>
+    <t>127 S. Main St</t>
+  </si>
+  <si>
+    <t>MOUNDRIDGE STATION</t>
+  </si>
+  <si>
+    <t>(620) 345-6330</t>
+  </si>
+  <si>
+    <t>(800) 864-4428</t>
+  </si>
+  <si>
+    <t>307 W. Cole</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Phone3</t>
+  </si>
+  <si>
+    <t>Phone2</t>
+  </si>
+  <si>
+    <t>Phone1</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>BRANCH_NAME</t>
+  </si>
+  <si>
+    <t>BRANCH_NUMBER</t>
+  </si>
+  <si>
+    <t>zNoRegion</t>
+  </si>
+  <si>
+    <t>PATTERSON BUNKER</t>
+  </si>
+  <si>
+    <t>NICKERSON COOP</t>
+  </si>
+  <si>
+    <t>HUTCH COMMERICAL ELV</t>
   </si>
 </sst>
 </file>
@@ -1399,18 +2051,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1481,22 +2145,44 @@
     <tableColumn id="8" name="Phone"/>
     <tableColumn id="9" name="Services"/>
     <tableColumn id="10" name="LocationCode"/>
-    <tableColumn id="11" name="LocGLStr" dataDxfId="10"/>
-    <tableColumn id="15" name="LOCNCODE" dataDxfId="9"/>
-    <tableColumn id="19" name="AgLocationCode" dataDxfId="8"/>
-    <tableColumn id="12" name="Latitude" dataDxfId="7"/>
-    <tableColumn id="13" name="Longitude" dataDxfId="6"/>
-    <tableColumn id="14" name="Region" dataDxfId="5"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="4"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="3"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="2"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="1"/>
+    <tableColumn id="11" name="LocGLStr" dataDxfId="13"/>
+    <tableColumn id="15" name="LOCNCODE" dataDxfId="12"/>
+    <tableColumn id="19" name="AgLocationCode" dataDxfId="11"/>
+    <tableColumn id="12" name="Latitude" dataDxfId="10"/>
+    <tableColumn id="13" name="Longitude" dataDxfId="9"/>
+    <tableColumn id="14" name="Region" dataDxfId="8"/>
+    <tableColumn id="18" name="CapacityAppl" dataDxfId="7"/>
+    <tableColumn id="16" name="CapacityFert" dataDxfId="6"/>
+    <tableColumn id="17" name="CapacityFuel" dataDxfId="5"/>
+    <tableColumn id="22" name="CapacityGrain" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M84" totalsRowShown="0">
+  <autoFilter ref="A1:M84"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="BRANCH_NUMBER"/>
+    <tableColumn id="2" name="BRANCH_NAME"/>
+    <tableColumn id="3" name="TYPE"/>
+    <tableColumn id="4" name="REGION"/>
+    <tableColumn id="5" name="CAPACITY"/>
+    <tableColumn id="6" name="DisplayName" dataDxfId="3"/>
+    <tableColumn id="7" name="Address" dataDxfId="2"/>
+    <tableColumn id="8" name="Phone1" dataDxfId="1"/>
+    <tableColumn id="9" name="Phone2"/>
+    <tableColumn id="10" name="Phone3"/>
+    <tableColumn id="11" name="Fax"/>
+    <tableColumn id="12" name="Latitude"/>
+    <tableColumn id="13" name="Longitude"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B8" totalsRowShown="0">
   <sortState ref="A2:B8">
     <sortCondition ref="A2:A8"/>
@@ -2154,7 +2840,9 @@
   </sheetPr>
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5846,6 +6534,1901 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M84"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J1" t="s">
+        <v>650</v>
+      </c>
+      <c r="K1" t="s">
+        <v>649</v>
+      </c>
+      <c r="L1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2">
+        <v>1478000</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4">
+        <v>790000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E5">
+        <v>3460000</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>659</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E8">
+        <v>1467000</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9">
+        <v>1109000</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10">
+        <v>205000</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11">
+        <v>643000</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E12">
+        <v>288000</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13">
+        <v>499000</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" t="s">
+        <v>659</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>616</v>
+      </c>
+      <c r="D16" t="s">
+        <v>587</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D17" t="s">
+        <v>587</v>
+      </c>
+      <c r="E17">
+        <v>279000</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" t="s">
+        <v>587</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" t="s">
+        <v>587</v>
+      </c>
+      <c r="E19">
+        <v>577000</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" t="s">
+        <v>587</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>608</v>
+      </c>
+      <c r="D22" t="s">
+        <v>587</v>
+      </c>
+      <c r="E22">
+        <v>391000</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>607</v>
+      </c>
+      <c r="D23" t="s">
+        <v>587</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E24">
+        <v>2099000</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" t="s">
+        <v>587</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>602</v>
+      </c>
+      <c r="D26" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>191</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" t="s">
+        <v>587</v>
+      </c>
+      <c r="E27">
+        <v>1615000</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E28">
+        <v>1266000</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E29">
+        <v>260000</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" t="s">
+        <v>587</v>
+      </c>
+      <c r="E30">
+        <v>758000</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>195</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" t="s">
+        <v>587</v>
+      </c>
+      <c r="E31">
+        <v>716000</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" t="s">
+        <v>587</v>
+      </c>
+      <c r="E32">
+        <v>521000</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>589</v>
+      </c>
+      <c r="D33" t="s">
+        <v>659</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" t="s">
+        <v>587</v>
+      </c>
+      <c r="E34">
+        <v>357000</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>199</v>
+      </c>
+      <c r="B35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D35" t="s">
+        <v>587</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>586</v>
+      </c>
+      <c r="D36" t="s">
+        <v>659</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D37" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37">
+        <v>1985000</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38">
+        <v>1318000</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D39" t="s">
+        <v>453</v>
+      </c>
+      <c r="E39">
+        <v>1944000</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" t="s">
+        <v>453</v>
+      </c>
+      <c r="E40">
+        <v>801000</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>242</v>
+      </c>
+      <c r="B41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" t="s">
+        <v>453</v>
+      </c>
+      <c r="E41">
+        <v>1262000</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>245</v>
+      </c>
+      <c r="B42" t="s">
+        <v>578</v>
+      </c>
+      <c r="D42" t="s">
+        <v>453</v>
+      </c>
+      <c r="E42">
+        <v>427000</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>252</v>
+      </c>
+      <c r="B43" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43" t="s">
+        <v>453</v>
+      </c>
+      <c r="E43">
+        <v>262000</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>262</v>
+      </c>
+      <c r="B44" t="s">
+        <v>576</v>
+      </c>
+      <c r="D44" t="s">
+        <v>453</v>
+      </c>
+      <c r="E44">
+        <v>436000</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>272</v>
+      </c>
+      <c r="B45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>453</v>
+      </c>
+      <c r="E45">
+        <v>1113000</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>282</v>
+      </c>
+      <c r="B46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" t="s">
+        <v>659</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>291</v>
+      </c>
+      <c r="B47" t="s">
+        <v>571</v>
+      </c>
+      <c r="D47" t="s">
+        <v>453</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" t="s">
+        <v>453</v>
+      </c>
+      <c r="E48">
+        <v>1114000</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>293</v>
+      </c>
+      <c r="B49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" t="s">
+        <v>565</v>
+      </c>
+      <c r="E49">
+        <v>1266000</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>294</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" t="s">
+        <v>565</v>
+      </c>
+      <c r="E50">
+        <v>747000</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>295</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" t="s">
+        <v>565</v>
+      </c>
+      <c r="E51">
+        <v>1106000</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>296</v>
+      </c>
+      <c r="B52" t="s">
+        <v>566</v>
+      </c>
+      <c r="D52" t="s">
+        <v>565</v>
+      </c>
+      <c r="E52">
+        <v>469000</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>311</v>
+      </c>
+      <c r="B53" t="s">
+        <v>564</v>
+      </c>
+      <c r="D53" t="s">
+        <v>659</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>315</v>
+      </c>
+      <c r="B54" t="s">
+        <v>557</v>
+      </c>
+      <c r="D54" t="s">
+        <v>659</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>331</v>
+      </c>
+      <c r="B55" t="s">
+        <v>556</v>
+      </c>
+      <c r="D55" t="s">
+        <v>659</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>341</v>
+      </c>
+      <c r="B56" t="s">
+        <v>551</v>
+      </c>
+      <c r="D56" t="s">
+        <v>659</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>351</v>
+      </c>
+      <c r="B57" t="s">
+        <v>367</v>
+      </c>
+      <c r="D57" t="s">
+        <v>659</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>361</v>
+      </c>
+      <c r="B58" t="s">
+        <v>543</v>
+      </c>
+      <c r="D58" t="s">
+        <v>659</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>432</v>
+      </c>
+      <c r="B59" t="s">
+        <v>541</v>
+      </c>
+      <c r="D59" t="s">
+        <v>659</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>433</v>
+      </c>
+      <c r="B60" t="s">
+        <v>540</v>
+      </c>
+      <c r="D60" t="s">
+        <v>659</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>442</v>
+      </c>
+      <c r="B61" t="s">
+        <v>535</v>
+      </c>
+      <c r="D61" t="s">
+        <v>659</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>443</v>
+      </c>
+      <c r="B62" t="s">
+        <v>530</v>
+      </c>
+      <c r="D62" t="s">
+        <v>659</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>445</v>
+      </c>
+      <c r="B63" t="s">
+        <v>660</v>
+      </c>
+      <c r="D63" t="s">
+        <v>659</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>447</v>
+      </c>
+      <c r="B64" t="s">
+        <v>525</v>
+      </c>
+      <c r="D64" t="s">
+        <v>659</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>510</v>
+      </c>
+      <c r="B65" t="s">
+        <v>521</v>
+      </c>
+      <c r="D65" t="s">
+        <v>659</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>520</v>
+      </c>
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" t="s">
+        <v>659</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>530</v>
+      </c>
+      <c r="B67" t="s">
+        <v>513</v>
+      </c>
+      <c r="D67" t="s">
+        <v>659</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>540</v>
+      </c>
+      <c r="B68" t="s">
+        <v>508</v>
+      </c>
+      <c r="D68" t="s">
+        <v>659</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>541</v>
+      </c>
+      <c r="B69" t="s">
+        <v>503</v>
+      </c>
+      <c r="D69" t="s">
+        <v>659</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>542</v>
+      </c>
+      <c r="B70" t="s">
+        <v>499</v>
+      </c>
+      <c r="D70" t="s">
+        <v>659</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>543</v>
+      </c>
+      <c r="B71" t="s">
+        <v>494</v>
+      </c>
+      <c r="D71" t="s">
+        <v>659</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>544</v>
+      </c>
+      <c r="B72" t="s">
+        <v>489</v>
+      </c>
+      <c r="D72" t="s">
+        <v>659</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>545</v>
+      </c>
+      <c r="B73" t="s">
+        <v>484</v>
+      </c>
+      <c r="D73" t="s">
+        <v>659</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>546</v>
+      </c>
+      <c r="B74" t="s">
+        <v>480</v>
+      </c>
+      <c r="D74" t="s">
+        <v>659</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>547</v>
+      </c>
+      <c r="B75" t="s">
+        <v>475</v>
+      </c>
+      <c r="D75" t="s">
+        <v>659</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>548</v>
+      </c>
+      <c r="B76" t="s">
+        <v>470</v>
+      </c>
+      <c r="D76" t="s">
+        <v>659</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>549</v>
+      </c>
+      <c r="B77" t="s">
+        <v>465</v>
+      </c>
+      <c r="D77" t="s">
+        <v>659</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>550</v>
+      </c>
+      <c r="B78" t="s">
+        <v>461</v>
+      </c>
+      <c r="D78" t="s">
+        <v>659</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>551</v>
+      </c>
+      <c r="B79" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" t="s">
+        <v>659</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>560</v>
+      </c>
+      <c r="B80" t="s">
+        <v>454</v>
+      </c>
+      <c r="D80" t="s">
+        <v>453</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>561</v>
+      </c>
+      <c r="B81" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" t="s">
+        <v>659</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>570</v>
+      </c>
+      <c r="B82" t="s">
+        <v>451</v>
+      </c>
+      <c r="D82" t="s">
+        <v>659</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>571</v>
+      </c>
+      <c r="B83" t="s">
+        <v>662</v>
+      </c>
+      <c r="D83" t="s">
+        <v>659</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>940</v>
+      </c>
+      <c r="B84" t="s">
+        <v>661</v>
+      </c>
+      <c r="D84" t="s">
+        <v>659</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -2006,9 +2006,6 @@
     <t>BRANCH_NUMBER</t>
   </si>
   <si>
-    <t>zNoRegion</t>
-  </si>
-  <si>
     <t>PATTERSON BUNKER</t>
   </si>
   <si>
@@ -2016,6 +2013,9 @@
   </si>
   <si>
     <t>HUTCH COMMERICAL ELV</t>
+  </si>
+  <si>
+    <t>FarCoop</t>
   </si>
 </sst>
 </file>
@@ -2840,9 +2840,7 @@
   </sheetPr>
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2853,7 +2851,7 @@
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
@@ -6723,7 +6721,7 @@
         <v>273</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>121</v>
@@ -6902,7 +6900,7 @@
         <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>284</v>
@@ -7326,7 +7324,7 @@
         <v>589</v>
       </c>
       <c r="D33" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -7379,7 +7377,7 @@
         <v>586</v>
       </c>
       <c r="D36" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -7612,7 +7610,7 @@
         <v>440</v>
       </c>
       <c r="D46" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -7754,7 +7752,7 @@
         <v>564</v>
       </c>
       <c r="D53" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>563</v>
@@ -7783,7 +7781,7 @@
         <v>557</v>
       </c>
       <c r="D54" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -7800,7 +7798,7 @@
         <v>556</v>
       </c>
       <c r="D55" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>555</v>
@@ -7823,7 +7821,7 @@
         <v>551</v>
       </c>
       <c r="D56" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>550</v>
@@ -7846,7 +7844,7 @@
         <v>367</v>
       </c>
       <c r="D57" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>9</v>
@@ -7869,7 +7867,7 @@
         <v>543</v>
       </c>
       <c r="D58" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>542</v>
@@ -7887,7 +7885,7 @@
         <v>541</v>
       </c>
       <c r="D59" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -7901,7 +7899,7 @@
         <v>540</v>
       </c>
       <c r="D60" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>539</v>
@@ -7924,7 +7922,7 @@
         <v>535</v>
       </c>
       <c r="D61" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F61" s="4" t="s">
         <v>534</v>
@@ -7947,7 +7945,7 @@
         <v>530</v>
       </c>
       <c r="D62" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>529</v>
@@ -7967,10 +7965,10 @@
         <v>445</v>
       </c>
       <c r="B63" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D63" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -7985,7 +7983,7 @@
         <v>525</v>
       </c>
       <c r="D64" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>524</v>
@@ -8005,7 +8003,7 @@
         <v>521</v>
       </c>
       <c r="D65" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F65" s="4" t="s">
         <v>520</v>
@@ -8028,7 +8026,7 @@
         <v>369</v>
       </c>
       <c r="D66" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>111</v>
@@ -8051,7 +8049,7 @@
         <v>513</v>
       </c>
       <c r="D67" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>512</v>
@@ -8074,7 +8072,7 @@
         <v>508</v>
       </c>
       <c r="D68" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>507</v>
@@ -8097,7 +8095,7 @@
         <v>503</v>
       </c>
       <c r="D69" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>502</v>
@@ -8117,7 +8115,7 @@
         <v>499</v>
       </c>
       <c r="D70" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>498</v>
@@ -8140,7 +8138,7 @@
         <v>494</v>
       </c>
       <c r="D71" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>493</v>
@@ -8163,7 +8161,7 @@
         <v>489</v>
       </c>
       <c r="D72" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>488</v>
@@ -8186,7 +8184,7 @@
         <v>484</v>
       </c>
       <c r="D73" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>483</v>
@@ -8206,7 +8204,7 @@
         <v>480</v>
       </c>
       <c r="D74" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>479</v>
@@ -8229,7 +8227,7 @@
         <v>475</v>
       </c>
       <c r="D75" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>474</v>
@@ -8252,7 +8250,7 @@
         <v>470</v>
       </c>
       <c r="D76" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>469</v>
@@ -8275,7 +8273,7 @@
         <v>465</v>
       </c>
       <c r="D77" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>464</v>
@@ -8295,7 +8293,7 @@
         <v>461</v>
       </c>
       <c r="D78" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>460</v>
@@ -8315,7 +8313,7 @@
         <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>183</v>
@@ -8353,7 +8351,7 @@
         <v>452</v>
       </c>
       <c r="D81" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>107</v>
@@ -8373,7 +8371,7 @@
         <v>451</v>
       </c>
       <c r="D82" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>450</v>
@@ -8390,10 +8388,10 @@
         <v>571</v>
       </c>
       <c r="B83" t="s">
+        <v>661</v>
+      </c>
+      <c r="D83" t="s">
         <v>662</v>
-      </c>
-      <c r="D83" t="s">
-        <v>659</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>447</v>
@@ -8408,10 +8406,10 @@
         <v>940</v>
       </c>
       <c r="B84" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D84" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="446">
   <si>
     <t>Abilene</t>
   </si>
@@ -628,9 +628,6 @@
     <t>Service station, 24 hr fuel, Anhydrous, Feed</t>
   </si>
   <si>
-    <t>Whitewatre</t>
-  </si>
-  <si>
     <t>223 S. Ash Street</t>
   </si>
   <si>
@@ -1364,6 +1361,9 @@
   </si>
   <si>
     <t>AgLocationCode</t>
+  </si>
+  <si>
+    <t>O</t>
   </si>
 </sst>
 </file>
@@ -1775,24 +1775,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1872,12 +1872,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2005,22 +2005,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2068,22 +2068,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2123,15 +2123,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2154,38 +2154,40 @@
   </sheetPr>
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5546875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
         <v>115</v>
@@ -2212,43 +2214,43 @@
         <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" t="s">
         <v>243</v>
       </c>
-      <c r="M1" t="s">
-        <v>246</v>
-      </c>
-      <c r="N1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>244</v>
       </c>
-      <c r="P1" t="s">
-        <v>245</v>
-      </c>
       <c r="Q1" t="s">
+        <v>278</v>
+      </c>
+      <c r="R1" t="s">
+        <v>430</v>
+      </c>
+      <c r="S1" t="s">
         <v>279</v>
       </c>
-      <c r="R1" t="s">
-        <v>431</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>280</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>281</v>
       </c>
-      <c r="U1" t="s">
-        <v>282</v>
-      </c>
       <c r="Z1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2280,13 +2282,13 @@
         <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O2" s="2">
         <v>38.914143000000003</v>
@@ -2309,22 +2311,22 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB2" t="s">
         <v>354</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" t="s">
         <v>355</v>
       </c>
-      <c r="AD2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2356,13 +2358,13 @@
         <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="O3" s="2">
         <v>38.862507200000003</v>
@@ -2382,7 +2384,7 @@
         <v>1216000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2414,12 +2416,16 @@
         <v>120</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="2">
+        <v>38.801063300000003</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-97.754355700000005</v>
+      </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2">
@@ -2435,22 +2441,22 @@
         <v>2</v>
       </c>
       <c r="AA4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD4" t="s">
         <v>357</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF4" t="s">
         <v>358</v>
       </c>
-      <c r="AE4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2482,13 +2488,13 @@
         <v>140</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="O5" s="2">
         <v>39.031503800000003</v>
@@ -2511,22 +2517,22 @@
         <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB5" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" t="s">
         <v>360</v>
       </c>
-      <c r="AD5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2558,13 +2564,13 @@
         <v>160</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O6" s="2">
         <v>37.789031000000001</v>
@@ -2587,13 +2593,13 @@
         <v>4</v>
       </c>
       <c r="AA6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AD6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AE6" t="s">
         <v>83</v>
@@ -2602,18 +2608,21 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>445</v>
+      </c>
       <c r="K7">
         <v>180</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2631,7 +2640,7 @@
         <v>288000</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2663,13 +2672,13 @@
         <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O8" s="2">
         <v>38.135297999999999</v>
@@ -2692,13 +2701,13 @@
         <v>6</v>
       </c>
       <c r="AA8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AD8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AE8" t="s">
         <v>83</v>
@@ -2707,9 +2716,9 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2718,10 +2727,10 @@
         <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
@@ -2738,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2770,13 +2779,13 @@
         <v>220</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O10" s="2">
         <v>38.089356199999997</v>
@@ -2799,22 +2808,22 @@
         <v>7</v>
       </c>
       <c r="AA10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB10" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF10" t="s">
         <v>364</v>
       </c>
-      <c r="AD10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2846,12 +2855,16 @@
         <v>230</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="2">
+        <v>38.377895899999999</v>
+      </c>
+      <c r="P11" s="2">
+        <v>-97.466010199999999</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -2861,13 +2874,13 @@
         <v>107</v>
       </c>
       <c r="AA11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB11" t="s">
+        <v>365</v>
+      </c>
+      <c r="AD11" t="s">
         <v>366</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>367</v>
       </c>
       <c r="AE11" t="s">
         <v>83</v>
@@ -2876,7 +2889,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2908,13 +2921,13 @@
         <v>240</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O12" s="2">
         <v>37.867400000000004</v>
@@ -2937,36 +2950,39 @@
         <v>8</v>
       </c>
       <c r="AA12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB12" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD12" t="s">
         <v>368</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF12" t="s">
         <v>369</v>
       </c>
-      <c r="AE12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13">
         <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>445</v>
       </c>
       <c r="K13">
         <v>36</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="2">
@@ -2981,24 +2997,27 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14">
         <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>445</v>
       </c>
       <c r="K14">
         <v>260</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O14" s="2">
         <v>38.370841499999997</v>
@@ -3018,7 +3037,7 @@
         <v>439000</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3050,12 +3069,16 @@
         <v>280</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="2">
+        <v>38.9670597</v>
+      </c>
+      <c r="P15" s="2">
+        <v>-97.762475199999997</v>
+      </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -3067,22 +3090,22 @@
         <v>114</v>
       </c>
       <c r="AA15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB15" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD15" t="s">
         <v>371</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF15" t="s">
         <v>372</v>
       </c>
-      <c r="AE15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3114,10 +3137,10 @@
         <v>300</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="2">
@@ -3141,39 +3164,42 @@
         <v>10</v>
       </c>
       <c r="AA16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB16" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF16" t="s">
         <v>374</v>
       </c>
-      <c r="AD16" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B17">
         <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>445</v>
       </c>
       <c r="K17">
         <v>305</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3183,7 +3209,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3215,12 +3241,16 @@
         <v>320</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="2">
+        <v>38.6719662</v>
+      </c>
+      <c r="P18" s="2">
+        <v>-97.762896600000005</v>
+      </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2">
@@ -3233,7 +3263,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3265,13 +3295,13 @@
         <v>340</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O19" s="2">
         <v>38.242364600000002</v>
@@ -3294,22 +3324,22 @@
         <v>12</v>
       </c>
       <c r="AA19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB19" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF19" t="s">
         <v>376</v>
       </c>
-      <c r="AD19" t="s">
-        <v>255</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3341,13 +3371,13 @@
         <v>360</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O20" s="2">
         <v>38.384791</v>
@@ -3367,7 +3397,7 @@
         <v>643000</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3399,13 +3429,13 @@
         <v>380</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O21" s="2">
         <v>38.205322600000002</v>
@@ -3425,7 +3455,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3457,13 +3487,13 @@
         <v>400</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O22" s="2">
         <v>38.289691599999998</v>
@@ -3486,22 +3516,22 @@
         <v>15</v>
       </c>
       <c r="AA22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB22" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD22" t="s">
         <v>378</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF22" t="s">
         <v>379</v>
       </c>
-      <c r="AE22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3533,13 +3563,13 @@
         <v>420</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O23" s="2">
         <v>37.9</v>
@@ -3562,39 +3592,42 @@
         <v>16</v>
       </c>
       <c r="AA23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB23" t="s">
+        <v>380</v>
+      </c>
+      <c r="AD23" t="s">
         <v>381</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF23" t="s">
         <v>382</v>
       </c>
-      <c r="AE23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B24">
         <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>445</v>
       </c>
       <c r="K24">
         <v>430</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3604,7 +3637,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3636,10 +3669,10 @@
         <v>440</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="2">
@@ -3663,13 +3696,13 @@
         <v>17</v>
       </c>
       <c r="AA25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AD25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AE25" t="s">
         <v>83</v>
@@ -3678,7 +3711,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -3710,36 +3743,43 @@
         <v>460</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="O26" s="2">
+        <v>38.441087199999998</v>
+      </c>
+      <c r="P26" s="2">
+        <v>-97.677783700000006</v>
+      </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27">
         <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>445</v>
       </c>
       <c r="K27">
         <v>480</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -3749,22 +3789,25 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28" t="s">
+        <v>445</v>
+      </c>
       <c r="K28">
         <v>500</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -3774,7 +3817,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3806,10 +3849,10 @@
         <v>520</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="2">
@@ -3833,22 +3876,22 @@
         <v>19</v>
       </c>
       <c r="AA29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB29" t="s">
+        <v>384</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF29" t="s">
         <v>385</v>
       </c>
-      <c r="AD29" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3880,13 +3923,13 @@
         <v>540</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O30" s="2">
         <v>38.574119000000003</v>
@@ -3909,13 +3952,13 @@
         <v>20</v>
       </c>
       <c r="AA30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AD30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AE30" t="s">
         <v>83</v>
@@ -3924,7 +3967,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3956,13 +3999,13 @@
         <v>560</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O31" s="2">
         <v>39.169995700000001</v>
@@ -3982,24 +4025,27 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B32">
         <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>445</v>
       </c>
       <c r="K32">
         <v>570</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4009,21 +4055,24 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B33">
         <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>445</v>
       </c>
       <c r="K33">
         <v>40</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
@@ -4034,7 +4083,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -4066,10 +4115,10 @@
         <v>576</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="2">
@@ -4093,22 +4142,22 @@
         <v>22</v>
       </c>
       <c r="AA34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB34" t="s">
+        <v>387</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF34" t="s">
         <v>388</v>
       </c>
-      <c r="AD34" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -4140,13 +4189,13 @@
         <v>575</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O35" s="2">
         <v>39.192815099999997</v>
@@ -4169,22 +4218,22 @@
         <v>152</v>
       </c>
       <c r="AA35" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB35" t="s">
+        <v>389</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF35" t="s">
         <v>390</v>
       </c>
-      <c r="AD35" t="s">
-        <v>272</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -4216,13 +4265,13 @@
         <v>580</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O36" s="2">
         <v>38.557795300000002</v>
@@ -4245,13 +4294,13 @@
         <v>24</v>
       </c>
       <c r="AA36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AD36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AE36" t="s">
         <v>83</v>
@@ -4260,38 +4309,37 @@
         <v>67464</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B37">
         <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>445</v>
       </c>
       <c r="K37">
         <v>600</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="O37" s="2">
-        <v>38.086703200000002</v>
-      </c>
-      <c r="P37" s="2">
-        <v>-97.263819699999999</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -4323,10 +4371,10 @@
         <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="2">
@@ -4341,7 +4389,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -4383,22 +4431,22 @@
         <v>157</v>
       </c>
       <c r="AA39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB39" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF39" t="s">
         <v>393</v>
       </c>
-      <c r="AD39" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -4440,36 +4488,39 @@
         <v>160</v>
       </c>
       <c r="AA40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB40" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF40" t="s">
         <v>395</v>
       </c>
-      <c r="AD40" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B41">
         <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>445</v>
       </c>
       <c r="K41">
         <v>32</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
@@ -4480,7 +4531,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -4512,10 +4563,10 @@
         <v>620</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="2">
@@ -4539,22 +4590,22 @@
         <v>166</v>
       </c>
       <c r="AA42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB42" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF42" t="s">
         <v>397</v>
       </c>
-      <c r="AD42" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -4589,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -4604,22 +4655,22 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB43" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF43" t="s">
         <v>399</v>
       </c>
-      <c r="AD43" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -4654,13 +4705,13 @@
         <v>640</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="O44" s="2">
         <v>38.202722299999998</v>
@@ -4683,22 +4734,22 @@
         <v>174</v>
       </c>
       <c r="AA44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB44" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF44" t="s">
         <v>399</v>
       </c>
-      <c r="AD44" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -4729,8 +4780,12 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
+      <c r="O45" s="2">
+        <v>38.203610300000001</v>
+      </c>
+      <c r="P45" s="2">
+        <v>-97.524397399999998</v>
+      </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -4740,33 +4795,36 @@
         <v>169</v>
       </c>
       <c r="AA45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB45" t="s">
+        <v>400</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF45" t="s">
         <v>401</v>
       </c>
-      <c r="AD45" t="s">
-        <v>274</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B46">
         <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>445</v>
       </c>
       <c r="K46">
         <v>680</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -4778,7 +4836,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -4810,12 +4868,16 @@
         <v>660</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="O47" s="2">
+        <v>38.064151099999997</v>
+      </c>
+      <c r="P47" s="2">
+        <v>-97.347416600000003</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2">
@@ -4831,36 +4893,39 @@
         <v>27</v>
       </c>
       <c r="AA47" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB47" t="s">
+        <v>402</v>
+      </c>
+      <c r="AD47" t="s">
         <v>403</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF47" t="s">
         <v>404</v>
       </c>
-      <c r="AE47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B48">
         <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>445</v>
       </c>
       <c r="K48">
         <v>682</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
@@ -4877,7 +4942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -4909,13 +4974,13 @@
         <v>685</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O49" s="2">
         <v>39.480414099999997</v>
@@ -4938,22 +5003,22 @@
         <v>28</v>
       </c>
       <c r="AA49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB49" t="s">
+        <v>405</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF49" t="s">
         <v>406</v>
       </c>
-      <c r="AD49" t="s">
-        <v>263</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -4985,13 +5050,13 @@
         <v>700</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O50" s="2">
         <v>38.164371600000003</v>
@@ -5014,39 +5079,42 @@
         <v>29</v>
       </c>
       <c r="AA50" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB50" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF50" t="s">
         <v>408</v>
       </c>
-      <c r="AD50" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
+      <c r="C51" t="s">
+        <v>445</v>
+      </c>
       <c r="K51">
         <v>720</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -5056,24 +5124,27 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52">
         <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>445</v>
       </c>
       <c r="K52">
         <v>50</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -5083,18 +5154,21 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
+      <c r="C53" t="s">
+        <v>445</v>
+      </c>
       <c r="K53">
         <v>740</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -5106,7 +5180,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -5138,14 +5212,18 @@
         <v>60</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
+      <c r="O54" s="2">
+        <v>38.267744100000002</v>
+      </c>
+      <c r="P54" s="2">
+        <v>-98.204185199999998</v>
+      </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2">
@@ -5161,22 +5239,22 @@
         <v>181</v>
       </c>
       <c r="AA54" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB54" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD54" t="s">
         <v>410</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF54" t="s">
         <v>411</v>
       </c>
-      <c r="AE54" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -5208,12 +5286,16 @@
         <v>760</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+      <c r="O55" s="2">
+        <v>38.5510825</v>
+      </c>
+      <c r="P55" s="2">
+        <v>-97.429577300000005</v>
+      </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2">
@@ -5226,7 +5308,7 @@
         <v>279000</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -5255,10 +5337,10 @@
         <v>780</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="2">
@@ -5282,22 +5364,22 @@
         <v>189</v>
       </c>
       <c r="AA56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB56" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>264</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF56" t="s">
         <v>413</v>
       </c>
-      <c r="AD56" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -5329,13 +5411,13 @@
         <v>800</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O57" s="2">
         <v>38.917464000000002</v>
@@ -5358,22 +5440,22 @@
         <v>30</v>
       </c>
       <c r="AA57" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB57" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF57" t="s">
         <v>415</v>
       </c>
-      <c r="AD57" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -5405,13 +5487,13 @@
         <v>820</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O58" s="2">
         <v>39.026199400000003</v>
@@ -5434,33 +5516,36 @@
         <v>31</v>
       </c>
       <c r="AA58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB58" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF58" t="s">
         <v>417</v>
       </c>
-      <c r="AD58" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B59">
         <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>445</v>
       </c>
       <c r="K59">
         <v>18</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -5472,7 +5557,7 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -5504,19 +5589,19 @@
         <v>840</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O60" s="2">
-        <v>38.218391099999998</v>
+        <v>38.1179068</v>
       </c>
       <c r="P60" s="2">
-        <v>-97.229442399999996</v>
+        <v>-97.258945299999993</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -5533,13 +5618,13 @@
         <v>32</v>
       </c>
       <c r="AA60" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AD60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AE60" t="s">
         <v>83</v>
@@ -5548,7 +5633,7 @@
         <v>67151</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -5580,10 +5665,10 @@
         <v>845</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="2">
@@ -5607,22 +5692,22 @@
         <v>33</v>
       </c>
       <c r="AA61" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB61" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD61" t="s">
         <v>420</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AE61" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF61" t="s">
         <v>421</v>
       </c>
-      <c r="AE61" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -5633,10 +5718,10 @@
         <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>83</v>
@@ -5645,7 +5730,7 @@
         <v>67154</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J62" t="s">
         <v>95</v>
@@ -5654,13 +5739,13 @@
         <v>860</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O62" s="2">
         <v>37.962503599999998</v>
@@ -5683,13 +5768,13 @@
         <v>34</v>
       </c>
       <c r="AA62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB62" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AD62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE62" t="s">
         <v>83</v>
@@ -5698,9 +5783,9 @@
         <v>67154</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5709,10 +5794,10 @@
         <v>116</v>
       </c>
       <c r="D63" t="s">
+        <v>203</v>
+      </c>
+      <c r="F63" t="s">
         <v>204</v>
-      </c>
-      <c r="F63" t="s">
-        <v>205</v>
       </c>
       <c r="G63" t="s">
         <v>83</v>
@@ -5721,7 +5806,7 @@
         <v>67201</v>
       </c>
       <c r="I63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J63" t="s">
         <v>85</v>
@@ -5730,12 +5815,16 @@
         <v>880</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
+      <c r="O63" s="2">
+        <v>37.6885397</v>
+      </c>
+      <c r="P63" s="2">
+        <v>-97.361394700000005</v>
+      </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2">
@@ -5748,25 +5837,25 @@
         <v>1985000</v>
       </c>
       <c r="Z63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA63" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB63" t="s">
+        <v>423</v>
+      </c>
+      <c r="AD63" t="s">
         <v>424</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AE63" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF63" t="s">
         <v>425</v>
       </c>
-      <c r="AE63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF63" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -5777,7 +5866,7 @@
         <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -5789,7 +5878,7 @@
         <v>67491</v>
       </c>
       <c r="I64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J64" t="s">
         <v>85</v>
@@ -5798,12 +5887,16 @@
         <v>900</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
+      <c r="O64" s="2">
+        <v>38.384790199999998</v>
+      </c>
+      <c r="P64" s="2">
+        <v>-97.911084700000004</v>
+      </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2">
@@ -5819,19 +5912,19 @@
         <v>35</v>
       </c>
       <c r="AA64" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AB64" t="s">
+        <v>426</v>
+      </c>
+      <c r="AD64" t="s">
         <v>427</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AE64" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF64" t="s">
         <v>428</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5850,71 +5943,71 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>312</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>313</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>314</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>315</v>
       </c>
       <c r="B8" s="1"/>
     </row>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
     <sheet name="BranchData" sheetId="2" r:id="rId2"/>
-    <sheet name="GLCategories" sheetId="3" r:id="rId3"/>
+    <sheet name="TMALocations" sheetId="4" r:id="rId3"/>
+    <sheet name="GLCategories" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="663">
   <si>
     <t>Abilene</t>
   </si>
@@ -628,6 +629,9 @@
     <t>Service station, 24 hr fuel, Anhydrous, Feed</t>
   </si>
   <si>
+    <t>Whitewatre</t>
+  </si>
+  <si>
     <t>223 S. Ash Street</t>
   </si>
   <si>
@@ -1363,7 +1367,655 @@
     <t>AgLocationCode</t>
   </si>
   <si>
-    <t>O</t>
+    <t>816 N. Halstead St.</t>
+  </si>
+  <si>
+    <t>Hutchinson-HCE</t>
+  </si>
+  <si>
+    <t>(620) 257-2300</t>
+  </si>
+  <si>
+    <t>1630 Ave Q</t>
+  </si>
+  <si>
+    <t>Kansas Ethanol</t>
+  </si>
+  <si>
+    <t>KANSAS ETHANOL</t>
+  </si>
+  <si>
+    <t>CANTON TERM BUNKER</t>
+  </si>
+  <si>
+    <t>SOUTH</t>
+  </si>
+  <si>
+    <t>CANTON TERMINAL</t>
+  </si>
+  <si>
+    <t>(620) 278-2147</t>
+  </si>
+  <si>
+    <t>(620) 278-2141</t>
+  </si>
+  <si>
+    <t>309 S Broadway</t>
+  </si>
+  <si>
+    <t>(620) 257-2614</t>
+  </si>
+  <si>
+    <t>2015 Ave R</t>
+  </si>
+  <si>
+    <t>Saxman</t>
+  </si>
+  <si>
+    <t>SAXMAN</t>
+  </si>
+  <si>
+    <t>(620) 257-2640</t>
+  </si>
+  <si>
+    <t>1550 Ave F</t>
+  </si>
+  <si>
+    <t>Pollard</t>
+  </si>
+  <si>
+    <t>POLLARD</t>
+  </si>
+  <si>
+    <t>(620) 257-3602</t>
+  </si>
+  <si>
+    <t>(620) 257-2181</t>
+  </si>
+  <si>
+    <t>321 N Grand</t>
+  </si>
+  <si>
+    <t>Lyons-CPC</t>
+  </si>
+  <si>
+    <t>LYONS - CPC</t>
+  </si>
+  <si>
+    <t>(785) 472-3130</t>
+  </si>
+  <si>
+    <t>(785) 472-5271</t>
+  </si>
+  <si>
+    <t>101 S Main</t>
+  </si>
+  <si>
+    <t>Lorraine</t>
+  </si>
+  <si>
+    <t>LORRAINE</t>
+  </si>
+  <si>
+    <t>(620) 824-6377</t>
+  </si>
+  <si>
+    <t>(620) 824-6323</t>
+  </si>
+  <si>
+    <t>803 Main Street</t>
+  </si>
+  <si>
+    <t>Geneseo</t>
+  </si>
+  <si>
+    <t>GENESEO</t>
+  </si>
+  <si>
+    <t>(620) 257-2636</t>
+  </si>
+  <si>
+    <t>405 N State ST</t>
+  </si>
+  <si>
+    <t>Frederick</t>
+  </si>
+  <si>
+    <t>FREDERICK</t>
+  </si>
+  <si>
+    <t>(620) 587-3575</t>
+  </si>
+  <si>
+    <t>(620) 587-3346</t>
+  </si>
+  <si>
+    <t>1097 NE 130 AVE</t>
+  </si>
+  <si>
+    <t>Claflin</t>
+  </si>
+  <si>
+    <t>CLAFLIN</t>
+  </si>
+  <si>
+    <t>(620) 938-2970</t>
+  </si>
+  <si>
+    <t>(620) 938-2979</t>
+  </si>
+  <si>
+    <t>602 Main ST</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>CHASE</t>
+  </si>
+  <si>
+    <t>(620) 562-3613</t>
+  </si>
+  <si>
+    <t>(620) 562-3611</t>
+  </si>
+  <si>
+    <t>105 N 3RD</t>
+  </si>
+  <si>
+    <t>Bushton</t>
+  </si>
+  <si>
+    <t>BUSHTON</t>
+  </si>
+  <si>
+    <t>(620) 534-2145</t>
+  </si>
+  <si>
+    <t>100 S Pioneer</t>
+  </si>
+  <si>
+    <t>Alden</t>
+  </si>
+  <si>
+    <t>ALDEN</t>
+  </si>
+  <si>
+    <t>(620) 422-3435</t>
+  </si>
+  <si>
+    <t>(620) 567-2345</t>
+  </si>
+  <si>
+    <t>20 N. Main Street</t>
+  </si>
+  <si>
+    <t>Partridge</t>
+  </si>
+  <si>
+    <t>PARTRIDGE</t>
+  </si>
+  <si>
+    <t>(620) 662-0263</t>
+  </si>
+  <si>
+    <t>(620) 662-1550</t>
+  </si>
+  <si>
+    <t>3819 S. Whiteside Rd</t>
+  </si>
+  <si>
+    <t>Whiteside</t>
+  </si>
+  <si>
+    <t>WHITESIDE</t>
+  </si>
+  <si>
+    <t>(620) 665-8404</t>
+  </si>
+  <si>
+    <t>(620) 665-5575</t>
+  </si>
+  <si>
+    <t>1200 W. 4th Street</t>
+  </si>
+  <si>
+    <t>(620) 422-5288</t>
+  </si>
+  <si>
+    <t>(620) 422-3207</t>
+  </si>
+  <si>
+    <t>1 S. Nickerson</t>
+  </si>
+  <si>
+    <t>Nickerson</t>
+  </si>
+  <si>
+    <t>NICKERSON</t>
+  </si>
+  <si>
+    <t>(316) 796-0367</t>
+  </si>
+  <si>
+    <t>15802 W 109th N</t>
+  </si>
+  <si>
+    <t>Bentley</t>
+  </si>
+  <si>
+    <t>BENTLEY</t>
+  </si>
+  <si>
+    <t>(620) 463-2760</t>
+  </si>
+  <si>
+    <t>(620) 463-2320</t>
+  </si>
+  <si>
+    <t>20920 SW 84th</t>
+  </si>
+  <si>
+    <t>Patterson</t>
+  </si>
+  <si>
+    <t>PATTERSON</t>
+  </si>
+  <si>
+    <t>(316) 667-2286</t>
+  </si>
+  <si>
+    <t>(316) 667-2441</t>
+  </si>
+  <si>
+    <t>625 S. Ohio</t>
+  </si>
+  <si>
+    <t>Mt. Hope</t>
+  </si>
+  <si>
+    <t>MOUNT HOPE</t>
+  </si>
+  <si>
+    <t>(316) 835-3737</t>
+  </si>
+  <si>
+    <t>(316) 835-2261</t>
+  </si>
+  <si>
+    <t>302 W. First</t>
+  </si>
+  <si>
+    <t>Halstead</t>
+  </si>
+  <si>
+    <t>HALSTEAD EAST</t>
+  </si>
+  <si>
+    <t>HALSTEAD WEST</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>(620) 628-7919</t>
+  </si>
+  <si>
+    <t>(620) 628-4459</t>
+  </si>
+  <si>
+    <t>209 S. Main</t>
+  </si>
+  <si>
+    <t>(620) 382-3981</t>
+  </si>
+  <si>
+    <t>(620) 382-2263</t>
+  </si>
+  <si>
+    <t>403 S. 3rd St.</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>(620) 483-3110</t>
+  </si>
+  <si>
+    <t>(620) 483-3645</t>
+  </si>
+  <si>
+    <t>113 East Main St.</t>
+  </si>
+  <si>
+    <t>Lehigh</t>
+  </si>
+  <si>
+    <t>LEHIGH</t>
+  </si>
+  <si>
+    <t>HILLSBORO BUNKER</t>
+  </si>
+  <si>
+    <t>(620) 947-2498</t>
+  </si>
+  <si>
+    <t>(888) 366-2667</t>
+  </si>
+  <si>
+    <t>(620) 947-2604</t>
+  </si>
+  <si>
+    <t>(620) 947-3917</t>
+  </si>
+  <si>
+    <t>135 North Main St.</t>
+  </si>
+  <si>
+    <t>Hillsboro</t>
+  </si>
+  <si>
+    <t>HILLSBORO</t>
+  </si>
+  <si>
+    <t>EAST</t>
+  </si>
+  <si>
+    <t>ALTA VISTA BUNKER</t>
+  </si>
+  <si>
+    <t>401 Oak Drive</t>
+  </si>
+  <si>
+    <t>417 Washington Street</t>
+  </si>
+  <si>
+    <t>(316) 778-1182</t>
+  </si>
+  <si>
+    <t>103 N. Main St</t>
+  </si>
+  <si>
+    <t>BENTON BUNKER</t>
+  </si>
+  <si>
+    <t>(316) 799-2159</t>
+  </si>
+  <si>
+    <t>223 S. Ash</t>
+  </si>
+  <si>
+    <t>(316) 283-1971</t>
+  </si>
+  <si>
+    <t>1911 Main St</t>
+  </si>
+  <si>
+    <t>NEWTON</t>
+  </si>
+  <si>
+    <t>151 S. Main St</t>
+  </si>
+  <si>
+    <t>BURNS BUNKER</t>
+  </si>
+  <si>
+    <t>(620) 726-5289</t>
+  </si>
+  <si>
+    <t>301 E. Main St</t>
+  </si>
+  <si>
+    <t>(620) 983-2130</t>
+  </si>
+  <si>
+    <t>113 S. Maple</t>
+  </si>
+  <si>
+    <t>WALTON BUNKER</t>
+  </si>
+  <si>
+    <t>(620) 837-4781</t>
+  </si>
+  <si>
+    <t>(877) 837-3030</t>
+  </si>
+  <si>
+    <t>DIRECT - WALTON</t>
+  </si>
+  <si>
+    <t>NORTH</t>
+  </si>
+  <si>
+    <t>BENNINGTON BUNKER</t>
+  </si>
+  <si>
+    <t>NILES</t>
+  </si>
+  <si>
+    <t>(785) 488-3839</t>
+  </si>
+  <si>
+    <t>(785) 263-2933</t>
+  </si>
+  <si>
+    <t>800 E 1st St</t>
+  </si>
+  <si>
+    <t>(785) 655-3318</t>
+  </si>
+  <si>
+    <t>106 S Chestnut St</t>
+  </si>
+  <si>
+    <t>(785) 388-2757</t>
+  </si>
+  <si>
+    <t>203 S. Santa Fe</t>
+  </si>
+  <si>
+    <t>(785) 388-2430</t>
+  </si>
+  <si>
+    <t>(800) 338-0417</t>
+  </si>
+  <si>
+    <t>2967 Main St</t>
+  </si>
+  <si>
+    <t>(785) 546-2213</t>
+  </si>
+  <si>
+    <t>503 N. Washington</t>
+  </si>
+  <si>
+    <t>MARQUETTE BUNKER</t>
+  </si>
+  <si>
+    <t>RICE COUNTY BUNKER</t>
+  </si>
+  <si>
+    <t>1856 State Rd. Highway 14</t>
+  </si>
+  <si>
+    <t>Rice County - MKC</t>
+  </si>
+  <si>
+    <t>RICE COUNTY MKC</t>
+  </si>
+  <si>
+    <t>MCPHERSON TERMINAL</t>
+  </si>
+  <si>
+    <t>HILTON</t>
+  </si>
+  <si>
+    <t>MARLIN</t>
+  </si>
+  <si>
+    <t>HICKORY</t>
+  </si>
+  <si>
+    <t>(785) 823-8405</t>
+  </si>
+  <si>
+    <t>800 North Main Street</t>
+  </si>
+  <si>
+    <t>East Smoky Valley Rd</t>
+  </si>
+  <si>
+    <t>ROXBURY</t>
+  </si>
+  <si>
+    <t>227 N. Main St</t>
+  </si>
+  <si>
+    <t>FALUN</t>
+  </si>
+  <si>
+    <t>(620) 345-8797</t>
+  </si>
+  <si>
+    <t>(620) 345-8323</t>
+  </si>
+  <si>
+    <t>1626 Comanche Rd.</t>
+  </si>
+  <si>
+    <t>(620) 834-2215</t>
+  </si>
+  <si>
+    <t>1354 Main Street</t>
+  </si>
+  <si>
+    <t>(620) 459-6608</t>
+  </si>
+  <si>
+    <t>2114 W. Main St</t>
+  </si>
+  <si>
+    <t>(785) 667-3391</t>
+  </si>
+  <si>
+    <t>229 N. Main St</t>
+  </si>
+  <si>
+    <t>BRIDGEPORT</t>
+  </si>
+  <si>
+    <t>(620) 654-3327</t>
+  </si>
+  <si>
+    <t>101 N. Main St</t>
+  </si>
+  <si>
+    <t>700 E Centennial</t>
+  </si>
+  <si>
+    <t>(620) 465-3688</t>
+  </si>
+  <si>
+    <t>(800) 551-2667</t>
+  </si>
+  <si>
+    <t>(620) 465-2591</t>
+  </si>
+  <si>
+    <t>112 W. 2nd</t>
+  </si>
+  <si>
+    <t>(785) 227-4457</t>
+  </si>
+  <si>
+    <t>(800) 240-1754</t>
+  </si>
+  <si>
+    <t>(785) 227-3361</t>
+  </si>
+  <si>
+    <t>320 E. Grant St.</t>
+  </si>
+  <si>
+    <t>500 W. Marlin</t>
+  </si>
+  <si>
+    <t>GROVELAND BUNKER</t>
+  </si>
+  <si>
+    <t>(620) 585-2428</t>
+  </si>
+  <si>
+    <t>(888) 993-2667</t>
+  </si>
+  <si>
+    <t>1066 Pennsylvania Ave</t>
+  </si>
+  <si>
+    <t>(620) 543-2223</t>
+  </si>
+  <si>
+    <t>127 S. Main St</t>
+  </si>
+  <si>
+    <t>MOUNDRIDGE STATION</t>
+  </si>
+  <si>
+    <t>(620) 345-6330</t>
+  </si>
+  <si>
+    <t>(800) 864-4428</t>
+  </si>
+  <si>
+    <t>307 W. Cole</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Phone3</t>
+  </si>
+  <si>
+    <t>Phone2</t>
+  </si>
+  <si>
+    <t>Phone1</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>REGION</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>BRANCH_NAME</t>
+  </si>
+  <si>
+    <t>BRANCH_NUMBER</t>
+  </si>
+  <si>
+    <t>PATTERSON BUNKER</t>
+  </si>
+  <si>
+    <t>NICKERSON COOP</t>
+  </si>
+  <si>
+    <t>HUTCH COMMERICAL ELV</t>
+  </si>
+  <si>
+    <t>FarCoop</t>
   </si>
 </sst>
 </file>
@@ -1399,18 +2051,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="14">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1481,22 +2145,44 @@
     <tableColumn id="8" name="Phone"/>
     <tableColumn id="9" name="Services"/>
     <tableColumn id="10" name="LocationCode"/>
-    <tableColumn id="11" name="LocGLStr" dataDxfId="10"/>
-    <tableColumn id="15" name="LOCNCODE" dataDxfId="9"/>
-    <tableColumn id="19" name="AgLocationCode" dataDxfId="8"/>
-    <tableColumn id="12" name="Latitude" dataDxfId="7"/>
-    <tableColumn id="13" name="Longitude" dataDxfId="6"/>
-    <tableColumn id="14" name="Region" dataDxfId="5"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="4"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="3"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="2"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="1"/>
+    <tableColumn id="11" name="LocGLStr" dataDxfId="13"/>
+    <tableColumn id="15" name="LOCNCODE" dataDxfId="12"/>
+    <tableColumn id="19" name="AgLocationCode" dataDxfId="11"/>
+    <tableColumn id="12" name="Latitude" dataDxfId="10"/>
+    <tableColumn id="13" name="Longitude" dataDxfId="9"/>
+    <tableColumn id="14" name="Region" dataDxfId="8"/>
+    <tableColumn id="18" name="CapacityAppl" dataDxfId="7"/>
+    <tableColumn id="16" name="CapacityFert" dataDxfId="6"/>
+    <tableColumn id="17" name="CapacityFuel" dataDxfId="5"/>
+    <tableColumn id="22" name="CapacityGrain" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M84" totalsRowShown="0">
+  <autoFilter ref="A1:M84"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="BRANCH_NUMBER"/>
+    <tableColumn id="2" name="BRANCH_NAME"/>
+    <tableColumn id="3" name="TYPE"/>
+    <tableColumn id="4" name="REGION"/>
+    <tableColumn id="5" name="CAPACITY"/>
+    <tableColumn id="6" name="DisplayName" dataDxfId="3"/>
+    <tableColumn id="7" name="Address" dataDxfId="2"/>
+    <tableColumn id="8" name="Phone1" dataDxfId="1"/>
+    <tableColumn id="9" name="Phone2"/>
+    <tableColumn id="10" name="Phone3"/>
+    <tableColumn id="11" name="Fax"/>
+    <tableColumn id="12" name="Latitude"/>
+    <tableColumn id="13" name="Longitude"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B8" totalsRowShown="0">
   <sortState ref="A2:B8">
     <sortCondition ref="A2:A8"/>
@@ -1775,24 +2461,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1800,7 +2486,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1808,7 +2494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1816,7 +2502,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1824,7 +2510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1832,7 +2518,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +2526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1848,7 +2534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +2542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1864,7 +2550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1872,12 +2558,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1885,7 +2571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1893,7 +2579,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1901,7 +2587,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1909,7 +2595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1917,7 +2603,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1925,7 +2611,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1933,7 +2619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1941,7 +2627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1949,7 +2635,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +2643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1965,7 +2651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1973,7 +2659,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1981,7 +2667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -1989,7 +2675,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1997,7 +2683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2005,22 +2691,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2028,7 +2714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -2036,7 +2722,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -2044,7 +2730,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2052,7 +2738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2060,7 +2746,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2068,22 +2754,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2091,7 +2777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2099,7 +2785,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2107,7 +2793,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2115,7 +2801,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2123,15 +2809,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2154,40 +2840,38 @@
   </sheetPr>
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
         <v>115</v>
@@ -2214,43 +2898,43 @@
         <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N1" t="s">
+        <v>445</v>
+      </c>
+      <c r="O1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P1" t="s">
         <v>245</v>
       </c>
-      <c r="N1" t="s">
-        <v>444</v>
-      </c>
-      <c r="O1" t="s">
-        <v>243</v>
-      </c>
-      <c r="P1" t="s">
-        <v>244</v>
-      </c>
       <c r="Q1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S1" t="s">
+        <v>280</v>
+      </c>
+      <c r="T1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z1" t="s">
         <v>430</v>
       </c>
-      <c r="S1" t="s">
-        <v>279</v>
-      </c>
-      <c r="T1" t="s">
-        <v>280</v>
-      </c>
-      <c r="U1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2282,13 +2966,13 @@
         <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O2" s="2">
         <v>38.914143000000003</v>
@@ -2311,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="AA2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AD2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AE2" t="s">
         <v>83</v>
       </c>
       <c r="AF2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2358,13 +3042,13 @@
         <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O3" s="2">
         <v>38.862507200000003</v>
@@ -2384,7 +3068,7 @@
         <v>1216000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2416,16 +3100,12 @@
         <v>120</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="2">
-        <v>38.801063300000003</v>
-      </c>
-      <c r="P4" s="2">
-        <v>-97.754355700000005</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2">
@@ -2441,22 +3121,22 @@
         <v>2</v>
       </c>
       <c r="AA4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AD4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AE4" t="s">
         <v>83</v>
       </c>
       <c r="AF4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2488,13 +3168,13 @@
         <v>140</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O5" s="2">
         <v>39.031503800000003</v>
@@ -2517,22 +3197,22 @@
         <v>3</v>
       </c>
       <c r="AA5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AE5" t="s">
         <v>83</v>
       </c>
       <c r="AF5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2564,13 +3244,13 @@
         <v>160</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O6" s="2">
         <v>37.789031000000001</v>
@@ -2593,13 +3273,13 @@
         <v>4</v>
       </c>
       <c r="AA6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AE6" t="s">
         <v>83</v>
@@ -2608,21 +3288,18 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>445</v>
-      </c>
       <c r="K7">
         <v>180</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2640,7 +3317,7 @@
         <v>288000</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2672,13 +3349,13 @@
         <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O8" s="2">
         <v>38.135297999999999</v>
@@ -2701,13 +3378,13 @@
         <v>6</v>
       </c>
       <c r="AA8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AE8" t="s">
         <v>83</v>
@@ -2716,9 +3393,9 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2727,10 +3404,10 @@
         <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="2"/>
@@ -2747,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2779,13 +3456,13 @@
         <v>220</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O10" s="2">
         <v>38.089356199999997</v>
@@ -2808,22 +3485,22 @@
         <v>7</v>
       </c>
       <c r="AA10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AE10" t="s">
         <v>83</v>
       </c>
       <c r="AF10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2855,16 +3532,12 @@
         <v>230</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="2">
-        <v>38.377895899999999</v>
-      </c>
-      <c r="P11" s="2">
-        <v>-97.466010199999999</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -2874,13 +3547,13 @@
         <v>107</v>
       </c>
       <c r="AA11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AE11" t="s">
         <v>83</v>
@@ -2889,7 +3562,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2921,13 +3594,13 @@
         <v>240</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O12" s="2">
         <v>37.867400000000004</v>
@@ -2950,39 +3623,36 @@
         <v>8</v>
       </c>
       <c r="AA12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AD12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AE12" t="s">
         <v>83</v>
       </c>
       <c r="AF12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>445</v>
-      </c>
       <c r="K13">
         <v>36</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="2">
@@ -2997,27 +3667,24 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>445</v>
-      </c>
       <c r="K14">
         <v>260</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O14" s="2">
         <v>38.370841499999997</v>
@@ -3037,7 +3704,7 @@
         <v>439000</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3069,16 +3736,12 @@
         <v>280</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="2">
-        <v>38.9670597</v>
-      </c>
-      <c r="P15" s="2">
-        <v>-97.762475199999997</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -3090,22 +3753,22 @@
         <v>114</v>
       </c>
       <c r="AA15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AE15" t="s">
         <v>83</v>
       </c>
       <c r="AF15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3137,10 +3800,10 @@
         <v>300</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="2">
@@ -3164,42 +3827,39 @@
         <v>10</v>
       </c>
       <c r="AA16" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AD16" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE16" t="s">
         <v>83</v>
       </c>
       <c r="AF16" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>445</v>
-      </c>
       <c r="K17">
         <v>305</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -3209,7 +3869,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3241,16 +3901,12 @@
         <v>320</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="2">
-        <v>38.6719662</v>
-      </c>
-      <c r="P18" s="2">
-        <v>-97.762896600000005</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2">
@@ -3263,7 +3919,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3295,13 +3951,13 @@
         <v>340</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O19" s="2">
         <v>38.242364600000002</v>
@@ -3324,22 +3980,22 @@
         <v>12</v>
       </c>
       <c r="AA19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AE19" t="s">
         <v>83</v>
       </c>
       <c r="AF19" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -3371,13 +4027,13 @@
         <v>360</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O20" s="2">
         <v>38.384791</v>
@@ -3397,7 +4053,7 @@
         <v>643000</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3429,13 +4085,13 @@
         <v>380</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O21" s="2">
         <v>38.205322600000002</v>
@@ -3455,7 +4111,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3487,13 +4143,13 @@
         <v>400</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O22" s="2">
         <v>38.289691599999998</v>
@@ -3516,22 +4172,22 @@
         <v>15</v>
       </c>
       <c r="AA22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AD22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AE22" t="s">
         <v>83</v>
       </c>
       <c r="AF22" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3563,13 +4219,13 @@
         <v>420</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O23" s="2">
         <v>37.9</v>
@@ -3592,42 +4248,39 @@
         <v>16</v>
       </c>
       <c r="AA23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB23" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AD23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE23" t="s">
         <v>83</v>
       </c>
       <c r="AF23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>445</v>
-      </c>
       <c r="K24">
         <v>430</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -3637,7 +4290,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -3669,10 +4322,10 @@
         <v>440</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="2">
@@ -3696,13 +4349,13 @@
         <v>17</v>
       </c>
       <c r="AA25" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AD25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AE25" t="s">
         <v>83</v>
@@ -3711,7 +4364,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -3743,43 +4396,36 @@
         <v>460</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="2">
-        <v>38.441087199999998</v>
-      </c>
-      <c r="P26" s="2">
-        <v>-97.677783700000006</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
-        <v>445</v>
-      </c>
       <c r="K27">
         <v>480</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -3789,25 +4435,22 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>445</v>
-      </c>
       <c r="K28">
         <v>500</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -3817,7 +4460,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -3849,10 +4492,10 @@
         <v>520</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="2">
@@ -3876,22 +4519,22 @@
         <v>19</v>
       </c>
       <c r="AA29" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AD29" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AE29" t="s">
         <v>83</v>
       </c>
       <c r="AF29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -3923,13 +4566,13 @@
         <v>540</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="O30" s="2">
         <v>38.574119000000003</v>
@@ -3952,13 +4595,13 @@
         <v>20</v>
       </c>
       <c r="AA30" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB30" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AD30" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE30" t="s">
         <v>83</v>
@@ -3967,7 +4610,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -3999,13 +4642,13 @@
         <v>560</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O31" s="2">
         <v>39.169995700000001</v>
@@ -4025,27 +4668,24 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>445</v>
-      </c>
       <c r="K32">
         <v>570</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4055,24 +4695,21 @@
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>445</v>
-      </c>
       <c r="K33">
         <v>40</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="2"/>
@@ -4083,7 +4720,7 @@
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -4115,10 +4752,10 @@
         <v>576</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="2">
@@ -4142,22 +4779,22 @@
         <v>22</v>
       </c>
       <c r="AA34" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AD34" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AE34" t="s">
         <v>83</v>
       </c>
       <c r="AF34" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -4189,13 +4826,13 @@
         <v>575</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="O35" s="2">
         <v>39.192815099999997</v>
@@ -4218,22 +4855,22 @@
         <v>152</v>
       </c>
       <c r="AA35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AD35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AE35" t="s">
         <v>83</v>
       </c>
       <c r="AF35" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -4265,13 +4902,13 @@
         <v>580</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O36" s="2">
         <v>38.557795300000002</v>
@@ -4294,13 +4931,13 @@
         <v>24</v>
       </c>
       <c r="AA36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AD36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AE36" t="s">
         <v>83</v>
@@ -4309,37 +4946,38 @@
         <v>67464</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
-        <v>445</v>
-      </c>
       <c r="K37">
         <v>600</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="O37" s="2">
+        <v>38.086703200000002</v>
+      </c>
+      <c r="P37" s="2">
+        <v>-97.263819699999999</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -4371,10 +5009,10 @@
         <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="2">
@@ -4389,7 +5027,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -4431,22 +5069,22 @@
         <v>157</v>
       </c>
       <c r="AA39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AD39" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE39" t="s">
         <v>83</v>
       </c>
       <c r="AF39" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -4488,39 +5126,36 @@
         <v>160</v>
       </c>
       <c r="AA40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB40" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AD40" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE40" t="s">
         <v>83</v>
       </c>
       <c r="AF40" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" t="s">
-        <v>445</v>
-      </c>
       <c r="K41">
         <v>32</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="2"/>
@@ -4531,7 +5166,7 @@
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -4563,10 +5198,10 @@
         <v>620</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="2">
@@ -4590,22 +5225,22 @@
         <v>166</v>
       </c>
       <c r="AA42" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AD42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AE42" t="s">
         <v>83</v>
       </c>
       <c r="AF42" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -4640,7 +5275,7 @@
         <v>10</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -4655,22 +5290,22 @@
         <v>79</v>
       </c>
       <c r="AA43" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AD43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE43" t="s">
         <v>83</v>
       </c>
       <c r="AF43" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -4705,13 +5340,13 @@
         <v>640</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O44" s="2">
         <v>38.202722299999998</v>
@@ -4734,22 +5369,22 @@
         <v>174</v>
       </c>
       <c r="AA44" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AD44" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE44" t="s">
         <v>83</v>
       </c>
       <c r="AF44" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -4780,12 +5415,8 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="2">
-        <v>38.203610300000001</v>
-      </c>
-      <c r="P45" s="2">
-        <v>-97.524397399999998</v>
-      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -4795,36 +5426,33 @@
         <v>169</v>
       </c>
       <c r="AA45" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AD45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AE45" t="s">
         <v>83</v>
       </c>
       <c r="AF45" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-      <c r="C46" t="s">
-        <v>445</v>
-      </c>
       <c r="K46">
         <v>680</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -4836,7 +5464,7 @@
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -4868,16 +5496,12 @@
         <v>660</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="2">
-        <v>38.064151099999997</v>
-      </c>
-      <c r="P47" s="2">
-        <v>-97.347416600000003</v>
-      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2">
@@ -4893,39 +5517,36 @@
         <v>27</v>
       </c>
       <c r="AA47" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AD47" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AE47" t="s">
         <v>83</v>
       </c>
       <c r="AF47" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
-        <v>445</v>
-      </c>
       <c r="K48">
         <v>682</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="2"/>
@@ -4942,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -4974,13 +5595,13 @@
         <v>685</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O49" s="2">
         <v>39.480414099999997</v>
@@ -5003,22 +5624,22 @@
         <v>28</v>
       </c>
       <c r="AA49" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB49" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AD49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AE49" t="s">
         <v>83</v>
       </c>
       <c r="AF49" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5050,13 +5671,13 @@
         <v>700</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O50" s="2">
         <v>38.164371600000003</v>
@@ -5079,42 +5700,39 @@
         <v>29</v>
       </c>
       <c r="AA50" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB50" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AE50" t="s">
         <v>83</v>
       </c>
       <c r="AF50" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" t="s">
-        <v>445</v>
-      </c>
       <c r="K51">
         <v>720</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -5124,27 +5742,24 @@
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
-        <v>445</v>
-      </c>
       <c r="K52">
         <v>50</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -5154,21 +5769,18 @@
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" t="s">
-        <v>445</v>
-      </c>
       <c r="K53">
         <v>740</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -5180,7 +5792,7 @@
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -5212,18 +5824,14 @@
         <v>60</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="2">
-        <v>38.267744100000002</v>
-      </c>
-      <c r="P54" s="2">
-        <v>-98.204185199999998</v>
-      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2">
@@ -5239,22 +5847,22 @@
         <v>181</v>
       </c>
       <c r="AA54" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB54" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AD54" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AE54" t="s">
         <v>83</v>
       </c>
       <c r="AF54" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -5286,16 +5894,12 @@
         <v>760</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
-      <c r="O55" s="2">
-        <v>38.5510825</v>
-      </c>
-      <c r="P55" s="2">
-        <v>-97.429577300000005</v>
-      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2">
@@ -5308,7 +5912,7 @@
         <v>279000</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -5337,10 +5941,10 @@
         <v>780</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="2">
@@ -5364,22 +5968,22 @@
         <v>189</v>
       </c>
       <c r="AA56" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB56" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AD56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AE56" t="s">
         <v>83</v>
       </c>
       <c r="AF56" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -5411,13 +6015,13 @@
         <v>800</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O57" s="2">
         <v>38.917464000000002</v>
@@ -5440,22 +6044,22 @@
         <v>30</v>
       </c>
       <c r="AA57" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB57" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AD57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AE57" t="s">
         <v>83</v>
       </c>
       <c r="AF57" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -5487,13 +6091,13 @@
         <v>820</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O58" s="2">
         <v>39.026199400000003</v>
@@ -5516,36 +6120,33 @@
         <v>31</v>
       </c>
       <c r="AA58" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB58" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AD58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AE58" t="s">
         <v>83</v>
       </c>
       <c r="AF58" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" t="s">
-        <v>445</v>
-      </c>
       <c r="K59">
         <v>18</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -5557,7 +6158,7 @@
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -5589,19 +6190,19 @@
         <v>840</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O60" s="2">
-        <v>38.1179068</v>
+        <v>38.218391099999998</v>
       </c>
       <c r="P60" s="2">
-        <v>-97.258945299999993</v>
+        <v>-97.229442399999996</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -5618,13 +6219,13 @@
         <v>32</v>
       </c>
       <c r="AA60" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB60" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AD60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AE60" t="s">
         <v>83</v>
@@ -5633,7 +6234,7 @@
         <v>67151</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -5665,10 +6266,10 @@
         <v>845</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="2">
@@ -5692,22 +6293,22 @@
         <v>33</v>
       </c>
       <c r="AA61" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB61" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD61" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE61" t="s">
         <v>83</v>
       </c>
       <c r="AF61" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -5718,10 +6319,10 @@
         <v>116</v>
       </c>
       <c r="D62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" t="s">
         <v>200</v>
-      </c>
-      <c r="F62" t="s">
-        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>83</v>
@@ -5730,7 +6331,7 @@
         <v>67154</v>
       </c>
       <c r="I62" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J62" t="s">
         <v>95</v>
@@ -5739,13 +6340,13 @@
         <v>860</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O62" s="2">
         <v>37.962503599999998</v>
@@ -5768,13 +6369,13 @@
         <v>34</v>
       </c>
       <c r="AA62" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB62" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AD62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AE62" t="s">
         <v>83</v>
@@ -5783,9 +6384,9 @@
         <v>67154</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -5794,10 +6395,10 @@
         <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G63" t="s">
         <v>83</v>
@@ -5806,7 +6407,7 @@
         <v>67201</v>
       </c>
       <c r="I63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J63" t="s">
         <v>85</v>
@@ -5815,16 +6416,12 @@
         <v>880</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="2">
-        <v>37.6885397</v>
-      </c>
-      <c r="P63" s="2">
-        <v>-97.361394700000005</v>
-      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2">
@@ -5837,25 +6434,25 @@
         <v>1985000</v>
       </c>
       <c r="Z63" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA63" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB63" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AD63" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AE63" t="s">
         <v>83</v>
       </c>
       <c r="AF63" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -5866,7 +6463,7 @@
         <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -5878,7 +6475,7 @@
         <v>67491</v>
       </c>
       <c r="I64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J64" t="s">
         <v>85</v>
@@ -5887,16 +6484,12 @@
         <v>900</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="2">
-        <v>38.384790199999998</v>
-      </c>
-      <c r="P64" s="2">
-        <v>-97.911084700000004</v>
-      </c>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2">
@@ -5912,19 +6505,19 @@
         <v>35</v>
       </c>
       <c r="AA64" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AB64" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AD64" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AE64" t="s">
         <v>83</v>
       </c>
       <c r="AF64" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5939,75 +6532,1970 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M84"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F1" t="s">
+        <v>653</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I1" t="s">
+        <v>651</v>
+      </c>
+      <c r="J1" t="s">
+        <v>650</v>
+      </c>
+      <c r="K1" t="s">
+        <v>649</v>
+      </c>
+      <c r="L1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2">
+        <v>1478000</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4">
+        <v>790000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>587</v>
+      </c>
+      <c r="E5">
+        <v>3460000</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>662</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E8">
+        <v>1467000</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9">
+        <v>1109000</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10">
+        <v>205000</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11">
+        <v>643000</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>626</v>
+      </c>
+      <c r="D12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E12">
+        <v>288000</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13">
+        <v>499000</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" t="s">
+        <v>662</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>453</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>616</v>
+      </c>
+      <c r="D16" t="s">
+        <v>587</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>614</v>
+      </c>
+      <c r="D17" t="s">
+        <v>587</v>
+      </c>
+      <c r="E17">
+        <v>279000</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" t="s">
+        <v>587</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>171</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D19" t="s">
+        <v>587</v>
+      </c>
+      <c r="E19">
+        <v>577000</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>181</v>
+      </c>
+      <c r="B20" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s">
+        <v>609</v>
+      </c>
+      <c r="D21" t="s">
+        <v>587</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>608</v>
+      </c>
+      <c r="D22" t="s">
+        <v>587</v>
+      </c>
+      <c r="E22">
+        <v>391000</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>185</v>
+      </c>
+      <c r="B23" t="s">
+        <v>607</v>
+      </c>
+      <c r="D23" t="s">
+        <v>587</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" t="s">
+        <v>587</v>
+      </c>
+      <c r="E24">
+        <v>2099000</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>188</v>
+      </c>
+      <c r="B25" t="s">
+        <v>603</v>
+      </c>
+      <c r="D25" t="s">
+        <v>587</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>602</v>
+      </c>
+      <c r="D26" t="s">
+        <v>587</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>191</v>
+      </c>
+      <c r="B27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D27" t="s">
+        <v>587</v>
+      </c>
+      <c r="E27">
+        <v>1615000</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s">
+        <v>267</v>
+      </c>
+      <c r="D28" t="s">
+        <v>587</v>
+      </c>
+      <c r="E28">
+        <v>1266000</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" t="s">
+        <v>587</v>
+      </c>
+      <c r="E29">
+        <v>260000</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" t="s">
+        <v>587</v>
+      </c>
+      <c r="E30">
+        <v>758000</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>195</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" t="s">
+        <v>587</v>
+      </c>
+      <c r="E31">
+        <v>716000</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>196</v>
+      </c>
+      <c r="B32" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" t="s">
+        <v>587</v>
+      </c>
+      <c r="E32">
+        <v>521000</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>589</v>
+      </c>
+      <c r="D33" t="s">
+        <v>662</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" t="s">
+        <v>587</v>
+      </c>
+      <c r="E34">
+        <v>357000</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>199</v>
+      </c>
+      <c r="B35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D35" t="s">
+        <v>587</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="K35" s="4"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>201</v>
+      </c>
+      <c r="B36" t="s">
+        <v>586</v>
+      </c>
+      <c r="D36" t="s">
+        <v>662</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>425</v>
+      </c>
+      <c r="D37" t="s">
+        <v>453</v>
+      </c>
+      <c r="E37">
+        <v>1985000</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D38" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38">
+        <v>1318000</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>215</v>
+      </c>
+      <c r="B39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D39" t="s">
+        <v>453</v>
+      </c>
+      <c r="E39">
+        <v>1944000</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" t="s">
+        <v>453</v>
+      </c>
+      <c r="E40">
+        <v>801000</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>242</v>
+      </c>
+      <c r="B41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" t="s">
+        <v>453</v>
+      </c>
+      <c r="E41">
+        <v>1262000</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>245</v>
+      </c>
+      <c r="B42" t="s">
+        <v>578</v>
+      </c>
+      <c r="D42" t="s">
+        <v>453</v>
+      </c>
+      <c r="E42">
+        <v>427000</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>252</v>
+      </c>
+      <c r="B43" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43" t="s">
+        <v>453</v>
+      </c>
+      <c r="E43">
+        <v>262000</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>262</v>
+      </c>
+      <c r="B44" t="s">
+        <v>576</v>
+      </c>
+      <c r="D44" t="s">
+        <v>453</v>
+      </c>
+      <c r="E44">
+        <v>436000</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>272</v>
+      </c>
+      <c r="B45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>453</v>
+      </c>
+      <c r="E45">
+        <v>1113000</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>282</v>
+      </c>
+      <c r="B46" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" t="s">
+        <v>662</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>291</v>
+      </c>
+      <c r="B47" t="s">
+        <v>571</v>
+      </c>
+      <c r="D47" t="s">
+        <v>453</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="D48" t="s">
+        <v>453</v>
+      </c>
+      <c r="E48">
+        <v>1114000</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>293</v>
+      </c>
+      <c r="B49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" t="s">
+        <v>565</v>
+      </c>
+      <c r="E49">
+        <v>1266000</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>294</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D50" t="s">
+        <v>565</v>
+      </c>
+      <c r="E50">
+        <v>747000</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>295</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" t="s">
+        <v>565</v>
+      </c>
+      <c r="E51">
+        <v>1106000</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>296</v>
+      </c>
+      <c r="B52" t="s">
+        <v>566</v>
+      </c>
+      <c r="D52" t="s">
+        <v>565</v>
+      </c>
+      <c r="E52">
+        <v>469000</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>311</v>
+      </c>
+      <c r="B53" t="s">
+        <v>564</v>
+      </c>
+      <c r="D53" t="s">
+        <v>662</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>315</v>
+      </c>
+      <c r="B54" t="s">
+        <v>557</v>
+      </c>
+      <c r="D54" t="s">
+        <v>662</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>331</v>
+      </c>
+      <c r="B55" t="s">
+        <v>556</v>
+      </c>
+      <c r="D55" t="s">
+        <v>662</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>341</v>
+      </c>
+      <c r="B56" t="s">
+        <v>551</v>
+      </c>
+      <c r="D56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>351</v>
+      </c>
+      <c r="B57" t="s">
+        <v>367</v>
+      </c>
+      <c r="D57" t="s">
+        <v>662</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>361</v>
+      </c>
+      <c r="B58" t="s">
+        <v>543</v>
+      </c>
+      <c r="D58" t="s">
+        <v>662</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="K58" s="4"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>432</v>
+      </c>
+      <c r="B59" t="s">
+        <v>541</v>
+      </c>
+      <c r="D59" t="s">
+        <v>662</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="K59" s="4"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>433</v>
+      </c>
+      <c r="B60" t="s">
+        <v>540</v>
+      </c>
+      <c r="D60" t="s">
+        <v>662</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>442</v>
+      </c>
+      <c r="B61" t="s">
+        <v>535</v>
+      </c>
+      <c r="D61" t="s">
+        <v>662</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>443</v>
+      </c>
+      <c r="B62" t="s">
+        <v>530</v>
+      </c>
+      <c r="D62" t="s">
+        <v>662</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>445</v>
+      </c>
+      <c r="B63" t="s">
+        <v>659</v>
+      </c>
+      <c r="D63" t="s">
+        <v>662</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>447</v>
+      </c>
+      <c r="B64" t="s">
+        <v>525</v>
+      </c>
+      <c r="D64" t="s">
+        <v>662</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>510</v>
+      </c>
+      <c r="B65" t="s">
+        <v>521</v>
+      </c>
+      <c r="D65" t="s">
+        <v>662</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>520</v>
+      </c>
+      <c r="B66" t="s">
+        <v>369</v>
+      </c>
+      <c r="D66" t="s">
+        <v>662</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>530</v>
+      </c>
+      <c r="B67" t="s">
+        <v>513</v>
+      </c>
+      <c r="D67" t="s">
+        <v>662</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>540</v>
+      </c>
+      <c r="B68" t="s">
+        <v>508</v>
+      </c>
+      <c r="D68" t="s">
+        <v>662</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>541</v>
+      </c>
+      <c r="B69" t="s">
+        <v>503</v>
+      </c>
+      <c r="D69" t="s">
+        <v>662</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>542</v>
+      </c>
+      <c r="B70" t="s">
+        <v>499</v>
+      </c>
+      <c r="D70" t="s">
+        <v>662</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>543</v>
+      </c>
+      <c r="B71" t="s">
+        <v>494</v>
+      </c>
+      <c r="D71" t="s">
+        <v>662</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>544</v>
+      </c>
+      <c r="B72" t="s">
+        <v>489</v>
+      </c>
+      <c r="D72" t="s">
+        <v>662</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>545</v>
+      </c>
+      <c r="B73" t="s">
+        <v>484</v>
+      </c>
+      <c r="D73" t="s">
+        <v>662</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>546</v>
+      </c>
+      <c r="B74" t="s">
+        <v>480</v>
+      </c>
+      <c r="D74" t="s">
+        <v>662</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>547</v>
+      </c>
+      <c r="B75" t="s">
+        <v>475</v>
+      </c>
+      <c r="D75" t="s">
+        <v>662</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>548</v>
+      </c>
+      <c r="B76" t="s">
+        <v>470</v>
+      </c>
+      <c r="D76" t="s">
+        <v>662</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>549</v>
+      </c>
+      <c r="B77" t="s">
+        <v>465</v>
+      </c>
+      <c r="D77" t="s">
+        <v>662</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>550</v>
+      </c>
+      <c r="B78" t="s">
+        <v>461</v>
+      </c>
+      <c r="D78" t="s">
+        <v>662</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>551</v>
+      </c>
+      <c r="B79" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" t="s">
+        <v>662</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>560</v>
+      </c>
+      <c r="B80" t="s">
+        <v>454</v>
+      </c>
+      <c r="D80" t="s">
+        <v>453</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>561</v>
+      </c>
+      <c r="B81" t="s">
+        <v>452</v>
+      </c>
+      <c r="D81" t="s">
+        <v>662</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>570</v>
+      </c>
+      <c r="B82" t="s">
+        <v>451</v>
+      </c>
+      <c r="D82" t="s">
+        <v>662</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>571</v>
+      </c>
+      <c r="B83" t="s">
+        <v>661</v>
+      </c>
+      <c r="D83" t="s">
+        <v>662</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>940</v>
+      </c>
+      <c r="B84" t="s">
+        <v>660</v>
+      </c>
+      <c r="D84" t="s">
+        <v>662</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup scale="52" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>315</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>314</v>
       </c>
       <c r="B8" s="1"/>
     </row>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="662">
   <si>
     <t>Abilene</t>
   </si>
@@ -1388,9 +1388,6 @@
     <t>CANTON TERM BUNKER</t>
   </si>
   <si>
-    <t>SOUTH</t>
-  </si>
-  <si>
     <t>CANTON TERMINAL</t>
   </si>
   <si>
@@ -1724,9 +1721,6 @@
     <t>HILLSBORO</t>
   </si>
   <si>
-    <t>EAST</t>
-  </si>
-  <si>
     <t>ALTA VISTA BUNKER</t>
   </si>
   <si>
@@ -1790,9 +1784,6 @@
     <t>DIRECT - WALTON</t>
   </si>
   <si>
-    <t>NORTH</t>
-  </si>
-  <si>
     <t>BENNINGTON BUNKER</t>
   </si>
   <si>
@@ -2015,7 +2006,13 @@
     <t>HUTCH COMMERICAL ELV</t>
   </si>
   <si>
-    <t>FarCoop</t>
+    <t>MKC</t>
+  </si>
+  <si>
+    <t>Far Coop</t>
+  </si>
+  <si>
+    <t>CPC</t>
   </si>
 </sst>
 </file>
@@ -6558,37 +6555,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="I1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="J1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="K1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="L1" t="s">
         <v>244</v>
@@ -6605,25 +6602,25 @@
         <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E2">
-        <v>1478000</v>
+        <v>1330200</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6631,10 +6628,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>645</v>
-      </c>
-      <c r="D3" t="s">
-        <v>453</v>
+        <v>642</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -6650,22 +6644,22 @@
         <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E4">
-        <v>790000</v>
+        <v>651600</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>101</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6676,25 +6670,25 @@
         <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E5">
-        <v>3460000</v>
+        <v>3120000</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>135</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6702,10 +6696,13 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E6">
+        <v>1000000</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -6720,14 +6717,11 @@
       <c r="B7" t="s">
         <v>273</v>
       </c>
-      <c r="D7" t="s">
-        <v>662</v>
-      </c>
       <c r="F7" s="4" t="s">
         <v>121</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>162</v>
@@ -6741,25 +6735,25 @@
         <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E8">
-        <v>1467000</v>
+        <v>1318300</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6770,28 +6764,28 @@
         <v>382</v>
       </c>
       <c r="D9" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E9">
-        <v>1109000</v>
+        <v>1053900</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>137</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -6802,16 +6796,16 @@
         <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E10">
-        <v>205000</v>
+        <v>184500</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>131</v>
@@ -6825,22 +6819,22 @@
         <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E11">
-        <v>643000</v>
+        <v>607500</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>128</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -6848,22 +6842,22 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D12" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E12">
-        <v>288000</v>
+        <v>259200</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -6874,22 +6868,22 @@
         <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E13">
-        <v>499000</v>
+        <v>406200</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>112</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6900,19 +6894,22 @@
         <v>335</v>
       </c>
       <c r="D14" t="s">
-        <v>662</v>
+        <v>659</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>284</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6923,22 +6920,25 @@
         <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>453</v>
+        <v>659</v>
+      </c>
+      <c r="E15">
+        <v>232200</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>122</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6946,16 +6946,19 @@
         <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D16" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E16">
+        <v>165655</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>124</v>
@@ -6966,19 +6969,19 @@
         <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D17" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E17">
-        <v>279000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>186</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>188</v>
@@ -6995,13 +6998,16 @@
         <v>428</v>
       </c>
       <c r="D18" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E18">
+        <v>421000</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>208</v>
@@ -7015,10 +7021,10 @@
         <v>358</v>
       </c>
       <c r="D19" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E19">
-        <v>577000</v>
+        <v>519300</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>2</v>
@@ -7030,7 +7036,7 @@
         <v>92</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7038,10 +7044,13 @@
         <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D20" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E20">
+        <v>235800</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -7055,10 +7064,13 @@
         <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D21" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E21">
+        <v>354600</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -7070,13 +7082,13 @@
         <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="D22" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E22">
-        <v>391000</v>
+        <v>352000</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>18</v>
@@ -7096,10 +7108,13 @@
         <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D23" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E23">
+        <v>765000</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -7110,19 +7125,19 @@
         <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D24" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E24">
-        <v>2099000</v>
+        <v>900000</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>184</v>
@@ -7133,10 +7148,13 @@
         <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D25" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E25">
+        <v>1000000</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -7147,10 +7165,13 @@
         <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D26" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E26">
+        <v>800000</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -7165,22 +7186,22 @@
         <v>262</v>
       </c>
       <c r="D27" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E27">
-        <v>1615000</v>
+        <v>485500</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>156</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -7191,25 +7212,25 @@
         <v>267</v>
       </c>
       <c r="D28" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E28">
-        <v>1266000</v>
+        <v>1060000</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>194</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7220,22 +7241,22 @@
         <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E29">
-        <v>260000</v>
+        <v>234000</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>149</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7246,22 +7267,22 @@
         <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E30">
-        <v>758000</v>
+        <v>509000</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>192</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7272,22 +7293,22 @@
         <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E31">
-        <v>716000</v>
+        <v>644000</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>87</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7298,10 +7319,10 @@
         <v>249</v>
       </c>
       <c r="D32" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E32">
-        <v>521000</v>
+        <v>182000</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>3</v>
@@ -7313,7 +7334,7 @@
         <v>94</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7321,10 +7342,13 @@
         <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D33" t="s">
-        <v>662</v>
+        <v>659</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -7339,10 +7363,10 @@
         <v>372</v>
       </c>
       <c r="D34" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="E34">
-        <v>357000</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>114</v>
@@ -7359,10 +7383,13 @@
         <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D35" t="s">
-        <v>587</v>
+        <v>659</v>
+      </c>
+      <c r="E35">
+        <v>319000</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -7374,10 +7401,7 @@
         <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>586</v>
-      </c>
-      <c r="D36" t="s">
-        <v>662</v>
+        <v>584</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -7391,10 +7415,10 @@
         <v>425</v>
       </c>
       <c r="D37" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E37">
-        <v>1985000</v>
+        <v>1620000</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>203</v>
@@ -7414,10 +7438,10 @@
         <v>268</v>
       </c>
       <c r="D38" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E38">
-        <v>1318000</v>
+        <v>1186200</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>32</v>
@@ -7429,10 +7453,10 @@
         <v>196</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7440,13 +7464,13 @@
         <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D39" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E39">
-        <v>1944000</v>
+        <v>2000000</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -7462,22 +7486,22 @@
         <v>264</v>
       </c>
       <c r="D40" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E40">
-        <v>801000</v>
+        <v>683000</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>180</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7488,22 +7512,22 @@
         <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E41">
-        <v>1262000</v>
+        <v>1100000</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>105</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7511,13 +7535,13 @@
         <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D42" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E42">
-        <v>427000</v>
+        <v>375000</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -7532,16 +7556,16 @@
         <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E43">
-        <v>262000</v>
+        <v>235800</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>126</v>
@@ -7555,25 +7579,25 @@
         <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D44" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E44">
-        <v>436000</v>
+        <v>388800</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>176</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -7584,22 +7608,22 @@
         <v>269</v>
       </c>
       <c r="D45" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E45">
-        <v>1113000</v>
+        <v>961600</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>202</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7610,7 +7634,10 @@
         <v>440</v>
       </c>
       <c r="D46" t="s">
-        <v>662</v>
+        <v>659</v>
+      </c>
+      <c r="E46">
+        <v>84600</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -7622,10 +7649,13 @@
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D47" t="s">
-        <v>453</v>
+        <v>659</v>
+      </c>
+      <c r="E47">
+        <v>540000</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -7640,22 +7670,22 @@
         <v>250</v>
       </c>
       <c r="D48" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="E48">
-        <v>1114000</v>
+        <v>837000</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>98</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7666,10 +7696,10 @@
         <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="E49">
-        <v>1266000</v>
+        <v>1140000</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>23</v>
@@ -7689,16 +7719,16 @@
         <v>248</v>
       </c>
       <c r="D50" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="E50">
-        <v>747000</v>
+        <v>675000</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>90</v>
@@ -7712,16 +7742,16 @@
         <v>263</v>
       </c>
       <c r="D51" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="E51">
-        <v>1106000</v>
+        <v>1267000</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>178</v>
@@ -7732,13 +7762,13 @@
         <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D52" t="s">
-        <v>565</v>
+        <v>659</v>
       </c>
       <c r="E52">
-        <v>469000</v>
+        <v>400000</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -7749,28 +7779,31 @@
         <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D53" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E53">
+        <v>1328500</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7778,10 +7811,13 @@
         <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D54" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E54">
+        <v>400000</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -7795,22 +7831,25 @@
         <v>331</v>
       </c>
       <c r="B55" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D55" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E55">
+        <v>218560</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7818,22 +7857,25 @@
         <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D56" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E56">
+        <v>993000</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7844,19 +7886,22 @@
         <v>367</v>
       </c>
       <c r="D57" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E57">
+        <v>550800</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7864,16 +7909,19 @@
         <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D58" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E58">
+        <v>345600</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K58" s="4"/>
     </row>
@@ -7882,10 +7930,13 @@
         <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D59" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E59">
+        <v>2255500</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -7896,22 +7947,25 @@
         <v>433</v>
       </c>
       <c r="B60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D60" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E60">
+        <v>2255500</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7919,22 +7973,25 @@
         <v>442</v>
       </c>
       <c r="B61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D61" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E61">
+        <v>867600</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -7942,22 +7999,25 @@
         <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D62" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E62">
+        <v>1293000</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -7965,10 +8025,13 @@
         <v>445</v>
       </c>
       <c r="B63" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D63" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E63">
+        <v>500000</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -7980,19 +8043,22 @@
         <v>447</v>
       </c>
       <c r="B64" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D64" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="E64">
+        <v>900000</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -8000,22 +8066,25 @@
         <v>510</v>
       </c>
       <c r="B65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D65" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E65">
+        <v>1175000</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8026,19 +8095,22 @@
         <v>369</v>
       </c>
       <c r="D66" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E66">
+        <v>233100</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8046,22 +8118,25 @@
         <v>530</v>
       </c>
       <c r="B67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D67" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E67">
+        <v>326700</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8069,22 +8144,25 @@
         <v>540</v>
       </c>
       <c r="B68" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D68" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E68">
+        <v>376200</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8092,19 +8170,22 @@
         <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D69" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E69">
+        <v>1053000</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8112,22 +8193,25 @@
         <v>542</v>
       </c>
       <c r="B70" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D70" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E70">
+        <v>1040400</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8135,22 +8219,25 @@
         <v>543</v>
       </c>
       <c r="B71" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D71" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E71">
+        <v>1356000</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8158,22 +8245,25 @@
         <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D72" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E72">
+        <v>839000</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8181,19 +8271,22 @@
         <v>545</v>
       </c>
       <c r="B73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D73" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E73">
+        <v>529000</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -8201,22 +8294,25 @@
         <v>546</v>
       </c>
       <c r="B74" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D74" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E74">
+        <v>428000</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8224,22 +8320,25 @@
         <v>547</v>
       </c>
       <c r="B75" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D75" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E75">
+        <v>561000</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -8247,22 +8346,25 @@
         <v>548</v>
       </c>
       <c r="B76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D76" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E76">
+        <v>460000</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8270,19 +8372,22 @@
         <v>549</v>
       </c>
       <c r="B77" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D77" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E77">
+        <v>229000</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -8290,19 +8395,22 @@
         <v>550</v>
       </c>
       <c r="B78" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D78" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E78">
+        <v>312000</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -8313,19 +8421,22 @@
         <v>411</v>
       </c>
       <c r="D79" t="s">
-        <v>662</v>
+        <v>661</v>
+      </c>
+      <c r="E79">
+        <v>1400000</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>183</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8333,10 +8444,13 @@
         <v>560</v>
       </c>
       <c r="B80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D80" t="s">
-        <v>453</v>
+        <v>659</v>
+      </c>
+      <c r="E80">
+        <v>2800000</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -8351,7 +8465,10 @@
         <v>452</v>
       </c>
       <c r="D81" t="s">
-        <v>662</v>
+        <v>659</v>
+      </c>
+      <c r="E81">
+        <v>3600000</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>107</v>
@@ -8370,9 +8487,6 @@
       <c r="B82" t="s">
         <v>451</v>
       </c>
-      <c r="D82" t="s">
-        <v>662</v>
-      </c>
       <c r="F82" s="4" t="s">
         <v>450</v>
       </c>
@@ -8388,10 +8502,7 @@
         <v>571</v>
       </c>
       <c r="B83" t="s">
-        <v>661</v>
-      </c>
-      <c r="D83" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>447</v>
@@ -8406,10 +8517,7 @@
         <v>940</v>
       </c>
       <c r="B84" t="s">
-        <v>660</v>
-      </c>
-      <c r="D84" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -8429,7 +8537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2 Q3:T78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="663">
   <si>
     <t>Abilene</t>
   </si>
@@ -2013,12 +2013,15 @@
   </si>
   <si>
     <t>CPC</t>
+  </si>
+  <si>
+    <t>CGS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2837,7 +2840,7 @@
   </sheetPr>
   <dimension ref="A1:AF64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6534,7 +6537,7 @@
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -7782,7 +7785,7 @@
         <v>563</v>
       </c>
       <c r="D53" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E53">
         <v>1328500</v>
@@ -7814,7 +7817,7 @@
         <v>556</v>
       </c>
       <c r="D54" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E54">
         <v>400000</v>
@@ -7834,7 +7837,7 @@
         <v>555</v>
       </c>
       <c r="D55" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E55">
         <v>218560</v>
@@ -7860,7 +7863,7 @@
         <v>550</v>
       </c>
       <c r="D56" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E56">
         <v>993000</v>
@@ -7886,7 +7889,7 @@
         <v>367</v>
       </c>
       <c r="D57" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E57">
         <v>550800</v>
@@ -7912,7 +7915,7 @@
         <v>542</v>
       </c>
       <c r="D58" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E58">
         <v>345600</v>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
     <sheet name="BranchData" sheetId="2" r:id="rId2"/>
     <sheet name="TMALocations" sheetId="4" r:id="rId3"/>
-    <sheet name="GLCategories" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="691">
   <si>
     <t>Abilene</t>
   </si>
@@ -965,21 +964,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>VolFert</t>
-  </si>
-  <si>
-    <t>VolFuel</t>
-  </si>
-  <si>
-    <t>VolGrain</t>
-  </si>
-  <si>
-    <t>VolAppl</t>
-  </si>
-  <si>
     <t>TMA Administrative</t>
   </si>
   <si>
@@ -1070,27 +1054,6 @@
     <t>PEACE CREE</t>
   </si>
   <si>
-    <t>MNACSGMT</t>
-  </si>
-  <si>
-    <t>9805</t>
-  </si>
-  <si>
-    <t>9810</t>
-  </si>
-  <si>
-    <t>9600</t>
-  </si>
-  <si>
-    <t>9800</t>
-  </si>
-  <si>
-    <t>9825</t>
-  </si>
-  <si>
-    <t>9820</t>
-  </si>
-  <si>
     <t>PRIMARY</t>
   </si>
   <si>
@@ -2016,6 +1979,126 @@
   </si>
   <si>
     <t>CGS</t>
+  </si>
+  <si>
+    <t>TMA_BRANCH_NUMBER</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>548</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>185</t>
   </si>
 </sst>
 </file>
@@ -2051,11 +2134,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2131,9 +2213,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblLocation" displayName="tblLocation" ref="A1:U64" totalsRowShown="0">
-  <autoFilter ref="A1:U64"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblLocation" displayName="tblLocation" ref="A1:V64" totalsRowShown="0">
+  <autoFilter ref="A1:V64"/>
+  <tableColumns count="22">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="23" name="Active"/>
     <tableColumn id="2" name="Seasonal"/>
@@ -2146,6 +2228,7 @@
     <tableColumn id="9" name="Services"/>
     <tableColumn id="10" name="LocationCode"/>
     <tableColumn id="11" name="LocGLStr" dataDxfId="13"/>
+    <tableColumn id="20" name="TMA_BRANCH_NUMBER" dataDxfId="0"/>
     <tableColumn id="15" name="LOCNCODE" dataDxfId="12"/>
     <tableColumn id="19" name="AgLocationCode" dataDxfId="11"/>
     <tableColumn id="12" name="Latitude" dataDxfId="10"/>
@@ -2177,20 +2260,6 @@
     <tableColumn id="11" name="Fax"/>
     <tableColumn id="12" name="Latitude"/>
     <tableColumn id="13" name="Longitude"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B8" totalsRowShown="0">
-  <sortState ref="A2:B8">
-    <sortCondition ref="A2:A8"/>
-    <sortCondition ref="B2:B8"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Category"/>
-    <tableColumn id="2" name="MNACSGMT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2838,35 +2907,38 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF64"/>
+  <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -2904,37 +2976,40 @@
         <v>243</v>
       </c>
       <c r="M1" t="s">
+        <v>651</v>
+      </c>
+      <c r="N1" t="s">
         <v>246</v>
       </c>
-      <c r="N1" t="s">
-        <v>445</v>
-      </c>
       <c r="O1" t="s">
+        <v>433</v>
+      </c>
+      <c r="P1" t="s">
         <v>244</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>245</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>279</v>
       </c>
-      <c r="R1" t="s">
-        <v>431</v>
-      </c>
       <c r="S1" t="s">
+        <v>419</v>
+      </c>
+      <c r="T1" t="s">
         <v>280</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>281</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>282</v>
       </c>
-      <c r="Z1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2969,48 +3044,51 @@
         <v>212</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>247</v>
+        <v>652</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="P2" s="2">
         <v>38.914143000000003</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>-97.202228000000005</v>
       </c>
-      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2">
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
         <v>600</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <v>0</v>
       </c>
-      <c r="U2" s="2">
+      <c r="V2" s="2">
         <v>716000</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" t="s">
-        <v>354</v>
-      </c>
       <c r="AB2" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE2" t="s">
         <v>247</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>83</v>
       </c>
-      <c r="AF2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3045,30 +3123,33 @@
         <v>213</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="P3" s="2">
         <v>38.862507200000003</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>-96.494437399999995</v>
       </c>
-      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
         <v>813</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>30000</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>1216000</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3102,41 +3183,44 @@
       <c r="L4" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="2"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="2">
         <v>0</v>
       </c>
       <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
         <v>577000</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>2</v>
       </c>
-      <c r="AA4" t="s">
-        <v>354</v>
-      </c>
       <c r="AB4" t="s">
-        <v>357</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>358</v>
+        <v>342</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>345</v>
       </c>
       <c r="AE4" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF4" t="s">
         <v>83</v>
       </c>
-      <c r="AF4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3171,48 +3255,51 @@
         <v>214</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P5" s="2">
         <v>39.031503800000003</v>
       </c>
-      <c r="P5" s="2">
+      <c r="Q5" s="2">
         <v>-97.592381799999998</v>
       </c>
-      <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="2">
+      <c r="S5" s="2"/>
+      <c r="T5" s="2">
         <v>1740</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>0</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>551000</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>3</v>
       </c>
-      <c r="AA5" t="s">
-        <v>354</v>
-      </c>
       <c r="AB5" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD5" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE5" t="s">
         <v>249</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>83</v>
       </c>
-      <c r="AF5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3247,48 +3334,51 @@
         <v>215</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>250</v>
+        <v>654</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P6" s="2">
         <v>37.789031000000001</v>
       </c>
-      <c r="P6" s="2">
+      <c r="Q6" s="2">
         <v>-97.107370000000003</v>
       </c>
-      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2">
+      <c r="S6" s="2"/>
+      <c r="T6" s="2">
         <v>304</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>0</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>1581000</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" t="s">
-        <v>354</v>
-      </c>
       <c r="AB6" t="s">
-        <v>362</v>
-      </c>
-      <c r="AD6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AE6" t="s">
         <v>250</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>83</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3301,23 +3391,26 @@
       <c r="L7" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>655</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="2"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
+      <c r="S7" s="2"/>
       <c r="T7" s="2">
         <v>0</v>
       </c>
       <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
         <v>288000</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3352,48 +3445,51 @@
         <v>216</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>251</v>
+        <v>662</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="P8" s="2">
         <v>38.135297999999999</v>
       </c>
-      <c r="P8" s="2">
+      <c r="Q8" s="2">
         <v>-97.770600299999998</v>
       </c>
-      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2">
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
         <v>764</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>32000</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>790000</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>6</v>
       </c>
-      <c r="AA8" t="s">
-        <v>354</v>
-      </c>
       <c r="AB8" t="s">
-        <v>363</v>
-      </c>
-      <c r="AD8" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE8" t="s">
         <v>251</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>83</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -3406,25 +3502,26 @@
       <c r="L9" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
         <v>0</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>250700</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3459,48 +3556,51 @@
         <v>217</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>252</v>
+        <v>663</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="P10" s="2">
         <v>38.089356199999997</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>-96.886448299999998</v>
       </c>
-      <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
         <v>699</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>64000</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>1689669</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>7</v>
       </c>
-      <c r="AA10" t="s">
-        <v>354</v>
-      </c>
       <c r="AB10" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE10" t="s">
         <v>252</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>83</v>
       </c>
-      <c r="AF10" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -3534,35 +3634,38 @@
       <c r="L11" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="2"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="Z11" t="s">
+      <c r="V11" s="2"/>
+      <c r="AA11" t="s">
         <v>107</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC11" t="s">
         <v>354</v>
       </c>
-      <c r="AB11" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>367</v>
-      </c>
       <c r="AE11" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF11" t="s">
         <v>83</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3597,48 +3700,51 @@
         <v>218</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P12" s="2">
         <v>37.867400000000004</v>
       </c>
-      <c r="P12" s="2">
+      <c r="Q12" s="2">
         <v>-97.968699999999998</v>
       </c>
-      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="2">
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
         <v>677</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>25750</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>618000</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>8</v>
       </c>
-      <c r="AA12" t="s">
-        <v>354</v>
-      </c>
       <c r="AB12" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>369</v>
+        <v>342</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>356</v>
       </c>
       <c r="AE12" t="s">
+        <v>357</v>
+      </c>
+      <c r="AF12" t="s">
         <v>83</v>
       </c>
-      <c r="AF12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -3651,23 +3757,24 @@
       <c r="L13" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="2">
         <v>38.4475148</v>
       </c>
-      <c r="P13" s="2">
+      <c r="Q13" s="2">
         <v>-97.666996100000006</v>
       </c>
-      <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -3681,30 +3788,33 @@
         <v>294</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>335</v>
+        <v>658</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O14" s="2">
+        <v>330</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P14" s="2">
         <v>38.370841499999997</v>
       </c>
-      <c r="P14" s="2">
+      <c r="Q14" s="2">
         <v>-97.664208700000003</v>
       </c>
-      <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
+      <c r="S14" s="2"/>
       <c r="T14" s="2">
         <v>0</v>
       </c>
       <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
         <v>439000</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3738,37 +3848,40 @@
       <c r="L15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2">
+      <c r="U15" s="2"/>
+      <c r="V15" s="2">
         <v>357000</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>114</v>
       </c>
-      <c r="AA15" t="s">
-        <v>354</v>
-      </c>
       <c r="AB15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>372</v>
+        <v>342</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>359</v>
       </c>
       <c r="AE15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF15" t="s">
         <v>83</v>
       </c>
-      <c r="AF15" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3803,46 +3916,49 @@
         <v>219</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="2">
+      <c r="O16" s="1"/>
+      <c r="P16" s="2">
         <v>38.289623200000001</v>
       </c>
-      <c r="P16" s="2">
+      <c r="Q16" s="2">
         <v>-97.618053500000002</v>
       </c>
-      <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
+      <c r="S16" s="2"/>
       <c r="T16" s="2">
         <v>0</v>
       </c>
       <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
         <v>258000</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>10</v>
       </c>
-      <c r="AA16" t="s">
-        <v>354</v>
-      </c>
       <c r="AB16" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD16" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>362</v>
+      </c>
+      <c r="AE16" t="s">
         <v>273</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>83</v>
       </c>
-      <c r="AF16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -3855,21 +3971,22 @@
       <c r="L17" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>338</v>
-      </c>
+      <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -3903,23 +4020,26 @@
       <c r="L18" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>659</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
+      <c r="S18" s="2"/>
       <c r="T18" s="2">
         <v>0</v>
       </c>
       <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
         <v>187000</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3954,48 +4074,51 @@
         <v>220</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>255</v>
+        <v>665</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P19" s="2">
         <v>38.242364600000002</v>
       </c>
-      <c r="P19" s="2">
+      <c r="Q19" s="2">
         <v>-96.926252000000005</v>
       </c>
-      <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2">
+      <c r="S19" s="2"/>
+      <c r="T19" s="2">
         <v>250</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <v>262000</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>12</v>
       </c>
-      <c r="AA19" t="s">
-        <v>354</v>
-      </c>
       <c r="AB19" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD19" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE19" t="s">
         <v>255</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>83</v>
       </c>
-      <c r="AF19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4030,30 +4153,33 @@
         <v>221</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>256</v>
+        <v>666</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P20" s="2">
         <v>38.384791</v>
       </c>
-      <c r="P20" s="2">
+      <c r="Q20" s="2">
         <v>-97.538265899999999</v>
       </c>
-      <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2">
+      <c r="S20" s="2"/>
+      <c r="T20" s="2">
         <v>299</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>30000</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <v>643000</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4088,30 +4214,33 @@
         <v>222</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>257</v>
+        <v>667</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="P21" s="2">
         <v>38.205322600000002</v>
       </c>
-      <c r="P21" s="2">
+      <c r="Q21" s="2">
         <v>-97.515514600000003</v>
       </c>
-      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="2">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
         <v>630</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U21" s="2">
         <v>46000</v>
       </c>
-      <c r="U21" s="2">
+      <c r="V21" s="2">
         <v>205000</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4146,48 +4275,51 @@
         <v>223</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="O22" s="2">
+      <c r="O22" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="P22" s="2">
         <v>38.289691599999998</v>
       </c>
-      <c r="P22" s="2">
+      <c r="Q22" s="2">
         <v>-97.779943399999993</v>
       </c>
-      <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2">
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
         <v>92</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="2">
         <v>14225</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <v>4460181</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>15</v>
       </c>
-      <c r="AA22" t="s">
-        <v>354</v>
-      </c>
       <c r="AB22" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>379</v>
+        <v>342</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>366</v>
       </c>
       <c r="AE22" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF22" t="s">
         <v>83</v>
       </c>
-      <c r="AF22" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4222,48 +4354,51 @@
         <v>224</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>341</v>
+        <v>669</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="O23" s="2">
+        <v>336</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="P23" s="2">
         <v>37.9</v>
       </c>
-      <c r="P23" s="2">
+      <c r="Q23" s="2">
         <v>-97.784899899999999</v>
       </c>
-      <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="2">
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
         <v>6992</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="2">
         <v>30500</v>
       </c>
-      <c r="U23" s="2">
+      <c r="V23" s="2">
         <v>1110000</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>16</v>
       </c>
-      <c r="AA23" t="s">
-        <v>354</v>
-      </c>
       <c r="AB23" t="s">
-        <v>381</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>382</v>
+        <v>342</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>369</v>
       </c>
       <c r="AE23" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF23" t="s">
         <v>83</v>
       </c>
-      <c r="AF23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG23" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>286</v>
       </c>
@@ -4276,21 +4411,22 @@
       <c r="L24" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>340</v>
-      </c>
+      <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4324,47 +4460,48 @@
       <c r="L25" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2">
+      <c r="O25" s="1"/>
+      <c r="P25" s="2">
         <v>38.666502000000001</v>
       </c>
-      <c r="P25" s="2">
+      <c r="Q25" s="2">
         <v>-96.948407000000003</v>
       </c>
-      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2">
+      <c r="S25" s="2"/>
+      <c r="T25" s="2">
         <v>0</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <v>3000</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V25" s="2">
         <v>0</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>17</v>
       </c>
-      <c r="AA25" t="s">
-        <v>354</v>
-      </c>
       <c r="AB25" t="s">
-        <v>384</v>
-      </c>
-      <c r="AD25" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>372</v>
+      </c>
+      <c r="AE25" t="s">
         <v>259</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>83</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -4398,19 +4535,22 @@
       <c r="L26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4419,23 +4559,24 @@
         <v>480</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>342</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -4446,21 +4587,22 @@
         <v>500</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="O28" s="2"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4494,47 +4636,48 @@
       <c r="L29" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="2">
+      <c r="O29" s="1"/>
+      <c r="P29" s="2">
         <v>38.232165999999999</v>
       </c>
-      <c r="P29" s="2">
+      <c r="Q29" s="2">
         <v>-97.774975999999995</v>
       </c>
-      <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="2">
+      <c r="S29" s="2"/>
+      <c r="T29" s="2">
         <v>1564</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <v>20700</v>
       </c>
-      <c r="U29" s="2">
+      <c r="V29" s="2">
         <v>0</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>19</v>
       </c>
-      <c r="AA29" t="s">
-        <v>354</v>
-      </c>
       <c r="AB29" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>379</v>
+        <v>342</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>373</v>
       </c>
       <c r="AE29" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF29" t="s">
         <v>83</v>
       </c>
-      <c r="AF29" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4569,48 +4712,51 @@
         <v>227</v>
       </c>
       <c r="M30" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P30" s="2">
         <v>38.574119000000003</v>
       </c>
-      <c r="P30" s="2">
+      <c r="Q30" s="2">
         <v>-97.671643000000003</v>
       </c>
-      <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="2">
+      <c r="S30" s="2"/>
+      <c r="T30" s="2">
         <v>1071</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <v>20400</v>
       </c>
-      <c r="U30" s="2">
+      <c r="V30" s="2">
         <v>1467000</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>20</v>
       </c>
-      <c r="AA30" t="s">
-        <v>354</v>
-      </c>
       <c r="AB30" t="s">
-        <v>387</v>
-      </c>
-      <c r="AD30" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE30" t="s">
         <v>260</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
         <v>83</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4645,30 +4791,33 @@
         <v>228</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>261</v>
+        <v>671</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P31" s="2">
         <v>39.169995700000001</v>
       </c>
-      <c r="P31" s="2">
+      <c r="Q31" s="2">
         <v>-97.331413400000002</v>
       </c>
-      <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="2">
+      <c r="S31" s="2"/>
+      <c r="T31" s="2">
         <v>730</v>
       </c>
-      <c r="T31" s="2">
+      <c r="U31" s="2">
         <v>0</v>
       </c>
-      <c r="U31" s="2">
+      <c r="V31" s="2">
         <v>260000</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>287</v>
       </c>
@@ -4682,22 +4831,25 @@
         <v>300</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>339</v>
+        <v>682</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4706,21 +4858,22 @@
         <v>40</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N33" s="1"/>
-      <c r="O33" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O33" s="1"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -4754,47 +4907,48 @@
       <c r="L34" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="2">
+      <c r="O34" s="1"/>
+      <c r="P34" s="2">
         <v>39.1816095</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q34" s="2">
         <v>-96.557330500000006</v>
       </c>
-      <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="2">
+      <c r="S34" s="2"/>
+      <c r="T34" s="2">
         <v>0</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
         <v>48000</v>
       </c>
-      <c r="U34" s="2">
+      <c r="V34" s="2">
         <v>0</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>22</v>
       </c>
-      <c r="AA34" t="s">
-        <v>354</v>
-      </c>
       <c r="AB34" t="s">
-        <v>388</v>
-      </c>
-      <c r="AD34" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>376</v>
+      </c>
+      <c r="AE34" t="s">
         <v>272</v>
       </c>
-      <c r="AE34" t="s">
+      <c r="AF34" t="s">
         <v>83</v>
       </c>
-      <c r="AF34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG34" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -4829,48 +4983,51 @@
         <v>229</v>
       </c>
       <c r="M35" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P35" s="2">
         <v>39.192815099999997</v>
       </c>
-      <c r="P35" s="2">
+      <c r="Q35" s="2">
         <v>-96.505954700000004</v>
       </c>
-      <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="2">
+      <c r="S35" s="2"/>
+      <c r="T35" s="2">
         <v>1492</v>
       </c>
-      <c r="T35" s="2">
+      <c r="U35" s="2">
         <v>153000</v>
       </c>
-      <c r="U35" s="2">
+      <c r="V35" s="2">
         <v>1266000</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>152</v>
       </c>
-      <c r="AA35" t="s">
-        <v>354</v>
-      </c>
       <c r="AB35" t="s">
-        <v>390</v>
-      </c>
-      <c r="AD35" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE35" t="s">
         <v>272</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>83</v>
       </c>
-      <c r="AF35" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG35" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -4905,50 +5062,53 @@
         <v>230</v>
       </c>
       <c r="M36" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="O36" s="2">
+      <c r="O36" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P36" s="2">
         <v>38.557795300000002</v>
       </c>
-      <c r="P36" s="2">
+      <c r="Q36" s="2">
         <v>-97.834316099999995</v>
       </c>
-      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="2">
+      <c r="S36" s="2"/>
+      <c r="T36" s="2">
         <v>575</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <v>36000</v>
       </c>
-      <c r="U36" s="2">
+      <c r="V36" s="2">
         <v>1615000</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>24</v>
       </c>
-      <c r="AA36" t="s">
-        <v>354</v>
-      </c>
       <c r="AB36" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD36" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE36" t="s">
         <v>262</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>83</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>67464</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4960,24 +5120,27 @@
         <v>301</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>343</v>
+        <v>672</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="O37" s="2">
+        <v>338</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P37" s="2">
         <v>38.086703200000002</v>
       </c>
-      <c r="P37" s="2">
+      <c r="Q37" s="2">
         <v>-97.263819699999999</v>
       </c>
-      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -5011,23 +5174,24 @@
       <c r="L38" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2">
+      <c r="O38" s="1"/>
+      <c r="P38" s="2">
         <v>38.4475148</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>-97.666996100000006</v>
       </c>
-      <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -5056,35 +5220,38 @@
         <v>85</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>689</v>
+      </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="2"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
-      <c r="Z39" t="s">
+      <c r="V39" s="2"/>
+      <c r="AA39" t="s">
         <v>157</v>
       </c>
-      <c r="AA39" t="s">
-        <v>354</v>
-      </c>
       <c r="AB39" t="s">
-        <v>393</v>
-      </c>
-      <c r="AD39" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE39" t="s">
         <v>273</v>
       </c>
-      <c r="AE39" t="s">
+      <c r="AF39" t="s">
         <v>83</v>
       </c>
-      <c r="AF39" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -5113,35 +5280,38 @@
         <v>85</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>688</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="2"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
-      <c r="Z40" t="s">
+      <c r="V40" s="2"/>
+      <c r="AA40" t="s">
         <v>160</v>
       </c>
-      <c r="AA40" t="s">
-        <v>354</v>
-      </c>
       <c r="AB40" t="s">
-        <v>395</v>
-      </c>
-      <c r="AD40" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE40" t="s">
         <v>273</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>83</v>
       </c>
-      <c r="AF40" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG40" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -5152,21 +5322,22 @@
         <v>32</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O41" s="1"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -5201,46 +5372,49 @@
         <v>232</v>
       </c>
       <c r="M42" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="N42" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="N42" s="1"/>
-      <c r="O42" s="2">
+      <c r="O42" s="1"/>
+      <c r="P42" s="2">
         <v>38.372224000000003</v>
       </c>
-      <c r="P42" s="2">
+      <c r="Q42" s="2">
         <v>-97.668978899999999</v>
       </c>
-      <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="2">
+      <c r="S42" s="2"/>
+      <c r="T42" s="2">
         <v>0</v>
       </c>
-      <c r="T42" s="2">
+      <c r="U42" s="2">
         <v>18000</v>
       </c>
-      <c r="U42" s="2">
+      <c r="V42" s="2">
         <v>1825000</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>166</v>
       </c>
-      <c r="AA42" t="s">
-        <v>354</v>
-      </c>
       <c r="AB42" t="s">
-        <v>397</v>
-      </c>
-      <c r="AD42" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE42" t="s">
         <v>273</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>83</v>
       </c>
-      <c r="AF42" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG42" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -5279,33 +5453,34 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="2"/>
+      <c r="O43" s="1"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
-      <c r="Z43" t="s">
+      <c r="V43" s="2"/>
+      <c r="AA43" t="s">
         <v>79</v>
       </c>
-      <c r="AA43" t="s">
-        <v>354</v>
-      </c>
       <c r="AB43" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD43" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE43" t="s">
         <v>274</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
         <v>83</v>
       </c>
-      <c r="AF43" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -5343,48 +5518,51 @@
         <v>233</v>
       </c>
       <c r="M44" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="N44" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="O44" s="2">
+      <c r="O44" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P44" s="2">
         <v>38.202722299999998</v>
       </c>
-      <c r="P44" s="2">
+      <c r="Q44" s="2">
         <v>-97.522767200000004</v>
       </c>
-      <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2">
+      <c r="S44" s="2"/>
+      <c r="T44" s="2">
         <v>1098</v>
       </c>
-      <c r="T44" s="2">
+      <c r="U44" s="2">
         <v>36300</v>
       </c>
-      <c r="U44" s="2">
+      <c r="V44" s="2">
         <v>1478000</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>174</v>
       </c>
-      <c r="AA44" t="s">
-        <v>354</v>
-      </c>
       <c r="AB44" t="s">
-        <v>399</v>
-      </c>
-      <c r="AD44" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE44" t="s">
         <v>274</v>
       </c>
-      <c r="AE44" t="s">
+      <c r="AF44" t="s">
         <v>83</v>
       </c>
-      <c r="AF44" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -5415,33 +5593,34 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="2"/>
+      <c r="O45" s="1"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
-      <c r="Z45" t="s">
+      <c r="V45" s="2"/>
+      <c r="AA45" t="s">
         <v>169</v>
       </c>
-      <c r="AA45" t="s">
-        <v>354</v>
-      </c>
       <c r="AB45" t="s">
-        <v>401</v>
-      </c>
-      <c r="AD45" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE45" t="s">
         <v>274</v>
       </c>
-      <c r="AE45" t="s">
+      <c r="AF45" t="s">
         <v>83</v>
       </c>
-      <c r="AF45" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -5454,17 +5633,20 @@
       <c r="L46" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>684</v>
+      </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="2"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -5500,39 +5682,40 @@
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="2"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
+      <c r="S47" s="2"/>
       <c r="T47" s="2">
         <v>0</v>
       </c>
       <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
         <v>436000</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>27</v>
       </c>
-      <c r="AA47" t="s">
-        <v>354</v>
-      </c>
       <c r="AB47" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>404</v>
+        <v>342</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>391</v>
       </c>
       <c r="AE47" t="s">
+        <v>392</v>
+      </c>
+      <c r="AF47" t="s">
         <v>83</v>
       </c>
-      <c r="AF47" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>289</v>
       </c>
@@ -5545,25 +5728,26 @@
       <c r="L48" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="M48" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="N48" s="1"/>
-      <c r="O48" s="2"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O48" s="1"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="2">
+      <c r="S48" s="2"/>
+      <c r="T48" s="2">
         <v>0</v>
       </c>
-      <c r="T48" s="2">
+      <c r="U48" s="2">
         <v>9500</v>
       </c>
-      <c r="U48" s="2">
+      <c r="V48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -5598,48 +5782,51 @@
         <v>234</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>263</v>
+        <v>685</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P49" s="2">
         <v>39.480414099999997</v>
       </c>
-      <c r="P49" s="2">
+      <c r="Q49" s="2">
         <v>-96.177394699999994</v>
       </c>
-      <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-      <c r="S49" s="2">
+      <c r="S49" s="2"/>
+      <c r="T49" s="2">
         <v>763</v>
       </c>
-      <c r="T49" s="2">
+      <c r="U49" s="2">
         <v>40100</v>
       </c>
-      <c r="U49" s="2">
+      <c r="V49" s="2">
         <v>1413000</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>28</v>
       </c>
-      <c r="AA49" t="s">
-        <v>354</v>
-      </c>
       <c r="AB49" t="s">
-        <v>406</v>
-      </c>
-      <c r="AD49" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>394</v>
+      </c>
+      <c r="AE49" t="s">
         <v>263</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
         <v>83</v>
       </c>
-      <c r="AF49" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG49" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5674,50 +5861,53 @@
         <v>235</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>264</v>
+        <v>674</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P50" s="2">
         <v>38.164371600000003</v>
       </c>
-      <c r="P50" s="2">
+      <c r="Q50" s="2">
         <v>-97.103965099999996</v>
       </c>
-      <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="2">
+      <c r="S50" s="2"/>
+      <c r="T50" s="2">
         <v>673</v>
       </c>
-      <c r="T50" s="2">
+      <c r="U50" s="2">
         <v>22000</v>
       </c>
-      <c r="U50" s="2">
+      <c r="V50" s="2">
         <v>801000</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>29</v>
       </c>
-      <c r="AA50" t="s">
-        <v>354</v>
-      </c>
       <c r="AB50" t="s">
-        <v>408</v>
-      </c>
-      <c r="AD50" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>396</v>
+      </c>
+      <c r="AE50" t="s">
         <v>264</v>
       </c>
-      <c r="AE50" t="s">
+      <c r="AF50" t="s">
         <v>83</v>
       </c>
-      <c r="AF50" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5726,25 +5916,28 @@
         <v>720</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>346</v>
+        <v>675</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -5753,25 +5946,26 @@
         <v>50</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>336</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5780,19 +5974,20 @@
         <v>740</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
-      <c r="O53" s="2"/>
+      <c r="O53" s="1"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V53" s="2"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -5827,42 +6022,45 @@
         <v>239</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="2"/>
+        <v>686</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="O54" s="1"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="2">
-        <v>0</v>
-      </c>
+      <c r="S54" s="2"/>
       <c r="T54" s="2">
         <v>0</v>
       </c>
       <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
         <v>2178000</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>181</v>
       </c>
-      <c r="AA54" t="s">
-        <v>354</v>
-      </c>
       <c r="AB54" t="s">
-        <v>410</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>411</v>
+        <v>342</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>398</v>
       </c>
       <c r="AE54" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF54" t="s">
         <v>83</v>
       </c>
-      <c r="AF54" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -5896,23 +6094,26 @@
       <c r="L55" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="M55" s="1"/>
+      <c r="M55" s="1" t="s">
+        <v>656</v>
+      </c>
       <c r="N55" s="1"/>
-      <c r="O55" s="2"/>
+      <c r="O55" s="1"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="2">
+      <c r="S55" s="2"/>
+      <c r="T55" s="2">
         <v>52</v>
       </c>
-      <c r="T55" s="2">
+      <c r="U55" s="2">
         <v>0</v>
       </c>
-      <c r="U55" s="2">
+      <c r="V55" s="2">
         <v>279000</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -5943,47 +6144,48 @@
       <c r="L56" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="2">
+      <c r="O56" s="1"/>
+      <c r="P56" s="2">
         <v>38.855463999999998</v>
       </c>
-      <c r="P56" s="2">
+      <c r="Q56" s="2">
         <v>-97.614002999999997</v>
       </c>
-      <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="2">
+      <c r="S56" s="2"/>
+      <c r="T56" s="2">
         <v>0</v>
       </c>
-      <c r="T56" s="2">
+      <c r="U56" s="2">
         <v>24000</v>
       </c>
-      <c r="U56" s="2">
+      <c r="V56" s="2">
         <v>0</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>189</v>
       </c>
-      <c r="AA56" t="s">
-        <v>354</v>
-      </c>
       <c r="AB56" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD56" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE56" t="s">
         <v>265</v>
       </c>
-      <c r="AE56" t="s">
+      <c r="AF56" t="s">
         <v>83</v>
       </c>
-      <c r="AF56" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG56" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -6018,48 +6220,51 @@
         <v>237</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>266</v>
+        <v>675</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="P57" s="2">
         <v>38.917464000000002</v>
       </c>
-      <c r="P57" s="2">
+      <c r="Q57" s="2">
         <v>-97.374758999999997</v>
       </c>
-      <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="2">
+      <c r="S57" s="2"/>
+      <c r="T57" s="2">
         <v>950</v>
       </c>
-      <c r="T57" s="2">
+      <c r="U57" s="2">
         <v>0</v>
       </c>
-      <c r="U57" s="2">
+      <c r="V57" s="2">
         <v>608000</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>30</v>
       </c>
-      <c r="AA57" t="s">
-        <v>354</v>
-      </c>
       <c r="AB57" t="s">
-        <v>415</v>
-      </c>
-      <c r="AD57" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE57" t="s">
         <v>266</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AF57" t="s">
         <v>83</v>
       </c>
-      <c r="AF57" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -6094,50 +6299,53 @@
         <v>238</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>267</v>
+        <v>676</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P58" s="2">
         <v>39.026199400000003</v>
       </c>
-      <c r="P58" s="2">
+      <c r="Q58" s="2">
         <v>-97.259965699999995</v>
       </c>
-      <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="2">
+      <c r="S58" s="2"/>
+      <c r="T58" s="2">
         <v>1210</v>
       </c>
-      <c r="T58" s="2">
+      <c r="U58" s="2">
         <v>22500</v>
       </c>
-      <c r="U58" s="2">
+      <c r="V58" s="2">
         <v>1267820</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>31</v>
       </c>
-      <c r="AA58" t="s">
-        <v>354</v>
-      </c>
       <c r="AB58" t="s">
-        <v>417</v>
-      </c>
-      <c r="AD58" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE58" t="s">
         <v>267</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AF58" t="s">
         <v>83</v>
       </c>
-      <c r="AF58" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6146,19 +6354,20 @@
         <v>18</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="2"/>
+      <c r="O59" s="1"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="V59" s="2"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -6193,48 +6402,51 @@
         <v>240</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>268</v>
+        <v>677</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="P60" s="2">
         <v>38.218391099999998</v>
       </c>
-      <c r="P60" s="2">
+      <c r="Q60" s="2">
         <v>-97.229442399999996</v>
       </c>
-      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="2">
+      <c r="S60" s="2"/>
+      <c r="T60" s="2">
         <v>1735</v>
       </c>
-      <c r="T60" s="2">
+      <c r="U60" s="2">
         <v>42000</v>
       </c>
-      <c r="U60" s="2">
+      <c r="V60" s="2">
         <v>3262000</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>32</v>
       </c>
-      <c r="AA60" t="s">
-        <v>354</v>
-      </c>
       <c r="AB60" t="s">
-        <v>419</v>
-      </c>
-      <c r="AD60" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE60" t="s">
         <v>268</v>
       </c>
-      <c r="AE60" t="s">
+      <c r="AF60" t="s">
         <v>83</v>
       </c>
-      <c r="AF60">
+      <c r="AG60">
         <v>67151</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -6268,47 +6480,48 @@
       <c r="L61" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="1"/>
+      <c r="N61" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="N61" s="1"/>
-      <c r="O61" s="2">
+      <c r="O61" s="1"/>
+      <c r="P61" s="2">
         <v>39.3915431</v>
       </c>
-      <c r="P61" s="2">
+      <c r="Q61" s="2">
         <v>-96.410154700000007</v>
       </c>
-      <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-      <c r="S61" s="2">
+      <c r="S61" s="2"/>
+      <c r="T61" s="2">
         <v>21</v>
       </c>
-      <c r="T61" s="2">
+      <c r="U61" s="2">
         <v>44000</v>
       </c>
-      <c r="U61" s="2">
+      <c r="V61" s="2">
         <v>0</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>33</v>
       </c>
-      <c r="AA61" t="s">
-        <v>354</v>
-      </c>
       <c r="AB61" t="s">
-        <v>420</v>
-      </c>
-      <c r="AD61" t="s">
-        <v>421</v>
+        <v>342</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>408</v>
       </c>
       <c r="AE61" t="s">
+        <v>409</v>
+      </c>
+      <c r="AF61" t="s">
         <v>83</v>
       </c>
-      <c r="AF61" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG61" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -6343,48 +6556,51 @@
         <v>242</v>
       </c>
       <c r="M62" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="N62" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="O62" s="2">
+      <c r="O62" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="P62" s="2">
         <v>37.962503599999998</v>
       </c>
-      <c r="P62" s="2">
+      <c r="Q62" s="2">
         <v>-97.150157199999995</v>
       </c>
-      <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
-      <c r="S62" s="2">
+      <c r="S62" s="2"/>
+      <c r="T62" s="2">
         <v>1530</v>
       </c>
-      <c r="T62" s="2">
+      <c r="U62" s="2">
         <v>0</v>
       </c>
-      <c r="U62" s="2">
+      <c r="V62" s="2">
         <v>1113000</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>34</v>
       </c>
-      <c r="AA62" t="s">
-        <v>354</v>
-      </c>
       <c r="AB62" t="s">
-        <v>423</v>
-      </c>
-      <c r="AD62" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE62" t="s">
         <v>269</v>
       </c>
-      <c r="AE62" t="s">
+      <c r="AF62" t="s">
         <v>83</v>
       </c>
-      <c r="AF62">
+      <c r="AG62">
         <v>67154</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -6420,39 +6636,40 @@
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
-      <c r="O63" s="2"/>
+      <c r="O63" s="1"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2">
-        <v>0</v>
-      </c>
+      <c r="S63" s="2"/>
       <c r="T63" s="2">
         <v>0</v>
       </c>
       <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
         <v>1985000</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>203</v>
       </c>
-      <c r="AA63" t="s">
-        <v>354</v>
-      </c>
       <c r="AB63" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD63" t="s">
-        <v>425</v>
+        <v>342</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>412</v>
       </c>
       <c r="AE63" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF63" t="s">
         <v>83</v>
       </c>
-      <c r="AF63" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -6486,38 +6703,41 @@
       <c r="L64" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M64" s="1"/>
+      <c r="M64" s="1" t="s">
+        <v>687</v>
+      </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="2"/>
+      <c r="O64" s="1"/>
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="2">
-        <v>0</v>
-      </c>
+      <c r="S64" s="2"/>
       <c r="T64" s="2">
         <v>0</v>
       </c>
       <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
         <v>469000</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>35</v>
       </c>
-      <c r="AA64" t="s">
-        <v>354</v>
-      </c>
       <c r="AB64" t="s">
-        <v>427</v>
-      </c>
-      <c r="AD64" t="s">
-        <v>428</v>
+        <v>342</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>415</v>
       </c>
       <c r="AE64" t="s">
+        <v>416</v>
+      </c>
+      <c r="AF64" t="s">
         <v>83</v>
       </c>
-      <c r="AF64" t="s">
-        <v>429</v>
+      <c r="AG64" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6537,7 +6757,7 @@
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -6558,37 +6778,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="B1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="D1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E1" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="I1" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="J1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="K1" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="L1" t="s">
         <v>244</v>
@@ -6605,25 +6825,25 @@
         <v>274</v>
       </c>
       <c r="D2" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E2">
         <v>1330200</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>643</v>
+      <c r="J2" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -6631,13 +6851,13 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>642</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+        <v>630</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -6647,22 +6867,22 @@
         <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E4">
         <v>651600</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>640</v>
+      <c r="K4" s="3" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -6673,25 +6893,25 @@
         <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E5">
         <v>3120000</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>638</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>637</v>
+      <c r="J5" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -6699,19 +6919,19 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="D6" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E6">
         <v>1000000</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -6720,13 +6940,13 @@
       <c r="B7" t="s">
         <v>273</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6738,25 +6958,25 @@
         <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E8">
         <v>1318300</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>631</v>
+      <c r="G8" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -6764,31 +6984,31 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E9">
         <v>1053900</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>627</v>
+      <c r="I9" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -6799,18 +7019,18 @@
         <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E10">
         <v>184500</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6822,22 +7042,22 @@
         <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E11">
         <v>607500</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>624</v>
+      <c r="K11" s="3" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -6845,22 +7065,22 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="D12" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E12">
         <v>259200</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>621</v>
+      <c r="G12" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -6871,22 +7091,22 @@
         <v>253</v>
       </c>
       <c r="D13" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E13">
         <v>406200</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="H13" s="4" t="s">
+      <c r="G13" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>619</v>
+      <c r="K13" s="3" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6894,25 +7114,25 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D14" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>617</v>
+      <c r="G14" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6923,25 +7143,25 @@
         <v>254</v>
       </c>
       <c r="D15" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E15">
         <v>232200</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G15" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>614</v>
+      <c r="I15" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6949,21 +7169,21 @@
         <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="D16" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E16">
         <v>165655</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="H16" s="4" t="s">
+      <c r="G16" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6972,24 +7192,24 @@
         <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D17" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6998,21 +7218,21 @@
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D18" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E18">
         <v>421000</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="H18" s="4" t="s">
+      <c r="G18" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7021,25 +7241,25 @@
         <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D19" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E19">
         <v>519300</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>608</v>
+      <c r="K19" s="3" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7047,62 +7267,62 @@
         <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="D20" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E20">
         <v>235800</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D21" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E21">
         <v>354600</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="D22" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E22">
         <v>352000</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7111,38 +7331,38 @@
         <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D23" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E23">
         <v>765000</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="D24" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E24">
         <v>900000</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="H24" s="4" t="s">
+      <c r="F24" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7151,35 +7371,35 @@
         <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D25" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E25">
         <v>1000000</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D26" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E26">
         <v>800000</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -7189,22 +7409,22 @@
         <v>262</v>
       </c>
       <c r="D27" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E27">
         <v>485500</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="G27" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>597</v>
+      <c r="K27" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -7215,25 +7435,25 @@
         <v>267</v>
       </c>
       <c r="D28" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E28">
         <v>1060000</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="H28" s="4" t="s">
+      <c r="G28" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>594</v>
+      <c r="J28" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7244,22 +7464,22 @@
         <v>261</v>
       </c>
       <c r="D29" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E29">
         <v>234000</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="H29" s="4" t="s">
+      <c r="G29" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>592</v>
+      <c r="K29" s="3" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7270,22 +7490,22 @@
         <v>266</v>
       </c>
       <c r="D30" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E30">
         <v>509000</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="H30" s="4" t="s">
+      <c r="G30" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>590</v>
+      <c r="K30" s="3" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7296,22 +7516,22 @@
         <v>247</v>
       </c>
       <c r="D31" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E31">
         <v>644000</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>588</v>
+      <c r="K31" s="3" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7322,22 +7542,22 @@
         <v>249</v>
       </c>
       <c r="D32" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E32">
         <v>182000</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K32" s="4" t="s">
-        <v>587</v>
+      <c r="K32" s="3" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7345,39 +7565,39 @@
         <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="D33" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="K33" s="3"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="D34" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7386,50 +7606,50 @@
         <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="D35" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E35">
         <v>319000</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>584</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+        <v>572</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="D37" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E37">
         <v>1620000</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -7441,25 +7661,25 @@
         <v>268</v>
       </c>
       <c r="D38" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E38">
         <v>1186200</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>582</v>
+      <c r="J38" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -7467,19 +7687,19 @@
         <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D39" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E39">
         <v>2000000</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -7489,22 +7709,22 @@
         <v>264</v>
       </c>
       <c r="D40" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E40">
         <v>683000</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="H40" s="4" t="s">
+      <c r="G40" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>579</v>
+      <c r="K40" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -7515,22 +7735,22 @@
         <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E41">
         <v>1100000</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="H41" s="4" t="s">
+      <c r="G41" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="H41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="K41" s="4" t="s">
-        <v>577</v>
+      <c r="K41" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -7538,18 +7758,18 @@
         <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="D42" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E42">
         <v>375000</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -7559,21 +7779,21 @@
         <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E43">
         <v>235800</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="H43" s="4" t="s">
+      <c r="G43" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7582,25 +7802,25 @@
         <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D44" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E44">
         <v>388800</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="G44" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>572</v>
+      <c r="K44" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -7611,22 +7831,22 @@
         <v>269</v>
       </c>
       <c r="D45" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E45">
         <v>961600</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="H45" s="4" t="s">
+      <c r="G45" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K45" s="4" t="s">
-        <v>570</v>
+      <c r="K45" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -7634,36 +7854,36 @@
         <v>282</v>
       </c>
       <c r="B46" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="D46" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E46">
         <v>84600</v>
       </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D47" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E47">
         <v>540000</v>
       </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -7673,22 +7893,22 @@
         <v>250</v>
       </c>
       <c r="D48" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E48">
         <v>837000</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="H48" s="4" t="s">
+      <c r="G48" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>567</v>
+      <c r="K48" s="3" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -7699,18 +7919,18 @@
         <v>272</v>
       </c>
       <c r="D49" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E49">
         <v>1140000</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="G49" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7722,18 +7942,18 @@
         <v>248</v>
       </c>
       <c r="D50" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E50">
         <v>675000</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="H50" s="4" t="s">
+      <c r="G50" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -7745,18 +7965,18 @@
         <v>263</v>
       </c>
       <c r="D51" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E51">
         <v>1267000</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="G51" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7765,48 +7985,48 @@
         <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="D52" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E52">
         <v>400000</v>
       </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D53" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E53">
         <v>1328500</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>557</v>
+      <c r="F53" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -7814,45 +8034,45 @@
         <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D54" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E54">
         <v>400000</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>331</v>
       </c>
       <c r="B55" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="D55" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E55">
         <v>218560</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>551</v>
+      <c r="F55" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -7860,25 +8080,25 @@
         <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="D56" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E56">
         <v>993000</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>546</v>
+      <c r="F56" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -7886,25 +8106,25 @@
         <v>351</v>
       </c>
       <c r="B57" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D57" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E57">
         <v>550800</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G57" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>543</v>
+      <c r="G57" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -7912,63 +8132,63 @@
         <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D58" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="E58">
         <v>345600</v>
       </c>
-      <c r="F58" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="K58" s="4"/>
+      <c r="F58" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="D59" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E59">
         <v>2255500</v>
       </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>433</v>
       </c>
       <c r="B60" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="D60" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E60">
         <v>2255500</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>538</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>535</v>
+      <c r="F60" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -7976,25 +8196,25 @@
         <v>442</v>
       </c>
       <c r="B61" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D61" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E61">
         <v>867600</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>530</v>
+      <c r="F61" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -8002,25 +8222,25 @@
         <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D62" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E62">
         <v>1293000</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>525</v>
+      <c r="F62" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8028,40 +8248,40 @@
         <v>445</v>
       </c>
       <c r="B63" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="D63" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E63">
         <v>500000</v>
       </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="K63" s="4"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>447</v>
       </c>
       <c r="B64" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="D64" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="E64">
         <v>900000</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>522</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>521</v>
+      <c r="F64" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -8069,25 +8289,25 @@
         <v>510</v>
       </c>
       <c r="B65" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D65" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E65">
         <v>1175000</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>516</v>
+      <c r="F65" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8095,25 +8315,25 @@
         <v>520</v>
       </c>
       <c r="B66" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D66" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E66">
         <v>233100</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>513</v>
+      <c r="G66" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8121,25 +8341,25 @@
         <v>530</v>
       </c>
       <c r="B67" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D67" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E67">
         <v>326700</v>
       </c>
-      <c r="F67" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>508</v>
+      <c r="F67" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8147,25 +8367,25 @@
         <v>540</v>
       </c>
       <c r="B68" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D68" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E68">
         <v>376200</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>503</v>
+      <c r="F68" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8173,22 +8393,22 @@
         <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D69" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E69">
         <v>1053000</v>
       </c>
-      <c r="F69" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>499</v>
+      <c r="F69" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8196,25 +8416,25 @@
         <v>542</v>
       </c>
       <c r="B70" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D70" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E70">
         <v>1040400</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="K70" s="4" t="s">
-        <v>494</v>
+      <c r="F70" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8222,25 +8442,25 @@
         <v>543</v>
       </c>
       <c r="B71" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D71" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E71">
         <v>1356000</v>
       </c>
-      <c r="F71" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="G71" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="K71" s="4" t="s">
-        <v>489</v>
+      <c r="F71" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8248,25 +8468,25 @@
         <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D72" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E72">
         <v>839000</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="K72" s="4" t="s">
-        <v>484</v>
+      <c r="F72" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8274,22 +8494,22 @@
         <v>545</v>
       </c>
       <c r="B73" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D73" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E73">
         <v>529000</v>
       </c>
-      <c r="F73" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>480</v>
+      <c r="F73" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -8297,25 +8517,25 @@
         <v>546</v>
       </c>
       <c r="B74" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D74" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E74">
         <v>428000</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="K74" s="4" t="s">
-        <v>475</v>
+      <c r="F74" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8323,25 +8543,25 @@
         <v>547</v>
       </c>
       <c r="B75" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D75" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E75">
         <v>561000</v>
       </c>
-      <c r="F75" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="K75" s="4" t="s">
-        <v>470</v>
+      <c r="F75" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -8349,25 +8569,25 @@
         <v>548</v>
       </c>
       <c r="B76" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D76" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E76">
         <v>460000</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="K76" s="4" t="s">
-        <v>465</v>
+      <c r="F76" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8375,22 +8595,22 @@
         <v>549</v>
       </c>
       <c r="B77" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D77" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E77">
         <v>229000</v>
       </c>
-      <c r="F77" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>461</v>
+      <c r="F77" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -8398,22 +8618,22 @@
         <v>550</v>
       </c>
       <c r="B78" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D78" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E78">
         <v>312000</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>457</v>
+      <c r="F78" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -8421,25 +8641,25 @@
         <v>551</v>
       </c>
       <c r="B79" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="D79" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="E79">
         <v>1400000</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="K79" s="4" t="s">
-        <v>454</v>
+      <c r="G79" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8447,39 +8667,39 @@
         <v>560</v>
       </c>
       <c r="B80" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D80" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E80">
         <v>2800000</v>
       </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="K80" s="4"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>561</v>
       </c>
       <c r="B81" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D81" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="E81">
         <v>3600000</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G81" s="4" t="s">
+      <c r="G81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H81" s="4" t="s">
+      <c r="H81" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8488,16 +8708,16 @@
         <v>570</v>
       </c>
       <c r="B82" t="s">
-        <v>451</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>448</v>
+        <v>439</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -8505,26 +8725,26 @@
         <v>571</v>
       </c>
       <c r="B83" t="s">
-        <v>658</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H83" s="4"/>
+        <v>646</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>940</v>
       </c>
       <c r="B84" t="s">
-        <v>657</v>
-      </c>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+        <v>645</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -8534,89 +8754,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2 Q3:T78"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>314</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -16,7 +16,7 @@
     <sheet name="BranchData" sheetId="2" r:id="rId2"/>
     <sheet name="TMALocations" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="773">
   <si>
     <t>Abilene</t>
   </si>
@@ -2099,6 +2099,252 @@
   </si>
   <si>
     <t>185</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>716,000</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>30,000</t>
+  </si>
+  <si>
+    <t>1,216,000</t>
+  </si>
+  <si>
+    <t>577,000</t>
+  </si>
+  <si>
+    <t>1,740</t>
+  </si>
+  <si>
+    <t>551,000</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>1,581,000</t>
+  </si>
+  <si>
+    <t>288,000</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>32,000</t>
+  </si>
+  <si>
+    <t>790,000</t>
+  </si>
+  <si>
+    <t>250,700</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>64,000</t>
+  </si>
+  <si>
+    <t>1,689,669</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>25,750</t>
+  </si>
+  <si>
+    <t>618,000</t>
+  </si>
+  <si>
+    <t>439,000</t>
+  </si>
+  <si>
+    <t>357,000</t>
+  </si>
+  <si>
+    <t>258,000</t>
+  </si>
+  <si>
+    <t>187,000</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>262,000</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>643,000</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>46,000</t>
+  </si>
+  <si>
+    <t>205,000</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>14,225</t>
+  </si>
+  <si>
+    <t>4,460,181</t>
+  </si>
+  <si>
+    <t>6,992</t>
+  </si>
+  <si>
+    <t>30,500</t>
+  </si>
+  <si>
+    <t>1,110,000</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>1,564</t>
+  </si>
+  <si>
+    <t>20,700</t>
+  </si>
+  <si>
+    <t>1,071</t>
+  </si>
+  <si>
+    <t>20,400</t>
+  </si>
+  <si>
+    <t>1,467,000</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>260,000</t>
+  </si>
+  <si>
+    <t>48,000</t>
+  </si>
+  <si>
+    <t>1,492</t>
+  </si>
+  <si>
+    <t>153,000</t>
+  </si>
+  <si>
+    <t>1,266,000</t>
+  </si>
+  <si>
+    <t>36,000</t>
+  </si>
+  <si>
+    <t>1,615,000</t>
+  </si>
+  <si>
+    <t>18,000</t>
+  </si>
+  <si>
+    <t>1,825,000</t>
+  </si>
+  <si>
+    <t>1,098</t>
+  </si>
+  <si>
+    <t>36,300</t>
+  </si>
+  <si>
+    <t>1,478,000</t>
+  </si>
+  <si>
+    <t>436,000</t>
+  </si>
+  <si>
+    <t>9,500</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>40,100</t>
+  </si>
+  <si>
+    <t>1,413,000</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>22,000</t>
+  </si>
+  <si>
+    <t>801,000</t>
+  </si>
+  <si>
+    <t>2,178,000</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>279,000</t>
+  </si>
+  <si>
+    <t>24,000</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>608,000</t>
+  </si>
+  <si>
+    <t>1,210</t>
+  </si>
+  <si>
+    <t>22,500</t>
+  </si>
+  <si>
+    <t>1,267,820</t>
+  </si>
+  <si>
+    <t>1,735</t>
+  </si>
+  <si>
+    <t>42,000</t>
+  </si>
+  <si>
+    <t>3,262,000</t>
+  </si>
+  <si>
+    <t>44,000</t>
+  </si>
+  <si>
+    <t>1,530</t>
+  </si>
+  <si>
+    <t>1,113,000</t>
+  </si>
+  <si>
+    <t>1,985,000</t>
+  </si>
+  <si>
+    <t>469,000</t>
   </si>
 </sst>
 </file>
@@ -2134,13 +2380,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2148,6 +2395,15 @@
   <dxfs count="14">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2168,16 +2424,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2228,16 +2475,16 @@
     <tableColumn id="9" name="Services"/>
     <tableColumn id="10" name="LocationCode"/>
     <tableColumn id="11" name="LocGLStr" dataDxfId="13"/>
-    <tableColumn id="20" name="TMA_BRANCH_NUMBER" dataDxfId="0"/>
-    <tableColumn id="15" name="LOCNCODE" dataDxfId="12"/>
-    <tableColumn id="19" name="AgLocationCode" dataDxfId="11"/>
-    <tableColumn id="12" name="Latitude" dataDxfId="10"/>
-    <tableColumn id="13" name="Longitude" dataDxfId="9"/>
-    <tableColumn id="14" name="Region" dataDxfId="8"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="7"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="6"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="5"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="4"/>
+    <tableColumn id="20" name="TMA_BRANCH_NUMBER" dataDxfId="12"/>
+    <tableColumn id="15" name="LOCNCODE" dataDxfId="11"/>
+    <tableColumn id="19" name="AgLocationCode" dataDxfId="10"/>
+    <tableColumn id="12" name="Latitude" dataDxfId="9"/>
+    <tableColumn id="13" name="Longitude" dataDxfId="8"/>
+    <tableColumn id="14" name="Region" dataDxfId="7"/>
+    <tableColumn id="18" name="CapacityAppl" dataDxfId="3"/>
+    <tableColumn id="16" name="CapacityFert" dataDxfId="2"/>
+    <tableColumn id="17" name="CapacityFuel" dataDxfId="1"/>
+    <tableColumn id="22" name="CapacityGrain" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2252,9 +2499,9 @@
     <tableColumn id="3" name="TYPE"/>
     <tableColumn id="4" name="REGION"/>
     <tableColumn id="5" name="CAPACITY"/>
-    <tableColumn id="6" name="DisplayName" dataDxfId="3"/>
-    <tableColumn id="7" name="Address" dataDxfId="2"/>
-    <tableColumn id="8" name="Phone1" dataDxfId="1"/>
+    <tableColumn id="6" name="DisplayName" dataDxfId="6"/>
+    <tableColumn id="7" name="Address" dataDxfId="5"/>
+    <tableColumn id="8" name="Phone1" dataDxfId="4"/>
     <tableColumn id="9" name="Phone2"/>
     <tableColumn id="10" name="Phone3"/>
     <tableColumn id="11" name="Fax"/>
@@ -2341,6 +2588,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2376,6 +2640,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2909,9 +3190,7 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3059,15 +3338,15 @@
         <v>-97.202228000000005</v>
       </c>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>600</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>716000</v>
+      <c r="S2" s="4"/>
+      <c r="T2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -3138,15 +3417,15 @@
         <v>-96.494437399999995</v>
       </c>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2">
-        <v>813</v>
-      </c>
-      <c r="U3" s="2">
-        <v>30000</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1216000</v>
+      <c r="S3" s="4"/>
+      <c r="T3" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -3191,15 +3470,15 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>577000</v>
+      <c r="S4" s="4"/>
+      <c r="T4" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="AA4" t="s">
         <v>2</v>
@@ -3270,15 +3549,15 @@
         <v>-97.592381799999998</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2">
-        <v>1740</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>551000</v>
+      <c r="S5" s="4"/>
+      <c r="T5" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="AA5" t="s">
         <v>3</v>
@@ -3349,15 +3628,15 @@
         <v>-97.107370000000003</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2">
-        <v>304</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1581000</v>
+      <c r="S6" s="4"/>
+      <c r="T6" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="AA6" t="s">
         <v>4</v>
@@ -3399,15 +3678,15 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>288000</v>
+      <c r="S7" s="4"/>
+      <c r="T7" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -3460,15 +3739,15 @@
         <v>-97.770600299999998</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
-        <v>764</v>
-      </c>
-      <c r="U8" s="2">
-        <v>32000</v>
-      </c>
-      <c r="V8" s="2">
-        <v>790000</v>
+      <c r="S8" s="4"/>
+      <c r="T8" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="AA8" t="s">
         <v>6</v>
@@ -3510,15 +3789,15 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>250700</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
+      <c r="S9" s="4"/>
+      <c r="T9" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -3571,15 +3850,15 @@
         <v>-96.886448299999998</v>
       </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2">
-        <v>699</v>
-      </c>
-      <c r="U10" s="2">
-        <v>64000</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1689669</v>
+      <c r="S10" s="4"/>
+      <c r="T10" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
@@ -3642,10 +3921,10 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
       <c r="AA11" t="s">
         <v>107</v>
       </c>
@@ -3715,15 +3994,15 @@
         <v>-97.968699999999998</v>
       </c>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
-        <v>677</v>
-      </c>
-      <c r="U12" s="2">
-        <v>25750</v>
-      </c>
-      <c r="V12" s="2">
-        <v>618000</v>
+      <c r="S12" s="4"/>
+      <c r="T12" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="AA12" t="s">
         <v>8</v>
@@ -3769,10 +4048,10 @@
         <v>-97.666996100000006</v>
       </c>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3803,15 +4082,15 @@
         <v>-97.664208700000003</v>
       </c>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>439000</v>
+      <c r="S14" s="4"/>
+      <c r="T14" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
@@ -3856,11 +4135,11 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2">
-        <v>357000</v>
+      <c r="S15" s="4"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="AA15" t="s">
         <v>114</v>
@@ -3929,15 +4208,15 @@
         <v>-97.618053500000002</v>
       </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>258000</v>
+      <c r="S16" s="4"/>
+      <c r="T16" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="AA16" t="s">
         <v>10</v>
@@ -3981,10 +4260,10 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -4028,15 +4307,15 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>187000</v>
+      <c r="S18" s="4"/>
+      <c r="T18" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -4089,15 +4368,15 @@
         <v>-96.926252000000005</v>
       </c>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2">
-        <v>250</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>262000</v>
+      <c r="S19" s="4"/>
+      <c r="T19" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="AA19" t="s">
         <v>12</v>
@@ -4168,15 +4447,15 @@
         <v>-97.538265899999999</v>
       </c>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2">
-        <v>299</v>
-      </c>
-      <c r="U20" s="2">
-        <v>30000</v>
-      </c>
-      <c r="V20" s="2">
-        <v>643000</v>
+      <c r="S20" s="4"/>
+      <c r="T20" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -4229,15 +4508,15 @@
         <v>-97.515514600000003</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2">
-        <v>630</v>
-      </c>
-      <c r="U21" s="2">
-        <v>46000</v>
-      </c>
-      <c r="V21" s="2">
-        <v>205000</v>
+      <c r="S21" s="4"/>
+      <c r="T21" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -4290,15 +4569,15 @@
         <v>-97.779943399999993</v>
       </c>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2">
-        <v>92</v>
-      </c>
-      <c r="U22" s="2">
-        <v>14225</v>
-      </c>
-      <c r="V22" s="2">
-        <v>4460181</v>
+      <c r="S22" s="4"/>
+      <c r="T22" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="AA22" t="s">
         <v>15</v>
@@ -4369,15 +4648,15 @@
         <v>-97.784899899999999</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2">
-        <v>6992</v>
-      </c>
-      <c r="U23" s="2">
-        <v>30500</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1110000</v>
+      <c r="S23" s="4"/>
+      <c r="T23" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="AA23" t="s">
         <v>16</v>
@@ -4421,10 +4700,10 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4472,15 +4751,15 @@
         <v>-96.948407000000003</v>
       </c>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
-        <v>3000</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0</v>
+      <c r="S25" s="4"/>
+      <c r="T25" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA25" t="s">
         <v>17</v>
@@ -4543,10 +4822,10 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4571,10 +4850,10 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -4597,10 +4876,10 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -4648,15 +4927,15 @@
         <v>-97.774975999999995</v>
       </c>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2">
-        <v>1564</v>
-      </c>
-      <c r="U29" s="2">
-        <v>20700</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0</v>
+      <c r="S29" s="4"/>
+      <c r="T29" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA29" t="s">
         <v>19</v>
@@ -4727,15 +5006,15 @@
         <v>-97.671643000000003</v>
       </c>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2">
-        <v>1071</v>
-      </c>
-      <c r="U30" s="2">
-        <v>20400</v>
-      </c>
-      <c r="V30" s="2">
-        <v>1467000</v>
+      <c r="S30" s="4"/>
+      <c r="T30" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
@@ -4806,15 +5085,15 @@
         <v>-97.331413400000002</v>
       </c>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2">
-        <v>730</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2">
-        <v>260000</v>
+      <c r="S31" s="4"/>
+      <c r="T31" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
@@ -4842,10 +5121,10 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -4868,10 +5147,10 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -4919,15 +5198,15 @@
         <v>-96.557330500000006</v>
       </c>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2">
-        <v>0</v>
-      </c>
-      <c r="U34" s="2">
-        <v>48000</v>
-      </c>
-      <c r="V34" s="2">
-        <v>0</v>
+      <c r="S34" s="4"/>
+      <c r="T34" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
@@ -4998,15 +5277,15 @@
         <v>-96.505954700000004</v>
       </c>
       <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2">
-        <v>1492</v>
-      </c>
-      <c r="U35" s="2">
-        <v>153000</v>
-      </c>
-      <c r="V35" s="2">
-        <v>1266000</v>
+      <c r="S35" s="4"/>
+      <c r="T35" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="AA35" t="s">
         <v>152</v>
@@ -5077,15 +5356,15 @@
         <v>-97.834316099999995</v>
       </c>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2">
-        <v>575</v>
-      </c>
-      <c r="U36" s="2">
-        <v>36000</v>
-      </c>
-      <c r="V36" s="2">
-        <v>1615000</v>
+      <c r="S36" s="4"/>
+      <c r="T36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="AA36" t="s">
         <v>24</v>
@@ -5135,10 +5414,10 @@
         <v>-97.263819699999999</v>
       </c>
       <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -5186,10 +5465,10 @@
         <v>-97.666996100000006</v>
       </c>
       <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -5228,10 +5507,10 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
       <c r="AA39" t="s">
         <v>157</v>
       </c>
@@ -5288,10 +5567,10 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
       <c r="AA40" t="s">
         <v>160</v>
       </c>
@@ -5332,10 +5611,10 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -5385,15 +5664,15 @@
         <v>-97.668978899999999</v>
       </c>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <v>18000</v>
-      </c>
-      <c r="V42" s="2">
-        <v>1825000</v>
+      <c r="S42" s="4"/>
+      <c r="T42" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="AA42" t="s">
         <v>166</v>
@@ -5457,10 +5736,10 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="AA43" t="s">
         <v>79</v>
       </c>
@@ -5533,15 +5812,15 @@
         <v>-97.522767200000004</v>
       </c>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2">
-        <v>1098</v>
-      </c>
-      <c r="U44" s="2">
-        <v>36300</v>
-      </c>
-      <c r="V44" s="2">
-        <v>1478000</v>
+      <c r="S44" s="4"/>
+      <c r="T44" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="AA44" t="s">
         <v>174</v>
@@ -5597,10 +5876,10 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
       <c r="AA45" t="s">
         <v>169</v>
       </c>
@@ -5641,10 +5920,10 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -5686,15 +5965,15 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>436000</v>
+      <c r="S47" s="4"/>
+      <c r="T47" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="AA47" t="s">
         <v>27</v>
@@ -5736,15 +6015,15 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>9500</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0</v>
+      <c r="S48" s="4"/>
+      <c r="T48" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -5797,15 +6076,15 @@
         <v>-96.177394699999994</v>
       </c>
       <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2">
-        <v>763</v>
-      </c>
-      <c r="U49" s="2">
-        <v>40100</v>
-      </c>
-      <c r="V49" s="2">
-        <v>1413000</v>
+      <c r="S49" s="4"/>
+      <c r="T49" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="AA49" t="s">
         <v>28</v>
@@ -5876,15 +6155,15 @@
         <v>-97.103965099999996</v>
       </c>
       <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2">
-        <v>673</v>
-      </c>
-      <c r="U50" s="2">
-        <v>22000</v>
-      </c>
-      <c r="V50" s="2">
-        <v>801000</v>
+      <c r="S50" s="4"/>
+      <c r="T50" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="AA50" t="s">
         <v>29</v>
@@ -5930,10 +6209,10 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -5958,10 +6237,10 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -5982,10 +6261,10 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -6031,15 +6310,15 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>2178000</v>
+      <c r="S54" s="4"/>
+      <c r="T54" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="AA54" t="s">
         <v>181</v>
@@ -6102,15 +6381,15 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2">
-        <v>52</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2">
-        <v>279000</v>
+      <c r="S55" s="4"/>
+      <c r="T55" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
@@ -6156,15 +6435,15 @@
         <v>-97.614002999999997</v>
       </c>
       <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>24000</v>
-      </c>
-      <c r="V56" s="2">
-        <v>0</v>
+      <c r="S56" s="4"/>
+      <c r="T56" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA56" t="s">
         <v>189</v>
@@ -6235,15 +6514,15 @@
         <v>-97.374758999999997</v>
       </c>
       <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2">
-        <v>950</v>
-      </c>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2">
-        <v>608000</v>
+      <c r="S57" s="4"/>
+      <c r="T57" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="AA57" t="s">
         <v>30</v>
@@ -6314,15 +6593,15 @@
         <v>-97.259965699999995</v>
       </c>
       <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2">
-        <v>1210</v>
-      </c>
-      <c r="U58" s="2">
-        <v>22500</v>
-      </c>
-      <c r="V58" s="2">
-        <v>1267820</v>
+      <c r="S58" s="4"/>
+      <c r="T58" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="AA58" t="s">
         <v>31</v>
@@ -6362,10 +6641,10 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -6417,15 +6696,15 @@
         <v>-97.229442399999996</v>
       </c>
       <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2">
-        <v>1735</v>
-      </c>
-      <c r="U60" s="2">
-        <v>42000</v>
-      </c>
-      <c r="V60" s="2">
-        <v>3262000</v>
+      <c r="S60" s="4"/>
+      <c r="T60" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="AA60" t="s">
         <v>32</v>
@@ -6492,15 +6771,15 @@
         <v>-96.410154700000007</v>
       </c>
       <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2">
-        <v>21</v>
-      </c>
-      <c r="U61" s="2">
-        <v>44000</v>
-      </c>
-      <c r="V61" s="2">
-        <v>0</v>
+      <c r="S61" s="4"/>
+      <c r="T61" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA61" t="s">
         <v>33</v>
@@ -6571,15 +6850,15 @@
         <v>-97.150157199999995</v>
       </c>
       <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2">
-        <v>1530</v>
-      </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2">
-        <v>1113000</v>
+      <c r="S62" s="4"/>
+      <c r="T62" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="AA62" t="s">
         <v>34</v>
@@ -6640,15 +6919,15 @@
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2">
-        <v>0</v>
-      </c>
-      <c r="U63" s="2">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2">
-        <v>1985000</v>
+      <c r="S63" s="4"/>
+      <c r="T63" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="AA63" t="s">
         <v>203</v>
@@ -6711,15 +6990,15 @@
       <c r="P64" s="2"/>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2">
-        <v>0</v>
-      </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2">
-        <v>469000</v>
+      <c r="S64" s="4"/>
+      <c r="T64" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="AA64" t="s">
         <v>35</v>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="774">
   <si>
     <t>Abilene</t>
   </si>
@@ -2345,6 +2345,9 @@
   </si>
   <si>
     <t>469,000</t>
+  </si>
+  <si>
+    <t>38-798699</t>
   </si>
 </sst>
 </file>
@@ -2394,6 +2397,15 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -2404,15 +2416,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2481,10 +2484,10 @@
     <tableColumn id="12" name="Latitude" dataDxfId="9"/>
     <tableColumn id="13" name="Longitude" dataDxfId="8"/>
     <tableColumn id="14" name="Region" dataDxfId="7"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="3"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="2"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="1"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="0"/>
+    <tableColumn id="18" name="CapacityAppl" dataDxfId="6"/>
+    <tableColumn id="16" name="CapacityFert" dataDxfId="5"/>
+    <tableColumn id="17" name="CapacityFuel" dataDxfId="4"/>
+    <tableColumn id="22" name="CapacityGrain" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2499,9 +2502,9 @@
     <tableColumn id="3" name="TYPE"/>
     <tableColumn id="4" name="REGION"/>
     <tableColumn id="5" name="CAPACITY"/>
-    <tableColumn id="6" name="DisplayName" dataDxfId="6"/>
-    <tableColumn id="7" name="Address" dataDxfId="5"/>
-    <tableColumn id="8" name="Phone1" dataDxfId="4"/>
+    <tableColumn id="6" name="DisplayName" dataDxfId="2"/>
+    <tableColumn id="7" name="Address" dataDxfId="1"/>
+    <tableColumn id="8" name="Phone1" dataDxfId="0"/>
     <tableColumn id="9" name="Phone2"/>
     <tableColumn id="10" name="Phone3"/>
     <tableColumn id="11" name="Fax"/>
@@ -3467,8 +3470,12 @@
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-97.755188000000004</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="4"/>
       <c r="T4" s="1" t="s">
@@ -3675,8 +3682,12 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="P7" s="2">
+        <v>38.629404000000001</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-97.615026999999998</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="4"/>
       <c r="T7" s="1" t="s">
@@ -3918,8 +3929,12 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="2">
+        <v>38.378869999999999</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-97.470513999999994</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="4"/>
       <c r="T11" s="1"/>
@@ -4058,7 +4073,7 @@
         <v>284</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>260</v>
@@ -4132,8 +4147,12 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="2">
+        <v>38.9670597</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-97.762475199999997</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="4"/>
       <c r="T15" s="1"/>
@@ -4202,10 +4221,10 @@
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="2">
-        <v>38.289623200000001</v>
+        <v>38.290137999999999</v>
       </c>
       <c r="Q16" s="2">
-        <v>-97.618053500000002</v>
+        <v>-97.625752000000006</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="4"/>
@@ -4304,8 +4323,12 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="P18" s="2">
+        <v>38.672823000000001</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>-97.760738200000006</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1" t="s">
@@ -4502,10 +4525,10 @@
         <v>257</v>
       </c>
       <c r="P21" s="2">
-        <v>38.205322600000002</v>
+        <v>38.249427099999998</v>
       </c>
       <c r="Q21" s="2">
-        <v>-97.515514600000003</v>
+        <v>-97.337304200000005</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="4"/>
@@ -4819,8 +4842,12 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="P26" s="2">
+        <v>38.441087199999998</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>-97.677783700000006</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="4"/>
       <c r="T26" s="1"/>
@@ -5962,8 +5989,12 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+      <c r="P47" s="2">
+        <v>38.065479000000003</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>-97.345708000000002</v>
+      </c>
       <c r="R47" s="2"/>
       <c r="S47" s="4"/>
       <c r="T47" s="1" t="s">
@@ -6307,8 +6338,12 @@
         <v>332</v>
       </c>
       <c r="O54" s="1"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+      <c r="P54" s="2">
+        <v>38.266167000000003</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>-98.200824999999995</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="4"/>
       <c r="T54" s="1" t="s">
@@ -6378,8 +6413,12 @@
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
+      <c r="P55" s="2">
+        <v>38.551245999999999</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>-97.429237000000001</v>
+      </c>
       <c r="R55" s="2"/>
       <c r="S55" s="4"/>
       <c r="T55" s="1" t="s">
@@ -6916,8 +6955,12 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
+      <c r="P63" s="2">
+        <v>37.739190899999997</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>-97.329066100000006</v>
+      </c>
       <c r="R63" s="2"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1" t="s">
@@ -6987,8 +7030,12 @@
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="P64" s="2">
+        <v>38.385244999999998</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>-97.909503999999998</v>
+      </c>
       <c r="R64" s="2"/>
       <c r="S64" s="4"/>
       <c r="T64" s="1" t="s">

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="773">
   <si>
     <t>Abilene</t>
   </si>
@@ -2345,9 +2345,6 @@
   </si>
   <si>
     <t>469,000</t>
-  </si>
-  <si>
-    <t>38-798699</t>
   </si>
 </sst>
 </file>
@@ -3470,11 +3467,11 @@
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="2" t="s">
-        <v>773</v>
+      <c r="P4" s="2">
+        <v>38.801063300000003</v>
       </c>
       <c r="Q4" s="2">
-        <v>-97.755188000000004</v>
+        <v>-97.754355700000005</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="4"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dashboard\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
     <sheet name="BranchData" sheetId="2" r:id="rId2"/>
     <sheet name="TMALocations" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="691">
   <si>
     <t>Abilene</t>
   </si>
@@ -2099,261 +2099,22 @@
   </si>
   <si>
     <t>185</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>716,000</t>
-  </si>
-  <si>
-    <t>813</t>
-  </si>
-  <si>
-    <t>30,000</t>
-  </si>
-  <si>
-    <t>1,216,000</t>
-  </si>
-  <si>
-    <t>577,000</t>
-  </si>
-  <si>
-    <t>1,740</t>
-  </si>
-  <si>
-    <t>551,000</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>1,581,000</t>
-  </si>
-  <si>
-    <t>288,000</t>
-  </si>
-  <si>
-    <t>764</t>
-  </si>
-  <si>
-    <t>32,000</t>
-  </si>
-  <si>
-    <t>790,000</t>
-  </si>
-  <si>
-    <t>250,700</t>
-  </si>
-  <si>
-    <t>699</t>
-  </si>
-  <si>
-    <t>64,000</t>
-  </si>
-  <si>
-    <t>1,689,669</t>
-  </si>
-  <si>
-    <t>677</t>
-  </si>
-  <si>
-    <t>25,750</t>
-  </si>
-  <si>
-    <t>618,000</t>
-  </si>
-  <si>
-    <t>439,000</t>
-  </si>
-  <si>
-    <t>357,000</t>
-  </si>
-  <si>
-    <t>258,000</t>
-  </si>
-  <si>
-    <t>187,000</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>262,000</t>
-  </si>
-  <si>
-    <t>299</t>
-  </si>
-  <si>
-    <t>643,000</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>46,000</t>
-  </si>
-  <si>
-    <t>205,000</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>14,225</t>
-  </si>
-  <si>
-    <t>4,460,181</t>
-  </si>
-  <si>
-    <t>6,992</t>
-  </si>
-  <si>
-    <t>30,500</t>
-  </si>
-  <si>
-    <t>1,110,000</t>
-  </si>
-  <si>
-    <t>3,000</t>
-  </si>
-  <si>
-    <t>1,564</t>
-  </si>
-  <si>
-    <t>20,700</t>
-  </si>
-  <si>
-    <t>1,071</t>
-  </si>
-  <si>
-    <t>20,400</t>
-  </si>
-  <si>
-    <t>1,467,000</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>260,000</t>
-  </si>
-  <si>
-    <t>48,000</t>
-  </si>
-  <si>
-    <t>1,492</t>
-  </si>
-  <si>
-    <t>153,000</t>
-  </si>
-  <si>
-    <t>1,266,000</t>
-  </si>
-  <si>
-    <t>36,000</t>
-  </si>
-  <si>
-    <t>1,615,000</t>
-  </si>
-  <si>
-    <t>18,000</t>
-  </si>
-  <si>
-    <t>1,825,000</t>
-  </si>
-  <si>
-    <t>1,098</t>
-  </si>
-  <si>
-    <t>36,300</t>
-  </si>
-  <si>
-    <t>1,478,000</t>
-  </si>
-  <si>
-    <t>436,000</t>
-  </si>
-  <si>
-    <t>9,500</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>40,100</t>
-  </si>
-  <si>
-    <t>1,413,000</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>22,000</t>
-  </si>
-  <si>
-    <t>801,000</t>
-  </si>
-  <si>
-    <t>2,178,000</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>279,000</t>
-  </si>
-  <si>
-    <t>24,000</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>608,000</t>
-  </si>
-  <si>
-    <t>1,210</t>
-  </si>
-  <si>
-    <t>22,500</t>
-  </si>
-  <si>
-    <t>1,267,820</t>
-  </si>
-  <si>
-    <t>1,735</t>
-  </si>
-  <si>
-    <t>42,000</t>
-  </si>
-  <si>
-    <t>3,262,000</t>
-  </si>
-  <si>
-    <t>44,000</t>
-  </si>
-  <si>
-    <t>1,530</t>
-  </si>
-  <si>
-    <t>1,113,000</t>
-  </si>
-  <si>
-    <t>1,985,000</t>
-  </si>
-  <si>
-    <t>469,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2368,7 +2129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2376,34 +2137,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF3F60AF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2412,7 +2199,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2481,10 +2277,10 @@
     <tableColumn id="12" name="Latitude" dataDxfId="9"/>
     <tableColumn id="13" name="Longitude" dataDxfId="8"/>
     <tableColumn id="14" name="Region" dataDxfId="7"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="3"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="2"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="1"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="0"/>
+    <tableColumn id="18" name="CapacityAppl" dataDxfId="6"/>
+    <tableColumn id="16" name="CapacityFert" dataDxfId="5"/>
+    <tableColumn id="17" name="CapacityFuel" dataDxfId="4"/>
+    <tableColumn id="22" name="CapacityGrain" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2499,9 +2295,9 @@
     <tableColumn id="3" name="TYPE"/>
     <tableColumn id="4" name="REGION"/>
     <tableColumn id="5" name="CAPACITY"/>
-    <tableColumn id="6" name="DisplayName" dataDxfId="6"/>
-    <tableColumn id="7" name="Address" dataDxfId="5"/>
-    <tableColumn id="8" name="Phone1" dataDxfId="4"/>
+    <tableColumn id="6" name="DisplayName" dataDxfId="2"/>
+    <tableColumn id="7" name="Address" dataDxfId="1"/>
+    <tableColumn id="8" name="Phone1" dataDxfId="0"/>
     <tableColumn id="9" name="Phone2"/>
     <tableColumn id="10" name="Phone3"/>
     <tableColumn id="11" name="Fax"/>
@@ -2813,14 +2609,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -2828,7 +2624,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2844,7 +2640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2852,7 +2648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2860,7 +2656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2868,7 +2664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2876,7 +2672,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2884,7 +2680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2892,7 +2688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2900,7 +2696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2908,12 +2704,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +2717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2929,7 +2725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2937,7 +2733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2945,7 +2741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2953,7 +2749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2961,7 +2757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2969,7 +2765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2977,7 +2773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2985,7 +2781,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2993,7 +2789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3001,7 +2797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3009,7 +2805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3017,7 +2813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -3025,7 +2821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3033,7 +2829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3041,22 +2837,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -3064,7 +2860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -3072,7 +2868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -3080,7 +2876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3088,7 +2884,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3096,7 +2892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -3104,22 +2900,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -3127,7 +2923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -3135,7 +2931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -3143,7 +2939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -3151,7 +2947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -3159,7 +2955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>203</v>
       </c>
@@ -3167,7 +2963,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3190,34 +2986,36 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q63" sqref="Q63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="15" width="14.5546875" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -3288,7 +3086,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3338,15 +3136,15 @@
         <v>-97.202228000000005</v>
       </c>
       <c r="R2" s="2"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>692</v>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>600</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>716000</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -3367,7 +3165,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3417,18 +3215,18 @@
         <v>-96.494437399999995</v>
       </c>
       <c r="R3" s="2"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
+        <v>813</v>
+      </c>
+      <c r="U3" s="2">
+        <v>30000</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1216000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3467,18 +3265,22 @@
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2">
+        <v>38.801063300000003</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-97.754355700000005</v>
+      </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>696</v>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>577000</v>
       </c>
       <c r="AA4" t="s">
         <v>2</v>
@@ -3499,7 +3301,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3549,15 +3351,15 @@
         <v>-97.592381799999998</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>698</v>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2">
+        <v>1740</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>551000</v>
       </c>
       <c r="AA5" t="s">
         <v>3</v>
@@ -3578,7 +3380,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3628,15 +3430,15 @@
         <v>-97.107370000000003</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>700</v>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2">
+        <v>304</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1581000</v>
       </c>
       <c r="AA6" t="s">
         <v>4</v>
@@ -3657,7 +3459,7 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3678,18 +3480,18 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3739,15 +3541,15 @@
         <v>-97.770600299999998</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>704</v>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
+        <v>764</v>
+      </c>
+      <c r="U8" s="2">
+        <v>32000</v>
+      </c>
+      <c r="V8" s="2">
+        <v>790000</v>
       </c>
       <c r="AA8" t="s">
         <v>6</v>
@@ -3768,7 +3570,7 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -3789,18 +3591,18 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>250700</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3850,15 +3652,15 @@
         <v>-96.886448299999998</v>
       </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>708</v>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <v>699</v>
+      </c>
+      <c r="U10" s="2">
+        <v>64000</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1689669</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
@@ -3879,7 +3681,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -3918,13 +3720,17 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="2">
+        <v>38.377895899999999</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-97.466010199999999</v>
+      </c>
       <c r="R11" s="2"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
       <c r="AA11" t="s">
         <v>107</v>
       </c>
@@ -3944,7 +3750,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3994,15 +3800,15 @@
         <v>-97.968699999999998</v>
       </c>
       <c r="R12" s="2"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>711</v>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
+        <v>677</v>
+      </c>
+      <c r="U12" s="2">
+        <v>25750</v>
+      </c>
+      <c r="V12" s="2">
+        <v>618000</v>
       </c>
       <c r="AA12" t="s">
         <v>8</v>
@@ -4023,7 +3829,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -4041,24 +3847,20 @@
         <v>328</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="2">
-        <v>38.4475148</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>-97.666996100000006</v>
-      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="2"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>284</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>260</v>
@@ -4082,18 +3884,18 @@
         <v>-97.664208700000003</v>
       </c>
       <c r="R14" s="2"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>439000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -4132,14 +3934,18 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="2">
+        <v>38.9670597</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-97.762475199999997</v>
+      </c>
       <c r="R15" s="2"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1" t="s">
-        <v>713</v>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2">
+        <v>357000</v>
       </c>
       <c r="AA15" t="s">
         <v>114</v>
@@ -4160,7 +3966,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4201,22 +4007,22 @@
         <v>254</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="2">
+      <c r="P16" s="4">
         <v>38.289623200000001</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="5">
         <v>-97.618053500000002</v>
       </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>714</v>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>258000</v>
       </c>
       <c r="AA16" t="s">
         <v>10</v>
@@ -4237,7 +4043,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -4260,12 +4066,12 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4304,21 +4110,25 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="P18" s="2">
+        <v>38.6719662</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>-97.762896600000005</v>
+      </c>
       <c r="R18" s="2"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S18" s="2"/>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4368,15 +4178,15 @@
         <v>-96.926252000000005</v>
       </c>
       <c r="R19" s="2"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>717</v>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2">
+        <v>250</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>262000</v>
       </c>
       <c r="AA19" t="s">
         <v>12</v>
@@ -4397,7 +4207,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4447,18 +4257,18 @@
         <v>-97.538265899999999</v>
       </c>
       <c r="R20" s="2"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S20" s="2"/>
+      <c r="T20" s="2">
+        <v>299</v>
+      </c>
+      <c r="U20" s="2">
+        <v>30000</v>
+      </c>
+      <c r="V20" s="2">
+        <v>643000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4508,18 +4318,18 @@
         <v>-97.515514600000003</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S21" s="2"/>
+      <c r="T21" s="2">
+        <v>630</v>
+      </c>
+      <c r="U21" s="2">
+        <v>46000</v>
+      </c>
+      <c r="V21" s="2">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4562,22 +4372,22 @@
       <c r="O22" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="4">
         <v>38.289691599999998</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="5">
         <v>-97.779943399999993</v>
       </c>
       <c r="R22" s="2"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>725</v>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2">
+        <v>92</v>
+      </c>
+      <c r="U22" s="2">
+        <v>14225</v>
+      </c>
+      <c r="V22" s="2">
+        <v>4460181</v>
       </c>
       <c r="AA22" t="s">
         <v>15</v>
@@ -4598,7 +4408,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4648,15 +4458,15 @@
         <v>-97.784899899999999</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>728</v>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2">
+        <v>6992</v>
+      </c>
+      <c r="U23" s="2">
+        <v>30500</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1110000</v>
       </c>
       <c r="AA23" t="s">
         <v>16</v>
@@ -4677,7 +4487,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>286</v>
       </c>
@@ -4700,12 +4510,12 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4751,15 +4561,15 @@
         <v>-96.948407000000003</v>
       </c>
       <c r="R25" s="2"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="V25" s="1" t="s">
-        <v>691</v>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2">
+        <v>0</v>
+      </c>
+      <c r="U25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="V25" s="2">
+        <v>0</v>
       </c>
       <c r="AA25" t="s">
         <v>17</v>
@@ -4780,7 +4590,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -4819,15 +4629,19 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="P26" s="2">
+        <v>38.441087199999998</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>-97.677783700000006</v>
+      </c>
       <c r="R26" s="2"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>319</v>
       </c>
@@ -4850,12 +4664,12 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -4876,12 +4690,12 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4927,15 +4741,15 @@
         <v>-97.774975999999995</v>
       </c>
       <c r="R29" s="2"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>691</v>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2">
+        <v>1564</v>
+      </c>
+      <c r="U29" s="2">
+        <v>20700</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0</v>
       </c>
       <c r="AA29" t="s">
         <v>19</v>
@@ -4956,7 +4770,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -5006,15 +4820,15 @@
         <v>-97.671643000000003</v>
       </c>
       <c r="R30" s="2"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>734</v>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2">
+        <v>1071</v>
+      </c>
+      <c r="U30" s="2">
+        <v>20400</v>
+      </c>
+      <c r="V30" s="2">
+        <v>1467000</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
@@ -5035,7 +4849,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5085,18 +4899,18 @@
         <v>-97.331413400000002</v>
       </c>
       <c r="R31" s="2"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S31" s="2"/>
+      <c r="T31" s="2">
+        <v>730</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0</v>
+      </c>
+      <c r="V31" s="2">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>287</v>
       </c>
@@ -5118,15 +4932,19 @@
       <c r="O32" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+      <c r="P32" s="2">
+        <v>38.220903</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>-98.209054899999998</v>
+      </c>
       <c r="R32" s="2"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>315</v>
       </c>
@@ -5147,12 +4965,12 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5198,15 +5016,15 @@
         <v>-96.557330500000006</v>
       </c>
       <c r="R34" s="2"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>691</v>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>48000</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
@@ -5227,7 +5045,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -5277,15 +5095,15 @@
         <v>-96.505954700000004</v>
       </c>
       <c r="R35" s="2"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>740</v>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2">
+        <v>1492</v>
+      </c>
+      <c r="U35" s="2">
+        <v>153000</v>
+      </c>
+      <c r="V35" s="2">
+        <v>1266000</v>
       </c>
       <c r="AA35" t="s">
         <v>152</v>
@@ -5306,7 +5124,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -5356,15 +5174,15 @@
         <v>-97.834316099999995</v>
       </c>
       <c r="R36" s="2"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>742</v>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2">
+        <v>575</v>
+      </c>
+      <c r="U36" s="2">
+        <v>36000</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1615000</v>
       </c>
       <c r="AA36" t="s">
         <v>24</v>
@@ -5385,7 +5203,7 @@
         <v>67464</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>339</v>
       </c>
@@ -5414,12 +5232,12 @@
         <v>-97.263819699999999</v>
       </c>
       <c r="R37" s="2"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -5459,18 +5277,18 @@
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="2">
-        <v>38.4475148</v>
+        <v>38.372860899999999</v>
       </c>
       <c r="Q38" s="2">
-        <v>-97.666996100000006</v>
+        <v>-97.6881427</v>
       </c>
       <c r="R38" s="2"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -5504,13 +5322,17 @@
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="P39" s="2">
+        <v>38.372777200000002</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>-97.679016700000005</v>
+      </c>
       <c r="R39" s="2"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
       <c r="AA39" t="s">
         <v>157</v>
       </c>
@@ -5530,7 +5352,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -5564,13 +5386,17 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="P40" s="2">
+        <v>38.371138199999997</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>-97.674794700000007</v>
+      </c>
       <c r="R40" s="2"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
       <c r="AA40" t="s">
         <v>160</v>
       </c>
@@ -5590,7 +5416,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -5611,12 +5437,12 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -5658,21 +5484,21 @@
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="2">
-        <v>38.372224000000003</v>
+        <v>38.372228200000002</v>
       </c>
       <c r="Q42" s="2">
-        <v>-97.668978899999999</v>
+        <v>-97.671167600000004</v>
       </c>
       <c r="R42" s="2"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>744</v>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2">
+        <v>0</v>
+      </c>
+      <c r="U42" s="2">
+        <v>18000</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1825000</v>
       </c>
       <c r="AA42" t="s">
         <v>166</v>
@@ -5693,7 +5519,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -5733,13 +5559,17 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
+      <c r="P43" s="2">
+        <v>38.202726499999997</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>-97.524955899999995</v>
+      </c>
       <c r="R43" s="2"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
       <c r="AA43" t="s">
         <v>79</v>
       </c>
@@ -5759,7 +5589,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -5812,15 +5642,15 @@
         <v>-97.522767200000004</v>
       </c>
       <c r="R44" s="2"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>747</v>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2">
+        <v>1098</v>
+      </c>
+      <c r="U44" s="2">
+        <v>36300</v>
+      </c>
+      <c r="V44" s="2">
+        <v>1478000</v>
       </c>
       <c r="AA44" t="s">
         <v>174</v>
@@ -5841,7 +5671,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -5873,13 +5703,17 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="P45" s="2">
+        <v>38.2061311</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>-97.524159900000001</v>
+      </c>
       <c r="R45" s="2"/>
-      <c r="S45" s="4"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
       <c r="AA45" t="s">
         <v>169</v>
       </c>
@@ -5899,7 +5733,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -5920,12 +5754,12 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -5962,18 +5796,22 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+      <c r="P47" s="2">
+        <v>38.064183100000001</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>-97.347417399999998</v>
+      </c>
       <c r="R47" s="2"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>748</v>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>436000</v>
       </c>
       <c r="AA47" t="s">
         <v>27</v>
@@ -5994,7 +5832,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>289</v>
       </c>
@@ -6015,18 +5853,18 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="4"/>
-      <c r="T48" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S48" s="2"/>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>9500</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -6076,15 +5914,15 @@
         <v>-96.177394699999994</v>
       </c>
       <c r="R49" s="2"/>
-      <c r="S49" s="4"/>
-      <c r="T49" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>752</v>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2">
+        <v>763</v>
+      </c>
+      <c r="U49" s="2">
+        <v>40100</v>
+      </c>
+      <c r="V49" s="2">
+        <v>1413000</v>
       </c>
       <c r="AA49" t="s">
         <v>28</v>
@@ -6105,7 +5943,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -6155,15 +5993,15 @@
         <v>-97.103965099999996</v>
       </c>
       <c r="R50" s="2"/>
-      <c r="S50" s="4"/>
-      <c r="T50" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>755</v>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2">
+        <v>673</v>
+      </c>
+      <c r="U50" s="2">
+        <v>22000</v>
+      </c>
+      <c r="V50" s="2">
+        <v>801000</v>
       </c>
       <c r="AA50" t="s">
         <v>29</v>
@@ -6184,7 +6022,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>322</v>
       </c>
@@ -6209,12 +6047,12 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>317</v>
       </c>
@@ -6237,12 +6075,12 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>324</v>
       </c>
@@ -6261,12 +6099,12 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -6310,15 +6148,15 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>756</v>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>2178000</v>
       </c>
       <c r="AA54" t="s">
         <v>181</v>
@@ -6339,7 +6177,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -6381,18 +6219,18 @@
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S55" s="2"/>
+      <c r="T55" s="2">
+        <v>52</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>279000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -6435,15 +6273,15 @@
         <v>-97.614002999999997</v>
       </c>
       <c r="R56" s="2"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>691</v>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>24000</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
       </c>
       <c r="AA56" t="s">
         <v>189</v>
@@ -6464,7 +6302,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -6514,15 +6352,15 @@
         <v>-97.374758999999997</v>
       </c>
       <c r="R57" s="2"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>761</v>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2">
+        <v>950</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>608000</v>
       </c>
       <c r="AA57" t="s">
         <v>30</v>
@@ -6543,7 +6381,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -6593,15 +6431,15 @@
         <v>-97.259965699999995</v>
       </c>
       <c r="R58" s="2"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>764</v>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2">
+        <v>1210</v>
+      </c>
+      <c r="U58" s="2">
+        <v>22500</v>
+      </c>
+      <c r="V58" s="2">
+        <v>1267820</v>
       </c>
       <c r="AA58" t="s">
         <v>31</v>
@@ -6622,7 +6460,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>312</v>
       </c>
@@ -6641,12 +6479,12 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -6696,15 +6534,15 @@
         <v>-97.229442399999996</v>
       </c>
       <c r="R60" s="2"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>767</v>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2">
+        <v>1735</v>
+      </c>
+      <c r="U60" s="2">
+        <v>42000</v>
+      </c>
+      <c r="V60" s="2">
+        <v>3262000</v>
       </c>
       <c r="AA60" t="s">
         <v>32</v>
@@ -6725,7 +6563,7 @@
         <v>67151</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -6771,15 +6609,15 @@
         <v>-96.410154700000007</v>
       </c>
       <c r="R61" s="2"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="U61" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>691</v>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2">
+        <v>21</v>
+      </c>
+      <c r="U61" s="2">
+        <v>44000</v>
+      </c>
+      <c r="V61" s="2">
+        <v>0</v>
       </c>
       <c r="AA61" t="s">
         <v>33</v>
@@ -6800,7 +6638,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -6850,15 +6688,15 @@
         <v>-97.150157199999995</v>
       </c>
       <c r="R62" s="2"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>770</v>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2">
+        <v>1530</v>
+      </c>
+      <c r="U62" s="2">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2">
+        <v>1113000</v>
       </c>
       <c r="AA62" t="s">
         <v>34</v>
@@ -6879,7 +6717,7 @@
         <v>67154</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -6916,18 +6754,22 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
+      <c r="P63" s="2">
+        <v>38.207453700000002</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>-97.519309500000006</v>
+      </c>
       <c r="R63" s="2"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>771</v>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>1985000</v>
       </c>
       <c r="AA63" t="s">
         <v>203</v>
@@ -6948,7 +6790,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -6987,18 +6829,22 @@
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="P64" s="2">
+        <v>38.384790199999998</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>-97.911084700000004</v>
+      </c>
       <c r="R64" s="2"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>772</v>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2">
+        <v>0</v>
+      </c>
+      <c r="U64" s="2">
+        <v>0</v>
+      </c>
+      <c r="V64" s="2">
+        <v>469000</v>
       </c>
       <c r="AA64" t="s">
         <v>35</v>
@@ -7041,21 +6887,21 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>643</v>
       </c>
@@ -7096,7 +6942,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -7125,7 +6971,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13</v>
       </c>
@@ -7138,7 +6984,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7164,7 +7010,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>31</v>
       </c>
@@ -7193,7 +7039,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>32</v>
       </c>
@@ -7212,7 +7058,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>41</v>
       </c>
@@ -7229,7 +7075,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>61</v>
       </c>
@@ -7258,7 +7104,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>71</v>
       </c>
@@ -7290,7 +7136,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>81</v>
       </c>
@@ -7313,7 +7159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>91</v>
       </c>
@@ -7339,7 +7185,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>101</v>
       </c>
@@ -7362,7 +7208,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>111</v>
       </c>
@@ -7388,7 +7234,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>121</v>
       </c>
@@ -7414,7 +7260,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>131</v>
       </c>
@@ -7443,7 +7289,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>141</v>
       </c>
@@ -7466,7 +7312,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>151</v>
       </c>
@@ -7492,7 +7338,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>161</v>
       </c>
@@ -7515,7 +7361,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>171</v>
       </c>
@@ -7541,7 +7387,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>181</v>
       </c>
@@ -7561,7 +7407,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>182</v>
       </c>
@@ -7579,7 +7425,7 @@
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>183</v>
       </c>
@@ -7605,7 +7451,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>185</v>
       </c>
@@ -7622,7 +7468,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>187</v>
       </c>
@@ -7645,7 +7491,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>188</v>
       </c>
@@ -7662,7 +7508,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>190</v>
       </c>
@@ -7680,7 +7526,7 @@
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>191</v>
       </c>
@@ -7706,7 +7552,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>192</v>
       </c>
@@ -7735,7 +7581,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>193</v>
       </c>
@@ -7761,7 +7607,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>194</v>
       </c>
@@ -7787,7 +7633,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>195</v>
       </c>
@@ -7813,7 +7659,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>196</v>
       </c>
@@ -7839,7 +7685,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>197</v>
       </c>
@@ -7857,7 +7703,7 @@
       <c r="H33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>198</v>
       </c>
@@ -7880,7 +7726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>199</v>
       </c>
@@ -7898,7 +7744,7 @@
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>201</v>
       </c>
@@ -7909,7 +7755,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>205</v>
       </c>
@@ -7932,7 +7778,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>212</v>
       </c>
@@ -7961,7 +7807,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>215</v>
       </c>
@@ -7980,7 +7826,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>222</v>
       </c>
@@ -8006,7 +7852,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>242</v>
       </c>
@@ -8032,7 +7878,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>245</v>
       </c>
@@ -8050,7 +7896,7 @@
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>252</v>
       </c>
@@ -8076,7 +7922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>262</v>
       </c>
@@ -8102,7 +7948,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>272</v>
       </c>
@@ -8128,7 +7974,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>282</v>
       </c>
@@ -8146,7 +7992,7 @@
       <c r="H46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>291</v>
       </c>
@@ -8164,7 +8010,7 @@
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>292</v>
       </c>
@@ -8190,7 +8036,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>293</v>
       </c>
@@ -8213,7 +8059,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>294</v>
       </c>
@@ -8236,7 +8082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>295</v>
       </c>
@@ -8259,7 +8105,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>296</v>
       </c>
@@ -8276,7 +8122,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>311</v>
       </c>
@@ -8308,7 +8154,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>315</v>
       </c>
@@ -8328,7 +8174,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>331</v>
       </c>
@@ -8354,7 +8200,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>341</v>
       </c>
@@ -8380,7 +8226,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>351</v>
       </c>
@@ -8406,7 +8252,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>361</v>
       </c>
@@ -8427,7 +8273,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>432</v>
       </c>
@@ -8444,7 +8290,7 @@
       <c r="G59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>433</v>
       </c>
@@ -8470,7 +8316,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>442</v>
       </c>
@@ -8496,7 +8342,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>443</v>
       </c>
@@ -8522,7 +8368,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>445</v>
       </c>
@@ -8540,7 +8386,7 @@
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>447</v>
       </c>
@@ -8563,7 +8409,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>510</v>
       </c>
@@ -8589,7 +8435,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>520</v>
       </c>
@@ -8615,7 +8461,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>530</v>
       </c>
@@ -8641,7 +8487,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>540</v>
       </c>
@@ -8667,7 +8513,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>541</v>
       </c>
@@ -8690,7 +8536,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>542</v>
       </c>
@@ -8716,7 +8562,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>543</v>
       </c>
@@ -8742,7 +8588,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>544</v>
       </c>
@@ -8768,7 +8614,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>545</v>
       </c>
@@ -8791,7 +8637,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>546</v>
       </c>
@@ -8817,7 +8663,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>547</v>
       </c>
@@ -8843,7 +8689,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>548</v>
       </c>
@@ -8869,7 +8715,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>549</v>
       </c>
@@ -8892,7 +8738,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>550</v>
       </c>
@@ -8915,7 +8761,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>551</v>
       </c>
@@ -8941,7 +8787,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>560</v>
       </c>
@@ -8959,7 +8805,7 @@
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>561</v>
       </c>
@@ -8982,7 +8828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>570</v>
       </c>
@@ -8999,7 +8845,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>571</v>
       </c>
@@ -9014,7 +8860,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>940</v>
       </c>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
     <sheet name="BranchData" sheetId="2" r:id="rId2"/>
     <sheet name="TMALocations" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2105,9 +2105,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2122,7 +2129,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2130,25 +2137,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF3F60AF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2178,6 +2218,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2228,16 +2271,16 @@
     <tableColumn id="9" name="Services"/>
     <tableColumn id="10" name="LocationCode"/>
     <tableColumn id="11" name="LocGLStr" dataDxfId="13"/>
-    <tableColumn id="20" name="TMA_BRANCH_NUMBER" dataDxfId="0"/>
-    <tableColumn id="15" name="LOCNCODE" dataDxfId="12"/>
-    <tableColumn id="19" name="AgLocationCode" dataDxfId="11"/>
-    <tableColumn id="12" name="Latitude" dataDxfId="10"/>
-    <tableColumn id="13" name="Longitude" dataDxfId="9"/>
-    <tableColumn id="14" name="Region" dataDxfId="8"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="7"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="6"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="5"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="4"/>
+    <tableColumn id="20" name="TMA_BRANCH_NUMBER" dataDxfId="12"/>
+    <tableColumn id="15" name="LOCNCODE" dataDxfId="11"/>
+    <tableColumn id="19" name="AgLocationCode" dataDxfId="10"/>
+    <tableColumn id="12" name="Latitude" dataDxfId="9"/>
+    <tableColumn id="13" name="Longitude" dataDxfId="8"/>
+    <tableColumn id="14" name="Region" dataDxfId="7"/>
+    <tableColumn id="18" name="CapacityAppl" dataDxfId="6"/>
+    <tableColumn id="16" name="CapacityFert" dataDxfId="5"/>
+    <tableColumn id="17" name="CapacityFuel" dataDxfId="4"/>
+    <tableColumn id="22" name="CapacityGrain" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2252,9 +2295,9 @@
     <tableColumn id="3" name="TYPE"/>
     <tableColumn id="4" name="REGION"/>
     <tableColumn id="5" name="CAPACITY"/>
-    <tableColumn id="6" name="DisplayName" dataDxfId="3"/>
-    <tableColumn id="7" name="Address" dataDxfId="2"/>
-    <tableColumn id="8" name="Phone1" dataDxfId="1"/>
+    <tableColumn id="6" name="DisplayName" dataDxfId="2"/>
+    <tableColumn id="7" name="Address" dataDxfId="1"/>
+    <tableColumn id="8" name="Phone1" dataDxfId="0"/>
     <tableColumn id="9" name="Phone2"/>
     <tableColumn id="10" name="Phone3"/>
     <tableColumn id="11" name="Fax"/>
@@ -2341,6 +2384,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2376,6 +2436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2532,14 +2609,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -2547,7 +2624,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2555,7 +2632,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2563,7 +2640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2571,7 +2648,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2579,7 +2656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +2664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2595,7 +2672,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2611,7 +2688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2619,7 +2696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2627,12 +2704,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2640,7 +2717,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2648,7 +2725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2656,7 +2733,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2664,7 +2741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2672,7 +2749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2680,7 +2757,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2688,7 +2765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2696,7 +2773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2704,7 +2781,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2712,7 +2789,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2720,7 +2797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2728,7 +2805,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2736,7 +2813,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -2744,7 +2821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2752,7 +2829,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2760,22 +2837,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2783,7 +2860,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -2791,7 +2868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -2799,7 +2876,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2807,7 +2884,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2815,7 +2892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2823,22 +2900,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2846,7 +2923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2854,7 +2931,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2862,7 +2939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2870,7 +2947,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2878,7 +2955,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>203</v>
       </c>
@@ -2886,7 +2963,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2909,36 +2986,36 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="15" width="14.5546875" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -3009,7 +3086,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3088,7 +3165,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3149,7 +3226,7 @@
         <v>1216000</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3188,8 +3265,12 @@
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2">
+        <v>38.801063300000003</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-97.754355700000005</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
@@ -3220,7 +3301,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3299,7 +3380,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3378,7 +3459,7 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3410,7 +3491,7 @@
         <v>288000</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3489,7 +3570,7 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -3521,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3600,7 +3681,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -3639,8 +3720,12 @@
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="P11" s="2">
+        <v>38.377895899999999</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-97.466010199999999</v>
+      </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -3665,7 +3750,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3744,7 +3829,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -3762,24 +3847,20 @@
         <v>328</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="2">
-        <v>38.4475148</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>-97.666996100000006</v>
-      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="5"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>284</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>260</v>
@@ -3814,7 +3895,7 @@
         <v>439000</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3853,8 +3934,12 @@
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="P15" s="2">
+        <v>38.9670597</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-97.762475199999997</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -3881,7 +3966,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -3922,10 +4007,10 @@
         <v>254</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="2">
+      <c r="P16" s="4">
         <v>38.289623200000001</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="5">
         <v>-97.618053500000002</v>
       </c>
       <c r="R16" s="2"/>
@@ -3958,7 +4043,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -3986,7 +4071,7 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4025,8 +4110,12 @@
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
+      <c r="P18" s="2">
+        <v>38.6719662</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>-97.762896600000005</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2">
@@ -4039,7 +4128,7 @@
         <v>187000</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4118,7 +4207,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4179,7 +4268,7 @@
         <v>643000</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4240,7 +4329,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4283,10 +4372,10 @@
       <c r="O22" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P22" s="4">
         <v>38.289691599999998</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="Q22" s="5">
         <v>-97.779943399999993</v>
       </c>
       <c r="R22" s="2"/>
@@ -4319,7 +4408,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4398,7 +4487,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>286</v>
       </c>
@@ -4426,7 +4515,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4501,7 +4590,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -4540,15 +4629,19 @@
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="P26" s="2">
+        <v>38.441087199999998</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>-97.677783700000006</v>
+      </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>319</v>
       </c>
@@ -4576,7 +4669,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -4602,7 +4695,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4677,7 +4770,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4756,7 +4849,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4817,7 +4910,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>287</v>
       </c>
@@ -4839,15 +4932,19 @@
       <c r="O32" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+      <c r="P32" s="2">
+        <v>38.220903</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>-98.209054899999998</v>
+      </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>315</v>
       </c>
@@ -4873,7 +4970,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -4948,7 +5045,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -5027,7 +5124,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -5106,7 +5203,7 @@
         <v>67464</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>339</v>
       </c>
@@ -5140,7 +5237,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -5180,10 +5277,10 @@
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="2">
-        <v>38.4475148</v>
+        <v>38.372860899999999</v>
       </c>
       <c r="Q38" s="2">
-        <v>-97.666996100000006</v>
+        <v>-97.6881427</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -5191,7 +5288,7 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -5225,8 +5322,12 @@
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="P39" s="2">
+        <v>38.372777200000002</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>-97.679016700000005</v>
+      </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -5251,7 +5352,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -5285,8 +5386,12 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="P40" s="2">
+        <v>38.371138199999997</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>-97.674794700000007</v>
+      </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -5311,7 +5416,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -5337,7 +5442,7 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -5379,10 +5484,10 @@
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="2">
-        <v>38.372224000000003</v>
+        <v>38.372228200000002</v>
       </c>
       <c r="Q42" s="2">
-        <v>-97.668978899999999</v>
+        <v>-97.671167600000004</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -5414,7 +5519,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -5454,8 +5559,12 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
+      <c r="P43" s="2">
+        <v>38.202726499999997</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>-97.524955899999995</v>
+      </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -5480,7 +5589,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -5562,7 +5671,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -5594,8 +5703,12 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+      <c r="P45" s="2">
+        <v>38.2061311</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>-97.524159900000001</v>
+      </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -5620,7 +5733,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -5646,7 +5759,7 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -5683,8 +5796,12 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
+      <c r="P47" s="2">
+        <v>38.064183100000001</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>-97.347417399999998</v>
+      </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2">
@@ -5715,7 +5832,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>289</v>
       </c>
@@ -5747,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -5826,7 +5943,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5905,7 +6022,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>322</v>
       </c>
@@ -5935,7 +6052,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>317</v>
       </c>
@@ -5963,7 +6080,7 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>324</v>
       </c>
@@ -5987,7 +6104,7 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -6060,7 +6177,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -6113,7 +6230,7 @@
         <v>279000</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -6185,7 +6302,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -6264,7 +6381,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -6343,7 +6460,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>312</v>
       </c>
@@ -6367,7 +6484,7 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -6446,7 +6563,7 @@
         <v>67151</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -6521,7 +6638,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -6600,7 +6717,7 @@
         <v>67154</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -6637,8 +6754,12 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
+      <c r="P63" s="2">
+        <v>38.207453700000002</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>-97.519309500000006</v>
+      </c>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2">
@@ -6669,7 +6790,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -6708,8 +6829,12 @@
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="P64" s="2">
+        <v>38.384790199999998</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>-97.911084700000004</v>
+      </c>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2">
@@ -6762,21 +6887,21 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>643</v>
       </c>
@@ -6817,7 +6942,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -6846,7 +6971,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13</v>
       </c>
@@ -6859,7 +6984,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -6885,7 +7010,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>31</v>
       </c>
@@ -6914,7 +7039,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>32</v>
       </c>
@@ -6933,7 +7058,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>41</v>
       </c>
@@ -6950,7 +7075,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>61</v>
       </c>
@@ -6979,7 +7104,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>71</v>
       </c>
@@ -7011,7 +7136,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>81</v>
       </c>
@@ -7034,7 +7159,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>91</v>
       </c>
@@ -7060,7 +7185,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>101</v>
       </c>
@@ -7083,7 +7208,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>111</v>
       </c>
@@ -7109,7 +7234,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>121</v>
       </c>
@@ -7135,7 +7260,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>131</v>
       </c>
@@ -7164,7 +7289,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>141</v>
       </c>
@@ -7187,7 +7312,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>151</v>
       </c>
@@ -7213,7 +7338,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>161</v>
       </c>
@@ -7236,7 +7361,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>171</v>
       </c>
@@ -7262,7 +7387,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>181</v>
       </c>
@@ -7282,7 +7407,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>182</v>
       </c>
@@ -7300,7 +7425,7 @@
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>183</v>
       </c>
@@ -7326,7 +7451,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>185</v>
       </c>
@@ -7343,7 +7468,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>187</v>
       </c>
@@ -7366,7 +7491,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>188</v>
       </c>
@@ -7383,7 +7508,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>190</v>
       </c>
@@ -7401,7 +7526,7 @@
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>191</v>
       </c>
@@ -7427,7 +7552,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>192</v>
       </c>
@@ -7456,7 +7581,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>193</v>
       </c>
@@ -7482,7 +7607,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>194</v>
       </c>
@@ -7508,7 +7633,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>195</v>
       </c>
@@ -7534,7 +7659,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>196</v>
       </c>
@@ -7560,7 +7685,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>197</v>
       </c>
@@ -7578,7 +7703,7 @@
       <c r="H33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>198</v>
       </c>
@@ -7601,7 +7726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>199</v>
       </c>
@@ -7619,7 +7744,7 @@
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>201</v>
       </c>
@@ -7630,7 +7755,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>205</v>
       </c>
@@ -7653,7 +7778,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>212</v>
       </c>
@@ -7682,7 +7807,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>215</v>
       </c>
@@ -7701,7 +7826,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>222</v>
       </c>
@@ -7727,7 +7852,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>242</v>
       </c>
@@ -7753,7 +7878,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>245</v>
       </c>
@@ -7771,7 +7896,7 @@
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>252</v>
       </c>
@@ -7797,7 +7922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>262</v>
       </c>
@@ -7823,7 +7948,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>272</v>
       </c>
@@ -7849,7 +7974,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>282</v>
       </c>
@@ -7867,7 +7992,7 @@
       <c r="H46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>291</v>
       </c>
@@ -7885,7 +8010,7 @@
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>292</v>
       </c>
@@ -7911,7 +8036,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>293</v>
       </c>
@@ -7934,7 +8059,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>294</v>
       </c>
@@ -7957,7 +8082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>295</v>
       </c>
@@ -7980,7 +8105,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>296</v>
       </c>
@@ -7997,7 +8122,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>311</v>
       </c>
@@ -8029,7 +8154,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>315</v>
       </c>
@@ -8049,7 +8174,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>331</v>
       </c>
@@ -8075,7 +8200,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>341</v>
       </c>
@@ -8101,7 +8226,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>351</v>
       </c>
@@ -8127,7 +8252,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>361</v>
       </c>
@@ -8148,7 +8273,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>432</v>
       </c>
@@ -8165,7 +8290,7 @@
       <c r="G59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>433</v>
       </c>
@@ -8191,7 +8316,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>442</v>
       </c>
@@ -8217,7 +8342,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>443</v>
       </c>
@@ -8243,7 +8368,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>445</v>
       </c>
@@ -8261,7 +8386,7 @@
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>447</v>
       </c>
@@ -8284,7 +8409,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>510</v>
       </c>
@@ -8310,7 +8435,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>520</v>
       </c>
@@ -8336,7 +8461,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>530</v>
       </c>
@@ -8362,7 +8487,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>540</v>
       </c>
@@ -8388,7 +8513,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>541</v>
       </c>
@@ -8411,7 +8536,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>542</v>
       </c>
@@ -8437,7 +8562,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>543</v>
       </c>
@@ -8463,7 +8588,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>544</v>
       </c>
@@ -8489,7 +8614,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>545</v>
       </c>
@@ -8512,7 +8637,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>546</v>
       </c>
@@ -8538,7 +8663,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>547</v>
       </c>
@@ -8564,7 +8689,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>548</v>
       </c>
@@ -8590,7 +8715,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>549</v>
       </c>
@@ -8613,7 +8738,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>550</v>
       </c>
@@ -8636,7 +8761,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>551</v>
       </c>
@@ -8662,7 +8787,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>560</v>
       </c>
@@ -8680,7 +8805,7 @@
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>561</v>
       </c>
@@ -8703,7 +8828,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>570</v>
       </c>
@@ -8720,7 +8845,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>571</v>
       </c>
@@ -8735,7 +8860,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>940</v>
       </c>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="773">
   <si>
     <t>Abilene</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Grain, Feed, Agronomy</t>
   </si>
   <si>
-    <t>Feed mill, Agronomy</t>
-  </si>
-  <si>
     <t>2418 SW Butler Road</t>
   </si>
   <si>
@@ -625,9 +622,6 @@
     <t>(785) 457-3671</t>
   </si>
   <si>
-    <t>Service station, 24 hr fuel, Anhydrous, Feed</t>
-  </si>
-  <si>
     <t>Whitewatre</t>
   </si>
   <si>
@@ -2345,6 +2339,12 @@
   </si>
   <si>
     <t>469,000</t>
+  </si>
+  <si>
+    <t>Service station, 24 hr fuel, NH3, Feed</t>
+  </si>
+  <si>
+    <t>Assaria</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2825,7 +2827,7 @@
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2912,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,7 +3021,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -3043,17 +3045,17 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3066,7 +3068,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
@@ -3074,7 +3076,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
@@ -3106,17 +3108,17 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3161,10 +3163,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3192,9 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3222,10 +3226,10 @@
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
         <v>73</v>
@@ -3249,43 +3253,43 @@
         <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" t="s">
+        <v>649</v>
+      </c>
+      <c r="N1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O1" t="s">
+        <v>431</v>
+      </c>
+      <c r="P1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" t="s">
         <v>243</v>
       </c>
-      <c r="M1" t="s">
-        <v>651</v>
-      </c>
-      <c r="N1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O1" t="s">
-        <v>433</v>
-      </c>
-      <c r="P1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>245</v>
-      </c>
       <c r="R1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" t="s">
+        <v>417</v>
+      </c>
+      <c r="T1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U1" t="s">
         <v>279</v>
       </c>
-      <c r="S1" t="s">
-        <v>419</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>280</v>
       </c>
-      <c r="U1" t="s">
-        <v>281</v>
-      </c>
-      <c r="V1" t="s">
-        <v>282</v>
-      </c>
       <c r="AA1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
@@ -3296,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
@@ -3320,16 +3324,16 @@
         <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P2" s="2">
         <v>38.914143000000003</v>
@@ -3340,31 +3344,31 @@
       <c r="R2" s="2"/>
       <c r="S2" s="4"/>
       <c r="T2" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AE2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF2" t="s">
         <v>83</v>
       </c>
       <c r="AG2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -3375,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>88</v>
@@ -3393,22 +3397,22 @@
         <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P3" s="2">
         <v>38.862507200000003</v>
@@ -3419,13 +3423,13 @@
       <c r="R3" s="2"/>
       <c r="S3" s="4"/>
       <c r="T3" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -3460,10 +3464,10 @@
         <v>120</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3476,31 +3480,31 @@
       <c r="R4" s="2"/>
       <c r="S4" s="4"/>
       <c r="T4" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AA4" t="s">
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AE4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF4" t="s">
         <v>83</v>
       </c>
       <c r="AG4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -3511,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>93</v>
@@ -3535,16 +3539,16 @@
         <v>140</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P5" s="2">
         <v>39.031503800000003</v>
@@ -3555,31 +3559,31 @@
       <c r="R5" s="2"/>
       <c r="S5" s="4"/>
       <c r="T5" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AA5" t="s">
         <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AE5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF5" t="s">
         <v>83</v>
       </c>
       <c r="AG5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -3590,10 +3594,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -3605,25 +3609,25 @@
         <v>67107</v>
       </c>
       <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
         <v>98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>99</v>
       </c>
       <c r="K6">
         <v>160</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P6" s="2">
         <v>37.789031000000001</v>
@@ -3634,25 +3638,25 @@
       <c r="R6" s="2"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA6" t="s">
         <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AE6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF6" t="s">
         <v>83</v>
@@ -3668,14 +3672,35 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7">
+        <v>67416</v>
+      </c>
+      <c r="I7" t="s">
+        <v>607</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
       <c r="K7">
         <v>180</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3688,13 +3713,13 @@
       <c r="R7" s="2"/>
       <c r="S7" s="4"/>
       <c r="T7" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -3705,10 +3730,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -3720,25 +3745,25 @@
         <v>67522</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8">
         <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P8" s="2">
         <v>38.135297999999999</v>
@@ -3749,25 +3774,25 @@
       <c r="R8" s="2"/>
       <c r="S8" s="4"/>
       <c r="T8" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="AA8" t="s">
         <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AE8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF8" t="s">
         <v>83</v>
@@ -3778,7 +3803,7 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3787,11 +3812,11 @@
         <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="2"/>
@@ -3799,13 +3824,13 @@
       <c r="R9" s="2"/>
       <c r="S9" s="4"/>
       <c r="T9" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -3816,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -3831,25 +3856,25 @@
         <v>66840</v>
       </c>
       <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
         <v>105</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
       </c>
       <c r="K10">
         <v>220</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P10" s="2">
         <v>38.089356199999997</v>
@@ -3860,45 +3885,45 @@
       <c r="R10" s="2"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
       </c>
       <c r="AB10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AE10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF10" t="s">
         <v>83</v>
       </c>
       <c r="AG10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -3910,7 +3935,7 @@
         <v>67428</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
         <v>85</v>
@@ -3919,10 +3944,10 @@
         <v>230</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -3938,16 +3963,16 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="AA11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AE11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF11" t="s">
         <v>83</v>
@@ -3964,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
         <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
@@ -3979,25 +4004,25 @@
         <v>67501</v>
       </c>
       <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
         <v>112</v>
-      </c>
-      <c r="J12" t="s">
-        <v>113</v>
       </c>
       <c r="K12">
         <v>240</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P12" s="2">
         <v>37.867400000000004</v>
@@ -4008,36 +4033,36 @@
       <c r="R12" s="2"/>
       <c r="S12" s="4"/>
       <c r="T12" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="AA12" t="s">
         <v>8</v>
       </c>
       <c r="AB12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AE12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AF12" t="s">
         <v>83</v>
       </c>
       <c r="AG12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4046,11 +4071,11 @@
         <v>36</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="2">
@@ -4067,7 +4092,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4076,16 +4101,16 @@
         <v>260</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P14" s="2">
         <v>38.370841499999997</v>
@@ -4096,30 +4121,30 @@
       <c r="R14" s="2"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
         <v>117</v>
       </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
         <v>83</v>
@@ -4128,7 +4153,7 @@
         <v>67484</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
         <v>85</v>
@@ -4137,10 +4162,10 @@
         <v>280</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4155,25 +4180,25 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AE15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF15" t="s">
         <v>83</v>
       </c>
       <c r="AG15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -4184,13 +4209,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>121</v>
       </c>
       <c r="G16" t="s">
         <v>83</v>
@@ -4199,7 +4224,7 @@
         <v>67460</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J16" t="s">
         <v>85</v>
@@ -4208,13 +4233,13 @@
         <v>300</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="2">
@@ -4226,36 +4251,36 @@
       <c r="R16" s="2"/>
       <c r="S16" s="4"/>
       <c r="T16" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AA16" t="s">
         <v>10</v>
       </c>
       <c r="AB16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AE16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF16" t="s">
         <v>83</v>
       </c>
       <c r="AG16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4264,14 +4289,14 @@
         <v>305</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -4289,10 +4314,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -4304,7 +4329,7 @@
         <v>67442</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J18" t="s">
         <v>85</v>
@@ -4313,10 +4338,10 @@
         <v>320</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4329,13 +4354,13 @@
       <c r="R18" s="2"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
@@ -4346,10 +4371,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -4361,25 +4386,25 @@
         <v>66851</v>
       </c>
       <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
         <v>126</v>
-      </c>
-      <c r="J19" t="s">
-        <v>127</v>
       </c>
       <c r="K19">
         <v>340</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P19" s="2">
         <v>38.242364600000002</v>
@@ -4390,31 +4415,31 @@
       <c r="R19" s="2"/>
       <c r="S19" s="4"/>
       <c r="T19" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AA19" t="s">
         <v>12</v>
       </c>
       <c r="AB19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AE19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF19" t="s">
         <v>83</v>
       </c>
       <c r="AG19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
@@ -4425,10 +4450,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -4440,25 +4465,25 @@
         <v>67443</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20">
         <v>360</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P20" s="2">
         <v>38.384791</v>
@@ -4469,13 +4494,13 @@
       <c r="R20" s="2"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
@@ -4486,10 +4511,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -4501,25 +4526,25 @@
         <v>67053</v>
       </c>
       <c r="I21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" t="s">
         <v>131</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
       </c>
       <c r="K21">
         <v>380</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P21" s="2">
         <v>38.249427099999998</v>
@@ -4530,13 +4555,13 @@
       <c r="R21" s="2"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
@@ -4547,13 +4572,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
         <v>133</v>
-      </c>
-      <c r="F22" t="s">
-        <v>134</v>
       </c>
       <c r="G22" t="s">
         <v>83</v>
@@ -4562,7 +4587,7 @@
         <v>67546</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J22" t="s">
         <v>95</v>
@@ -4571,16 +4596,16 @@
         <v>400</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P22" s="2">
         <v>38.289691599999998</v>
@@ -4591,31 +4616,31 @@
       <c r="R22" s="2"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="AA22" t="s">
         <v>15</v>
       </c>
       <c r="AB22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AE22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF22" t="s">
         <v>83</v>
       </c>
       <c r="AG22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
@@ -4626,10 +4651,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -4641,25 +4666,25 @@
         <v>67543</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23">
         <v>420</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P23" s="2">
         <v>37.9</v>
@@ -4670,36 +4695,36 @@
       <c r="R23" s="2"/>
       <c r="S23" s="4"/>
       <c r="T23" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="AA23" t="s">
         <v>16</v>
       </c>
       <c r="AB23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AE23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF23" t="s">
         <v>83</v>
       </c>
       <c r="AG23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4708,14 +4733,14 @@
         <v>430</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -4733,10 +4758,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -4748,20 +4773,20 @@
         <v>67449</v>
       </c>
       <c r="I25" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" t="s">
         <v>139</v>
-      </c>
-      <c r="J25" t="s">
-        <v>140</v>
       </c>
       <c r="K25">
         <v>440</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="2">
@@ -4773,25 +4798,25 @@
       <c r="R25" s="2"/>
       <c r="S25" s="4"/>
       <c r="T25" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA25" t="s">
         <v>17</v>
       </c>
       <c r="AB25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AE25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF25" t="s">
         <v>83</v>
@@ -4808,13 +4833,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
         <v>83</v>
@@ -4823,7 +4848,7 @@
         <v>67460</v>
       </c>
       <c r="I26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
         <v>85</v>
@@ -4832,10 +4857,10 @@
         <v>460</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4853,7 +4878,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4862,14 +4887,14 @@
         <v>480</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -4881,7 +4906,7 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4890,12 +4915,12 @@
         <v>500</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -4913,13 +4938,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
         <v>83</v>
@@ -4928,20 +4953,20 @@
         <v>67546</v>
       </c>
       <c r="I29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" t="s">
         <v>144</v>
-      </c>
-      <c r="J29" t="s">
-        <v>145</v>
       </c>
       <c r="K29">
         <v>520</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="2">
@@ -4953,31 +4978,31 @@
       <c r="R29" s="2"/>
       <c r="S29" s="4"/>
       <c r="T29" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA29" t="s">
         <v>19</v>
       </c>
       <c r="AB29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AE29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF29" t="s">
         <v>83</v>
       </c>
       <c r="AG29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
@@ -4988,10 +5013,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
@@ -5003,25 +5028,25 @@
         <v>67456</v>
       </c>
       <c r="I30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K30">
         <v>540</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P30" s="2">
         <v>38.574119000000003</v>
@@ -5032,25 +5057,25 @@
       <c r="R30" s="2"/>
       <c r="S30" s="4"/>
       <c r="T30" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
       </c>
       <c r="AB30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AE30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s">
         <v>83</v>
@@ -5067,10 +5092,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
@@ -5082,7 +5107,7 @@
         <v>67458</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
         <v>95</v>
@@ -5091,16 +5116,16 @@
         <v>560</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P31" s="2">
         <v>39.169995700000001</v>
@@ -5111,18 +5136,18 @@
       <c r="R31" s="2"/>
       <c r="S31" s="4"/>
       <c r="T31" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5131,16 +5156,16 @@
         <v>570</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -5152,7 +5177,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5161,11 +5186,11 @@
         <v>40</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="2"/>
@@ -5184,10 +5209,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
@@ -5199,20 +5224,20 @@
         <v>66502</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34">
         <v>576</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="2">
@@ -5224,45 +5249,45 @@
       <c r="R34" s="2"/>
       <c r="S34" s="4"/>
       <c r="T34" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
       </c>
       <c r="AB34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AE34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s">
         <v>83</v>
       </c>
       <c r="AG34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -5274,25 +5299,25 @@
         <v>66502</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K35">
         <v>575</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P35" s="2">
         <v>39.192815099999997</v>
@@ -5303,31 +5328,31 @@
       <c r="R35" s="2"/>
       <c r="S35" s="4"/>
       <c r="T35" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="AA35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AE35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s">
         <v>83</v>
       </c>
       <c r="AG35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
@@ -5338,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
@@ -5353,25 +5378,25 @@
         <v>67464</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K36">
         <v>580</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P36" s="2">
         <v>38.557795300000002</v>
@@ -5382,25 +5407,25 @@
       <c r="R36" s="2"/>
       <c r="S36" s="4"/>
       <c r="T36" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AA36" t="s">
         <v>24</v>
       </c>
       <c r="AB36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AE36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF36" t="s">
         <v>83</v>
@@ -5411,7 +5436,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5420,16 +5445,16 @@
         <v>600</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P37" s="2">
         <v>38.086703200000002</v>
@@ -5451,13 +5476,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
         <v>83</v>
@@ -5466,20 +5491,20 @@
         <v>67460</v>
       </c>
       <c r="I38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" t="s">
         <v>164</v>
-      </c>
-      <c r="J38" t="s">
-        <v>165</v>
       </c>
       <c r="K38">
         <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="2">
@@ -5496,19 +5521,19 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G39" t="s">
         <v>83</v>
@@ -5517,14 +5542,14 @@
         <v>67460</v>
       </c>
       <c r="I39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J39" t="s">
         <v>85</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -5536,39 +5561,39 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="AA39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC39" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AE39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF39" t="s">
         <v>83</v>
       </c>
       <c r="AG39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G40" t="s">
         <v>83</v>
@@ -5577,14 +5602,14 @@
         <v>67460</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
         <v>85</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -5596,27 +5621,27 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="AA40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AE40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s">
         <v>83</v>
       </c>
       <c r="AG40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5625,11 +5650,11 @@
         <v>32</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="2"/>
@@ -5642,19 +5667,19 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G42" t="s">
         <v>83</v>
@@ -5663,7 +5688,7 @@
         <v>67460</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J42" t="s">
         <v>85</v>
@@ -5672,13 +5697,13 @@
         <v>620</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="2">
@@ -5690,31 +5715,31 @@
       <c r="R42" s="2"/>
       <c r="S42" s="4"/>
       <c r="T42" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AA42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF42" t="s">
         <v>83</v>
       </c>
       <c r="AG42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
@@ -5725,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -5746,13 +5771,13 @@
         <v>84</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K43">
         <v>10</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -5768,30 +5793,30 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AE43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF43" t="s">
         <v>83</v>
       </c>
       <c r="AG43" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -5809,25 +5834,25 @@
         <v>67107</v>
       </c>
       <c r="I44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K44">
         <v>640</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P44" s="2">
         <v>38.202722299999998</v>
@@ -5838,45 +5863,45 @@
       <c r="R44" s="2"/>
       <c r="S44" s="4"/>
       <c r="T44" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="AA44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AE44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF44" t="s">
         <v>83</v>
       </c>
       <c r="AG44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
@@ -5888,10 +5913,10 @@
         <v>67107</v>
       </c>
       <c r="I45" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" t="s">
         <v>172</v>
-      </c>
-      <c r="J45" t="s">
-        <v>173</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -5905,27 +5930,27 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="AA45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB45" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC45" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AE45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF45" t="s">
         <v>83</v>
       </c>
       <c r="AG45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5934,10 +5959,10 @@
         <v>680</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5957,10 +5982,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F47" t="s">
         <v>27</v>
@@ -5972,7 +5997,7 @@
         <v>67117</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J47" t="s">
         <v>85</v>
@@ -5981,7 +6006,7 @@
         <v>660</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -5995,36 +6020,36 @@
       <c r="R47" s="2"/>
       <c r="S47" s="4"/>
       <c r="T47" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AA47" t="s">
         <v>27</v>
       </c>
       <c r="AB47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AE47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF47" t="s">
         <v>83</v>
       </c>
       <c r="AG47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6033,11 +6058,11 @@
         <v>682</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="2"/>
@@ -6045,13 +6070,13 @@
       <c r="R48" s="2"/>
       <c r="S48" s="4"/>
       <c r="T48" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
@@ -6062,10 +6087,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -6077,25 +6102,25 @@
         <v>66521</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K49">
         <v>685</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P49" s="2">
         <v>39.480414099999997</v>
@@ -6106,31 +6131,31 @@
       <c r="R49" s="2"/>
       <c r="S49" s="4"/>
       <c r="T49" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="AA49" t="s">
         <v>28</v>
       </c>
       <c r="AB49" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AE49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF49" t="s">
         <v>83</v>
       </c>
       <c r="AG49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
@@ -6141,10 +6166,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
         <v>29</v>
@@ -6156,25 +6181,25 @@
         <v>66866</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50">
         <v>700</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P50" s="2">
         <v>38.164371600000003</v>
@@ -6185,36 +6210,36 @@
       <c r="R50" s="2"/>
       <c r="S50" s="4"/>
       <c r="T50" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="V50" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="AA50" t="s">
         <v>29</v>
       </c>
       <c r="AB50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AE50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF50" t="s">
         <v>83</v>
       </c>
       <c r="AG50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6223,16 +6248,16 @@
         <v>720</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -6244,7 +6269,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6253,14 +6278,14 @@
         <v>50</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -6272,7 +6297,7 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6281,7 +6306,7 @@
         <v>740</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -6296,19 +6321,19 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" t="s">
         <v>182</v>
-      </c>
-      <c r="F54" t="s">
-        <v>183</v>
       </c>
       <c r="G54" t="s">
         <v>83</v>
@@ -6317,22 +6342,22 @@
         <v>67579</v>
       </c>
       <c r="I54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" t="s">
         <v>184</v>
-      </c>
-      <c r="J54" t="s">
-        <v>185</v>
       </c>
       <c r="K54">
         <v>60</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="2">
@@ -6344,48 +6369,48 @@
       <c r="R54" s="2"/>
       <c r="S54" s="4"/>
       <c r="T54" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AA54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AE54" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF54" t="s">
         <v>83</v>
       </c>
       <c r="AG54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G55" t="s">
         <v>83</v>
@@ -6394,7 +6419,7 @@
         <v>67476</v>
       </c>
       <c r="I55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J55" t="s">
         <v>85</v>
@@ -6403,10 +6428,10 @@
         <v>760</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -6419,30 +6444,30 @@
       <c r="R55" s="2"/>
       <c r="S55" s="4"/>
       <c r="T55" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G56" t="s">
         <v>83</v>
@@ -6451,17 +6476,17 @@
         <v>67401</v>
       </c>
       <c r="J56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K56">
         <v>780</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="2">
@@ -6473,31 +6498,31 @@
       <c r="R56" s="2"/>
       <c r="S56" s="4"/>
       <c r="T56" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AE56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF56" t="s">
         <v>83</v>
       </c>
       <c r="AG56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
@@ -6511,7 +6536,7 @@
         <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
@@ -6523,25 +6548,25 @@
         <v>67480</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K57">
         <v>800</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P57" s="2">
         <v>38.917464000000002</v>
@@ -6552,31 +6577,31 @@
       <c r="R57" s="2"/>
       <c r="S57" s="4"/>
       <c r="T57" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AA57" t="s">
         <v>30</v>
       </c>
       <c r="AB57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AE57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF57" t="s">
         <v>83</v>
       </c>
       <c r="AG57" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
@@ -6587,10 +6612,10 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F58" t="s">
         <v>31</v>
@@ -6602,25 +6627,25 @@
         <v>67482</v>
       </c>
       <c r="I58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K58">
         <v>820</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P58" s="2">
         <v>39.026199400000003</v>
@@ -6631,36 +6656,36 @@
       <c r="R58" s="2"/>
       <c r="S58" s="4"/>
       <c r="T58" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="AA58" t="s">
         <v>31</v>
       </c>
       <c r="AB58" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC58" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AE58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AF58" t="s">
         <v>83</v>
       </c>
       <c r="AG58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6669,7 +6694,7 @@
         <v>18</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -6690,10 +6715,10 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
         <v>32</v>
@@ -6705,25 +6730,25 @@
         <v>67151</v>
       </c>
       <c r="I60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K60">
         <v>840</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P60" s="2">
         <v>38.218391099999998</v>
@@ -6734,25 +6759,25 @@
       <c r="R60" s="2"/>
       <c r="S60" s="4"/>
       <c r="T60" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="V60" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="AA60" t="s">
         <v>32</v>
       </c>
       <c r="AB60" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC60" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AE60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF60" t="s">
         <v>83</v>
@@ -6769,10 +6794,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
@@ -6784,20 +6809,20 @@
         <v>66549</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J61" t="s">
-        <v>199</v>
+        <v>771</v>
       </c>
       <c r="K61">
         <v>845</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="2">
@@ -6809,31 +6834,31 @@
       <c r="R61" s="2"/>
       <c r="S61" s="4"/>
       <c r="T61" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA61" t="s">
         <v>33</v>
       </c>
       <c r="AB61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC61" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AE61" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF61" t="s">
         <v>83</v>
       </c>
       <c r="AG61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
@@ -6844,13 +6869,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G62" t="s">
         <v>83</v>
@@ -6859,7 +6884,7 @@
         <v>67154</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J62" t="s">
         <v>95</v>
@@ -6868,16 +6893,16 @@
         <v>860</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P62" s="2">
         <v>37.962503599999998</v>
@@ -6888,25 +6913,25 @@
       <c r="R62" s="2"/>
       <c r="S62" s="4"/>
       <c r="T62" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AA62" t="s">
         <v>34</v>
       </c>
       <c r="AB62" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC62" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AE62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF62" t="s">
         <v>83</v>
@@ -6917,7 +6942,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -6926,10 +6951,10 @@
         <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G63" t="s">
         <v>83</v>
@@ -6938,7 +6963,7 @@
         <v>67201</v>
       </c>
       <c r="I63" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J63" t="s">
         <v>85</v>
@@ -6947,7 +6972,7 @@
         <v>880</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -6961,31 +6986,31 @@
       <c r="R63" s="2"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AA63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AB63" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC63" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AE63" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF63" t="s">
         <v>83</v>
       </c>
       <c r="AG63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
@@ -6996,10 +7021,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -7011,7 +7036,7 @@
         <v>67491</v>
       </c>
       <c r="I64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J64" t="s">
         <v>85</v>
@@ -7020,10 +7045,10 @@
         <v>900</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -7036,31 +7061,31 @@
       <c r="R64" s="2"/>
       <c r="S64" s="4"/>
       <c r="T64" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AA64" t="s">
         <v>35</v>
       </c>
       <c r="AB64" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC64" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AE64" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AF64" t="s">
         <v>83</v>
       </c>
       <c r="AG64" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -7101,43 +7126,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -7145,10 +7170,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E2">
         <v>1330200</v>
@@ -7157,16 +7182,16 @@
         <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -7174,7 +7199,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -7187,10 +7212,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E4">
         <v>651600</v>
@@ -7199,13 +7224,13 @@
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -7213,10 +7238,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E5">
         <v>3120000</v>
@@ -7225,16 +7250,16 @@
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -7242,10 +7267,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E6">
         <v>1000000</v>
@@ -7261,16 +7286,16 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -7278,10 +7303,10 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E8">
         <v>1318300</v>
@@ -7290,16 +7315,16 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -7307,10 +7332,10 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E9">
         <v>1053900</v>
@@ -7319,19 +7344,19 @@
         <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -7339,10 +7364,10 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E10">
         <v>184500</v>
@@ -7351,10 +7376,10 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -7362,10 +7387,10 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E11">
         <v>607500</v>
@@ -7374,13 +7399,13 @@
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -7388,10 +7413,10 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E12">
         <v>259200</v>
@@ -7400,10 +7425,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -7411,10 +7436,10 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E13">
         <v>406200</v>
@@ -7423,13 +7448,13 @@
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -7437,25 +7462,25 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -7463,10 +7488,10 @@
         <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E15">
         <v>232200</v>
@@ -7475,16 +7500,16 @@
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -7492,10 +7517,10 @@
         <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D16" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E16">
         <v>165655</v>
@@ -7504,10 +7529,10 @@
         <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -7515,25 +7540,25 @@
         <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7541,10 +7566,10 @@
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E18">
         <v>421000</v>
@@ -7553,10 +7578,10 @@
         <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -7564,10 +7589,10 @@
         <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E19">
         <v>519300</v>
@@ -7582,7 +7607,7 @@
         <v>92</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -7590,10 +7615,10 @@
         <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E20">
         <v>235800</v>
@@ -7610,10 +7635,10 @@
         <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E21">
         <v>354600</v>
@@ -7628,10 +7653,10 @@
         <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E22">
         <v>352000</v>
@@ -7640,13 +7665,13 @@
         <v>18</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -7654,10 +7679,10 @@
         <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E23">
         <v>765000</v>
@@ -7671,22 +7696,22 @@
         <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D24" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E24">
         <v>900000</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7694,10 +7719,10 @@
         <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D25" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E25">
         <v>1000000</v>
@@ -7711,10 +7736,10 @@
         <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D26" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E26">
         <v>800000</v>
@@ -7729,10 +7754,10 @@
         <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E27">
         <v>485500</v>
@@ -7741,13 +7766,13 @@
         <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -7755,10 +7780,10 @@
         <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E28">
         <v>1060000</v>
@@ -7767,16 +7792,16 @@
         <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7784,10 +7809,10 @@
         <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E29">
         <v>234000</v>
@@ -7796,13 +7821,13 @@
         <v>21</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -7810,10 +7835,10 @@
         <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E30">
         <v>509000</v>
@@ -7822,13 +7847,13 @@
         <v>30</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7836,10 +7861,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E31">
         <v>644000</v>
@@ -7848,13 +7873,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>87</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -7862,10 +7887,10 @@
         <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E32">
         <v>182000</v>
@@ -7880,7 +7905,7 @@
         <v>94</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -7888,10 +7913,10 @@
         <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7906,22 +7931,22 @@
         <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D34" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -7929,10 +7954,10 @@
         <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E35">
         <v>319000</v>
@@ -7947,7 +7972,7 @@
         <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -7958,22 +7983,22 @@
         <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D37" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E37">
         <v>1620000</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -7981,10 +8006,10 @@
         <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E38">
         <v>1186200</v>
@@ -7993,16 +8018,16 @@
         <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="J38" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -8010,10 +8035,10 @@
         <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D39" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E39">
         <v>2000000</v>
@@ -8029,10 +8054,10 @@
         <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D40" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E40">
         <v>683000</v>
@@ -8041,13 +8066,13 @@
         <v>29</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -8055,10 +8080,10 @@
         <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E41">
         <v>1100000</v>
@@ -8067,13 +8092,13 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -8081,10 +8106,10 @@
         <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D42" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E42">
         <v>375000</v>
@@ -8099,10 +8124,10 @@
         <v>252</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E43">
         <v>235800</v>
@@ -8111,13 +8136,13 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -8125,10 +8150,10 @@
         <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D44" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E44">
         <v>388800</v>
@@ -8137,13 +8162,13 @@
         <v>27</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -8151,10 +8176,10 @@
         <v>272</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E45">
         <v>961600</v>
@@ -8163,13 +8188,13 @@
         <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -8177,10 +8202,10 @@
         <v>282</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D46" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E46">
         <v>84600</v>
@@ -8195,10 +8220,10 @@
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D47" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E47">
         <v>540000</v>
@@ -8213,10 +8238,10 @@
         <v>292</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E48">
         <v>837000</v>
@@ -8225,13 +8250,13 @@
         <v>4</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -8239,10 +8264,10 @@
         <v>293</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D49" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E49">
         <v>1140000</v>
@@ -8251,10 +8276,10 @@
         <v>23</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -8262,10 +8287,10 @@
         <v>294</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D50" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E50">
         <v>675000</v>
@@ -8274,7 +8299,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>90</v>
@@ -8285,10 +8310,10 @@
         <v>295</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E51">
         <v>1267000</v>
@@ -8297,10 +8322,10 @@
         <v>28</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -8308,10 +8333,10 @@
         <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D52" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E52">
         <v>400000</v>
@@ -8325,31 +8350,31 @@
         <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D53" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E53">
         <v>1328500</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -8357,10 +8382,10 @@
         <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D54" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E54">
         <v>400000</v>
@@ -8377,25 +8402,25 @@
         <v>331</v>
       </c>
       <c r="B55" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D55" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E55">
         <v>218560</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -8403,25 +8428,25 @@
         <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D56" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E56">
         <v>993000</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -8429,10 +8454,10 @@
         <v>351</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D57" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E57">
         <v>550800</v>
@@ -8441,13 +8466,13 @@
         <v>9</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -8455,19 +8480,19 @@
         <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D58" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E58">
         <v>345600</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -8476,10 +8501,10 @@
         <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D59" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E59">
         <v>2255500</v>
@@ -8493,25 +8518,25 @@
         <v>433</v>
       </c>
       <c r="B60" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D60" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E60">
         <v>2255500</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -8519,25 +8544,25 @@
         <v>442</v>
       </c>
       <c r="B61" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D61" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E61">
         <v>867600</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -8545,25 +8570,25 @@
         <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D62" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E62">
         <v>1293000</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -8571,10 +8596,10 @@
         <v>445</v>
       </c>
       <c r="B63" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D63" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E63">
         <v>500000</v>
@@ -8589,22 +8614,22 @@
         <v>447</v>
       </c>
       <c r="B64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D64" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E64">
         <v>900000</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -8612,25 +8637,25 @@
         <v>510</v>
       </c>
       <c r="B65" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D65" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E65">
         <v>1175000</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -8638,25 +8663,25 @@
         <v>520</v>
       </c>
       <c r="B66" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E66">
         <v>233100</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -8664,25 +8689,25 @@
         <v>530</v>
       </c>
       <c r="B67" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D67" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E67">
         <v>326700</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -8690,25 +8715,25 @@
         <v>540</v>
       </c>
       <c r="B68" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D68" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E68">
         <v>376200</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -8716,22 +8741,22 @@
         <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D69" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E69">
         <v>1053000</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -8739,25 +8764,25 @@
         <v>542</v>
       </c>
       <c r="B70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D70" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E70">
         <v>1040400</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -8765,25 +8790,25 @@
         <v>543</v>
       </c>
       <c r="B71" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D71" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E71">
         <v>1356000</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -8791,25 +8816,25 @@
         <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D72" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E72">
         <v>839000</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -8817,22 +8842,22 @@
         <v>545</v>
       </c>
       <c r="B73" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D73" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E73">
         <v>529000</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -8840,25 +8865,25 @@
         <v>546</v>
       </c>
       <c r="B74" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D74" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E74">
         <v>428000</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -8866,25 +8891,25 @@
         <v>547</v>
       </c>
       <c r="B75" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D75" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E75">
         <v>561000</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -8892,25 +8917,25 @@
         <v>548</v>
       </c>
       <c r="B76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D76" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E76">
         <v>460000</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -8918,22 +8943,22 @@
         <v>549</v>
       </c>
       <c r="B77" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D77" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E77">
         <v>229000</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -8941,22 +8966,22 @@
         <v>550</v>
       </c>
       <c r="B78" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D78" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E78">
         <v>312000</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -8964,25 +8989,25 @@
         <v>551</v>
       </c>
       <c r="B79" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E79">
         <v>1400000</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -8990,10 +9015,10 @@
         <v>560</v>
       </c>
       <c r="B80" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D80" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E80">
         <v>2800000</v>
@@ -9008,22 +9033,22 @@
         <v>561</v>
       </c>
       <c r="B81" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D81" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E81">
         <v>3600000</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -9031,16 +9056,16 @@
         <v>570</v>
       </c>
       <c r="B82" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -9048,13 +9073,13 @@
         <v>571</v>
       </c>
       <c r="B83" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H83" s="3"/>
     </row>
@@ -9063,7 +9088,7 @@
         <v>940</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="773">
   <si>
     <t>Abilene</t>
   </si>
@@ -3808,6 +3808,9 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="K9">
         <v>34</v>
       </c>
@@ -4067,6 +4070,9 @@
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
       <c r="K13">
         <v>36</v>
       </c>
@@ -4096,6 +4102,9 @@
       </c>
       <c r="B14">
         <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
       </c>
       <c r="K14">
         <v>260</v>
@@ -4284,6 +4293,9 @@
       </c>
       <c r="B17">
         <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
       </c>
       <c r="K17">
         <v>305</v>
@@ -4729,6 +4741,9 @@
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
       <c r="K24">
         <v>430</v>
       </c>
@@ -4883,6 +4898,9 @@
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
       <c r="K27">
         <v>480</v>
       </c>
@@ -4911,6 +4929,9 @@
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
       <c r="K28">
         <v>500</v>
       </c>
@@ -5152,6 +5173,9 @@
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
       <c r="K32">
         <v>570</v>
       </c>
@@ -5181,6 +5205,9 @@
       </c>
       <c r="B33">
         <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
       </c>
       <c r="K33">
         <v>40</v>
@@ -5441,6 +5468,9 @@
       <c r="B37">
         <v>1</v>
       </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
       <c r="K37">
         <v>600</v>
       </c>
@@ -5508,10 +5538,10 @@
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="2">
-        <v>38.4475148</v>
+        <v>38.3728713</v>
       </c>
       <c r="Q38" s="2">
-        <v>-97.666996100000006</v>
+        <v>-97.688086499999997</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="4"/>
@@ -5645,6 +5675,9 @@
       </c>
       <c r="B41">
         <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
       </c>
       <c r="K41">
         <v>32</v>
@@ -5955,6 +5988,9 @@
       <c r="B46">
         <v>1</v>
       </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
       <c r="K46">
         <v>680</v>
       </c>
@@ -6054,6 +6090,9 @@
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
       <c r="K48">
         <v>682</v>
       </c>
@@ -6244,6 +6283,9 @@
       <c r="B51">
         <v>0</v>
       </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
       <c r="K51">
         <v>720</v>
       </c>
@@ -6274,6 +6316,9 @@
       <c r="B52">
         <v>1</v>
       </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
       <c r="K52">
         <v>50</v>
       </c>
@@ -6301,6 +6346,9 @@
       </c>
       <c r="B53">
         <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
       </c>
       <c r="K53">
         <v>740</v>
@@ -6689,6 +6737,9 @@
       </c>
       <c r="B59">
         <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
       </c>
       <c r="K59">
         <v>18</v>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dashboard\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
     <sheet name="BranchData" sheetId="2" r:id="rId2"/>
     <sheet name="TMALocations" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="773">
   <si>
     <t>Abilene</t>
   </si>
@@ -2099,22 +2099,261 @@
   </si>
   <si>
     <t>185</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>716,000</t>
+  </si>
+  <si>
+    <t>813</t>
+  </si>
+  <si>
+    <t>30,000</t>
+  </si>
+  <si>
+    <t>1,216,000</t>
+  </si>
+  <si>
+    <t>577,000</t>
+  </si>
+  <si>
+    <t>1,740</t>
+  </si>
+  <si>
+    <t>551,000</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>1,581,000</t>
+  </si>
+  <si>
+    <t>288,000</t>
+  </si>
+  <si>
+    <t>764</t>
+  </si>
+  <si>
+    <t>32,000</t>
+  </si>
+  <si>
+    <t>790,000</t>
+  </si>
+  <si>
+    <t>250,700</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>64,000</t>
+  </si>
+  <si>
+    <t>1,689,669</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>25,750</t>
+  </si>
+  <si>
+    <t>618,000</t>
+  </si>
+  <si>
+    <t>439,000</t>
+  </si>
+  <si>
+    <t>357,000</t>
+  </si>
+  <si>
+    <t>258,000</t>
+  </si>
+  <si>
+    <t>187,000</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>262,000</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>643,000</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>46,000</t>
+  </si>
+  <si>
+    <t>205,000</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>14,225</t>
+  </si>
+  <si>
+    <t>4,460,181</t>
+  </si>
+  <si>
+    <t>6,992</t>
+  </si>
+  <si>
+    <t>30,500</t>
+  </si>
+  <si>
+    <t>1,110,000</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>1,564</t>
+  </si>
+  <si>
+    <t>20,700</t>
+  </si>
+  <si>
+    <t>1,071</t>
+  </si>
+  <si>
+    <t>20,400</t>
+  </si>
+  <si>
+    <t>1,467,000</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>260,000</t>
+  </si>
+  <si>
+    <t>48,000</t>
+  </si>
+  <si>
+    <t>1,492</t>
+  </si>
+  <si>
+    <t>153,000</t>
+  </si>
+  <si>
+    <t>1,266,000</t>
+  </si>
+  <si>
+    <t>36,000</t>
+  </si>
+  <si>
+    <t>1,615,000</t>
+  </si>
+  <si>
+    <t>18,000</t>
+  </si>
+  <si>
+    <t>1,825,000</t>
+  </si>
+  <si>
+    <t>1,098</t>
+  </si>
+  <si>
+    <t>36,300</t>
+  </si>
+  <si>
+    <t>1,478,000</t>
+  </si>
+  <si>
+    <t>436,000</t>
+  </si>
+  <si>
+    <t>9,500</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>40,100</t>
+  </si>
+  <si>
+    <t>1,413,000</t>
+  </si>
+  <si>
+    <t>673</t>
+  </si>
+  <si>
+    <t>22,000</t>
+  </si>
+  <si>
+    <t>801,000</t>
+  </si>
+  <si>
+    <t>2,178,000</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>279,000</t>
+  </si>
+  <si>
+    <t>24,000</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>608,000</t>
+  </si>
+  <si>
+    <t>1,210</t>
+  </si>
+  <si>
+    <t>22,500</t>
+  </si>
+  <si>
+    <t>1,267,820</t>
+  </si>
+  <si>
+    <t>1,735</t>
+  </si>
+  <si>
+    <t>42,000</t>
+  </si>
+  <si>
+    <t>3,262,000</t>
+  </si>
+  <si>
+    <t>44,000</t>
+  </si>
+  <si>
+    <t>1,530</t>
+  </si>
+  <si>
+    <t>1,113,000</t>
+  </si>
+  <si>
+    <t>1,985,000</t>
+  </si>
+  <si>
+    <t>469,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2129,7 +2368,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2137,53 +2376,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBBBBBB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBBBBBB"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBBBBBB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBBBBBB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBBBBBB"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF3F60AF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFBBBBBB"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFBBBBBB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2199,16 +2403,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2607,16 +2811,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -2624,7 +2828,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2632,7 +2836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2648,7 +2852,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2656,7 +2860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +2868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2672,7 +2876,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2680,7 +2884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2688,7 +2892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2696,7 +2900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2704,12 +2908,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2717,7 +2921,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2725,7 +2929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2733,7 +2937,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2741,7 +2945,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2749,7 +2953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2757,7 +2961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2765,7 +2969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2773,7 +2977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2781,7 +2985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2789,7 +2993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -2797,7 +3001,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -2805,7 +3009,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -2813,7 +3017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -2821,7 +3025,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2829,7 +3033,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -2837,22 +3041,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>79</v>
       </c>
@@ -2860,7 +3064,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>169</v>
       </c>
@@ -2868,7 +3072,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>174</v>
       </c>
@@ -2876,7 +3080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -2884,7 +3088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2892,7 +3096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -2900,22 +3104,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -2923,7 +3127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2931,7 +3135,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -2939,7 +3143,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2947,7 +3151,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -2955,7 +3159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>203</v>
       </c>
@@ -2963,7 +3167,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2986,36 +3190,34 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView topLeftCell="F29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q63" sqref="Q63"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="15" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>72</v>
       </c>
@@ -3086,7 +3288,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3136,15 +3338,15 @@
         <v>-97.202228000000005</v>
       </c>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>600</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>716000</v>
+      <c r="S2" s="4"/>
+      <c r="T2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>692</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -3165,7 +3367,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3215,18 +3417,18 @@
         <v>-96.494437399999995</v>
       </c>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2">
-        <v>813</v>
-      </c>
-      <c r="U3" s="2">
-        <v>30000</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1216000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S3" s="4"/>
+      <c r="T3" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3272,15 +3474,15 @@
         <v>-97.754355700000005</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>577000</v>
+      <c r="S4" s="4"/>
+      <c r="T4" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="AA4" t="s">
         <v>2</v>
@@ -3301,7 +3503,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3351,15 +3553,15 @@
         <v>-97.592381799999998</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2">
-        <v>1740</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>551000</v>
+      <c r="S5" s="4"/>
+      <c r="T5" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>698</v>
       </c>
       <c r="AA5" t="s">
         <v>3</v>
@@ -3380,7 +3582,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3430,15 +3632,15 @@
         <v>-97.107370000000003</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2">
-        <v>304</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>1581000</v>
+      <c r="S6" s="4"/>
+      <c r="T6" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>700</v>
       </c>
       <c r="AA6" t="s">
         <v>4</v>
@@ -3459,7 +3661,7 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3477,21 +3679,25 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="P7" s="2">
+        <v>38.629404000000001</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-97.615026999999998</v>
+      </c>
       <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>288000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S7" s="4"/>
+      <c r="T7" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3541,15 +3747,15 @@
         <v>-97.770600299999998</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2">
-        <v>764</v>
-      </c>
-      <c r="U8" s="2">
-        <v>32000</v>
-      </c>
-      <c r="V8" s="2">
-        <v>790000</v>
+      <c r="S8" s="4"/>
+      <c r="T8" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="AA8" t="s">
         <v>6</v>
@@ -3570,7 +3776,7 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>291</v>
       </c>
@@ -3591,18 +3797,18 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>250700</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S9" s="4"/>
+      <c r="T9" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3652,15 +3858,15 @@
         <v>-96.886448299999998</v>
       </c>
       <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2">
-        <v>699</v>
-      </c>
-      <c r="U10" s="2">
-        <v>64000</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1689669</v>
+      <c r="S10" s="4"/>
+      <c r="T10" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>708</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
@@ -3681,7 +3887,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -3721,16 +3927,16 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="2">
-        <v>38.377895899999999</v>
+        <v>38.378869999999999</v>
       </c>
       <c r="Q11" s="2">
-        <v>-97.466010199999999</v>
+        <v>-97.470513999999994</v>
       </c>
       <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
       <c r="AA11" t="s">
         <v>107</v>
       </c>
@@ -3750,7 +3956,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3800,15 +4006,15 @@
         <v>-97.968699999999998</v>
       </c>
       <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2">
-        <v>677</v>
-      </c>
-      <c r="U12" s="2">
-        <v>25750</v>
-      </c>
-      <c r="V12" s="2">
-        <v>618000</v>
+      <c r="S12" s="4"/>
+      <c r="T12" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>711</v>
       </c>
       <c r="AA12" t="s">
         <v>8</v>
@@ -3829,7 +4035,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>283</v>
       </c>
@@ -3847,15 +4053,19 @@
         <v>328</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="5"/>
+      <c r="P13" s="2">
+        <v>38.4475148</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-97.666996100000006</v>
+      </c>
       <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S13" s="4"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>284</v>
       </c>
@@ -3884,18 +4094,18 @@
         <v>-97.664208700000003</v>
       </c>
       <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>439000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="4"/>
+      <c r="T14" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3941,11 +4151,11 @@
         <v>-97.762475199999997</v>
       </c>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2">
-        <v>357000</v>
+      <c r="S15" s="4"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="AA15" t="s">
         <v>114</v>
@@ -3966,7 +4176,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4007,22 +4217,22 @@
         <v>254</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="4">
-        <v>38.289623200000001</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>-97.618053500000002</v>
+      <c r="P16" s="2">
+        <v>38.290137999999999</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>-97.625752000000006</v>
       </c>
       <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>258000</v>
+      <c r="S16" s="4"/>
+      <c r="T16" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>714</v>
       </c>
       <c r="AA16" t="s">
         <v>10</v>
@@ -4043,7 +4253,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>285</v>
       </c>
@@ -4066,12 +4276,12 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S17" s="4"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4111,24 +4321,24 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="2">
-        <v>38.6719662</v>
+        <v>38.672823000000001</v>
       </c>
       <c r="Q18" s="2">
-        <v>-97.762896600000005</v>
+        <v>-97.760738200000006</v>
       </c>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>187000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S18" s="4"/>
+      <c r="T18" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4178,15 +4388,15 @@
         <v>-96.926252000000005</v>
       </c>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2">
-        <v>250</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>262000</v>
+      <c r="S19" s="4"/>
+      <c r="T19" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>717</v>
       </c>
       <c r="AA19" t="s">
         <v>12</v>
@@ -4207,7 +4417,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4257,18 +4467,18 @@
         <v>-97.538265899999999</v>
       </c>
       <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2">
-        <v>299</v>
-      </c>
-      <c r="U20" s="2">
-        <v>30000</v>
-      </c>
-      <c r="V20" s="2">
-        <v>643000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S20" s="4"/>
+      <c r="T20" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4312,24 +4522,24 @@
         <v>257</v>
       </c>
       <c r="P21" s="2">
-        <v>38.205322600000002</v>
+        <v>38.249427099999998</v>
       </c>
       <c r="Q21" s="2">
-        <v>-97.515514600000003</v>
+        <v>-97.337304200000005</v>
       </c>
       <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2">
-        <v>630</v>
-      </c>
-      <c r="U21" s="2">
-        <v>46000</v>
-      </c>
-      <c r="V21" s="2">
-        <v>205000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S21" s="4"/>
+      <c r="T21" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4372,22 +4582,22 @@
       <c r="O22" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="2">
         <v>38.289691599999998</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="2">
         <v>-97.779943399999993</v>
       </c>
       <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2">
-        <v>92</v>
-      </c>
-      <c r="U22" s="2">
-        <v>14225</v>
-      </c>
-      <c r="V22" s="2">
-        <v>4460181</v>
+      <c r="S22" s="4"/>
+      <c r="T22" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="AA22" t="s">
         <v>15</v>
@@ -4408,7 +4618,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4458,15 +4668,15 @@
         <v>-97.784899899999999</v>
       </c>
       <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2">
-        <v>6992</v>
-      </c>
-      <c r="U23" s="2">
-        <v>30500</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1110000</v>
+      <c r="S23" s="4"/>
+      <c r="T23" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="AA23" t="s">
         <v>16</v>
@@ -4487,7 +4697,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>286</v>
       </c>
@@ -4510,12 +4720,12 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S24" s="4"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4561,15 +4771,15 @@
         <v>-96.948407000000003</v>
       </c>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
-        <v>3000</v>
-      </c>
-      <c r="V25" s="2">
-        <v>0</v>
+      <c r="S25" s="4"/>
+      <c r="T25" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA25" t="s">
         <v>17</v>
@@ -4590,7 +4800,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -4636,12 +4846,12 @@
         <v>-97.677783700000006</v>
       </c>
       <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S26" s="4"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>319</v>
       </c>
@@ -4664,12 +4874,12 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S27" s="4"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -4690,12 +4900,12 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S28" s="4"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4741,15 +4951,15 @@
         <v>-97.774975999999995</v>
       </c>
       <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2">
-        <v>1564</v>
-      </c>
-      <c r="U29" s="2">
-        <v>20700</v>
-      </c>
-      <c r="V29" s="2">
-        <v>0</v>
+      <c r="S29" s="4"/>
+      <c r="T29" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA29" t="s">
         <v>19</v>
@@ -4770,7 +4980,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4820,15 +5030,15 @@
         <v>-97.671643000000003</v>
       </c>
       <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2">
-        <v>1071</v>
-      </c>
-      <c r="U30" s="2">
-        <v>20400</v>
-      </c>
-      <c r="V30" s="2">
-        <v>1467000</v>
+      <c r="S30" s="4"/>
+      <c r="T30" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>734</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
@@ -4849,7 +5059,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -4899,18 +5109,18 @@
         <v>-97.331413400000002</v>
       </c>
       <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2">
-        <v>730</v>
-      </c>
-      <c r="U31" s="2">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2">
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S31" s="4"/>
+      <c r="T31" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>287</v>
       </c>
@@ -4932,19 +5142,15 @@
       <c r="O32" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="P32" s="2">
-        <v>38.220903</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>-98.209054899999998</v>
-      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S32" s="4"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>315</v>
       </c>
@@ -4965,12 +5171,12 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S33" s="4"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5016,15 +5222,15 @@
         <v>-96.557330500000006</v>
       </c>
       <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2">
-        <v>0</v>
-      </c>
-      <c r="U34" s="2">
-        <v>48000</v>
-      </c>
-      <c r="V34" s="2">
-        <v>0</v>
+      <c r="S34" s="4"/>
+      <c r="T34" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
@@ -5045,7 +5251,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -5095,15 +5301,15 @@
         <v>-96.505954700000004</v>
       </c>
       <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2">
-        <v>1492</v>
-      </c>
-      <c r="U35" s="2">
-        <v>153000</v>
-      </c>
-      <c r="V35" s="2">
-        <v>1266000</v>
+      <c r="S35" s="4"/>
+      <c r="T35" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>740</v>
       </c>
       <c r="AA35" t="s">
         <v>152</v>
@@ -5124,7 +5330,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -5174,15 +5380,15 @@
         <v>-97.834316099999995</v>
       </c>
       <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2">
-        <v>575</v>
-      </c>
-      <c r="U36" s="2">
-        <v>36000</v>
-      </c>
-      <c r="V36" s="2">
-        <v>1615000</v>
+      <c r="S36" s="4"/>
+      <c r="T36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>742</v>
       </c>
       <c r="AA36" t="s">
         <v>24</v>
@@ -5203,7 +5409,7 @@
         <v>67464</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>339</v>
       </c>
@@ -5232,12 +5438,12 @@
         <v>-97.263819699999999</v>
       </c>
       <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S37" s="4"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -5277,18 +5483,18 @@
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="2">
-        <v>38.372860899999999</v>
+        <v>38.4475148</v>
       </c>
       <c r="Q38" s="2">
-        <v>-97.6881427</v>
+        <v>-97.666996100000006</v>
       </c>
       <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S38" s="4"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -5322,17 +5528,13 @@
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="2">
-        <v>38.372777200000002</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>-97.679016700000005</v>
-      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
       <c r="AA39" t="s">
         <v>157</v>
       </c>
@@ -5352,7 +5554,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>160</v>
       </c>
@@ -5386,17 +5588,13 @@
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="2">
-        <v>38.371138199999997</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>-97.674794700000007</v>
-      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
       <c r="AA40" t="s">
         <v>160</v>
       </c>
@@ -5416,7 +5614,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>290</v>
       </c>
@@ -5437,12 +5635,12 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S41" s="4"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>166</v>
       </c>
@@ -5484,21 +5682,21 @@
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="2">
-        <v>38.372228200000002</v>
+        <v>38.372224000000003</v>
       </c>
       <c r="Q42" s="2">
-        <v>-97.671167600000004</v>
+        <v>-97.668978899999999</v>
       </c>
       <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2">
-        <v>0</v>
-      </c>
-      <c r="U42" s="2">
-        <v>18000</v>
-      </c>
-      <c r="V42" s="2">
-        <v>1825000</v>
+      <c r="S42" s="4"/>
+      <c r="T42" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>744</v>
       </c>
       <c r="AA42" t="s">
         <v>166</v>
@@ -5519,7 +5717,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -5559,17 +5757,13 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="2">
-        <v>38.202726499999997</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>-97.524955899999995</v>
-      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="AA43" t="s">
         <v>79</v>
       </c>
@@ -5589,7 +5783,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -5642,15 +5836,15 @@
         <v>-97.522767200000004</v>
       </c>
       <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2">
-        <v>1098</v>
-      </c>
-      <c r="U44" s="2">
-        <v>36300</v>
-      </c>
-      <c r="V44" s="2">
-        <v>1478000</v>
+      <c r="S44" s="4"/>
+      <c r="T44" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V44" s="1" t="s">
+        <v>747</v>
       </c>
       <c r="AA44" t="s">
         <v>174</v>
@@ -5671,7 +5865,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>169</v>
       </c>
@@ -5703,17 +5897,13 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="2">
-        <v>38.2061311</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>-97.524159900000001</v>
-      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
       <c r="AA45" t="s">
         <v>169</v>
       </c>
@@ -5733,7 +5923,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -5754,12 +5944,12 @@
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S46" s="4"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -5797,21 +5987,21 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="2">
-        <v>38.064183100000001</v>
+        <v>38.065479000000003</v>
       </c>
       <c r="Q47" s="2">
-        <v>-97.347417399999998</v>
+        <v>-97.345708000000002</v>
       </c>
       <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>436000</v>
+      <c r="S47" s="4"/>
+      <c r="T47" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U47" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>748</v>
       </c>
       <c r="AA47" t="s">
         <v>27</v>
@@ -5832,7 +6022,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>289</v>
       </c>
@@ -5853,18 +6043,18 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2">
-        <v>0</v>
-      </c>
-      <c r="U48" s="2">
-        <v>9500</v>
-      </c>
-      <c r="V48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S48" s="4"/>
+      <c r="T48" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="V48" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -5914,15 +6104,15 @@
         <v>-96.177394699999994</v>
       </c>
       <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2">
-        <v>763</v>
-      </c>
-      <c r="U49" s="2">
-        <v>40100</v>
-      </c>
-      <c r="V49" s="2">
-        <v>1413000</v>
+      <c r="S49" s="4"/>
+      <c r="T49" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="V49" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="AA49" t="s">
         <v>28</v>
@@ -5943,7 +6133,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -5993,15 +6183,15 @@
         <v>-97.103965099999996</v>
       </c>
       <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2">
-        <v>673</v>
-      </c>
-      <c r="U50" s="2">
-        <v>22000</v>
-      </c>
-      <c r="V50" s="2">
-        <v>801000</v>
+      <c r="S50" s="4"/>
+      <c r="T50" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="AA50" t="s">
         <v>29</v>
@@ -6022,7 +6212,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>322</v>
       </c>
@@ -6047,12 +6237,12 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S51" s="4"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>317</v>
       </c>
@@ -6075,12 +6265,12 @@
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S52" s="4"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>324</v>
       </c>
@@ -6099,12 +6289,12 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S53" s="4"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -6145,18 +6335,22 @@
         <v>332</v>
       </c>
       <c r="O54" s="1"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+      <c r="P54" s="2">
+        <v>38.266167000000003</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>-98.200824999999995</v>
+      </c>
       <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>2178000</v>
+      <c r="S54" s="4"/>
+      <c r="T54" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>756</v>
       </c>
       <c r="AA54" t="s">
         <v>181</v>
@@ -6177,7 +6371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>186</v>
       </c>
@@ -6216,21 +6410,25 @@
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
+      <c r="P55" s="2">
+        <v>38.551245999999999</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>-97.429237000000001</v>
+      </c>
       <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2">
-        <v>52</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2">
-        <v>279000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S55" s="4"/>
+      <c r="T55" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -6273,15 +6471,15 @@
         <v>-97.614002999999997</v>
       </c>
       <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>24000</v>
-      </c>
-      <c r="V56" s="2">
-        <v>0</v>
+      <c r="S56" s="4"/>
+      <c r="T56" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="V56" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA56" t="s">
         <v>189</v>
@@ -6302,7 +6500,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -6352,15 +6550,15 @@
         <v>-97.374758999999997</v>
       </c>
       <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2">
-        <v>950</v>
-      </c>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2">
-        <v>608000</v>
+      <c r="S57" s="4"/>
+      <c r="T57" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V57" s="1" t="s">
+        <v>761</v>
       </c>
       <c r="AA57" t="s">
         <v>30</v>
@@ -6381,7 +6579,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -6431,15 +6629,15 @@
         <v>-97.259965699999995</v>
       </c>
       <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2">
-        <v>1210</v>
-      </c>
-      <c r="U58" s="2">
-        <v>22500</v>
-      </c>
-      <c r="V58" s="2">
-        <v>1267820</v>
+      <c r="S58" s="4"/>
+      <c r="T58" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="V58" s="1" t="s">
+        <v>764</v>
       </c>
       <c r="AA58" t="s">
         <v>31</v>
@@ -6460,7 +6658,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>312</v>
       </c>
@@ -6479,12 +6677,12 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="S59" s="4"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -6534,15 +6732,15 @@
         <v>-97.229442399999996</v>
       </c>
       <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2">
-        <v>1735</v>
-      </c>
-      <c r="U60" s="2">
-        <v>42000</v>
-      </c>
-      <c r="V60" s="2">
-        <v>3262000</v>
+      <c r="S60" s="4"/>
+      <c r="T60" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>767</v>
       </c>
       <c r="AA60" t="s">
         <v>32</v>
@@ -6563,7 +6761,7 @@
         <v>67151</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -6609,15 +6807,15 @@
         <v>-96.410154700000007</v>
       </c>
       <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2">
-        <v>21</v>
-      </c>
-      <c r="U61" s="2">
-        <v>44000</v>
-      </c>
-      <c r="V61" s="2">
-        <v>0</v>
+      <c r="S61" s="4"/>
+      <c r="T61" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="V61" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="AA61" t="s">
         <v>33</v>
@@ -6638,7 +6836,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -6688,15 +6886,15 @@
         <v>-97.150157199999995</v>
       </c>
       <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2">
-        <v>1530</v>
-      </c>
-      <c r="U62" s="2">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2">
-        <v>1113000</v>
+      <c r="S62" s="4"/>
+      <c r="T62" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V62" s="1" t="s">
+        <v>770</v>
       </c>
       <c r="AA62" t="s">
         <v>34</v>
@@ -6717,7 +6915,7 @@
         <v>67154</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>203</v>
       </c>
@@ -6755,21 +6953,21 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="2">
-        <v>38.207453700000002</v>
+        <v>37.739190899999997</v>
       </c>
       <c r="Q63" s="2">
-        <v>-97.519309500000006</v>
+        <v>-97.329066100000006</v>
       </c>
       <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2">
-        <v>0</v>
-      </c>
-      <c r="U63" s="2">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2">
-        <v>1985000</v>
+      <c r="S63" s="4"/>
+      <c r="T63" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V63" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="AA63" t="s">
         <v>203</v>
@@ -6790,7 +6988,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -6830,21 +7028,21 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="2">
-        <v>38.384790199999998</v>
+        <v>38.385244999999998</v>
       </c>
       <c r="Q64" s="2">
-        <v>-97.911084700000004</v>
+        <v>-97.909503999999998</v>
       </c>
       <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2">
-        <v>0</v>
-      </c>
-      <c r="U64" s="2">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2">
-        <v>469000</v>
+      <c r="S64" s="4"/>
+      <c r="T64" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U64" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V64" s="1" t="s">
+        <v>772</v>
       </c>
       <c r="AA64" t="s">
         <v>35</v>
@@ -6883,25 +7081,25 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>643</v>
       </c>
@@ -6942,7 +7140,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -6971,7 +7169,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -6984,7 +7182,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7010,7 +7208,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
@@ -7039,7 +7237,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -7058,7 +7256,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41</v>
       </c>
@@ -7075,7 +7273,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>61</v>
       </c>
@@ -7104,7 +7302,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>71</v>
       </c>
@@ -7136,7 +7334,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
@@ -7159,7 +7357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91</v>
       </c>
@@ -7185,7 +7383,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -7208,7 +7406,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>111</v>
       </c>
@@ -7234,7 +7432,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>121</v>
       </c>
@@ -7260,7 +7458,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>131</v>
       </c>
@@ -7289,7 +7487,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>141</v>
       </c>
@@ -7312,7 +7510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>151</v>
       </c>
@@ -7338,7 +7536,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>161</v>
       </c>
@@ -7361,7 +7559,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>171</v>
       </c>
@@ -7387,7 +7585,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>181</v>
       </c>
@@ -7407,7 +7605,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>182</v>
       </c>
@@ -7425,7 +7623,7 @@
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>183</v>
       </c>
@@ -7451,7 +7649,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>185</v>
       </c>
@@ -7468,7 +7666,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>187</v>
       </c>
@@ -7491,7 +7689,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>188</v>
       </c>
@@ -7508,7 +7706,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>190</v>
       </c>
@@ -7526,7 +7724,7 @@
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>191</v>
       </c>
@@ -7552,7 +7750,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>192</v>
       </c>
@@ -7581,7 +7779,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>193</v>
       </c>
@@ -7607,7 +7805,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>194</v>
       </c>
@@ -7633,7 +7831,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>195</v>
       </c>
@@ -7659,7 +7857,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>196</v>
       </c>
@@ -7685,7 +7883,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>197</v>
       </c>
@@ -7703,7 +7901,7 @@
       <c r="H33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>198</v>
       </c>
@@ -7726,7 +7924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>199</v>
       </c>
@@ -7744,7 +7942,7 @@
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201</v>
       </c>
@@ -7755,7 +7953,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>205</v>
       </c>
@@ -7778,7 +7976,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>212</v>
       </c>
@@ -7807,7 +8005,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>215</v>
       </c>
@@ -7826,7 +8024,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>222</v>
       </c>
@@ -7852,7 +8050,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>242</v>
       </c>
@@ -7878,7 +8076,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>245</v>
       </c>
@@ -7896,7 +8094,7 @@
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>252</v>
       </c>
@@ -7922,7 +8120,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>262</v>
       </c>
@@ -7948,7 +8146,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>272</v>
       </c>
@@ -7974,7 +8172,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>282</v>
       </c>
@@ -7992,7 +8190,7 @@
       <c r="H46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>291</v>
       </c>
@@ -8010,7 +8208,7 @@
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>292</v>
       </c>
@@ -8036,7 +8234,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>293</v>
       </c>
@@ -8059,7 +8257,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>294</v>
       </c>
@@ -8082,7 +8280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>295</v>
       </c>
@@ -8105,7 +8303,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>296</v>
       </c>
@@ -8122,7 +8320,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>311</v>
       </c>
@@ -8154,7 +8352,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>315</v>
       </c>
@@ -8174,7 +8372,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>331</v>
       </c>
@@ -8200,7 +8398,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>341</v>
       </c>
@@ -8226,7 +8424,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>351</v>
       </c>
@@ -8252,7 +8450,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>361</v>
       </c>
@@ -8273,7 +8471,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>432</v>
       </c>
@@ -8290,7 +8488,7 @@
       <c r="G59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>433</v>
       </c>
@@ -8316,7 +8514,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>442</v>
       </c>
@@ -8342,7 +8540,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>443</v>
       </c>
@@ -8368,7 +8566,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>445</v>
       </c>
@@ -8386,7 +8584,7 @@
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>447</v>
       </c>
@@ -8409,7 +8607,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>510</v>
       </c>
@@ -8435,7 +8633,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>520</v>
       </c>
@@ -8461,7 +8659,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>530</v>
       </c>
@@ -8487,7 +8685,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>540</v>
       </c>
@@ -8513,7 +8711,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>541</v>
       </c>
@@ -8536,7 +8734,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>542</v>
       </c>
@@ -8562,7 +8760,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>543</v>
       </c>
@@ -8588,7 +8786,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>544</v>
       </c>
@@ -8614,7 +8812,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>545</v>
       </c>
@@ -8637,7 +8835,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>546</v>
       </c>
@@ -8663,7 +8861,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>547</v>
       </c>
@@ -8689,7 +8887,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>548</v>
       </c>
@@ -8715,7 +8913,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>549</v>
       </c>
@@ -8738,7 +8936,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>550</v>
       </c>
@@ -8761,7 +8959,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>551</v>
       </c>
@@ -8787,7 +8985,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>560</v>
       </c>
@@ -8805,7 +9003,7 @@
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>561</v>
       </c>
@@ -8828,7 +9026,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>570</v>
       </c>
@@ -8845,7 +9043,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>571</v>
       </c>
@@ -8860,7 +9058,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>940</v>
       </c>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12204" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="773">
   <si>
     <t>Abilene</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Grain, Feed, Agronomy</t>
   </si>
   <si>
-    <t>Feed mill, Agronomy</t>
-  </si>
-  <si>
     <t>2418 SW Butler Road</t>
   </si>
   <si>
@@ -625,9 +622,6 @@
     <t>(785) 457-3671</t>
   </si>
   <si>
-    <t>Service station, 24 hr fuel, Anhydrous, Feed</t>
-  </si>
-  <si>
     <t>Whitewatre</t>
   </si>
   <si>
@@ -2345,6 +2339,12 @@
   </si>
   <si>
     <t>469,000</t>
+  </si>
+  <si>
+    <t>Service station, 24 hr fuel, NH3, Feed</t>
+  </si>
+  <si>
+    <t>Assaria</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2825,7 +2827,7 @@
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2910,7 +2912,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3019,7 +3021,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -3043,17 +3045,17 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -3066,7 +3068,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
@@ -3074,7 +3076,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
@@ -3106,17 +3108,17 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,10 +3163,10 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B46" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -3190,7 +3192,9 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3222,10 +3226,10 @@
         <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
         <v>73</v>
@@ -3249,43 +3253,43 @@
         <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" t="s">
+        <v>649</v>
+      </c>
+      <c r="N1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O1" t="s">
+        <v>431</v>
+      </c>
+      <c r="P1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q1" t="s">
         <v>243</v>
       </c>
-      <c r="M1" t="s">
-        <v>651</v>
-      </c>
-      <c r="N1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O1" t="s">
-        <v>433</v>
-      </c>
-      <c r="P1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>245</v>
-      </c>
       <c r="R1" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" t="s">
+        <v>417</v>
+      </c>
+      <c r="T1" t="s">
+        <v>278</v>
+      </c>
+      <c r="U1" t="s">
         <v>279</v>
       </c>
-      <c r="S1" t="s">
-        <v>419</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>280</v>
       </c>
-      <c r="U1" t="s">
-        <v>281</v>
-      </c>
-      <c r="V1" t="s">
-        <v>282</v>
-      </c>
       <c r="AA1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
@@ -3296,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>86</v>
@@ -3320,16 +3324,16 @@
         <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P2" s="2">
         <v>38.914143000000003</v>
@@ -3340,31 +3344,31 @@
       <c r="R2" s="2"/>
       <c r="S2" s="4"/>
       <c r="T2" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AE2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AF2" t="s">
         <v>83</v>
       </c>
       <c r="AG2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
@@ -3375,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
         <v>88</v>
@@ -3393,22 +3397,22 @@
         <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="P3" s="2">
         <v>38.862507200000003</v>
@@ -3419,13 +3423,13 @@
       <c r="R3" s="2"/>
       <c r="S3" s="4"/>
       <c r="T3" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -3460,10 +3464,10 @@
         <v>120</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3476,31 +3480,31 @@
       <c r="R4" s="2"/>
       <c r="S4" s="4"/>
       <c r="T4" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AA4" t="s">
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AE4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF4" t="s">
         <v>83</v>
       </c>
       <c r="AG4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -3511,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>93</v>
@@ -3535,16 +3539,16 @@
         <v>140</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P5" s="2">
         <v>39.031503800000003</v>
@@ -3555,31 +3559,31 @@
       <c r="R5" s="2"/>
       <c r="S5" s="4"/>
       <c r="T5" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AA5" t="s">
         <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AE5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AF5" t="s">
         <v>83</v>
       </c>
       <c r="AG5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -3590,10 +3594,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
@@ -3605,25 +3609,25 @@
         <v>67107</v>
       </c>
       <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" t="s">
         <v>98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>99</v>
       </c>
       <c r="K6">
         <v>160</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P6" s="2">
         <v>37.789031000000001</v>
@@ -3634,25 +3638,25 @@
       <c r="R6" s="2"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA6" t="s">
         <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AE6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AF6" t="s">
         <v>83</v>
@@ -3668,14 +3672,35 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7">
+        <v>67416</v>
+      </c>
+      <c r="I7" t="s">
+        <v>607</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
       <c r="K7">
         <v>180</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3688,13 +3713,13 @@
       <c r="R7" s="2"/>
       <c r="S7" s="4"/>
       <c r="T7" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -3705,10 +3730,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -3720,25 +3745,25 @@
         <v>67522</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8">
         <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P8" s="2">
         <v>38.135297999999999</v>
@@ -3749,25 +3774,25 @@
       <c r="R8" s="2"/>
       <c r="S8" s="4"/>
       <c r="T8" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="AA8" t="s">
         <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AE8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF8" t="s">
         <v>83</v>
@@ -3778,20 +3803,23 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="K9">
         <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="2"/>
@@ -3799,13 +3827,13 @@
       <c r="R9" s="2"/>
       <c r="S9" s="4"/>
       <c r="T9" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -3816,10 +3844,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -3831,25 +3859,25 @@
         <v>66840</v>
       </c>
       <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
         <v>105</v>
-      </c>
-      <c r="J10" t="s">
-        <v>106</v>
       </c>
       <c r="K10">
         <v>220</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P10" s="2">
         <v>38.089356199999997</v>
@@ -3860,45 +3888,45 @@
       <c r="R10" s="2"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
       </c>
       <c r="AB10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AE10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AF10" t="s">
         <v>83</v>
       </c>
       <c r="AG10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -3910,7 +3938,7 @@
         <v>67428</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
         <v>85</v>
@@ -3919,10 +3947,10 @@
         <v>230</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -3938,16 +3966,16 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="AA11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AB11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AE11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AF11" t="s">
         <v>83</v>
@@ -3964,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
         <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>83</v>
@@ -3979,25 +4007,25 @@
         <v>67501</v>
       </c>
       <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
         <v>112</v>
-      </c>
-      <c r="J12" t="s">
-        <v>113</v>
       </c>
       <c r="K12">
         <v>240</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="P12" s="2">
         <v>37.867400000000004</v>
@@ -4008,49 +4036,52 @@
       <c r="R12" s="2"/>
       <c r="S12" s="4"/>
       <c r="T12" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="AA12" t="s">
         <v>8</v>
       </c>
       <c r="AB12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AE12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AF12" t="s">
         <v>83</v>
       </c>
       <c r="AG12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
       <c r="K13">
         <v>36</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="2">
@@ -4067,25 +4098,28 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
       <c r="K14">
         <v>260</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="P14" s="2">
         <v>38.370841499999997</v>
@@ -4096,30 +4130,30 @@
       <c r="R14" s="2"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
         <v>117</v>
       </c>
-      <c r="D15" t="s">
-        <v>118</v>
-      </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
         <v>83</v>
@@ -4128,7 +4162,7 @@
         <v>67484</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" t="s">
         <v>85</v>
@@ -4137,10 +4171,10 @@
         <v>280</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4155,25 +4189,25 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AB15" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AE15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AF15" t="s">
         <v>83</v>
       </c>
       <c r="AG15" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -4184,13 +4218,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>121</v>
       </c>
       <c r="G16" t="s">
         <v>83</v>
@@ -4199,7 +4233,7 @@
         <v>67460</v>
       </c>
       <c r="I16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J16" t="s">
         <v>85</v>
@@ -4208,13 +4242,13 @@
         <v>300</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="2">
@@ -4226,52 +4260,55 @@
       <c r="R16" s="2"/>
       <c r="S16" s="4"/>
       <c r="T16" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AA16" t="s">
         <v>10</v>
       </c>
       <c r="AB16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AE16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF16" t="s">
         <v>83</v>
       </c>
       <c r="AG16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
       <c r="K17">
         <v>305</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -4289,10 +4326,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -4304,7 +4341,7 @@
         <v>67442</v>
       </c>
       <c r="I18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J18" t="s">
         <v>85</v>
@@ -4313,10 +4350,10 @@
         <v>320</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4329,13 +4366,13 @@
       <c r="R18" s="2"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
@@ -4346,10 +4383,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -4361,25 +4398,25 @@
         <v>66851</v>
       </c>
       <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
         <v>126</v>
-      </c>
-      <c r="J19" t="s">
-        <v>127</v>
       </c>
       <c r="K19">
         <v>340</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P19" s="2">
         <v>38.242364600000002</v>
@@ -4390,31 +4427,31 @@
       <c r="R19" s="2"/>
       <c r="S19" s="4"/>
       <c r="T19" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AA19" t="s">
         <v>12</v>
       </c>
       <c r="AB19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AE19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AF19" t="s">
         <v>83</v>
       </c>
       <c r="AG19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
@@ -4425,10 +4462,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
@@ -4440,25 +4477,25 @@
         <v>67443</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K20">
         <v>360</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P20" s="2">
         <v>38.384791</v>
@@ -4469,13 +4506,13 @@
       <c r="R20" s="2"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
@@ -4486,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -4501,25 +4538,25 @@
         <v>67053</v>
       </c>
       <c r="I21" t="s">
+        <v>130</v>
+      </c>
+      <c r="J21" t="s">
         <v>131</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
       </c>
       <c r="K21">
         <v>380</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P21" s="2">
         <v>38.249427099999998</v>
@@ -4530,13 +4567,13 @@
       <c r="R21" s="2"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
@@ -4547,13 +4584,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" t="s">
         <v>133</v>
-      </c>
-      <c r="F22" t="s">
-        <v>134</v>
       </c>
       <c r="G22" t="s">
         <v>83</v>
@@ -4562,7 +4599,7 @@
         <v>67546</v>
       </c>
       <c r="I22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J22" t="s">
         <v>95</v>
@@ -4571,16 +4608,16 @@
         <v>400</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P22" s="2">
         <v>38.289691599999998</v>
@@ -4591,31 +4628,31 @@
       <c r="R22" s="2"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="V22" s="1" t="s">
         <v>723</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="AA22" t="s">
         <v>15</v>
       </c>
       <c r="AB22" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AE22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF22" t="s">
         <v>83</v>
       </c>
       <c r="AG22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
@@ -4626,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -4641,25 +4678,25 @@
         <v>67543</v>
       </c>
       <c r="I23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K23">
         <v>420</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P23" s="2">
         <v>37.9</v>
@@ -4670,52 +4707,55 @@
       <c r="R23" s="2"/>
       <c r="S23" s="4"/>
       <c r="T23" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="AA23" t="s">
         <v>16</v>
       </c>
       <c r="AB23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC23" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AE23" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF23" t="s">
         <v>83</v>
       </c>
       <c r="AG23" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
       <c r="K24">
         <v>430</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -4733,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -4748,20 +4788,20 @@
         <v>67449</v>
       </c>
       <c r="I25" t="s">
+        <v>138</v>
+      </c>
+      <c r="J25" t="s">
         <v>139</v>
-      </c>
-      <c r="J25" t="s">
-        <v>140</v>
       </c>
       <c r="K25">
         <v>440</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="2">
@@ -4773,25 +4813,25 @@
       <c r="R25" s="2"/>
       <c r="S25" s="4"/>
       <c r="T25" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA25" t="s">
         <v>17</v>
       </c>
       <c r="AB25" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AE25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF25" t="s">
         <v>83</v>
@@ -4808,13 +4848,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
         <v>83</v>
@@ -4823,7 +4863,7 @@
         <v>67460</v>
       </c>
       <c r="I26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
         <v>85</v>
@@ -4832,10 +4872,10 @@
         <v>460</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4853,23 +4893,26 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
       <c r="K27">
         <v>480</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -4881,21 +4924,24 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
       <c r="K28">
         <v>500</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -4913,13 +4959,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" t="s">
         <v>83</v>
@@ -4928,20 +4974,20 @@
         <v>67546</v>
       </c>
       <c r="I29" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" t="s">
         <v>144</v>
-      </c>
-      <c r="J29" t="s">
-        <v>145</v>
       </c>
       <c r="K29">
         <v>520</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="2">
@@ -4953,31 +4999,31 @@
       <c r="R29" s="2"/>
       <c r="S29" s="4"/>
       <c r="T29" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA29" t="s">
         <v>19</v>
       </c>
       <c r="AB29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AE29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AF29" t="s">
         <v>83</v>
       </c>
       <c r="AG29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -4988,10 +5034,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
@@ -5003,25 +5049,25 @@
         <v>67456</v>
       </c>
       <c r="I30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K30">
         <v>540</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P30" s="2">
         <v>38.574119000000003</v>
@@ -5032,25 +5078,25 @@
       <c r="R30" s="2"/>
       <c r="S30" s="4"/>
       <c r="T30" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
       </c>
       <c r="AB30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC30" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AE30" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AF30" t="s">
         <v>83</v>
@@ -5067,10 +5113,10 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
@@ -5082,7 +5128,7 @@
         <v>67458</v>
       </c>
       <c r="I31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
         <v>95</v>
@@ -5091,16 +5137,16 @@
         <v>560</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P31" s="2">
         <v>39.169995700000001</v>
@@ -5111,36 +5157,39 @@
       <c r="R31" s="2"/>
       <c r="S31" s="4"/>
       <c r="T31" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
       <c r="K32">
         <v>570</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -5152,20 +5201,23 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
       <c r="K33">
         <v>40</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="2"/>
@@ -5184,10 +5236,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
@@ -5199,20 +5251,20 @@
         <v>66502</v>
       </c>
       <c r="I34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K34">
         <v>576</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="2">
@@ -5224,45 +5276,45 @@
       <c r="R34" s="2"/>
       <c r="S34" s="4"/>
       <c r="T34" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
       </c>
       <c r="AB34" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AE34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF34" t="s">
         <v>83</v>
       </c>
       <c r="AG34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -5274,25 +5326,25 @@
         <v>66502</v>
       </c>
       <c r="I35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K35">
         <v>575</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="P35" s="2">
         <v>39.192815099999997</v>
@@ -5303,31 +5355,31 @@
       <c r="R35" s="2"/>
       <c r="S35" s="4"/>
       <c r="T35" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="V35" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>740</v>
-      </c>
       <c r="AA35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AB35" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AE35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s">
         <v>83</v>
       </c>
       <c r="AG35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
@@ -5338,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
@@ -5353,25 +5405,25 @@
         <v>67464</v>
       </c>
       <c r="I36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K36">
         <v>580</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="P36" s="2">
         <v>38.557795300000002</v>
@@ -5382,25 +5434,25 @@
       <c r="R36" s="2"/>
       <c r="S36" s="4"/>
       <c r="T36" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AA36" t="s">
         <v>24</v>
       </c>
       <c r="AB36" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC36" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AE36" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF36" t="s">
         <v>83</v>
@@ -5411,25 +5463,28 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
       <c r="K37">
         <v>600</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="P37" s="2">
         <v>38.086703200000002</v>
@@ -5451,13 +5506,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G38" t="s">
         <v>83</v>
@@ -5466,27 +5521,27 @@
         <v>67460</v>
       </c>
       <c r="I38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J38" t="s">
         <v>164</v>
-      </c>
-      <c r="J38" t="s">
-        <v>165</v>
       </c>
       <c r="K38">
         <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="2">
-        <v>38.4475148</v>
+        <v>38.372259999999997</v>
       </c>
       <c r="Q38" s="2">
-        <v>-97.666996100000006</v>
+        <v>-97.685670999999999</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="4"/>
@@ -5496,19 +5551,19 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G39" t="s">
         <v>83</v>
@@ -5517,14 +5572,14 @@
         <v>67460</v>
       </c>
       <c r="I39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J39" t="s">
         <v>85</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -5536,39 +5591,39 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="AA39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AB39" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC39" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AE39" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF39" t="s">
         <v>83</v>
       </c>
       <c r="AG39" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G40" t="s">
         <v>83</v>
@@ -5577,14 +5632,14 @@
         <v>67460</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
         <v>85</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -5596,40 +5651,43 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="AA40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AB40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC40" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AE40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF40" t="s">
         <v>83</v>
       </c>
       <c r="AG40" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
       <c r="K41">
         <v>32</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="2"/>
@@ -5642,19 +5700,19 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G42" t="s">
         <v>83</v>
@@ -5663,7 +5721,7 @@
         <v>67460</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J42" t="s">
         <v>85</v>
@@ -5672,13 +5730,13 @@
         <v>620</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="2">
@@ -5690,31 +5748,31 @@
       <c r="R42" s="2"/>
       <c r="S42" s="4"/>
       <c r="T42" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AA42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC42" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AE42" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF42" t="s">
         <v>83</v>
       </c>
       <c r="AG42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
@@ -5725,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>80</v>
@@ -5746,13 +5804,13 @@
         <v>84</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K43">
         <v>10</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -5768,30 +5826,30 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AE43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF43" t="s">
         <v>83</v>
       </c>
       <c r="AG43" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -5809,25 +5867,25 @@
         <v>67107</v>
       </c>
       <c r="I44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K44">
         <v>640</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="P44" s="2">
         <v>38.202722299999998</v>
@@ -5838,45 +5896,45 @@
       <c r="R44" s="2"/>
       <c r="S44" s="4"/>
       <c r="T44" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="U44" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="V44" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="U44" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>747</v>
-      </c>
       <c r="AA44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AB44" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC44" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AE44" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF44" t="s">
         <v>83</v>
       </c>
       <c r="AG44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
@@ -5888,10 +5946,10 @@
         <v>67107</v>
       </c>
       <c r="I45" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" t="s">
         <v>172</v>
-      </c>
-      <c r="J45" t="s">
-        <v>173</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -5905,39 +5963,42 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="AA45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AB45" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC45" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AE45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AF45" t="s">
         <v>83</v>
       </c>
       <c r="AG45" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
       <c r="K46">
         <v>680</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -5957,10 +6018,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F47" t="s">
         <v>27</v>
@@ -5972,7 +6033,7 @@
         <v>67117</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J47" t="s">
         <v>85</v>
@@ -5981,7 +6042,7 @@
         <v>660</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -5995,49 +6056,52 @@
       <c r="R47" s="2"/>
       <c r="S47" s="4"/>
       <c r="T47" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AA47" t="s">
         <v>27</v>
       </c>
       <c r="AB47" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC47" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AE47" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF47" t="s">
         <v>83</v>
       </c>
       <c r="AG47" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
       <c r="K48">
         <v>682</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="2"/>
@@ -6045,13 +6109,13 @@
       <c r="R48" s="2"/>
       <c r="S48" s="4"/>
       <c r="T48" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
@@ -6062,10 +6126,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
@@ -6077,25 +6141,25 @@
         <v>66521</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K49">
         <v>685</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P49" s="2">
         <v>39.480414099999997</v>
@@ -6106,31 +6170,31 @@
       <c r="R49" s="2"/>
       <c r="S49" s="4"/>
       <c r="T49" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="AA49" t="s">
         <v>28</v>
       </c>
       <c r="AB49" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC49" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AE49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AF49" t="s">
         <v>83</v>
       </c>
       <c r="AG49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
@@ -6141,10 +6205,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F50" t="s">
         <v>29</v>
@@ -6156,25 +6220,25 @@
         <v>66866</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K50">
         <v>700</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P50" s="2">
         <v>38.164371600000003</v>
@@ -6185,54 +6249,57 @@
       <c r="R50" s="2"/>
       <c r="S50" s="4"/>
       <c r="T50" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="V50" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="AA50" t="s">
         <v>29</v>
       </c>
       <c r="AB50" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AE50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF50" t="s">
         <v>83</v>
       </c>
       <c r="AG50" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
       <c r="K51">
         <v>720</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -6244,23 +6311,26 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
       <c r="K52">
         <v>50</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -6272,16 +6342,19 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
       <c r="K53">
         <v>740</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -6296,19 +6369,19 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" t="s">
         <v>182</v>
-      </c>
-      <c r="F54" t="s">
-        <v>183</v>
       </c>
       <c r="G54" t="s">
         <v>83</v>
@@ -6317,22 +6390,22 @@
         <v>67579</v>
       </c>
       <c r="I54" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" t="s">
         <v>184</v>
-      </c>
-      <c r="J54" t="s">
-        <v>185</v>
       </c>
       <c r="K54">
         <v>60</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="2">
@@ -6344,48 +6417,48 @@
       <c r="R54" s="2"/>
       <c r="S54" s="4"/>
       <c r="T54" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AA54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AB54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AE54" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AF54" t="s">
         <v>83</v>
       </c>
       <c r="AG54" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G55" t="s">
         <v>83</v>
@@ -6394,7 +6467,7 @@
         <v>67476</v>
       </c>
       <c r="I55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J55" t="s">
         <v>85</v>
@@ -6403,10 +6476,10 @@
         <v>760</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -6419,30 +6492,30 @@
       <c r="R55" s="2"/>
       <c r="S55" s="4"/>
       <c r="T55" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G56" t="s">
         <v>83</v>
@@ -6451,17 +6524,17 @@
         <v>67401</v>
       </c>
       <c r="J56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K56">
         <v>780</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="2">
@@ -6473,31 +6546,31 @@
       <c r="R56" s="2"/>
       <c r="S56" s="4"/>
       <c r="T56" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC56" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AE56" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF56" t="s">
         <v>83</v>
       </c>
       <c r="AG56" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
@@ -6511,7 +6584,7 @@
         <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
@@ -6523,25 +6596,25 @@
         <v>67480</v>
       </c>
       <c r="I57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K57">
         <v>800</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P57" s="2">
         <v>38.917464000000002</v>
@@ -6552,31 +6625,31 @@
       <c r="R57" s="2"/>
       <c r="S57" s="4"/>
       <c r="T57" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="AA57" t="s">
         <v>30</v>
       </c>
       <c r="AB57" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC57" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AE57" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AF57" t="s">
         <v>83</v>
       </c>
       <c r="AG57" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
@@ -6587,10 +6660,10 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F58" t="s">
         <v>31</v>
@@ -6602,25 +6675,25 @@
         <v>67482</v>
       </c>
       <c r="I58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K58">
         <v>820</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P58" s="2">
         <v>39.026199400000003</v>
@@ -6631,45 +6704,48 @@
       <c r="R58" s="2"/>
       <c r="S58" s="4"/>
       <c r="T58" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="V58" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>764</v>
       </c>
       <c r="AA58" t="s">
         <v>31</v>
       </c>
       <c r="AB58" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC58" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AE58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AF58" t="s">
         <v>83</v>
       </c>
       <c r="AG58" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
       <c r="K59">
         <v>18</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -6690,10 +6766,10 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F60" t="s">
         <v>32</v>
@@ -6705,25 +6781,25 @@
         <v>67151</v>
       </c>
       <c r="I60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K60">
         <v>840</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P60" s="2">
         <v>38.218391099999998</v>
@@ -6734,25 +6810,25 @@
       <c r="R60" s="2"/>
       <c r="S60" s="4"/>
       <c r="T60" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="V60" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>767</v>
       </c>
       <c r="AA60" t="s">
         <v>32</v>
       </c>
       <c r="AB60" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC60" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AE60" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF60" t="s">
         <v>83</v>
@@ -6769,10 +6845,10 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
@@ -6784,20 +6860,20 @@
         <v>66549</v>
       </c>
       <c r="I61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J61" t="s">
-        <v>199</v>
+        <v>771</v>
       </c>
       <c r="K61">
         <v>845</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="2">
@@ -6809,31 +6885,31 @@
       <c r="R61" s="2"/>
       <c r="S61" s="4"/>
       <c r="T61" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA61" t="s">
         <v>33</v>
       </c>
       <c r="AB61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC61" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AE61" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AF61" t="s">
         <v>83</v>
       </c>
       <c r="AG61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.3">
@@ -6844,13 +6920,13 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G62" t="s">
         <v>83</v>
@@ -6859,7 +6935,7 @@
         <v>67154</v>
       </c>
       <c r="I62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J62" t="s">
         <v>95</v>
@@ -6868,16 +6944,16 @@
         <v>860</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="P62" s="2">
         <v>37.962503599999998</v>
@@ -6888,25 +6964,25 @@
       <c r="R62" s="2"/>
       <c r="S62" s="4"/>
       <c r="T62" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AA62" t="s">
         <v>34</v>
       </c>
       <c r="AB62" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC62" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AE62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF62" t="s">
         <v>83</v>
@@ -6917,7 +6993,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -6926,10 +7002,10 @@
         <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G63" t="s">
         <v>83</v>
@@ -6938,7 +7014,7 @@
         <v>67201</v>
       </c>
       <c r="I63" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J63" t="s">
         <v>85</v>
@@ -6947,7 +7023,7 @@
         <v>880</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -6961,31 +7037,31 @@
       <c r="R63" s="2"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="AA63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AB63" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC63" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AE63" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AF63" t="s">
         <v>83</v>
       </c>
       <c r="AG63" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.3">
@@ -6996,10 +7072,10 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
@@ -7011,7 +7087,7 @@
         <v>67491</v>
       </c>
       <c r="I64" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J64" t="s">
         <v>85</v>
@@ -7020,10 +7096,10 @@
         <v>900</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -7036,31 +7112,31 @@
       <c r="R64" s="2"/>
       <c r="S64" s="4"/>
       <c r="T64" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="AA64" t="s">
         <v>35</v>
       </c>
       <c r="AB64" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AC64" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AE64" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AF64" t="s">
         <v>83</v>
       </c>
       <c r="AG64" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -7081,7 +7157,7 @@
   <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7101,43 +7177,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G1" t="s">
         <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="K1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -7145,10 +7221,10 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E2">
         <v>1330200</v>
@@ -7157,16 +7233,16 @@
         <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>84</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -7174,7 +7250,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -7187,10 +7263,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E4">
         <v>651600</v>
@@ -7199,13 +7275,13 @@
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -7213,10 +7289,10 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E5">
         <v>3120000</v>
@@ -7225,16 +7301,16 @@
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -7242,10 +7318,10 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E6">
         <v>1000000</v>
@@ -7261,16 +7337,16 @@
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -7278,10 +7354,10 @@
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E8">
         <v>1318300</v>
@@ -7290,16 +7366,16 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -7307,10 +7383,10 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E9">
         <v>1053900</v>
@@ -7319,19 +7395,19 @@
         <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -7339,10 +7415,10 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E10">
         <v>184500</v>
@@ -7351,10 +7427,10 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -7362,10 +7438,10 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E11">
         <v>607500</v>
@@ -7374,13 +7450,13 @@
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -7388,10 +7464,10 @@
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D12" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E12">
         <v>259200</v>
@@ -7400,10 +7476,10 @@
         <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -7411,10 +7487,10 @@
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E13">
         <v>406200</v>
@@ -7423,13 +7499,13 @@
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -7437,25 +7513,25 @@
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -7463,10 +7539,10 @@
         <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E15">
         <v>232200</v>
@@ -7475,16 +7551,16 @@
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -7492,10 +7568,10 @@
         <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D16" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E16">
         <v>165655</v>
@@ -7504,10 +7580,10 @@
         <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -7515,25 +7591,25 @@
         <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D17" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -7541,10 +7617,10 @@
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E18">
         <v>421000</v>
@@ -7553,10 +7629,10 @@
         <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -7564,10 +7640,10 @@
         <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E19">
         <v>519300</v>
@@ -7582,7 +7658,7 @@
         <v>92</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -7590,10 +7666,10 @@
         <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E20">
         <v>235800</v>
@@ -7610,10 +7686,10 @@
         <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E21">
         <v>354600</v>
@@ -7628,10 +7704,10 @@
         <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D22" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E22">
         <v>352000</v>
@@ -7640,13 +7716,13 @@
         <v>18</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>142</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -7654,10 +7730,10 @@
         <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D23" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E23">
         <v>765000</v>
@@ -7671,22 +7747,22 @@
         <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D24" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E24">
         <v>900000</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -7694,10 +7770,10 @@
         <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D25" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E25">
         <v>1000000</v>
@@ -7711,10 +7787,10 @@
         <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D26" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E26">
         <v>800000</v>
@@ -7729,10 +7805,10 @@
         <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E27">
         <v>485500</v>
@@ -7741,13 +7817,13 @@
         <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -7755,10 +7831,10 @@
         <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D28" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E28">
         <v>1060000</v>
@@ -7767,16 +7843,16 @@
         <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7784,10 +7860,10 @@
         <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D29" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E29">
         <v>234000</v>
@@ -7796,13 +7872,13 @@
         <v>21</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -7810,10 +7886,10 @@
         <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E30">
         <v>509000</v>
@@ -7822,13 +7898,13 @@
         <v>30</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7836,10 +7912,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D31" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E31">
         <v>644000</v>
@@ -7848,13 +7924,13 @@
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>87</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -7862,10 +7938,10 @@
         <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E32">
         <v>182000</v>
@@ -7880,7 +7956,7 @@
         <v>94</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -7888,10 +7964,10 @@
         <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7906,22 +7982,22 @@
         <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D34" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -7929,10 +8005,10 @@
         <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E35">
         <v>319000</v>
@@ -7947,7 +8023,7 @@
         <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -7958,22 +8034,22 @@
         <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D37" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E37">
         <v>1620000</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -7981,10 +8057,10 @@
         <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E38">
         <v>1186200</v>
@@ -7993,16 +8069,16 @@
         <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="J38" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -8010,10 +8086,10 @@
         <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D39" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E39">
         <v>2000000</v>
@@ -8029,10 +8105,10 @@
         <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D40" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E40">
         <v>683000</v>
@@ -8041,13 +8117,13 @@
         <v>29</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -8055,10 +8131,10 @@
         <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E41">
         <v>1100000</v>
@@ -8067,13 +8143,13 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -8081,10 +8157,10 @@
         <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D42" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E42">
         <v>375000</v>
@@ -8099,10 +8175,10 @@
         <v>252</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E43">
         <v>235800</v>
@@ -8111,13 +8187,13 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -8125,10 +8201,10 @@
         <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D44" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E44">
         <v>388800</v>
@@ -8137,13 +8213,13 @@
         <v>27</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -8151,10 +8227,10 @@
         <v>272</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D45" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E45">
         <v>961600</v>
@@ -8163,13 +8239,13 @@
         <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -8177,10 +8253,10 @@
         <v>282</v>
       </c>
       <c r="B46" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D46" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E46">
         <v>84600</v>
@@ -8195,10 +8271,10 @@
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D47" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E47">
         <v>540000</v>
@@ -8213,10 +8289,10 @@
         <v>292</v>
       </c>
       <c r="B48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D48" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E48">
         <v>837000</v>
@@ -8225,13 +8301,13 @@
         <v>4</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -8239,10 +8315,10 @@
         <v>293</v>
       </c>
       <c r="B49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D49" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E49">
         <v>1140000</v>
@@ -8251,10 +8327,10 @@
         <v>23</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -8262,10 +8338,10 @@
         <v>294</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D50" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E50">
         <v>675000</v>
@@ -8274,7 +8350,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>90</v>
@@ -8285,10 +8361,10 @@
         <v>295</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E51">
         <v>1267000</v>
@@ -8297,10 +8373,10 @@
         <v>28</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -8308,10 +8384,10 @@
         <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D52" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E52">
         <v>400000</v>
@@ -8325,31 +8401,31 @@
         <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D53" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E53">
         <v>1328500</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -8357,10 +8433,10 @@
         <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D54" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E54">
         <v>400000</v>
@@ -8377,25 +8453,25 @@
         <v>331</v>
       </c>
       <c r="B55" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D55" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E55">
         <v>218560</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -8403,25 +8479,25 @@
         <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D56" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E56">
         <v>993000</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -8429,10 +8505,10 @@
         <v>351</v>
       </c>
       <c r="B57" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D57" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E57">
         <v>550800</v>
@@ -8441,13 +8517,13 @@
         <v>9</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -8455,19 +8531,19 @@
         <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D58" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E58">
         <v>345600</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="K58" s="3"/>
     </row>
@@ -8476,10 +8552,10 @@
         <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D59" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E59">
         <v>2255500</v>
@@ -8493,25 +8569,25 @@
         <v>433</v>
       </c>
       <c r="B60" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D60" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E60">
         <v>2255500</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -8519,25 +8595,25 @@
         <v>442</v>
       </c>
       <c r="B61" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D61" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E61">
         <v>867600</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -8545,25 +8621,25 @@
         <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D62" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E62">
         <v>1293000</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -8571,10 +8647,10 @@
         <v>445</v>
       </c>
       <c r="B63" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D63" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E63">
         <v>500000</v>
@@ -8589,22 +8665,22 @@
         <v>447</v>
       </c>
       <c r="B64" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D64" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E64">
         <v>900000</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -8612,25 +8688,25 @@
         <v>510</v>
       </c>
       <c r="B65" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D65" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E65">
         <v>1175000</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -8638,25 +8714,25 @@
         <v>520</v>
       </c>
       <c r="B66" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D66" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E66">
         <v>233100</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -8664,25 +8740,25 @@
         <v>530</v>
       </c>
       <c r="B67" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D67" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E67">
         <v>326700</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -8690,25 +8766,25 @@
         <v>540</v>
       </c>
       <c r="B68" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D68" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E68">
         <v>376200</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -8716,22 +8792,22 @@
         <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D69" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E69">
         <v>1053000</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -8739,25 +8815,25 @@
         <v>542</v>
       </c>
       <c r="B70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D70" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E70">
         <v>1040400</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -8765,25 +8841,25 @@
         <v>543</v>
       </c>
       <c r="B71" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D71" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E71">
         <v>1356000</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -8791,25 +8867,25 @@
         <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D72" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E72">
         <v>839000</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -8817,22 +8893,22 @@
         <v>545</v>
       </c>
       <c r="B73" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D73" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E73">
         <v>529000</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -8840,25 +8916,25 @@
         <v>546</v>
       </c>
       <c r="B74" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D74" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E74">
         <v>428000</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -8866,25 +8942,25 @@
         <v>547</v>
       </c>
       <c r="B75" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D75" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E75">
         <v>561000</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -8892,25 +8968,25 @@
         <v>548</v>
       </c>
       <c r="B76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D76" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E76">
         <v>460000</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -8918,22 +8994,22 @@
         <v>549</v>
       </c>
       <c r="B77" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D77" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E77">
         <v>229000</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -8941,22 +9017,22 @@
         <v>550</v>
       </c>
       <c r="B78" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D78" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E78">
         <v>312000</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -8964,25 +9040,25 @@
         <v>551</v>
       </c>
       <c r="B79" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E79">
         <v>1400000</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -8990,10 +9066,10 @@
         <v>560</v>
       </c>
       <c r="B80" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D80" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E80">
         <v>2800000</v>
@@ -9008,22 +9084,22 @@
         <v>561</v>
       </c>
       <c r="B81" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D81" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E81">
         <v>3600000</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -9031,16 +9107,16 @@
         <v>570</v>
       </c>
       <c r="B82" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -9048,13 +9124,13 @@
         <v>571</v>
       </c>
       <c r="B83" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H83" s="3"/>
     </row>
@@ -9063,7 +9139,7 @@
         <v>940</v>
       </c>
       <c r="B84" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dashboard\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12204" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="778">
   <si>
     <t>Abilene</t>
   </si>
@@ -241,9 +241,6 @@
     <t>Windom.jpg</t>
   </si>
   <si>
-    <t>Bridegport.jpg</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -2345,6 +2342,24 @@
   </si>
   <si>
     <t>Assaria</t>
+  </si>
+  <si>
+    <t>Culver.jpg</t>
+  </si>
+  <si>
+    <t>Bridgeport.jpg</t>
+  </si>
+  <si>
+    <t>McPhersonTerminal.jpg</t>
+  </si>
+  <si>
+    <t>RiceCounty.jpg</t>
+  </si>
+  <si>
+    <t>Roxbury.jpg</t>
+  </si>
+  <si>
+    <t>Salina.jpg</t>
   </si>
 </sst>
 </file>
@@ -2449,8 +2464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B48" totalsRowShown="0">
-  <autoFilter ref="A1:B48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B47" totalsRowShown="0">
+  <autoFilter ref="A1:B47"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="2" name="Image"/>
@@ -2812,25 +2827,26 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2838,7 +2854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2846,7 +2862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2854,7 +2870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2862,7 +2878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2870,15 +2886,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2886,7 +2902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +2910,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2902,7 +2918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2910,12 +2926,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2923,7 +2942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2931,7 +2950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2939,7 +2958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2947,7 +2966,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -2955,7 +2974,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2963,7 +2982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2971,7 +2990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -2979,7 +2998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -2987,7 +3006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2995,7 +3014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3003,7 +3022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3011,7 +3030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3019,15 +3038,15 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3035,7 +3054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3043,46 +3062,49 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="B31" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3090,7 +3112,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3098,7 +3120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -3106,22 +3128,31 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="B39" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -3129,7 +3160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -3137,7 +3168,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -3145,7 +3176,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -3153,7 +3184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -3161,15 +3192,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3192,107 +3223,107 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q38" sqref="Q38"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="15" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>75</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>76</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>77</v>
       </c>
-      <c r="J1" t="s">
-        <v>78</v>
-      </c>
       <c r="K1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1" t="s">
+        <v>648</v>
+      </c>
+      <c r="N1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O1" t="s">
+        <v>430</v>
+      </c>
+      <c r="P1" t="s">
         <v>241</v>
       </c>
-      <c r="M1" t="s">
-        <v>649</v>
-      </c>
-      <c r="N1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O1" t="s">
-        <v>431</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" t="s">
-        <v>243</v>
-      </c>
       <c r="R1" t="s">
+        <v>276</v>
+      </c>
+      <c r="S1" t="s">
+        <v>416</v>
+      </c>
+      <c r="T1" t="s">
         <v>277</v>
       </c>
-      <c r="S1" t="s">
-        <v>417</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>278</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>279</v>
       </c>
-      <c r="V1" t="s">
-        <v>280</v>
-      </c>
       <c r="AA1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3300,40 +3331,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2">
         <v>67410</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2">
         <v>100</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P2" s="2">
         <v>38.914143000000003</v>
@@ -3344,34 +3375,34 @@
       <c r="R2" s="2"/>
       <c r="S2" s="4"/>
       <c r="T2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC2" t="s">
         <v>340</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" t="s">
         <v>341</v>
       </c>
-      <c r="AE2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3379,40 +3410,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
         <v>88</v>
       </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3">
         <v>66834</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3">
         <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P3" s="2">
         <v>38.862507200000003</v>
@@ -3423,16 +3454,16 @@
       <c r="R3" s="2"/>
       <c r="S3" s="4"/>
       <c r="T3" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3440,34 +3471,34 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4">
         <v>67401</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4">
         <v>120</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -3480,34 +3511,34 @@
       <c r="R4" s="2"/>
       <c r="S4" s="4"/>
       <c r="T4" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AA4" t="s">
         <v>2</v>
       </c>
       <c r="AB4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE4" t="s">
         <v>343</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG4" t="s">
         <v>344</v>
       </c>
-      <c r="AF4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3515,40 +3546,40 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <v>67422</v>
       </c>
       <c r="I5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" t="s">
         <v>94</v>
-      </c>
-      <c r="J5" t="s">
-        <v>95</v>
       </c>
       <c r="K5">
         <v>140</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P5" s="2">
         <v>39.031503800000003</v>
@@ -3559,34 +3590,34 @@
       <c r="R5" s="2"/>
       <c r="S5" s="4"/>
       <c r="T5" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="AA5" t="s">
         <v>3</v>
       </c>
       <c r="AB5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG5" t="s">
         <v>346</v>
       </c>
-      <c r="AE5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3594,40 +3625,40 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6">
         <v>67107</v>
       </c>
       <c r="I6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" t="s">
         <v>97</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
       </c>
       <c r="K6">
         <v>160</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P6" s="2">
         <v>37.789031000000001</v>
@@ -3638,34 +3669,34 @@
       <c r="R6" s="2"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="AA6" t="s">
         <v>4</v>
       </c>
       <c r="AB6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AE6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG6">
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3673,34 +3704,34 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7">
         <v>67416</v>
       </c>
       <c r="I7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>180</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3713,16 +3744,16 @@
       <c r="R7" s="2"/>
       <c r="S7" s="4"/>
       <c r="T7" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3730,40 +3761,40 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8">
         <v>67522</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>200</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P8" s="2">
         <v>38.135297999999999</v>
@@ -3774,52 +3805,52 @@
       <c r="R8" s="2"/>
       <c r="S8" s="4"/>
       <c r="T8" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="AA8" t="s">
         <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AE8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG8">
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K9">
         <v>34</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="2"/>
@@ -3827,16 +3858,16 @@
       <c r="R9" s="2"/>
       <c r="S9" s="4"/>
       <c r="T9" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3844,40 +3875,40 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10">
         <v>66840</v>
       </c>
       <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
         <v>104</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
       </c>
       <c r="K10">
         <v>220</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P10" s="2">
         <v>38.089356199999997</v>
@@ -3888,69 +3919,69 @@
       <c r="R10" s="2"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="AA10" t="s">
         <v>7</v>
       </c>
       <c r="AB10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC10" t="s">
+        <v>349</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG10" t="s">
         <v>350</v>
       </c>
-      <c r="AE10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H11">
         <v>67428</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11">
         <v>230</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -3966,25 +3997,25 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="AA11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC11" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE11" t="s">
         <v>352</v>
       </c>
-      <c r="AE11" t="s">
-        <v>353</v>
-      </c>
       <c r="AF11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG11">
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3992,40 +4023,40 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
         <v>109</v>
       </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
       <c r="G12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H12">
         <v>67501</v>
       </c>
       <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
         <v>111</v>
-      </c>
-      <c r="J12" t="s">
-        <v>112</v>
       </c>
       <c r="K12">
         <v>240</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P12" s="2">
         <v>37.867400000000004</v>
@@ -4036,90 +4067,86 @@
       <c r="R12" s="2"/>
       <c r="S12" s="4"/>
       <c r="T12" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="AA12" t="s">
         <v>8</v>
       </c>
       <c r="AB12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC12" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE12" t="s">
         <v>354</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG12" t="s">
         <v>355</v>
       </c>
-      <c r="AF12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K13">
         <v>36</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="2">
-        <v>38.4475148</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>-97.666996100000006</v>
-      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="4"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K14">
         <v>260</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P14" s="2">
         <v>38.370841499999997</v>
@@ -4130,51 +4157,51 @@
       <c r="R14" s="2"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
         <v>116</v>
       </c>
-      <c r="D15" t="s">
-        <v>117</v>
-      </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15">
         <v>67484</v>
       </c>
       <c r="I15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K15">
         <v>280</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4189,28 +4216,28 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AA15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC15" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE15" t="s">
         <v>357</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG15" t="s">
         <v>358</v>
       </c>
-      <c r="AF15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4218,37 +4245,37 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
         <v>119</v>
       </c>
-      <c r="F16" t="s">
-        <v>120</v>
-      </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16">
         <v>67460</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16">
         <v>300</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="2">
@@ -4260,55 +4287,55 @@
       <c r="R16" s="2"/>
       <c r="S16" s="4"/>
       <c r="T16" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AA16" t="s">
         <v>10</v>
       </c>
       <c r="AB16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC16" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG16" t="s">
         <v>360</v>
       </c>
-      <c r="AE16" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K17">
         <v>305</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -4318,7 +4345,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4326,34 +4353,34 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H18">
         <v>67442</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K18">
         <v>320</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -4366,16 +4393,16 @@
       <c r="R18" s="2"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4383,40 +4410,40 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19">
         <v>66851</v>
       </c>
       <c r="I19" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" t="s">
         <v>125</v>
-      </c>
-      <c r="J19" t="s">
-        <v>126</v>
       </c>
       <c r="K19">
         <v>340</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P19" s="2">
         <v>38.242364600000002</v>
@@ -4427,34 +4454,34 @@
       <c r="R19" s="2"/>
       <c r="S19" s="4"/>
       <c r="T19" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>714</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="AA19" t="s">
         <v>12</v>
       </c>
       <c r="AB19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC19" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG19" t="s">
         <v>362</v>
       </c>
-      <c r="AE19" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4462,40 +4489,40 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
         <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20">
         <v>67443</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>360</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P20" s="2">
         <v>38.384791</v>
@@ -4506,16 +4533,16 @@
       <c r="R20" s="2"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="V20" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4523,40 +4550,40 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21">
         <v>67053</v>
       </c>
       <c r="I21" t="s">
+        <v>129</v>
+      </c>
+      <c r="J21" t="s">
         <v>130</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
       </c>
       <c r="K21">
         <v>380</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P21" s="2">
         <v>38.249427099999998</v>
@@ -4567,16 +4594,16 @@
       <c r="R21" s="2"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4584,40 +4611,40 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
         <v>132</v>
       </c>
-      <c r="F22" t="s">
-        <v>133</v>
-      </c>
       <c r="G22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22">
         <v>67546</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22">
         <v>400</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P22" s="2">
         <v>38.289691599999998</v>
@@ -4628,34 +4655,34 @@
       <c r="R22" s="2"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="U22" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="AA22" t="s">
         <v>15</v>
       </c>
       <c r="AB22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC22" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE22" t="s">
         <v>364</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG22" t="s">
         <v>365</v>
       </c>
-      <c r="AF22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4663,40 +4690,40 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23">
         <v>67543</v>
       </c>
       <c r="I23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>420</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P23" s="2">
         <v>37.9</v>
@@ -4707,55 +4734,55 @@
       <c r="R23" s="2"/>
       <c r="S23" s="4"/>
       <c r="T23" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="AA23" t="s">
         <v>16</v>
       </c>
       <c r="AB23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC23" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE23" t="s">
         <v>367</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG23" t="s">
         <v>368</v>
       </c>
-      <c r="AF23" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K24">
         <v>430</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -4765,7 +4792,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4773,35 +4800,35 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25">
         <v>67449</v>
       </c>
       <c r="I25" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" t="s">
         <v>138</v>
-      </c>
-      <c r="J25" t="s">
-        <v>139</v>
       </c>
       <c r="K25">
         <v>440</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="2">
@@ -4813,34 +4840,34 @@
       <c r="R25" s="2"/>
       <c r="S25" s="4"/>
       <c r="T25" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AA25" t="s">
         <v>17</v>
       </c>
       <c r="AB25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG25">
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -4848,34 +4875,34 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26">
         <v>67460</v>
       </c>
       <c r="I26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K26">
         <v>460</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4891,28 +4918,28 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K27">
         <v>480</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -4922,26 +4949,26 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K28">
         <v>500</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -4951,7 +4978,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -4959,35 +4986,35 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29">
         <v>67546</v>
       </c>
       <c r="I29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" t="s">
         <v>143</v>
-      </c>
-      <c r="J29" t="s">
-        <v>144</v>
       </c>
       <c r="K29">
         <v>520</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="2">
@@ -4999,34 +5026,34 @@
       <c r="R29" s="2"/>
       <c r="S29" s="4"/>
       <c r="T29" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>729</v>
-      </c>
       <c r="V29" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AA29" t="s">
         <v>19</v>
       </c>
       <c r="AB29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC29" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG29" t="s">
         <v>371</v>
       </c>
-      <c r="AE29" t="s">
-        <v>365</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -5034,40 +5061,40 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F30" t="s">
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30">
         <v>67456</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30">
         <v>540</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P30" s="2">
         <v>38.574119000000003</v>
@@ -5078,34 +5105,34 @@
       <c r="R30" s="2"/>
       <c r="S30" s="4"/>
       <c r="T30" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="U30" s="1" t="s">
+      <c r="V30" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
       </c>
       <c r="AB30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC30" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG30">
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5113,40 +5140,40 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s">
         <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31">
         <v>67458</v>
       </c>
       <c r="I31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K31">
         <v>560</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P31" s="2">
         <v>39.169995700000001</v>
@@ -5157,39 +5184,39 @@
       <c r="R31" s="2"/>
       <c r="S31" s="4"/>
       <c r="T31" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="U31" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K32">
         <v>570</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -5199,25 +5226,25 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K33">
         <v>40</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="2"/>
@@ -5228,7 +5255,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5236,35 +5263,35 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
         <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34">
         <v>66502</v>
       </c>
       <c r="I34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K34">
         <v>576</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="2">
@@ -5276,75 +5303,75 @@
       <c r="R34" s="2"/>
       <c r="S34" s="4"/>
       <c r="T34" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
       </c>
       <c r="AB34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG34" t="s">
         <v>374</v>
       </c>
-      <c r="AE34" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35">
         <v>66502</v>
       </c>
       <c r="I35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K35">
         <v>575</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P35" s="2">
         <v>39.192815099999997</v>
@@ -5355,34 +5382,34 @@
       <c r="R35" s="2"/>
       <c r="S35" s="4"/>
       <c r="T35" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="U35" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="V35" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>738</v>
-      </c>
       <c r="AA35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AB35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC35" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG35" t="s">
         <v>376</v>
       </c>
-      <c r="AE35" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -5390,40 +5417,40 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36" t="s">
         <v>24</v>
       </c>
       <c r="G36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36">
         <v>67464</v>
       </c>
       <c r="I36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36">
         <v>580</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P36" s="2">
         <v>38.557795300000002</v>
@@ -5434,71 +5461,67 @@
       <c r="R36" s="2"/>
       <c r="S36" s="4"/>
       <c r="T36" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>739</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="AA36" t="s">
         <v>24</v>
       </c>
       <c r="AB36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AE36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG36">
         <v>67464</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K37">
         <v>600</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="P37" s="2">
-        <v>38.086703200000002</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>-97.263819699999999</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="4"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -5506,35 +5529,35 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38">
         <v>67460</v>
       </c>
       <c r="I38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" t="s">
         <v>163</v>
-      </c>
-      <c r="J38" t="s">
-        <v>164</v>
       </c>
       <c r="K38">
         <v>30</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="2">
@@ -5549,37 +5572,37 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39">
         <v>67460</v>
       </c>
       <c r="I39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -5591,55 +5614,55 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="AA39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AB39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC39" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG39" t="s">
         <v>379</v>
       </c>
-      <c r="AE39" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40">
         <v>67460</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -5651,43 +5674,43 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="AA40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AB40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC40" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG40" t="s">
         <v>381</v>
       </c>
-      <c r="AE40" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K41">
         <v>32</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="2"/>
@@ -5698,45 +5721,45 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42">
         <v>67460</v>
       </c>
       <c r="I42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K42">
         <v>620</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="2">
@@ -5748,69 +5771,69 @@
       <c r="R42" s="2"/>
       <c r="S42" s="4"/>
       <c r="T42" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U42" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="V42" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>742</v>
-      </c>
       <c r="AA42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AB42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC42" t="s">
+        <v>382</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG42" t="s">
         <v>383</v>
       </c>
-      <c r="AE42" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43">
         <v>67107</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K43">
         <v>10</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -5823,69 +5846,69 @@
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="AA43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC43" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG43" t="s">
         <v>385</v>
       </c>
-      <c r="AE43" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
         <v>26</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44">
         <v>67107</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K44">
         <v>640</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P44" s="2">
         <v>38.202722299999998</v>
@@ -5896,60 +5919,60 @@
       <c r="R44" s="2"/>
       <c r="S44" s="4"/>
       <c r="T44" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="U44" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="U44" s="1" t="s">
+      <c r="V44" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="V44" s="1" t="s">
-        <v>745</v>
-      </c>
       <c r="AA44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AB44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC44" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG44" t="s">
         <v>385</v>
       </c>
-      <c r="AE44" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG44" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45">
         <v>67107</v>
       </c>
       <c r="I45" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45" t="s">
         <v>171</v>
-      </c>
-      <c r="J45" t="s">
-        <v>172</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -5963,42 +5986,42 @@
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="AA45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC45" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG45" t="s">
         <v>387</v>
       </c>
-      <c r="AE45" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF45" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG45" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K46">
         <v>680</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -6010,7 +6033,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -6018,31 +6041,31 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
         <v>27</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47">
         <v>67117</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K47">
         <v>660</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -6056,52 +6079,52 @@
       <c r="R47" s="2"/>
       <c r="S47" s="4"/>
       <c r="T47" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AA47" t="s">
         <v>27</v>
       </c>
       <c r="AB47" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC47" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE47" t="s">
         <v>389</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG47" t="s">
         <v>390</v>
       </c>
-      <c r="AF47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K48">
         <v>682</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="2"/>
@@ -6109,16 +6132,16 @@
       <c r="R48" s="2"/>
       <c r="S48" s="4"/>
       <c r="T48" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -6126,40 +6149,40 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
         <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H49">
         <v>66521</v>
       </c>
       <c r="I49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K49">
         <v>685</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P49" s="2">
         <v>39.480414099999997</v>
@@ -6170,34 +6193,34 @@
       <c r="R49" s="2"/>
       <c r="S49" s="4"/>
       <c r="T49" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="U49" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="U49" s="1" t="s">
+      <c r="V49" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="AA49" t="s">
         <v>28</v>
       </c>
       <c r="AB49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC49" t="s">
+        <v>391</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG49" t="s">
         <v>392</v>
       </c>
-      <c r="AE49" t="s">
-        <v>261</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -6205,40 +6228,40 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F50" t="s">
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50">
         <v>66866</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K50">
         <v>700</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P50" s="2">
         <v>38.164371600000003</v>
@@ -6249,57 +6272,57 @@
       <c r="R50" s="2"/>
       <c r="S50" s="4"/>
       <c r="T50" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="U50" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="V50" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="AA50" t="s">
         <v>29</v>
       </c>
       <c r="AB50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC50" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG50" t="s">
         <v>394</v>
       </c>
-      <c r="AE50" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF50" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG50" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K51">
         <v>720</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
@@ -6309,28 +6332,28 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K52">
         <v>50</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
@@ -6340,21 +6363,21 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K53">
         <v>740</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -6367,45 +6390,45 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" t="s">
         <v>181</v>
       </c>
-      <c r="F54" t="s">
-        <v>182</v>
-      </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H54">
         <v>67579</v>
       </c>
       <c r="I54" t="s">
+        <v>182</v>
+      </c>
+      <c r="J54" t="s">
         <v>183</v>
-      </c>
-      <c r="J54" t="s">
-        <v>184</v>
       </c>
       <c r="K54">
         <v>60</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="2">
@@ -6417,69 +6440,69 @@
       <c r="R54" s="2"/>
       <c r="S54" s="4"/>
       <c r="T54" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AA54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AB54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC54" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE54" t="s">
         <v>396</v>
       </c>
-      <c r="AE54" t="s">
+      <c r="AF54" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG54" t="s">
         <v>397</v>
       </c>
-      <c r="AF54" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H55">
         <v>67476</v>
       </c>
       <c r="I55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K55">
         <v>760</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -6492,49 +6515,49 @@
       <c r="R55" s="2"/>
       <c r="S55" s="4"/>
       <c r="T55" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V55" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="U55" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56">
         <v>67401</v>
       </c>
       <c r="J56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K56">
         <v>780</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="2">
@@ -6546,34 +6569,34 @@
       <c r="R56" s="2"/>
       <c r="S56" s="4"/>
       <c r="T56" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AA56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC56" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG56" t="s">
         <v>399</v>
       </c>
-      <c r="AE56" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -6581,40 +6604,40 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F57" t="s">
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H57">
         <v>67480</v>
       </c>
       <c r="I57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K57">
         <v>800</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P57" s="2">
         <v>38.917464000000002</v>
@@ -6625,34 +6648,34 @@
       <c r="R57" s="2"/>
       <c r="S57" s="4"/>
       <c r="T57" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="U57" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V57" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="AA57" t="s">
         <v>30</v>
       </c>
       <c r="AB57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC57" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG57" t="s">
         <v>401</v>
       </c>
-      <c r="AE57" t="s">
-        <v>264</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -6660,40 +6683,40 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F58" t="s">
         <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H58">
         <v>67482</v>
       </c>
       <c r="I58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K58">
         <v>820</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P58" s="2">
         <v>39.026199400000003</v>
@@ -6704,48 +6727,48 @@
       <c r="R58" s="2"/>
       <c r="S58" s="4"/>
       <c r="T58" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="U58" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="U58" s="1" t="s">
+      <c r="V58" s="1" t="s">
         <v>761</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>762</v>
       </c>
       <c r="AA58" t="s">
         <v>31</v>
       </c>
       <c r="AB58" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC58" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG58" t="s">
         <v>403</v>
       </c>
-      <c r="AE58" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF58" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG58" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K59">
         <v>18</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -6758,7 +6781,7 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -6766,40 +6789,40 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F60" t="s">
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H60">
         <v>67151</v>
       </c>
       <c r="I60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K60">
         <v>840</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P60" s="2">
         <v>38.218391099999998</v>
@@ -6810,34 +6833,34 @@
       <c r="R60" s="2"/>
       <c r="S60" s="4"/>
       <c r="T60" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="U60" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="U60" s="1" t="s">
+      <c r="V60" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="AA60" t="s">
         <v>32</v>
       </c>
       <c r="AB60" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AE60" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG60">
         <v>67151</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -6845,35 +6868,35 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61">
         <v>66549</v>
       </c>
       <c r="I61" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J61" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K61">
         <v>845</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="2">
@@ -6885,34 +6908,34 @@
       <c r="R61" s="2"/>
       <c r="S61" s="4"/>
       <c r="T61" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AA61" t="s">
         <v>33</v>
       </c>
       <c r="AB61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC61" t="s">
+        <v>405</v>
+      </c>
+      <c r="AE61" t="s">
         <v>406</v>
       </c>
-      <c r="AE61" t="s">
+      <c r="AF61" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG61" t="s">
         <v>407</v>
       </c>
-      <c r="AF61" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -6920,40 +6943,40 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H62">
         <v>67154</v>
       </c>
       <c r="I62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K62">
         <v>860</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="P62" s="2">
         <v>37.962503599999998</v>
@@ -6964,66 +6987,66 @@
       <c r="R62" s="2"/>
       <c r="S62" s="4"/>
       <c r="T62" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V62" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="U62" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="AA62" t="s">
         <v>34</v>
       </c>
       <c r="AB62" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC62" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG62">
         <v>67154</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
+        <v>201</v>
+      </c>
+      <c r="F63" t="s">
         <v>202</v>
       </c>
-      <c r="F63" t="s">
-        <v>203</v>
-      </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63">
         <v>67201</v>
       </c>
       <c r="I63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K63">
         <v>880</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -7037,34 +7060,34 @@
       <c r="R63" s="2"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC63" t="s">
+        <v>409</v>
+      </c>
+      <c r="AE63" t="s">
         <v>410</v>
       </c>
-      <c r="AE63" t="s">
+      <c r="AF63" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG63" t="s">
         <v>411</v>
       </c>
-      <c r="AF63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -7072,34 +7095,34 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F64" t="s">
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H64">
         <v>67491</v>
       </c>
       <c r="I64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K64">
         <v>900</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
@@ -7112,31 +7135,31 @@
       <c r="R64" s="2"/>
       <c r="S64" s="4"/>
       <c r="T64" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AA64" t="s">
         <v>35</v>
       </c>
       <c r="AB64" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AC64" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE64" t="s">
         <v>413</v>
       </c>
-      <c r="AE64" t="s">
+      <c r="AF64" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG64" t="s">
         <v>414</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -7161,70 +7184,70 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1" t="s">
         <v>242</v>
       </c>
-      <c r="M1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E2">
         <v>1330200</v>
@@ -7233,24 +7256,24 @@
         <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -7258,15 +7281,15 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E4">
         <v>651600</v>
@@ -7275,24 +7298,24 @@
         <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E5">
         <v>3120000</v>
@@ -7301,27 +7324,27 @@
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E6">
         <v>1000000</v>
@@ -7332,32 +7355,32 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E8">
         <v>1318300</v>
@@ -7366,27 +7389,27 @@
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E9">
         <v>1053900</v>
@@ -7395,30 +7418,30 @@
         <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E10">
         <v>184500</v>
@@ -7427,21 +7450,21 @@
         <v>14</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E11">
         <v>607500</v>
@@ -7450,24 +7473,24 @@
         <v>13</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E12">
         <v>259200</v>
@@ -7476,21 +7499,21 @@
         <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E13">
         <v>406200</v>
@@ -7499,50 +7522,50 @@
         <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E15">
         <v>232200</v>
@@ -7551,27 +7574,27 @@
         <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>141</v>
       </c>
       <c r="B16" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E16">
         <v>165655</v>
@@ -7580,47 +7603,47 @@
         <v>11</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>151</v>
       </c>
       <c r="B17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E18">
         <v>421000</v>
@@ -7629,21 +7652,21 @@
         <v>35</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E19">
         <v>519300</v>
@@ -7652,24 +7675,24 @@
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="K19" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E20">
         <v>235800</v>
@@ -7681,15 +7704,15 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E21">
         <v>354600</v>
@@ -7699,15 +7722,15 @@
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E22">
         <v>352000</v>
@@ -7716,24 +7739,24 @@
         <v>18</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E23">
         <v>765000</v>
@@ -7742,38 +7765,38 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E24">
         <v>900000</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>188</v>
       </c>
       <c r="B25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E25">
         <v>1000000</v>
@@ -7782,15 +7805,15 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>190</v>
       </c>
       <c r="B26" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E26">
         <v>800000</v>
@@ -7800,15 +7823,15 @@
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E27">
         <v>485500</v>
@@ -7817,24 +7840,24 @@
         <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E28">
         <v>1060000</v>
@@ -7843,27 +7866,27 @@
         <v>31</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>193</v>
       </c>
       <c r="B29" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E29">
         <v>234000</v>
@@ -7872,24 +7895,24 @@
         <v>21</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>194</v>
       </c>
       <c r="B30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E30">
         <v>509000</v>
@@ -7898,24 +7921,24 @@
         <v>30</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E31">
         <v>644000</v>
@@ -7924,24 +7947,24 @@
         <v>0</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D32" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E32">
         <v>182000</v>
@@ -7950,24 +7973,24 @@
         <v>3</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="K32" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7977,38 +8000,38 @@
       <c r="H33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>199</v>
       </c>
       <c r="B35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E35">
         <v>319000</v>
@@ -8018,49 +8041,49 @@
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201</v>
       </c>
       <c r="B36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E37">
         <v>1620000</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="H37" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E38">
         <v>1186200</v>
@@ -8069,27 +8092,27 @@
         <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="J38" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E39">
         <v>2000000</v>
@@ -8100,15 +8123,15 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>222</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E40">
         <v>683000</v>
@@ -8117,24 +8140,24 @@
         <v>29</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D41" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E41">
         <v>1100000</v>
@@ -8143,24 +8166,24 @@
         <v>7</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E42">
         <v>375000</v>
@@ -8170,15 +8193,15 @@
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>252</v>
       </c>
       <c r="B43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E43">
         <v>235800</v>
@@ -8187,24 +8210,24 @@
         <v>12</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E44">
         <v>388800</v>
@@ -8213,24 +8236,24 @@
         <v>27</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>272</v>
       </c>
       <c r="B45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E45">
         <v>961600</v>
@@ -8239,24 +8262,24 @@
         <v>34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>282</v>
       </c>
       <c r="B46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E46">
         <v>84600</v>
@@ -8266,15 +8289,15 @@
       <c r="H46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>291</v>
       </c>
       <c r="B47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E47">
         <v>540000</v>
@@ -8284,15 +8307,15 @@
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>292</v>
       </c>
       <c r="B48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D48" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E48">
         <v>837000</v>
@@ -8301,24 +8324,24 @@
         <v>4</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>293</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E49">
         <v>1140000</v>
@@ -8327,21 +8350,21 @@
         <v>23</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>294</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D50" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E50">
         <v>675000</v>
@@ -8350,21 +8373,21 @@
         <v>1</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>295</v>
       </c>
       <c r="B51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E51">
         <v>1267000</v>
@@ -8373,21 +8396,21 @@
         <v>28</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>296</v>
       </c>
       <c r="B52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E52">
         <v>400000</v>
@@ -8396,47 +8419,47 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D53" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E53">
         <v>1328500</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E54">
         <v>400000</v>
@@ -8448,67 +8471,67 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>331</v>
       </c>
       <c r="B55" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D55" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E55">
         <v>218560</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>341</v>
       </c>
       <c r="B56" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D56" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E56">
         <v>993000</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>351</v>
       </c>
       <c r="B57" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D57" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E57">
         <v>550800</v>
@@ -8517,45 +8540,45 @@
         <v>9</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>361</v>
       </c>
       <c r="B58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D58" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E58">
         <v>345600</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D59" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E59">
         <v>2255500</v>
@@ -8564,93 +8587,93 @@
       <c r="G59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>433</v>
       </c>
       <c r="B60" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D60" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E60">
         <v>2255500</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>442</v>
       </c>
       <c r="B61" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D61" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E61">
         <v>867600</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>443</v>
       </c>
       <c r="B62" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D62" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E62">
         <v>1293000</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>445</v>
       </c>
       <c r="B63" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D63" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E63">
         <v>500000</v>
@@ -8660,416 +8683,416 @@
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>447</v>
       </c>
       <c r="B64" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D64" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E64">
         <v>900000</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>510</v>
       </c>
       <c r="B65" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D65" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E65">
         <v>1175000</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>520</v>
       </c>
       <c r="B66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D66" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E66">
         <v>233100</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>530</v>
       </c>
       <c r="B67" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D67" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E67">
         <v>326700</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>540</v>
       </c>
       <c r="B68" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D68" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E68">
         <v>376200</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>541</v>
       </c>
       <c r="B69" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D69" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E69">
         <v>1053000</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>542</v>
       </c>
       <c r="B70" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D70" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E70">
         <v>1040400</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>543</v>
       </c>
       <c r="B71" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D71" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E71">
         <v>1356000</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>544</v>
       </c>
       <c r="B72" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D72" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E72">
         <v>839000</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>545</v>
       </c>
       <c r="B73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D73" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E73">
         <v>529000</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>546</v>
       </c>
       <c r="B74" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D74" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E74">
         <v>428000</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>547</v>
       </c>
       <c r="B75" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D75" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E75">
         <v>561000</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>548</v>
       </c>
       <c r="B76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D76" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E76">
         <v>460000</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>549</v>
       </c>
       <c r="B77" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D77" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E77">
         <v>229000</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>550</v>
       </c>
       <c r="B78" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D78" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E78">
         <v>312000</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>551</v>
       </c>
       <c r="B79" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D79" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E79">
         <v>1400000</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>560</v>
       </c>
       <c r="B80" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D80" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E80">
         <v>2800000</v>
@@ -9079,67 +9102,67 @@
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>561</v>
       </c>
       <c r="B81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D81" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E81">
         <v>3600000</v>
       </c>
       <c r="F81" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>570</v>
       </c>
       <c r="B82" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>571</v>
       </c>
       <c r="B83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>940</v>
       </c>
       <c r="B84" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="818">
   <si>
     <t>Abilene</t>
   </si>
@@ -2360,6 +2360,126 @@
   </si>
   <si>
     <t>Salina.jpg</t>
+  </si>
+  <si>
+    <t>COFFEYVILLE</t>
+  </si>
+  <si>
+    <t>HAMMOND</t>
+  </si>
+  <si>
+    <t>LIBERTY</t>
+  </si>
+  <si>
+    <t>NORTONVILLE</t>
+  </si>
+  <si>
+    <t>DREXEL</t>
+  </si>
+  <si>
+    <t>HARWOOD</t>
+  </si>
+  <si>
+    <t>METZ</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>Coffeyville</t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Nortonville</t>
+  </si>
+  <si>
+    <t>Drexel</t>
+  </si>
+  <si>
+    <t>Harwood</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>128 E 8th</t>
+  </si>
+  <si>
+    <t>(620) 251-9080</t>
+  </si>
+  <si>
+    <t>(620) 251-1966</t>
+  </si>
+  <si>
+    <t>(620) 857-4500</t>
+  </si>
+  <si>
+    <t>(620) 857-4522</t>
+  </si>
+  <si>
+    <t>2243 Soldier Rd</t>
+  </si>
+  <si>
+    <t>3424 CR 5125</t>
+  </si>
+  <si>
+    <t>(620) 485-3215</t>
+  </si>
+  <si>
+    <t>602 Main St</t>
+  </si>
+  <si>
+    <t>(913) 886-3435</t>
+  </si>
+  <si>
+    <t>(913) 886-6999</t>
+  </si>
+  <si>
+    <t>123 W Main</t>
+  </si>
+  <si>
+    <t>(816) 657-2111</t>
+  </si>
+  <si>
+    <t>(816) 657-2781</t>
+  </si>
+  <si>
+    <t>172 S Brown St</t>
+  </si>
+  <si>
+    <t>(417) 432-3193</t>
+  </si>
+  <si>
+    <t>(417) 432-3195</t>
+  </si>
+  <si>
+    <t>154 S Main</t>
+  </si>
+  <si>
+    <t>(417) 484-3212</t>
+  </si>
+  <si>
+    <t>(417) 484-3211</t>
+  </si>
+  <si>
+    <t>1000 N Osage Blvd</t>
+  </si>
+  <si>
+    <t>(417) 448-5999</t>
+  </si>
+  <si>
+    <t>(417) 448-5987</t>
   </si>
 </sst>
 </file>
@@ -2506,8 +2626,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M84" totalsRowShown="0">
-  <autoFilter ref="A1:M84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M92" totalsRowShown="0">
+  <autoFilter ref="A1:M92"/>
   <tableColumns count="13">
     <tableColumn id="1" name="BRANCH_NUMBER"/>
     <tableColumn id="2" name="BRANCH_NAME"/>
@@ -7177,7 +7297,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9102,7 +9222,7 @@
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>561</v>
       </c>
@@ -9125,7 +9245,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>570</v>
       </c>
@@ -9142,7 +9262,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>571</v>
       </c>
@@ -9157,7 +9277,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>940</v>
       </c>
@@ -9167,6 +9287,187 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>630</v>
+      </c>
+      <c r="B85" t="s">
+        <v>778</v>
+      </c>
+      <c r="D85" t="s">
+        <v>786</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H85" t="s">
+        <v>796</v>
+      </c>
+      <c r="K85" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>632</v>
+      </c>
+      <c r="B86" t="s">
+        <v>779</v>
+      </c>
+      <c r="D86" t="s">
+        <v>786</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K86" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>634</v>
+      </c>
+      <c r="B87" t="s">
+        <v>780</v>
+      </c>
+      <c r="D87" t="s">
+        <v>786</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>636</v>
+      </c>
+      <c r="B88" t="s">
+        <v>781</v>
+      </c>
+      <c r="D88" t="s">
+        <v>786</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="K88" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>642</v>
+      </c>
+      <c r="B89" t="s">
+        <v>782</v>
+      </c>
+      <c r="D89" t="s">
+        <v>786</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K89" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>644</v>
+      </c>
+      <c r="B90" t="s">
+        <v>783</v>
+      </c>
+      <c r="D90" t="s">
+        <v>786</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K90" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>646</v>
+      </c>
+      <c r="B91" t="s">
+        <v>784</v>
+      </c>
+      <c r="D91" t="s">
+        <v>786</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="K91" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>650</v>
+      </c>
+      <c r="B92" t="s">
+        <v>785</v>
+      </c>
+      <c r="D92" t="s">
+        <v>786</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K92" t="s">
+        <v>817</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -2628,6 +2628,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M92" totalsRowShown="0">
   <autoFilter ref="A1:M92"/>
+  <sortState ref="A2:M92">
+    <sortCondition ref="A2:A92"/>
+  </sortState>
   <tableColumns count="13">
     <tableColumn id="1" name="BRANCH_NUMBER"/>
     <tableColumn id="2" name="BRANCH_NAME"/>
@@ -9279,195 +9282,195 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>940</v>
+        <v>630</v>
       </c>
       <c r="B84" t="s">
-        <v>642</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
+        <v>778</v>
+      </c>
+      <c r="D84" t="s">
+        <v>786</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H84" t="s">
+        <v>796</v>
+      </c>
+      <c r="K84" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B85" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D85" t="s">
         <v>786</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="H85" t="s">
-        <v>796</v>
+        <v>800</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>798</v>
       </c>
       <c r="K85" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B86" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D86" t="s">
         <v>786</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="K86" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B87" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D87" t="s">
         <v>786</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>802</v>
+        <v>804</v>
+      </c>
+      <c r="K87" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B88" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D88" t="s">
         <v>786</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="K88" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B89" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D89" t="s">
         <v>786</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="K89" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B90" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D90" t="s">
         <v>786</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="K90" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B91" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D91" t="s">
         <v>786</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="K91" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>650</v>
+        <v>940</v>
       </c>
       <c r="B92" t="s">
-        <v>785</v>
-      </c>
-      <c r="D92" t="s">
-        <v>786</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="K92" t="s">
-        <v>817</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -2954,14 +2954,14 @@
       <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -3185,17 +3185,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>164</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>167</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>172</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>187</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>30</v>
       </c>
@@ -3283,7 +3283,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>34</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>200</v>
       </c>
@@ -3323,7 +3323,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -3346,36 +3346,36 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="15" width="14.5546875" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3661,7 +3661,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>281</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -5041,7 +5041,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>316</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -5101,7 +5101,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -5378,7 +5378,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>67464</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -5644,7 +5644,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>25</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>155</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>287</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>172</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>285</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>286</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>28</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>319</v>
       </c>
@@ -6455,7 +6455,7 @@
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>314</v>
       </c>
@@ -6478,15 +6478,19 @@
       <c r="O52" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
+      <c r="P52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>0</v>
+      </c>
       <c r="R52" s="2"/>
       <c r="S52" s="4"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>321</v>
       </c>
@@ -6513,7 +6517,7 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>179</v>
       </c>
@@ -6590,7 +6594,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>187</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -6798,7 +6802,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>309</v>
       </c>
@@ -6904,7 +6908,7 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>32</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>67151</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>67154</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>35</v>
       </c>
@@ -7307,21 +7311,21 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>640</v>
       </c>
@@ -7362,7 +7366,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -7391,7 +7395,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13</v>
       </c>
@@ -7404,7 +7408,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7430,7 +7434,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>31</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>32</v>
       </c>
@@ -7478,7 +7482,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>41</v>
       </c>
@@ -7495,7 +7499,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>61</v>
       </c>
@@ -7524,7 +7528,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>71</v>
       </c>
@@ -7556,7 +7560,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>81</v>
       </c>
@@ -7579,7 +7583,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>91</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>101</v>
       </c>
@@ -7628,7 +7632,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>111</v>
       </c>
@@ -7654,7 +7658,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>121</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>131</v>
       </c>
@@ -7709,7 +7713,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>141</v>
       </c>
@@ -7732,7 +7736,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>151</v>
       </c>
@@ -7758,7 +7762,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>161</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>171</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>181</v>
       </c>
@@ -7827,7 +7831,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>182</v>
       </c>
@@ -7845,7 +7849,7 @@
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>183</v>
       </c>
@@ -7871,7 +7875,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>185</v>
       </c>
@@ -7888,7 +7892,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>187</v>
       </c>
@@ -7911,7 +7915,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>188</v>
       </c>
@@ -7928,7 +7932,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>190</v>
       </c>
@@ -7946,7 +7950,7 @@
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>191</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>192</v>
       </c>
@@ -8001,7 +8005,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>193</v>
       </c>
@@ -8027,7 +8031,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>194</v>
       </c>
@@ -8053,7 +8057,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>195</v>
       </c>
@@ -8079,7 +8083,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>196</v>
       </c>
@@ -8105,7 +8109,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>197</v>
       </c>
@@ -8123,7 +8127,7 @@
       <c r="H33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>198</v>
       </c>
@@ -8146,7 +8150,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>199</v>
       </c>
@@ -8164,7 +8168,7 @@
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>201</v>
       </c>
@@ -8175,7 +8179,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>205</v>
       </c>
@@ -8198,7 +8202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>212</v>
       </c>
@@ -8227,7 +8231,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>215</v>
       </c>
@@ -8246,7 +8250,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>222</v>
       </c>
@@ -8272,7 +8276,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>242</v>
       </c>
@@ -8298,7 +8302,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>245</v>
       </c>
@@ -8316,7 +8320,7 @@
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>252</v>
       </c>
@@ -8342,7 +8346,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>262</v>
       </c>
@@ -8368,7 +8372,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>272</v>
       </c>
@@ -8394,7 +8398,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>282</v>
       </c>
@@ -8412,7 +8416,7 @@
       <c r="H46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>291</v>
       </c>
@@ -8430,7 +8434,7 @@
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>292</v>
       </c>
@@ -8456,7 +8460,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>293</v>
       </c>
@@ -8479,7 +8483,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>294</v>
       </c>
@@ -8502,7 +8506,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>295</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>296</v>
       </c>
@@ -8542,7 +8546,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>311</v>
       </c>
@@ -8574,7 +8578,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>315</v>
       </c>
@@ -8594,7 +8598,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>331</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>341</v>
       </c>
@@ -8646,7 +8650,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>351</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>361</v>
       </c>
@@ -8693,7 +8697,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>432</v>
       </c>
@@ -8710,7 +8714,7 @@
       <c r="G59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>433</v>
       </c>
@@ -8736,7 +8740,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>442</v>
       </c>
@@ -8762,7 +8766,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>443</v>
       </c>
@@ -8788,7 +8792,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>445</v>
       </c>
@@ -8806,7 +8810,7 @@
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>447</v>
       </c>
@@ -8829,7 +8833,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>510</v>
       </c>
@@ -8855,7 +8859,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>520</v>
       </c>
@@ -8881,7 +8885,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>530</v>
       </c>
@@ -8907,7 +8911,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>540</v>
       </c>
@@ -8933,7 +8937,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>541</v>
       </c>
@@ -8956,7 +8960,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>542</v>
       </c>
@@ -8982,7 +8986,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>543</v>
       </c>
@@ -9008,7 +9012,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>544</v>
       </c>
@@ -9034,7 +9038,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>545</v>
       </c>
@@ -9057,7 +9061,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>546</v>
       </c>
@@ -9083,7 +9087,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>547</v>
       </c>
@@ -9109,7 +9113,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>548</v>
       </c>
@@ -9135,7 +9139,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>549</v>
       </c>
@@ -9158,7 +9162,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>550</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>551</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>560</v>
       </c>
@@ -9225,7 +9229,7 @@
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>561</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>570</v>
       </c>
@@ -9265,7 +9269,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>571</v>
       </c>
@@ -9280,7 +9284,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>630</v>
       </c>
@@ -9303,7 +9307,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>632</v>
       </c>
@@ -9326,7 +9330,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>634</v>
       </c>
@@ -9346,7 +9350,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>636</v>
       </c>
@@ -9369,7 +9373,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>642</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>644</v>
       </c>
@@ -9415,7 +9419,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>646</v>
       </c>
@@ -9438,7 +9442,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>650</v>
       </c>
@@ -9461,7 +9465,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>940</v>
       </c>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dashboardProd1\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="818">
   <si>
     <t>Abilene</t>
   </si>
@@ -2584,8 +2584,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B47" totalsRowShown="0">
-  <autoFilter ref="A1:B47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B48" totalsRowShown="0">
+  <autoFilter ref="A1:B48"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="2" name="Image"/>
@@ -2947,11 +2947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3253,81 +3253,89 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s">
-        <v>775</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>777</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>35</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3347,7 +3355,7 @@
   <dimension ref="A1:AG64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52"/>
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6465,6 +6473,24 @@
       <c r="C52" t="s">
         <v>114</v>
       </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52">
+        <v>67546</v>
+      </c>
+      <c r="I52" t="s">
+        <v>133</v>
+      </c>
+      <c r="J52" t="s">
+        <v>314</v>
+      </c>
       <c r="K52">
         <v>50</v>
       </c>
@@ -6479,16 +6505,22 @@
         <v>428</v>
       </c>
       <c r="P52" s="2">
-        <v>0</v>
+        <v>38.289691599999998</v>
       </c>
       <c r="Q52" s="2">
-        <v>0</v>
+        <v>-97.779943399999993</v>
       </c>
       <c r="R52" s="2"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dashboardProd1\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="823">
   <si>
     <t>Abilene</t>
   </si>
@@ -2480,6 +2480,21 @@
   </si>
   <si>
     <t>(417) 448-5987</t>
+  </si>
+  <si>
+    <t>Manhattan Bulk Fuel</t>
+  </si>
+  <si>
+    <t>3384 Excel Rd</t>
+  </si>
+  <si>
+    <t>Bulk fuel and oil</t>
+  </si>
+  <si>
+    <t>MHBULK</t>
+  </si>
+  <si>
+    <t>Manhattan Builk Fuel</t>
   </si>
 </sst>
 </file>
@@ -2584,8 +2599,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B48" totalsRowShown="0">
-  <autoFilter ref="A1:B48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B49" totalsRowShown="0">
+  <autoFilter ref="A1:B49"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="2" name="Image"/>
@@ -2595,8 +2610,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblLocation" displayName="tblLocation" ref="A1:V64" totalsRowShown="0">
-  <autoFilter ref="A1:V64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblLocation" displayName="tblLocation" ref="A1:V65" totalsRowShown="0">
+  <autoFilter ref="A1:V65"/>
   <tableColumns count="22">
     <tableColumn id="1" name="Location"/>
     <tableColumn id="23" name="Active"/>
@@ -2947,21 +2962,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2969,7 +2984,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2977,7 +2992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2985,7 +3000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2993,7 +3008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3001,7 +3016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3009,7 +3024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3017,7 +3032,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3025,7 +3040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3033,7 +3048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3041,7 +3056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3064,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3057,7 +3072,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3073,7 +3088,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3081,7 +3096,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3089,7 +3104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3097,7 +3112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3105,7 +3120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3113,7 +3128,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3121,7 +3136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3129,7 +3144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3137,7 +3152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3145,7 +3160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3153,7 +3168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3161,181 +3176,189 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>822</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>164</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>78</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>167</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>27</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>29</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>314</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>179</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>184</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>187</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>33</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>34</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>200</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>35</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3352,38 +3375,38 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG64"/>
+  <dimension ref="A1:AG65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="15" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -3454,7 +3477,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3533,7 +3556,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3594,7 +3617,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3669,7 +3692,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3748,7 +3771,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3827,7 +3850,7 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3907,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3963,7 +3986,7 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -3998,7 +4021,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4077,7 +4100,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -4146,7 +4169,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4225,7 +4248,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -4254,7 +4277,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>281</v>
       </c>
@@ -4297,7 +4320,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -4368,7 +4391,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4445,7 +4468,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -4476,7 +4499,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4533,7 +4556,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4612,7 +4635,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4673,7 +4696,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4734,7 +4757,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4813,7 +4836,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4892,7 +4915,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -4923,7 +4946,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -4998,7 +5021,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -5049,7 +5072,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>316</v>
       </c>
@@ -5080,7 +5103,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -5109,7 +5132,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -5184,7 +5207,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -5263,7 +5286,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5324,7 +5347,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -5357,7 +5380,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -5386,7 +5409,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5461,9 +5484,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>818</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5472,7 +5495,7 @@
         <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>819</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -5483,66 +5506,31 @@
       <c r="H35">
         <v>66502</v>
       </c>
-      <c r="I35" t="s">
-        <v>149</v>
-      </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>820</v>
       </c>
       <c r="K35">
-        <v>575</v>
+        <v>34</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>680</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P35" s="2">
-        <v>39.192815099999997</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>-96.505954700000004</v>
-      </c>
+        <v>821</v>
+      </c>
+      <c r="O35" s="1"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="AA35" t="s">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>150</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>375</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>24</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5551,77 +5539,77 @@
         <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
         <v>82</v>
       </c>
       <c r="H36">
-        <v>67464</v>
+        <v>66502</v>
       </c>
       <c r="I36" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J36" t="s">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P36" s="2">
-        <v>38.557795300000002</v>
+        <v>39.192815099999997</v>
       </c>
       <c r="Q36" s="2">
-        <v>-97.834316099999995</v>
+        <v>-96.505954700000004</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="4"/>
       <c r="T36" s="1" t="s">
-        <v>226</v>
+        <v>735</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AA36" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="AB36" t="s">
         <v>339</v>
       </c>
       <c r="AC36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AE36" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AF36" t="s">
         <v>82</v>
       </c>
-      <c r="AG36">
-        <v>67464</v>
-      </c>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>336</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5629,32 +5617,78 @@
       <c r="C37" t="s">
         <v>114</v>
       </c>
+      <c r="D37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37">
+        <v>67464</v>
+      </c>
+      <c r="I37" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" t="s">
+        <v>100</v>
+      </c>
       <c r="K37">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>298</v>
+        <v>227</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="P37" s="2">
+        <v>38.557795300000002</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>-97.834316099999995</v>
+      </c>
       <c r="R37" s="2"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T37" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG37">
+        <v>67464</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>336</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5662,50 +5696,32 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
-      <c r="D38" t="s">
-        <v>161</v>
-      </c>
-      <c r="F38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38">
-        <v>67460</v>
-      </c>
-      <c r="I38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J38" t="s">
-        <v>163</v>
-      </c>
       <c r="K38">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M38" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>669</v>
+      </c>
       <c r="N38" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="2">
-        <v>38.372259999999997</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>-97.685670999999999</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="4"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5714,7 +5730,7 @@
         <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F39" t="s">
         <v>119</v>
@@ -5726,46 +5742,37 @@
         <v>67460</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="N39" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="K39">
+        <v>30</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="O39" s="1"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
+      <c r="P39" s="2">
+        <v>38.372259999999997</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>-97.685670999999999</v>
+      </c>
       <c r="R39" s="2"/>
       <c r="S39" s="4"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="AA39" t="s">
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>155</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>378</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF39" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG39" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>158</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5774,7 +5781,7 @@
         <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
         <v>119</v>
@@ -5786,14 +5793,14 @@
         <v>67460</v>
       </c>
       <c r="I40" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J40" t="s">
         <v>84</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -5805,13 +5812,13 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="AA40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AB40" t="s">
         <v>339</v>
       </c>
       <c r="AC40" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AE40" t="s">
         <v>270</v>
@@ -5820,12 +5827,12 @@
         <v>82</v>
       </c>
       <c r="AG40" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>287</v>
+        <v>158</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5833,16 +5840,29 @@
       <c r="C41" t="s">
         <v>114</v>
       </c>
-      <c r="K41">
-        <v>32</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41">
+        <v>67460</v>
+      </c>
+      <c r="I41" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" t="s">
+        <v>84</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -5851,10 +5871,28 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AA41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>380</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>287</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5862,76 +5900,28 @@
       <c r="C42" t="s">
         <v>114</v>
       </c>
-      <c r="D42" t="s">
-        <v>165</v>
-      </c>
-      <c r="F42" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42">
-        <v>67460</v>
-      </c>
-      <c r="I42" t="s">
-        <v>166</v>
-      </c>
-      <c r="J42" t="s">
-        <v>84</v>
-      </c>
       <c r="K42">
-        <v>620</v>
+        <v>32</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>687</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="P42" s="2">
-        <v>38.372224000000003</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>-97.668978899999999</v>
-      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="4"/>
-      <c r="T42" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="V42" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="AA42" t="s">
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>164</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF42" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG42" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>78</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5940,64 +5930,75 @@
         <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G43" t="s">
         <v>82</v>
       </c>
       <c r="H43">
-        <v>67107</v>
+        <v>67460</v>
       </c>
       <c r="I43" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>10</v>
+        <v>620</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+        <v>229</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="O43" s="1"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
+      <c r="P43" s="2">
+        <v>38.372224000000003</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>-97.668978899999999</v>
+      </c>
       <c r="R43" s="2"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="T43" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U43" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="AA43" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="AB43" t="s">
         <v>339</v>
       </c>
       <c r="AC43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AE43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF43" t="s">
         <v>82</v>
       </c>
       <c r="AG43" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6021,45 +6022,29 @@
         <v>67107</v>
       </c>
       <c r="I44" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="J44" t="s">
         <v>100</v>
       </c>
       <c r="K44">
-        <v>640</v>
+        <v>10</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="P44" s="2">
-        <v>38.202722299999998</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>-97.522767200000004</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="4"/>
-      <c r="T44" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="V44" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
       <c r="AA44" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s">
         <v>339</v>
@@ -6077,9 +6062,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6088,7 +6073,10 @@
         <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>79</v>
+      </c>
+      <c r="E45" t="s">
+        <v>81</v>
       </c>
       <c r="F45" t="s">
         <v>26</v>
@@ -6100,30 +6088,51 @@
         <v>67107</v>
       </c>
       <c r="I45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J45" t="s">
-        <v>171</v>
-      </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>640</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="P45" s="2">
+        <v>38.202722299999998</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>-97.522767200000004</v>
+      </c>
       <c r="R45" s="2"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="V45" s="1" t="s">
+        <v>744</v>
+      </c>
       <c r="AA45" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB45" t="s">
         <v>339</v>
       </c>
       <c r="AC45" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AE45" t="s">
         <v>271</v>
@@ -6132,12 +6141,12 @@
         <v>82</v>
       </c>
       <c r="AG45" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>285</v>
+        <v>167</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6145,15 +6154,26 @@
       <c r="C46" t="s">
         <v>114</v>
       </c>
-      <c r="K46">
-        <v>680</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>681</v>
-      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46">
+        <v>67107</v>
+      </c>
+      <c r="I46" t="s">
+        <v>170</v>
+      </c>
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="2"/>
@@ -6163,118 +6183,130 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AA46" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>386</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>285</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
-      </c>
-      <c r="D47" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47">
-        <v>67117</v>
-      </c>
-      <c r="I47" t="s">
-        <v>174</v>
-      </c>
-      <c r="J47" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="K47">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="M47" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="2">
-        <v>38.065479000000003</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>-97.345708000000002</v>
-      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="4"/>
-      <c r="T47" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U47" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="AA47" t="s">
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>27</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>388</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>286</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48">
+        <v>67117</v>
+      </c>
+      <c r="I48" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" t="s">
+        <v>84</v>
       </c>
       <c r="K48">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="M48" s="1"/>
-      <c r="N48" s="1" t="s">
-        <v>337</v>
-      </c>
+      <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
+      <c r="P48" s="2">
+        <v>38.065479000000003</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>-97.345708000000002</v>
+      </c>
       <c r="R48" s="2"/>
       <c r="S48" s="4"/>
       <c r="T48" s="1" t="s">
         <v>688</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>746</v>
+        <v>688</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>388</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6282,78 +6314,34 @@
       <c r="C49" t="s">
         <v>114</v>
       </c>
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
-      <c r="F49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49">
-        <v>66521</v>
-      </c>
-      <c r="I49" t="s">
-        <v>176</v>
-      </c>
-      <c r="J49" t="s">
-        <v>100</v>
-      </c>
       <c r="K49">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>682</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="P49" s="2">
-        <v>39.480414099999997</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>-96.177394699999994</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="4"/>
       <c r="T49" s="1" t="s">
-        <v>747</v>
+        <v>688</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="AA49" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>28</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF49" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG49" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>29</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6362,560 +6350,560 @@
         <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G50" t="s">
         <v>82</v>
       </c>
       <c r="H50">
-        <v>66866</v>
+        <v>66521</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J50" t="s">
         <v>100</v>
       </c>
       <c r="K50">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P50" s="2">
-        <v>38.164371600000003</v>
+        <v>39.480414099999997</v>
       </c>
       <c r="Q50" s="2">
-        <v>-97.103965099999996</v>
+        <v>-96.177394699999994</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="4"/>
       <c r="T50" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="AA50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB50" t="s">
         <v>339</v>
       </c>
       <c r="AC50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AE50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF50" t="s">
         <v>82</v>
       </c>
       <c r="AG50" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
         <v>114</v>
       </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51">
+        <v>66866</v>
+      </c>
+      <c r="I51" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" t="s">
+        <v>100</v>
+      </c>
       <c r="K51">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>338</v>
+        <v>261</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="P51" s="2">
+        <v>38.164371600000003</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>-97.103965099999996</v>
+      </c>
       <c r="R51" s="2"/>
       <c r="S51" s="4"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T51" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC51" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
         <v>114</v>
       </c>
-      <c r="D52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52">
-        <v>67546</v>
-      </c>
-      <c r="I52" t="s">
-        <v>133</v>
-      </c>
-      <c r="J52" t="s">
-        <v>314</v>
-      </c>
       <c r="K52">
-        <v>50</v>
+        <v>720</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M52" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="N52" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="P52" s="2">
-        <v>38.289691599999998</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>-97.779943399999993</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U52" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>114</v>
       </c>
+      <c r="D53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
+        <v>132</v>
+      </c>
+      <c r="G53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53">
+        <v>67546</v>
+      </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53" t="s">
+        <v>314</v>
+      </c>
       <c r="K53">
-        <v>740</v>
+        <v>50</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
+      <c r="N53" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P53" s="2">
+        <v>38.289691599999998</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>-97.779943399999993</v>
+      </c>
       <c r="R53" s="2"/>
       <c r="S53" s="4"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T53" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>321</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
         <v>114</v>
       </c>
-      <c r="D54" t="s">
-        <v>180</v>
-      </c>
-      <c r="F54" t="s">
-        <v>181</v>
-      </c>
-      <c r="G54" t="s">
-        <v>82</v>
-      </c>
-      <c r="H54">
-        <v>67579</v>
-      </c>
-      <c r="I54" t="s">
-        <v>182</v>
-      </c>
-      <c r="J54" t="s">
-        <v>183</v>
-      </c>
       <c r="K54">
-        <v>60</v>
+        <v>740</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>329</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="2">
-        <v>38.266167000000003</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>-98.200824999999995</v>
-      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U54" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V54" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA54" t="s">
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>179</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>395</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF54" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG54" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>184</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F55" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
         <v>82</v>
       </c>
       <c r="H55">
-        <v>67476</v>
+        <v>67579</v>
       </c>
       <c r="I55" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J55" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="K55">
-        <v>760</v>
+        <v>60</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="N55" s="1"/>
+        <v>683</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="O55" s="1"/>
       <c r="P55" s="2">
-        <v>38.551245999999999</v>
+        <v>38.266167000000003</v>
       </c>
       <c r="Q55" s="2">
-        <v>-97.429237000000001</v>
+        <v>-98.200824999999995</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="4"/>
       <c r="T55" s="1" t="s">
-        <v>754</v>
+        <v>688</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>688</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+        <v>753</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>396</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G56" t="s">
         <v>82</v>
       </c>
       <c r="H56">
-        <v>67401</v>
+        <v>67476</v>
+      </c>
+      <c r="I56" t="s">
+        <v>186</v>
       </c>
       <c r="J56" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="N56" s="1"/>
       <c r="O56" s="1"/>
       <c r="P56" s="2">
-        <v>38.855463999999998</v>
+        <v>38.551245999999999</v>
       </c>
       <c r="Q56" s="2">
-        <v>-97.614002999999997</v>
+        <v>-97.429237000000001</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="4"/>
       <c r="T56" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="U56" s="1" t="s">
-        <v>756</v>
-      </c>
       <c r="V56" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="AA56" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>187</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>398</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>262</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>30</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="G57" t="s">
         <v>82</v>
       </c>
       <c r="H57">
-        <v>67480</v>
-      </c>
-      <c r="I57" t="s">
-        <v>190</v>
+        <v>67401</v>
       </c>
       <c r="J57" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="K57">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>672</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>263</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O57" s="1"/>
       <c r="P57" s="2">
-        <v>38.917464000000002</v>
+        <v>38.855463999999998</v>
       </c>
       <c r="Q57" s="2">
-        <v>-97.374758999999997</v>
+        <v>-97.614002999999997</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="4"/>
       <c r="T57" s="1" t="s">
-        <v>757</v>
+        <v>688</v>
       </c>
       <c r="U57" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="V57" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="V57" s="1" t="s">
-        <v>758</v>
-      </c>
       <c r="AA57" t="s">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="AB57" t="s">
         <v>339</v>
       </c>
       <c r="AC57" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AE57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF57" t="s">
         <v>82</v>
       </c>
       <c r="AG57" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>82</v>
       </c>
       <c r="H58">
-        <v>67482</v>
+        <v>67480</v>
       </c>
       <c r="I58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J58" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K58">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P58" s="2">
-        <v>39.026199400000003</v>
+        <v>38.917464000000002</v>
       </c>
       <c r="Q58" s="2">
-        <v>-97.259965699999995</v>
+        <v>-97.374758999999997</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="4"/>
       <c r="T58" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>760</v>
+        <v>688</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AA58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB58" t="s">
         <v>339</v>
       </c>
       <c r="AC58" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AE58" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF58" t="s">
         <v>82</v>
       </c>
       <c r="AG58" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>309</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6923,26 +6911,78 @@
       <c r="C59" t="s">
         <v>114</v>
       </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
+      <c r="H59">
+        <v>67482</v>
+      </c>
+      <c r="I59" t="s">
+        <v>192</v>
+      </c>
+      <c r="J59" t="s">
+        <v>100</v>
+      </c>
       <c r="K59">
-        <v>18</v>
+        <v>820</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P59" s="2">
+        <v>39.026199400000003</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>-97.259965699999995</v>
+      </c>
       <c r="R59" s="2"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-    </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="T59" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="V59" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB59" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC59" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6950,78 +6990,26 @@
       <c r="C60" t="s">
         <v>114</v>
       </c>
-      <c r="D60" t="s">
-        <v>193</v>
-      </c>
-      <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60">
-        <v>67151</v>
-      </c>
-      <c r="I60" t="s">
-        <v>194</v>
-      </c>
-      <c r="J60" t="s">
-        <v>100</v>
-      </c>
       <c r="K60">
-        <v>840</v>
+        <v>18</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="P60" s="2">
-        <v>38.218391099999998</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>-97.229442399999996</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="AA60" t="s">
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>32</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>339</v>
-      </c>
-      <c r="AC60" t="s">
-        <v>404</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>265</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG60">
-        <v>67151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>33</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7030,73 +7018,77 @@
         <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>82</v>
       </c>
       <c r="H61">
-        <v>66549</v>
+        <v>67151</v>
       </c>
       <c r="I61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J61" t="s">
-        <v>770</v>
+        <v>100</v>
       </c>
       <c r="K61">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="M61" s="1"/>
+        <v>237</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>674</v>
+      </c>
       <c r="N61" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O61" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="P61" s="2">
-        <v>39.3915431</v>
+        <v>38.218391099999998</v>
       </c>
       <c r="Q61" s="2">
-        <v>-96.410154700000007</v>
+        <v>-97.229442399999996</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="4"/>
       <c r="T61" s="1" t="s">
-        <v>659</v>
+        <v>762</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>688</v>
+        <v>764</v>
       </c>
       <c r="AA61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AB61" t="s">
         <v>339</v>
       </c>
       <c r="AC61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AE61" t="s">
-        <v>406</v>
+        <v>265</v>
       </c>
       <c r="AF61" t="s">
         <v>82</v>
       </c>
-      <c r="AG61" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG61">
+        <v>67151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7105,150 +7097,152 @@
         <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F62" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>82</v>
       </c>
       <c r="H62">
-        <v>67154</v>
+        <v>66549</v>
       </c>
       <c r="I62" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J62" t="s">
-        <v>94</v>
+        <v>770</v>
       </c>
       <c r="K62">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>654</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M62" s="1"/>
       <c r="N62" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>429</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="O62" s="1"/>
       <c r="P62" s="2">
-        <v>37.962503599999998</v>
+        <v>39.3915431</v>
       </c>
       <c r="Q62" s="2">
-        <v>-97.150157199999995</v>
+        <v>-96.410154700000007</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="4"/>
       <c r="T62" s="1" t="s">
-        <v>766</v>
+        <v>659</v>
       </c>
       <c r="U62" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="V62" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="V62" s="1" t="s">
-        <v>767</v>
-      </c>
       <c r="AA62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB62" t="s">
         <v>339</v>
       </c>
       <c r="AC62" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="AE62" t="s">
-        <v>266</v>
+        <v>406</v>
       </c>
       <c r="AF62" t="s">
         <v>82</v>
       </c>
-      <c r="AG62">
-        <v>67154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F63" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G63" t="s">
         <v>82</v>
       </c>
       <c r="H63">
-        <v>67201</v>
+        <v>67154</v>
       </c>
       <c r="I63" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J63" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K63">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
+        <v>239</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="P63" s="2">
-        <v>37.739190899999997</v>
+        <v>37.962503599999998</v>
       </c>
       <c r="Q63" s="2">
-        <v>-97.329066100000006</v>
+        <v>-97.150157199999995</v>
       </c>
       <c r="R63" s="2"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1" t="s">
-        <v>688</v>
+        <v>766</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>688</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AA63" t="s">
-        <v>200</v>
+        <v>34</v>
       </c>
       <c r="AB63" t="s">
         <v>339</v>
       </c>
       <c r="AC63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AE63" t="s">
-        <v>410</v>
+        <v>266</v>
       </c>
       <c r="AF63" t="s">
         <v>82</v>
       </c>
-      <c r="AG63" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AG63">
+        <v>67154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -7257,39 +7251,37 @@
         <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="G64" t="s">
         <v>82</v>
       </c>
       <c r="H64">
-        <v>67491</v>
+        <v>67201</v>
       </c>
       <c r="I64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J64" t="s">
         <v>84</v>
       </c>
       <c r="K64">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>684</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
       <c r="P64" s="2">
-        <v>38.385244999999998</v>
+        <v>37.739190899999997</v>
       </c>
       <c r="Q64" s="2">
-        <v>-97.909503999999998</v>
+        <v>-97.329066100000006</v>
       </c>
       <c r="R64" s="2"/>
       <c r="S64" s="4"/>
@@ -7300,24 +7292,99 @@
         <v>688</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AA64" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="AB64" t="s">
         <v>339</v>
       </c>
       <c r="AC64" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AE64" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AF64" t="s">
         <v>82</v>
       </c>
       <c r="AG64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>204</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
+      <c r="H65">
+        <v>67491</v>
+      </c>
+      <c r="I65" t="s">
+        <v>205</v>
+      </c>
+      <c r="J65" t="s">
+        <v>84</v>
+      </c>
+      <c r="K65">
+        <v>900</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="2">
+        <v>38.385244999999998</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>-97.909503999999998</v>
+      </c>
+      <c r="R65" s="2"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V65" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB65" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG65" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7343,21 +7410,21 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>640</v>
       </c>
@@ -7398,7 +7465,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -7427,7 +7494,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -7440,7 +7507,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7466,7 +7533,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
@@ -7495,7 +7562,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -7514,7 +7581,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41</v>
       </c>
@@ -7531,7 +7598,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>61</v>
       </c>
@@ -7560,7 +7627,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>71</v>
       </c>
@@ -7592,7 +7659,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
@@ -7615,7 +7682,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91</v>
       </c>
@@ -7641,7 +7708,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -7664,7 +7731,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>111</v>
       </c>
@@ -7690,7 +7757,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>121</v>
       </c>
@@ -7716,7 +7783,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>131</v>
       </c>
@@ -7745,7 +7812,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>141</v>
       </c>
@@ -7768,7 +7835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>151</v>
       </c>
@@ -7794,7 +7861,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>161</v>
       </c>
@@ -7817,7 +7884,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>171</v>
       </c>
@@ -7843,7 +7910,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>181</v>
       </c>
@@ -7863,7 +7930,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>182</v>
       </c>
@@ -7881,7 +7948,7 @@
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>183</v>
       </c>
@@ -7907,7 +7974,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>185</v>
       </c>
@@ -7924,7 +7991,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>187</v>
       </c>
@@ -7947,7 +8014,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>188</v>
       </c>
@@ -7964,7 +8031,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>190</v>
       </c>
@@ -7982,7 +8049,7 @@
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>191</v>
       </c>
@@ -8008,7 +8075,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>192</v>
       </c>
@@ -8037,7 +8104,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>193</v>
       </c>
@@ -8063,7 +8130,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>194</v>
       </c>
@@ -8089,7 +8156,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>195</v>
       </c>
@@ -8115,7 +8182,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>196</v>
       </c>
@@ -8141,7 +8208,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>197</v>
       </c>
@@ -8159,7 +8226,7 @@
       <c r="H33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>198</v>
       </c>
@@ -8182,7 +8249,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>199</v>
       </c>
@@ -8200,7 +8267,7 @@
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>201</v>
       </c>
@@ -8211,7 +8278,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>205</v>
       </c>
@@ -8234,7 +8301,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>212</v>
       </c>
@@ -8263,7 +8330,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>215</v>
       </c>
@@ -8282,7 +8349,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>222</v>
       </c>
@@ -8308,7 +8375,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>242</v>
       </c>
@@ -8334,7 +8401,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>245</v>
       </c>
@@ -8352,7 +8419,7 @@
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>252</v>
       </c>
@@ -8378,7 +8445,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>262</v>
       </c>
@@ -8404,7 +8471,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>272</v>
       </c>
@@ -8430,7 +8497,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>282</v>
       </c>
@@ -8448,7 +8515,7 @@
       <c r="H46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>291</v>
       </c>
@@ -8466,7 +8533,7 @@
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>292</v>
       </c>
@@ -8492,7 +8559,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>293</v>
       </c>
@@ -8515,7 +8582,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>294</v>
       </c>
@@ -8538,7 +8605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>295</v>
       </c>
@@ -8561,7 +8628,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>296</v>
       </c>
@@ -8578,7 +8645,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>311</v>
       </c>
@@ -8610,7 +8677,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>315</v>
       </c>
@@ -8630,7 +8697,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>331</v>
       </c>
@@ -8656,7 +8723,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>341</v>
       </c>
@@ -8682,7 +8749,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>351</v>
       </c>
@@ -8708,7 +8775,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>361</v>
       </c>
@@ -8729,7 +8796,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>432</v>
       </c>
@@ -8746,7 +8813,7 @@
       <c r="G59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>433</v>
       </c>
@@ -8772,7 +8839,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>442</v>
       </c>
@@ -8798,7 +8865,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>443</v>
       </c>
@@ -8824,7 +8891,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>445</v>
       </c>
@@ -8842,7 +8909,7 @@
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>447</v>
       </c>
@@ -8865,7 +8932,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>510</v>
       </c>
@@ -8891,7 +8958,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>520</v>
       </c>
@@ -8917,7 +8984,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>530</v>
       </c>
@@ -8943,7 +9010,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>540</v>
       </c>
@@ -8969,7 +9036,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>541</v>
       </c>
@@ -8992,7 +9059,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>542</v>
       </c>
@@ -9018,7 +9085,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>543</v>
       </c>
@@ -9044,7 +9111,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>544</v>
       </c>
@@ -9070,7 +9137,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>545</v>
       </c>
@@ -9093,7 +9160,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>546</v>
       </c>
@@ -9119,7 +9186,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>547</v>
       </c>
@@ -9145,7 +9212,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>548</v>
       </c>
@@ -9171,7 +9238,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>549</v>
       </c>
@@ -9194,7 +9261,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>550</v>
       </c>
@@ -9217,7 +9284,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>551</v>
       </c>
@@ -9243,7 +9310,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>560</v>
       </c>
@@ -9261,7 +9328,7 @@
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>561</v>
       </c>
@@ -9284,7 +9351,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>570</v>
       </c>
@@ -9301,7 +9368,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>571</v>
       </c>
@@ -9316,7 +9383,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>630</v>
       </c>
@@ -9339,7 +9406,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>632</v>
       </c>
@@ -9362,7 +9429,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>634</v>
       </c>
@@ -9382,7 +9449,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>636</v>
       </c>
@@ -9405,7 +9472,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>642</v>
       </c>
@@ -9428,7 +9495,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>644</v>
       </c>
@@ -9451,7 +9518,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>646</v>
       </c>
@@ -9474,7 +9541,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>650</v>
       </c>
@@ -9497,7 +9564,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>940</v>
       </c>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="822">
   <si>
     <t>Abilene</t>
   </si>
@@ -2483,9 +2483,6 @@
   </si>
   <si>
     <t>Manhattan Bulk Fuel</t>
-  </si>
-  <si>
-    <t>3384 Excel Rd</t>
   </si>
   <si>
     <t>Bulk fuel and oil</t>
@@ -3178,7 +3175,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B26" t="s">
         <v>58</v>
@@ -5495,7 +5492,7 @@
         <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>819</v>
+        <v>151</v>
       </c>
       <c r="F35" t="s">
         <v>23</v>
@@ -5506,8 +5503,11 @@
       <c r="H35">
         <v>66502</v>
       </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
       <c r="J35" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="K35">
         <v>34</v>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="2"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="830">
   <si>
     <t>Abilene</t>
   </si>
@@ -2492,6 +2492,30 @@
   </si>
   <si>
     <t>Manhattan Builk Fuel</t>
+  </si>
+  <si>
+    <t>DEERFIELD</t>
+  </si>
+  <si>
+    <t>SUMNER CO TERMINAL</t>
+  </si>
+  <si>
+    <t>Deerfield</t>
+  </si>
+  <si>
+    <t>201 S. Walnut</t>
+  </si>
+  <si>
+    <t>(417) 966-7303</t>
+  </si>
+  <si>
+    <t>(417) 966-7302</t>
+  </si>
+  <si>
+    <t>Sumner Co. Terminal</t>
+  </si>
+  <si>
+    <t>1063 W. 10th Ave.</t>
   </si>
 </sst>
 </file>
@@ -2638,8 +2662,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M92" totalsRowShown="0">
-  <autoFilter ref="A1:M92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M94" totalsRowShown="0">
+  <autoFilter ref="A1:M94"/>
   <sortState ref="A2:M92">
     <sortCondition ref="A2:A92"/>
   </sortState>
@@ -2966,14 +2990,14 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -2981,7 +3005,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2989,7 +3013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2997,7 +3021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3005,7 +3029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3013,7 +3037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3021,7 +3045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3029,7 +3053,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3037,7 +3061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3045,7 +3069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3053,7 +3077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3061,7 +3085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3069,7 +3093,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3077,7 +3101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3085,7 +3109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3093,7 +3117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3101,7 +3125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3109,7 +3133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3117,7 +3141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3125,7 +3149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3133,7 +3157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3141,7 +3165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3149,7 +3173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3157,7 +3181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3165,7 +3189,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +3197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>821</v>
       </c>
@@ -3181,7 +3205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>150</v>
       </c>
@@ -3189,7 +3213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3197,7 +3221,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3205,17 +3229,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3223,7 +3247,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3231,7 +3255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -3239,7 +3263,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -3247,7 +3271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -3255,7 +3279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -3263,7 +3287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3271,7 +3295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>314</v>
       </c>
@@ -3279,7 +3303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -3287,7 +3311,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -3295,7 +3319,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>187</v>
       </c>
@@ -3303,7 +3327,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -3311,7 +3335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -3319,7 +3343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -3327,7 +3351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -3335,7 +3359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -3343,7 +3367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -3351,7 +3375,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3374,36 +3398,36 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="40.28515625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="15" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="15" width="14.5546875" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -3474,7 +3498,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3553,7 +3577,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3614,7 +3638,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3689,7 +3713,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3768,7 +3792,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3847,7 +3871,7 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3904,7 +3928,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3983,7 +4007,7 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -4018,7 +4042,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4097,7 +4121,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -4166,7 +4190,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4245,7 +4269,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -4274,7 +4298,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>281</v>
       </c>
@@ -4317,7 +4341,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -4388,7 +4412,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4465,7 +4489,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -4496,7 +4520,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4553,7 +4577,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4632,7 +4656,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4693,7 +4717,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4754,7 +4778,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4833,7 +4857,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4912,7 +4936,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -4943,7 +4967,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -5018,7 +5042,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -5069,7 +5093,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>316</v>
       </c>
@@ -5100,7 +5124,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -5129,7 +5153,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -5204,7 +5228,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -5283,7 +5307,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5344,7 +5368,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -5377,7 +5401,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -5406,7 +5430,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5481,7 +5505,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>818</v>
       </c>
@@ -5528,7 +5552,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -5607,7 +5631,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -5686,7 +5710,7 @@
         <v>67464</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>336</v>
       </c>
@@ -5719,7 +5743,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -5770,7 +5794,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -5830,7 +5854,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -5890,7 +5914,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>287</v>
       </c>
@@ -5919,7 +5943,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -5996,7 +6020,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -6062,7 +6086,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -6144,7 +6168,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -6202,7 +6226,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -6231,7 +6255,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -6304,7 +6328,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>286</v>
       </c>
@@ -6339,7 +6363,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -6418,7 +6442,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -6497,7 +6521,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>319</v>
       </c>
@@ -6530,7 +6554,7 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -6589,7 +6613,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>321</v>
       </c>
@@ -6616,7 +6640,7 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -6693,7 +6717,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -6750,7 +6774,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>187</v>
       </c>
@@ -6822,7 +6846,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -6901,7 +6925,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -6980,7 +7004,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>309</v>
       </c>
@@ -7007,7 +7031,7 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -7086,7 +7110,7 @@
         <v>67151</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -7161,7 +7185,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -7240,7 +7264,7 @@
         <v>67154</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -7313,7 +7337,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -7403,28 +7427,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>640</v>
       </c>
@@ -7465,7 +7489,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -7494,7 +7518,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13</v>
       </c>
@@ -7507,7 +7531,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7533,7 +7557,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>31</v>
       </c>
@@ -7562,7 +7586,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>32</v>
       </c>
@@ -7581,7 +7605,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>41</v>
       </c>
@@ -7598,7 +7622,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>61</v>
       </c>
@@ -7627,7 +7651,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>71</v>
       </c>
@@ -7659,7 +7683,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>81</v>
       </c>
@@ -7682,7 +7706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>91</v>
       </c>
@@ -7708,7 +7732,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>101</v>
       </c>
@@ -7731,7 +7755,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>111</v>
       </c>
@@ -7757,7 +7781,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>121</v>
       </c>
@@ -7783,7 +7807,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>131</v>
       </c>
@@ -7812,7 +7836,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>141</v>
       </c>
@@ -7835,7 +7859,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>151</v>
       </c>
@@ -7861,7 +7885,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>161</v>
       </c>
@@ -7884,7 +7908,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>171</v>
       </c>
@@ -7910,7 +7934,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>181</v>
       </c>
@@ -7930,7 +7954,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>182</v>
       </c>
@@ -7948,7 +7972,7 @@
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>183</v>
       </c>
@@ -7974,7 +7998,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>185</v>
       </c>
@@ -7991,7 +8015,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>187</v>
       </c>
@@ -8014,7 +8038,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>188</v>
       </c>
@@ -8031,7 +8055,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>190</v>
       </c>
@@ -8049,7 +8073,7 @@
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>191</v>
       </c>
@@ -8075,7 +8099,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>192</v>
       </c>
@@ -8104,7 +8128,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>193</v>
       </c>
@@ -8130,7 +8154,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>194</v>
       </c>
@@ -8156,7 +8180,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>195</v>
       </c>
@@ -8182,7 +8206,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>196</v>
       </c>
@@ -8208,7 +8232,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>197</v>
       </c>
@@ -8226,7 +8250,7 @@
       <c r="H33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>198</v>
       </c>
@@ -8249,7 +8273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>199</v>
       </c>
@@ -8267,7 +8291,7 @@
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>201</v>
       </c>
@@ -8278,7 +8302,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>205</v>
       </c>
@@ -8301,7 +8325,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>212</v>
       </c>
@@ -8330,7 +8354,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>215</v>
       </c>
@@ -8349,7 +8373,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>222</v>
       </c>
@@ -8375,7 +8399,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>242</v>
       </c>
@@ -8401,7 +8425,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>245</v>
       </c>
@@ -8419,7 +8443,7 @@
       <c r="H42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>252</v>
       </c>
@@ -8445,7 +8469,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>262</v>
       </c>
@@ -8471,7 +8495,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>272</v>
       </c>
@@ -8497,7 +8521,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>282</v>
       </c>
@@ -8515,7 +8539,7 @@
       <c r="H46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>291</v>
       </c>
@@ -8533,7 +8557,7 @@
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>292</v>
       </c>
@@ -8559,7 +8583,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>293</v>
       </c>
@@ -8582,7 +8606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>294</v>
       </c>
@@ -8605,7 +8629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>295</v>
       </c>
@@ -8628,7 +8652,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>296</v>
       </c>
@@ -8645,7 +8669,7 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>311</v>
       </c>
@@ -8677,7 +8701,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>315</v>
       </c>
@@ -8697,7 +8721,7 @@
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>331</v>
       </c>
@@ -8723,7 +8747,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>341</v>
       </c>
@@ -8749,7 +8773,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>351</v>
       </c>
@@ -8775,7 +8799,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>361</v>
       </c>
@@ -8796,7 +8820,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>432</v>
       </c>
@@ -8813,7 +8837,7 @@
       <c r="G59" s="3"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>433</v>
       </c>
@@ -8839,7 +8863,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>442</v>
       </c>
@@ -8865,7 +8889,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>443</v>
       </c>
@@ -8891,7 +8915,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>445</v>
       </c>
@@ -8909,7 +8933,7 @@
       <c r="H63" s="3"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>447</v>
       </c>
@@ -8932,7 +8956,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>510</v>
       </c>
@@ -8958,7 +8982,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>520</v>
       </c>
@@ -8984,7 +9008,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>530</v>
       </c>
@@ -9010,7 +9034,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>540</v>
       </c>
@@ -9036,7 +9060,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>541</v>
       </c>
@@ -9059,7 +9083,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>542</v>
       </c>
@@ -9085,7 +9109,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>543</v>
       </c>
@@ -9111,7 +9135,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>544</v>
       </c>
@@ -9137,7 +9161,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>545</v>
       </c>
@@ -9160,7 +9184,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>546</v>
       </c>
@@ -9186,7 +9210,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>547</v>
       </c>
@@ -9212,7 +9236,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>548</v>
       </c>
@@ -9238,7 +9262,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>549</v>
       </c>
@@ -9261,7 +9285,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>550</v>
       </c>
@@ -9284,7 +9308,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>551</v>
       </c>
@@ -9310,7 +9334,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>560</v>
       </c>
@@ -9328,7 +9352,7 @@
       <c r="H80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>561</v>
       </c>
@@ -9351,229 +9375,267 @@
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
+        <v>562</v>
+      </c>
+      <c r="B82" t="s">
+        <v>823</v>
+      </c>
+      <c r="D82" t="s">
+        <v>644</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="H82" s="3"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>570</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>436</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>571</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>643</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F84" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>630</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>778</v>
-      </c>
-      <c r="D84" t="s">
-        <v>786</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="H84" t="s">
-        <v>796</v>
-      </c>
-      <c r="K84" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>632</v>
-      </c>
-      <c r="B85" t="s">
-        <v>779</v>
       </c>
       <c r="D85" t="s">
         <v>786</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H85" t="s">
+        <v>796</v>
       </c>
       <c r="K85" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D86" t="s">
         <v>786</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+      <c r="K86" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B87" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D87" t="s">
         <v>786</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="K87" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B88" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D88" t="s">
         <v>786</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="K88" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B89" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D89" t="s">
         <v>786</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="K89" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B90" t="s">
-        <v>784</v>
+        <v>822</v>
       </c>
       <c r="D90" t="s">
         <v>786</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="K90" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B91" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D91" t="s">
         <v>786</v>
       </c>
       <c r="F91" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K91" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>646</v>
+      </c>
+      <c r="B92" t="s">
+        <v>784</v>
+      </c>
+      <c r="D92" t="s">
+        <v>786</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="K92" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>650</v>
+      </c>
+      <c r="B93" t="s">
+        <v>785</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>794</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>816</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K93" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>940</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>642</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="831">
   <si>
     <t>Abilene</t>
   </si>
@@ -2492,6 +2492,33 @@
   </si>
   <si>
     <t>Manhattan Builk Fuel</t>
+  </si>
+  <si>
+    <t>SUMNER COUNTY</t>
+  </si>
+  <si>
+    <t>Sumner County Terminal</t>
+  </si>
+  <si>
+    <t>1063 W 10th Ave</t>
+  </si>
+  <si>
+    <t>(620) 747-9136</t>
+  </si>
+  <si>
+    <t>DEERFIELD</t>
+  </si>
+  <si>
+    <t>Deerfield</t>
+  </si>
+  <si>
+    <t>201 S Walnut</t>
+  </si>
+  <si>
+    <t>(417) 966-7303</t>
+  </si>
+  <si>
+    <t>(417) 966-7302</t>
   </si>
 </sst>
 </file>
@@ -2638,8 +2665,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M92" totalsRowShown="0">
-  <autoFilter ref="A1:M92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M94" totalsRowShown="0">
+  <autoFilter ref="A1:M94"/>
   <sortState ref="A2:M92">
     <sortCondition ref="A2:A92"/>
   </sortState>
@@ -7403,7 +7430,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9353,227 +9380,270 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B82" t="s">
-        <v>436</v>
+        <v>822</v>
+      </c>
+      <c r="D82" t="s">
+        <v>644</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>435</v>
+        <v>823</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>434</v>
+        <v>824</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>433</v>
+        <v>825</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B83" t="s">
-        <v>643</v>
+        <v>436</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H83" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>630</v>
+        <v>571</v>
       </c>
       <c r="B84" t="s">
-        <v>778</v>
-      </c>
-      <c r="D84" t="s">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>787</v>
+        <v>432</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="H84" t="s">
-        <v>796</v>
-      </c>
-      <c r="K84" t="s">
-        <v>797</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B85" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D85" t="s">
         <v>786</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H85" t="s">
+        <v>796</v>
       </c>
       <c r="K85" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D86" t="s">
         <v>786</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
+      </c>
+      <c r="K86" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B87" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D87" t="s">
         <v>786</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="K87" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B88" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D88" t="s">
         <v>786</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="K88" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B89" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="D89" t="s">
         <v>786</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>792</v>
+        <v>827</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="K89" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B90" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D90" t="s">
         <v>786</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="K90" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B91" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D91" t="s">
         <v>786</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="K91" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>646</v>
+      </c>
+      <c r="B92" t="s">
+        <v>784</v>
+      </c>
+      <c r="D92" t="s">
+        <v>786</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="K92" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>650</v>
+      </c>
+      <c r="B93" t="s">
+        <v>785</v>
+      </c>
+      <c r="D93" t="s">
+        <v>786</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K93" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>940</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" t="s">
         <v>642</v>
       </c>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -7431,7 +7431,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="830">
   <si>
     <t>Abilene</t>
   </si>
@@ -2513,6 +2513,9 @@
   </si>
   <si>
     <t>1063 W. 10th Ave.</t>
+  </si>
+  <si>
+    <t>TALMAGE BUNKER</t>
   </si>
 </sst>
 </file>
@@ -2659,8 +2662,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M94" totalsRowShown="0">
-  <autoFilter ref="A1:M94"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M95" totalsRowShown="0">
+  <autoFilter ref="A1:M95"/>
   <sortState ref="A2:M92">
     <sortCondition ref="A2:A92"/>
   </sortState>
@@ -7424,11 +7427,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8290,264 +8293,264 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>569</v>
+        <v>829</v>
+      </c>
+      <c r="D36" t="s">
+        <v>644</v>
+      </c>
+      <c r="E36">
+        <v>645500</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
+      <c r="K36" s="3"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
-      </c>
-      <c r="D37" t="s">
-        <v>644</v>
-      </c>
-      <c r="E37">
-        <v>1620000</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>203</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B38" t="s">
-        <v>265</v>
+        <v>410</v>
       </c>
       <c r="D38" t="s">
         <v>644</v>
       </c>
       <c r="E38">
-        <v>1186200</v>
+        <v>1620000</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>567</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>566</v>
+        <v>265</v>
       </c>
       <c r="D39" t="s">
         <v>644</v>
       </c>
       <c r="E39">
-        <v>2000000</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+        <v>1186200</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>566</v>
       </c>
       <c r="D40" t="s">
         <v>644</v>
       </c>
       <c r="E40">
-        <v>683000</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>564</v>
-      </c>
+        <v>2000000</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D41" t="s">
         <v>644</v>
       </c>
       <c r="E41">
-        <v>1100000</v>
+        <v>683000</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>103</v>
+        <v>178</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B42" t="s">
-        <v>561</v>
+        <v>249</v>
       </c>
       <c r="D42" t="s">
         <v>644</v>
       </c>
       <c r="E42">
-        <v>375000</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="K42" s="3"/>
+        <v>1100000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B43" t="s">
-        <v>252</v>
+        <v>561</v>
       </c>
       <c r="D43" t="s">
         <v>644</v>
       </c>
       <c r="E43">
-        <v>235800</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>124</v>
-      </c>
+        <v>375000</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B44" t="s">
-        <v>559</v>
+        <v>252</v>
       </c>
       <c r="D44" t="s">
         <v>644</v>
       </c>
       <c r="E44">
-        <v>388800</v>
+        <v>235800</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>557</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>559</v>
       </c>
       <c r="D45" t="s">
         <v>644</v>
       </c>
       <c r="E45">
-        <v>961600</v>
+        <v>388800</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>425</v>
+        <v>266</v>
       </c>
       <c r="D46" t="s">
         <v>644</v>
       </c>
       <c r="E46">
-        <v>84600</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="K46" s="3"/>
+        <v>961600</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B47" t="s">
-        <v>554</v>
+        <v>425</v>
       </c>
       <c r="D47" t="s">
         <v>644</v>
       </c>
       <c r="E47">
-        <v>540000</v>
+        <v>84600</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -8556,290 +8559,291 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48" t="s">
-        <v>247</v>
+        <v>554</v>
       </c>
       <c r="D48" t="s">
         <v>644</v>
       </c>
       <c r="E48">
-        <v>837000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>552</v>
-      </c>
+        <v>540000</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
         <v>644</v>
       </c>
       <c r="E49">
-        <v>1140000</v>
+        <v>837000</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>151</v>
+        <v>553</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>149</v>
+        <v>96</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B50" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="D50" t="s">
         <v>644</v>
       </c>
       <c r="E50">
-        <v>675000</v>
+        <v>1140000</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>551</v>
+        <v>151</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
         <v>644</v>
       </c>
       <c r="E51">
-        <v>1267000</v>
+        <v>675000</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B52" t="s">
-        <v>549</v>
+        <v>260</v>
       </c>
       <c r="D52" t="s">
         <v>644</v>
       </c>
       <c r="E52">
-        <v>400000</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+        <v>1267000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="B53" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D53" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E53">
-        <v>1328500</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>542</v>
-      </c>
+        <v>400000</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="D54" t="s">
         <v>647</v>
       </c>
       <c r="E54">
-        <v>400000</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+        <v>1328500</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="B55" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D55" t="s">
         <v>647</v>
       </c>
       <c r="E55">
-        <v>218560</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>536</v>
-      </c>
+        <v>400000</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B56" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D56" t="s">
         <v>647</v>
       </c>
       <c r="E56">
-        <v>993000</v>
+        <v>218560</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B57" t="s">
-        <v>352</v>
+        <v>535</v>
       </c>
       <c r="D57" t="s">
         <v>647</v>
       </c>
       <c r="E57">
-        <v>550800</v>
+        <v>993000</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>9</v>
+        <v>534</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B58" t="s">
-        <v>527</v>
+        <v>352</v>
       </c>
       <c r="D58" t="s">
         <v>647</v>
       </c>
       <c r="E58">
-        <v>345600</v>
+        <v>550800</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>526</v>
+        <v>9</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="K58" s="3"/>
+        <v>530</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D59" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E59">
-        <v>2255500</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+        <v>345600</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>526</v>
+      </c>
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D60" t="s">
         <v>645</v>
@@ -8847,792 +8851,809 @@
       <c r="E60">
         <v>2255500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>520</v>
-      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="B61" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D61" t="s">
         <v>645</v>
       </c>
       <c r="E61">
-        <v>867600</v>
+        <v>2255500</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="D62" t="s">
         <v>645</v>
       </c>
       <c r="E62">
-        <v>1293000</v>
+        <v>867600</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B63" t="s">
-        <v>641</v>
+        <v>514</v>
       </c>
       <c r="D63" t="s">
         <v>645</v>
       </c>
       <c r="E63">
-        <v>500000</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="K63" s="3"/>
+        <v>1293000</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>510</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s">
-        <v>509</v>
+        <v>641</v>
       </c>
       <c r="D64" t="s">
         <v>645</v>
       </c>
       <c r="E64">
-        <v>900000</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>506</v>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D65" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E65">
-        <v>1175000</v>
+        <v>900000</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B66" t="s">
-        <v>354</v>
+        <v>505</v>
       </c>
       <c r="D66" t="s">
         <v>646</v>
       </c>
       <c r="E66">
-        <v>233100</v>
+        <v>1175000</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>109</v>
+        <v>504</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B67" t="s">
-        <v>497</v>
+        <v>354</v>
       </c>
       <c r="D67" t="s">
         <v>646</v>
       </c>
       <c r="E67">
-        <v>326700</v>
+        <v>233100</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>496</v>
+        <v>109</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="B68" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D68" t="s">
         <v>646</v>
       </c>
       <c r="E68">
-        <v>376200</v>
+        <v>326700</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B69" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="D69" t="s">
         <v>646</v>
       </c>
       <c r="E69">
-        <v>1053000</v>
+        <v>376200</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>484</v>
+        <v>489</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B70" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D70" t="s">
         <v>646</v>
       </c>
       <c r="E70">
-        <v>1040400</v>
+        <v>1053000</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B71" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D71" t="s">
         <v>646</v>
       </c>
       <c r="E71">
-        <v>1356000</v>
+        <v>1040400</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B72" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
         <v>646</v>
       </c>
       <c r="E72">
-        <v>839000</v>
+        <v>1356000</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B73" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D73" t="s">
         <v>646</v>
       </c>
       <c r="E73">
-        <v>529000</v>
+        <v>839000</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>465</v>
+        <v>470</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B74" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D74" t="s">
         <v>646</v>
       </c>
       <c r="E74">
-        <v>428000</v>
+        <v>529000</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="K74" s="3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B75" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D75" t="s">
         <v>646</v>
       </c>
       <c r="E75">
-        <v>561000</v>
+        <v>428000</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B76" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D76" t="s">
         <v>646</v>
       </c>
       <c r="E76">
-        <v>460000</v>
+        <v>561000</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B77" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="D77" t="s">
         <v>646</v>
       </c>
       <c r="E77">
-        <v>229000</v>
+        <v>460000</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B78" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D78" t="s">
         <v>646</v>
       </c>
       <c r="E78">
-        <v>312000</v>
+        <v>229000</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B79" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="D79" t="s">
         <v>646</v>
       </c>
       <c r="E79">
-        <v>1400000</v>
+        <v>312000</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>181</v>
+        <v>444</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="B80" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="D80" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E80">
-        <v>2800000</v>
-      </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="K80" s="3"/>
+        <v>1400000</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B81" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D81" t="s">
         <v>644</v>
       </c>
       <c r="E81">
-        <v>3600000</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>2800000</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B82" t="s">
-        <v>822</v>
+        <v>437</v>
       </c>
       <c r="D82" t="s">
         <v>644</v>
       </c>
+      <c r="E82">
+        <v>3600000</v>
+      </c>
       <c r="F82" s="3" t="s">
-        <v>827</v>
+        <v>105</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="H82" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B83" t="s">
-        <v>436</v>
+        <v>822</v>
+      </c>
+      <c r="D83" t="s">
+        <v>644</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>435</v>
+        <v>827</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>433</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B84" t="s">
-        <v>643</v>
+        <v>436</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H84" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>630</v>
+        <v>571</v>
       </c>
       <c r="B85" t="s">
-        <v>778</v>
-      </c>
-      <c r="D85" t="s">
-        <v>786</v>
+        <v>643</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>787</v>
+        <v>432</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="H85" t="s">
-        <v>796</v>
-      </c>
-      <c r="K85" t="s">
-        <v>797</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B86" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D86" t="s">
         <v>786</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>798</v>
+        <v>795</v>
+      </c>
+      <c r="H86" t="s">
+        <v>796</v>
       </c>
       <c r="K86" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B87" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D87" t="s">
         <v>786</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>802</v>
+        <v>798</v>
+      </c>
+      <c r="K87" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B88" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D88" t="s">
         <v>786</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="K88" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B89" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D89" t="s">
         <v>786</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="K89" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B90" t="s">
-        <v>821</v>
+        <v>782</v>
       </c>
       <c r="D90" t="s">
         <v>786</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="K90" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B91" t="s">
-        <v>783</v>
+        <v>821</v>
       </c>
       <c r="D91" t="s">
         <v>786</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="K91" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B92" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D92" t="s">
         <v>786</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="K92" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B93" t="s">
-        <v>785</v>
+        <v>784</v>
+      </c>
+      <c r="D93" t="s">
+        <v>786</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="K93" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
+        <v>650</v>
+      </c>
+      <c r="B94" t="s">
+        <v>785</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K94" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>940</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>642</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -2990,14 +2990,14 @@
       <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>818</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>150</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -3229,17 +3229,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>167</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>172</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>314</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>179</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>187</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>200</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3402,32 +3402,32 @@
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="1"/>
-    <col min="10" max="10" width="40.33203125" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
-    <col min="14" max="15" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="40.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="15" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" customWidth="1"/>
-    <col min="18" max="18" width="9.44140625" customWidth="1"/>
-    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14.5546875" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>67017</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>67522</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>288</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>67428</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -4298,7 +4298,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>281</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -4717,7 +4717,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -4967,7 +4967,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>67443</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -5093,7 +5093,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>316</v>
       </c>
@@ -5124,7 +5124,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>132</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>67456</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>312</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>818</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>67464</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>336</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -5794,7 +5794,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>155</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>287</v>
       </c>
@@ -5943,7 +5943,7 @@
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -6255,7 +6255,7 @@
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>27</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>286</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>319</v>
       </c>
@@ -6554,7 +6554,7 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>314</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>321</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>179</v>
       </c>
@@ -6717,7 +6717,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>187</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>309</v>
       </c>
@@ -7031,7 +7031,7 @@
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>32</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>67151</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>67154</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>200</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -7430,25 +7430,25 @@
   <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>640</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -7531,7 +7531,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>31</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>32</v>
       </c>
@@ -7605,7 +7605,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>41</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>61</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>71</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>81</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>91</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -7755,7 +7755,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>111</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>121</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>131</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>141</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>151</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>161</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>171</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>181</v>
       </c>
@@ -7954,7 +7954,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>182</v>
       </c>
@@ -7972,7 +7972,7 @@
       <c r="H21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>183</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>185</v>
       </c>
@@ -8015,7 +8015,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>187</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>188</v>
       </c>
@@ -8055,7 +8055,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>190</v>
       </c>
@@ -8073,7 +8073,7 @@
       <c r="H26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>191</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>192</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>193</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>194</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>195</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>196</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>197</v>
       </c>
@@ -8250,7 +8250,7 @@
       <c r="H33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>198</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>199</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="H35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>200</v>
       </c>
@@ -8309,7 +8309,7 @@
       <c r="H36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>201</v>
       </c>
@@ -8320,7 +8320,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>205</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>212</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>215</v>
       </c>
@@ -8391,7 +8391,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>222</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>242</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>245</v>
       </c>
@@ -8461,7 +8461,7 @@
       <c r="H43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>252</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>262</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>272</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>282</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="H47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>291</v>
       </c>
@@ -8575,7 +8575,7 @@
       <c r="H48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>292</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>293</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>294</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>295</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>296</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>311</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>315</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>331</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>341</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>351</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>361</v>
       </c>
@@ -8838,7 +8838,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>432</v>
       </c>
@@ -8855,7 +8855,7 @@
       <c r="G60" s="3"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>433</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>442</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>443</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>445</v>
       </c>
@@ -8951,7 +8951,7 @@
       <c r="H64" s="3"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>447</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>510</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>520</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>530</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>540</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>541</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>542</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>543</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>544</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>545</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>546</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>547</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>548</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>549</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>550</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>551</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>560</v>
       </c>
@@ -9370,7 +9370,7 @@
       <c r="H81" s="3"/>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>561</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>562</v>
       </c>
@@ -9403,6 +9403,9 @@
       <c r="D83" t="s">
         <v>644</v>
       </c>
+      <c r="E83">
+        <v>6750000</v>
+      </c>
       <c r="F83" s="3" t="s">
         <v>827</v>
       </c>
@@ -9411,7 +9414,7 @@
       </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>570</v>
       </c>
@@ -9428,7 +9431,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>571</v>
       </c>
@@ -9443,7 +9446,7 @@
       </c>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>630</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>632</v>
       </c>
@@ -9489,7 +9492,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>634</v>
       </c>
@@ -9509,7 +9512,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>636</v>
       </c>
@@ -9532,7 +9535,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>642</v>
       </c>
@@ -9555,7 +9558,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>640</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>644</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>646</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>650</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>940</v>
       </c>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
@@ -9456,6 +9456,9 @@
       <c r="D86" t="s">
         <v>786</v>
       </c>
+      <c r="E86">
+        <v>457000</v>
+      </c>
       <c r="F86" s="3" t="s">
         <v>787</v>
       </c>
@@ -9479,6 +9482,9 @@
       <c r="D87" t="s">
         <v>786</v>
       </c>
+      <c r="E87">
+        <v>140310</v>
+      </c>
       <c r="F87" s="3" t="s">
         <v>788</v>
       </c>
@@ -9502,6 +9508,9 @@
       <c r="D88" t="s">
         <v>786</v>
       </c>
+      <c r="E88">
+        <v>249000</v>
+      </c>
       <c r="F88" s="3" t="s">
         <v>789</v>
       </c>
@@ -9522,6 +9531,9 @@
       <c r="D89" t="s">
         <v>786</v>
       </c>
+      <c r="E89">
+        <v>130000</v>
+      </c>
       <c r="F89" s="3" t="s">
         <v>790</v>
       </c>
@@ -9545,6 +9557,9 @@
       <c r="D90" t="s">
         <v>786</v>
       </c>
+      <c r="E90">
+        <v>247500</v>
+      </c>
       <c r="F90" s="3" t="s">
         <v>791</v>
       </c>
@@ -9568,6 +9583,9 @@
       <c r="D91" t="s">
         <v>786</v>
       </c>
+      <c r="E91">
+        <v>165600</v>
+      </c>
       <c r="F91" s="3" t="s">
         <v>823</v>
       </c>
@@ -9591,6 +9609,9 @@
       <c r="D92" t="s">
         <v>786</v>
       </c>
+      <c r="E92">
+        <v>81000</v>
+      </c>
       <c r="F92" s="3" t="s">
         <v>792</v>
       </c>
@@ -9613,6 +9634,9 @@
       </c>
       <c r="D93" t="s">
         <v>786</v>
+      </c>
+      <c r="E93">
+        <v>302000</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>793</v>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DASHBOARDPROD1\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8CCB16-B8AB-462A-B408-DC6CC10FCA80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="871">
   <si>
     <t>Abilene</t>
   </si>
@@ -2491,6 +2492,9 @@
     <t>MHBULK</t>
   </si>
   <si>
+    <t>Manhattan Builk Fuel</t>
+  </si>
+  <si>
     <t>DEERFIELD</t>
   </si>
   <si>
@@ -2516,12 +2520,132 @@
   </si>
   <si>
     <t>TALMAGE BUNKER</t>
+  </si>
+  <si>
+    <t>PLAINS</t>
+  </si>
+  <si>
+    <t>PLAINS BUNKER</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>HOBART BUNKER</t>
+  </si>
+  <si>
+    <t>KISMET</t>
+  </si>
+  <si>
+    <t>KISMET BUNKER</t>
+  </si>
+  <si>
+    <t>LIBERAL</t>
+  </si>
+  <si>
+    <t>KSF</t>
+  </si>
+  <si>
+    <t>WILD HORSE</t>
+  </si>
+  <si>
+    <t>Plains</t>
+  </si>
+  <si>
+    <t>Plains Bunker</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Hobart Bunker</t>
+  </si>
+  <si>
+    <t>Kismet</t>
+  </si>
+  <si>
+    <t>Kismet Bunker</t>
+  </si>
+  <si>
+    <t>Liberal</t>
+  </si>
+  <si>
+    <t>Wild Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plains                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kismet                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobart                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberal                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildhorse                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 Grand Ave                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">303 Delaware                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13160 8 RD                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">215 E 4th                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobart                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberal                            </t>
+  </si>
+  <si>
+    <t>(620) 563-7269</t>
+  </si>
+  <si>
+    <t>(620) 563-7266</t>
+  </si>
+  <si>
+    <t>(620) 563-9261</t>
+  </si>
+  <si>
+    <t>(620) 626-4539</t>
+  </si>
+  <si>
+    <t>Grain, Agronomy, 24 hr fuel</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>WILDHORSE</t>
+  </si>
+  <si>
+    <t>logo.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2620,67 +2744,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B49" totalsRowShown="0">
-  <autoFilter ref="A1:B49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B54" totalsRowShown="0">
+  <autoFilter ref="A1:B54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B54">
+    <sortCondition ref="A2:A54"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Location"/>
-    <tableColumn id="2" name="Image"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Location"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblLocation" displayName="tblLocation" ref="A1:V65" totalsRowShown="0">
-  <autoFilter ref="A1:V65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblLocation" displayName="tblLocation" ref="A1:V70" totalsRowShown="0">
+  <autoFilter ref="A1:V70" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V70">
+    <sortCondition ref="A2:A70"/>
+  </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="Location"/>
-    <tableColumn id="23" name="Active"/>
-    <tableColumn id="2" name="Seasonal"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="4" name="Address 2"/>
-    <tableColumn id="5" name="City"/>
-    <tableColumn id="6" name="State"/>
-    <tableColumn id="7" name="Zip"/>
-    <tableColumn id="8" name="Phone"/>
-    <tableColumn id="9" name="Services"/>
-    <tableColumn id="10" name="LocationCode"/>
-    <tableColumn id="11" name="LocGLStr" dataDxfId="13"/>
-    <tableColumn id="20" name="TMA_BRANCH_NUMBER" dataDxfId="12"/>
-    <tableColumn id="15" name="LOCNCODE" dataDxfId="11"/>
-    <tableColumn id="19" name="AgLocationCode" dataDxfId="10"/>
-    <tableColumn id="12" name="Latitude" dataDxfId="9"/>
-    <tableColumn id="13" name="Longitude" dataDxfId="8"/>
-    <tableColumn id="14" name="Region" dataDxfId="7"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="6"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="5"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="4"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Location"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Active"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Seasonal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Address"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Address 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="City"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="State"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Zip"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Phone"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Services"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="LocationCode"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="LocGLStr" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="TMA_BRANCH_NUMBER" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="LOCNCODE" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="AgLocationCode" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Latitude" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Longitude" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Region" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="CapacityAppl" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="CapacityFert" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="CapacityFuel" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="CapacityGrain" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M95" totalsRowShown="0">
-  <autoFilter ref="A1:M95"/>
-  <sortState ref="A2:M92">
-    <sortCondition ref="A2:A92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M104" totalsRowShown="0">
+  <autoFilter ref="A1:M104" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M104">
+    <sortCondition ref="A2:A104"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="BRANCH_NUMBER"/>
-    <tableColumn id="2" name="BRANCH_NAME"/>
-    <tableColumn id="3" name="TYPE"/>
-    <tableColumn id="4" name="REGION"/>
-    <tableColumn id="5" name="CAPACITY"/>
-    <tableColumn id="6" name="DisplayName" dataDxfId="2"/>
-    <tableColumn id="7" name="Address" dataDxfId="1"/>
-    <tableColumn id="8" name="Phone1" dataDxfId="0"/>
-    <tableColumn id="9" name="Phone2"/>
-    <tableColumn id="10" name="Phone3"/>
-    <tableColumn id="11" name="Fax"/>
-    <tableColumn id="12" name="Latitude"/>
-    <tableColumn id="13" name="Longitude"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BRANCH_NUMBER"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="BRANCH_NAME"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="REGION"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CAPACITY"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="DisplayName" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Address" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Phone1" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phone2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Phone3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Fax"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Latitude"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Longitude"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2982,12 +3112,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,18 +3201,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,219 +3297,259 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>870</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>849</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>851</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>818</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>821</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>774</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>775</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>776</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>848</v>
       </c>
       <c r="B42" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>775</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>777</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>852</v>
+      </c>
+      <c r="B53" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3392,15 +3562,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG65"/>
+  <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3643,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>115</v>
@@ -4346,7 +4514,7 @@
         <v>112</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>115</v>
@@ -4494,7 +4662,7 @@
         <v>282</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -5095,7 +5263,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>850</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5103,21 +5271,45 @@
       <c r="C27" t="s">
         <v>114</v>
       </c>
+      <c r="D27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F27" t="s">
+        <v>857</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27">
+        <v>67869</v>
+      </c>
+      <c r="I27" t="s">
+        <v>861</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
       <c r="K27">
-        <v>480</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M27" s="1"/>
+        <v>470</v>
+      </c>
+      <c r="L27" s="1">
+        <v>470</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>866</v>
+      </c>
       <c r="N27" s="1" t="s">
-        <v>334</v>
+        <v>833</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="P27" s="2">
+        <v>37.289982999999999</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>-100.526184</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="4"/>
       <c r="T27" s="1"/>
@@ -5126,24 +5318,26 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>114</v>
       </c>
       <c r="K28">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="O28" s="1" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -5155,60 +5349,32 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29">
-        <v>67546</v>
-      </c>
-      <c r="I29" t="s">
-        <v>142</v>
-      </c>
-      <c r="J29" t="s">
-        <v>143</v>
-      </c>
       <c r="K29">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="2">
-        <v>38.232165999999999</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>-97.774975999999995</v>
-      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="AA29" t="s">
         <v>19</v>
       </c>
@@ -5230,7 +5396,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5239,54 +5405,50 @@
         <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
         <v>82</v>
       </c>
       <c r="H30">
-        <v>67456</v>
+        <v>67546</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="K30">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>667</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>422</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O30" s="1"/>
       <c r="P30" s="2">
-        <v>38.574119000000003</v>
+        <v>38.232165999999999</v>
       </c>
       <c r="Q30" s="2">
-        <v>-97.671643000000003</v>
+        <v>-97.774975999999995</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="4"/>
       <c r="T30" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
@@ -5309,7 +5471,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>849</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5318,59 +5480,53 @@
         <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>854</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>844</v>
       </c>
       <c r="G31" t="s">
         <v>82</v>
       </c>
       <c r="H31">
-        <v>67458</v>
+        <v>67859</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>860</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>863</v>
       </c>
       <c r="K31">
-        <v>560</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>225</v>
+        <v>530</v>
+      </c>
+      <c r="L31" s="1">
+        <v>530</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>668</v>
+        <v>865</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>258</v>
+        <v>835</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>258</v>
+        <v>835</v>
       </c>
       <c r="P31" s="2">
-        <v>39.169995700000001</v>
+        <v>37.204175999999997</v>
       </c>
       <c r="Q31" s="2">
-        <v>-97.331413400000002</v>
+        <v>-100.69949800000001</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>851</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5378,23 +5534,45 @@
       <c r="C32" t="s">
         <v>114</v>
       </c>
+      <c r="D32" t="s">
+        <v>856</v>
+      </c>
+      <c r="F32" t="s">
+        <v>858</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>67901</v>
+      </c>
+      <c r="I32" t="s">
+        <v>862</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
       <c r="K32">
-        <v>570</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>297</v>
+        <v>535</v>
+      </c>
+      <c r="L32" s="1">
+        <v>535</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>679</v>
+        <v>867</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>331</v>
+        <v>837</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+        <v>837</v>
+      </c>
+      <c r="P32" s="2">
+        <v>37.035769999999999</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>-100.92472600000001</v>
+      </c>
       <c r="R32" s="2"/>
       <c r="S32" s="4"/>
       <c r="T32" s="1"/>
@@ -5403,7 +5581,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5411,28 +5589,60 @@
       <c r="C33" t="s">
         <v>114</v>
       </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33">
+        <v>67456</v>
+      </c>
+      <c r="I33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
       <c r="K33">
-        <v>40</v>
+        <v>540</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="M33" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="N33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P33" s="2">
+        <v>38.574119000000003</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>-97.671643000000003</v>
+      </c>
       <c r="R33" s="2"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="T33" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5441,50 +5651,54 @@
         <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
         <v>82</v>
       </c>
       <c r="H34">
-        <v>66502</v>
+        <v>67458</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="K34">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M34" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="N34" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O34" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="P34" s="2">
-        <v>39.1816095</v>
+        <v>39.169995700000001</v>
       </c>
       <c r="Q34" s="2">
-        <v>-96.557330500000006</v>
+        <v>-97.331413400000002</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="4"/>
       <c r="T34" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="V34" s="1" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
@@ -5507,7 +5721,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>818</v>
+        <v>284</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5515,35 +5729,21 @@
       <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35">
-        <v>66502</v>
-      </c>
-      <c r="I35" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" t="s">
-        <v>819</v>
-      </c>
       <c r="K35">
-        <v>34</v>
+        <v>570</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M35" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="N35" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="O35" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5554,7 +5754,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5562,56 +5762,24 @@
       <c r="C36" t="s">
         <v>114</v>
       </c>
-      <c r="D36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36">
-        <v>66502</v>
-      </c>
-      <c r="I36" t="s">
-        <v>149</v>
-      </c>
-      <c r="J36" t="s">
-        <v>100</v>
-      </c>
       <c r="K36">
-        <v>575</v>
+        <v>40</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>680</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P36" s="2">
-        <v>39.192815099999997</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>-96.505954700000004</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
       <c r="AA36" t="s">
         <v>150</v>
       </c>
@@ -5633,63 +5801,59 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
         <v>82</v>
       </c>
       <c r="H37">
-        <v>67464</v>
+        <v>66502</v>
       </c>
       <c r="I37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="K37">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O37" s="1"/>
       <c r="P37" s="2">
-        <v>38.557795300000002</v>
+        <v>39.1816095</v>
       </c>
       <c r="Q37" s="2">
-        <v>-97.834316099999995</v>
+        <v>-96.557330500000006</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="4"/>
       <c r="T37" s="1" t="s">
-        <v>226</v>
+        <v>688</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>739</v>
+        <v>688</v>
       </c>
       <c r="AA37" t="s">
         <v>24</v>
@@ -5712,7 +5876,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>818</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5720,21 +5884,35 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38">
+        <v>66502</v>
+      </c>
+      <c r="I38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" t="s">
+        <v>819</v>
+      </c>
       <c r="K38">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>669</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>425</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="O38" s="1"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -5745,7 +5923,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5754,49 +5932,59 @@
         <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
         <v>82</v>
       </c>
       <c r="H39">
-        <v>67460</v>
+        <v>66502</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="K39">
-        <v>30</v>
+        <v>575</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M39" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="N39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O39" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="P39" s="2">
-        <v>38.372259999999997</v>
+        <v>39.192815099999997</v>
       </c>
       <c r="Q39" s="2">
-        <v>-97.685670999999999</v>
+        <v>-96.505954700000004</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="T39" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5805,36 +5993,55 @@
         <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
         <v>82</v>
       </c>
       <c r="H40">
-        <v>67460</v>
+        <v>67464</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J40" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>580</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="M40" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P40" s="2">
+        <v>38.557795300000002</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>-97.834316099999995</v>
+      </c>
       <c r="R40" s="2"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>739</v>
+      </c>
       <c r="AA40" t="s">
         <v>155</v>
       </c>
@@ -5856,38 +6063,29 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
       </c>
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41">
-        <v>67460</v>
-      </c>
-      <c r="I41" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="1"/>
+      <c r="K41">
+        <v>600</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="M41" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+        <v>669</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -5916,7 +6114,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5924,19 +6122,41 @@
       <c r="C42" t="s">
         <v>114</v>
       </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42">
+        <v>67460</v>
+      </c>
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" t="s">
+        <v>163</v>
+      </c>
       <c r="K42">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="P42" s="2">
+        <v>38.372259999999997</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>-97.685670999999999</v>
+      </c>
       <c r="R42" s="2"/>
       <c r="S42" s="4"/>
       <c r="T42" s="1"/>
@@ -5945,7 +6165,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5954,7 +6174,7 @@
         <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>119</v>
@@ -5966,41 +6186,24 @@
         <v>67460</v>
       </c>
       <c r="I43" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J43" t="s">
         <v>84</v>
       </c>
-      <c r="K43">
-        <v>620</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="2">
-        <v>38.372224000000003</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>-97.668978899999999</v>
-      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>741</v>
-      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="AA43" t="s">
         <v>164</v>
       </c>
@@ -6022,7 +6225,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6031,33 +6234,27 @@
         <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
         <v>82</v>
       </c>
       <c r="H44">
-        <v>67107</v>
+        <v>67460</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
-      </c>
-      <c r="K44">
-        <v>10</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M44" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
@@ -6088,7 +6285,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6096,59 +6293,24 @@
       <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45">
-        <v>67107</v>
-      </c>
-      <c r="I45" t="s">
-        <v>169</v>
-      </c>
-      <c r="J45" t="s">
-        <v>100</v>
-      </c>
       <c r="K45">
-        <v>640</v>
+        <v>32</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>670</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="P45" s="2">
-        <v>38.202722299999998</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>-97.522767200000004</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
       <c r="AA45" t="s">
         <v>172</v>
       </c>
@@ -6170,7 +6332,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6179,34 +6341,53 @@
         <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
         <v>82</v>
       </c>
       <c r="H46">
-        <v>67107</v>
+        <v>67460</v>
       </c>
       <c r="I46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
-      </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="K46">
+        <v>620</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="O46" s="1"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+      <c r="P46" s="2">
+        <v>38.372224000000003</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>-97.668978899999999</v>
+      </c>
       <c r="R46" s="2"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="AA46" t="s">
         <v>167</v>
       </c>
@@ -6228,7 +6409,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6236,15 +6417,34 @@
       <c r="C47" t="s">
         <v>114</v>
       </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47">
+        <v>67107</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
       <c r="K47">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>681</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="2"/>
@@ -6257,57 +6457,66 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
         <v>82</v>
       </c>
       <c r="H48">
-        <v>67117</v>
+        <v>67107</v>
       </c>
       <c r="I48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J48" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K48">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="P48" s="2">
-        <v>38.065479000000003</v>
+        <v>38.202722299999998</v>
       </c>
       <c r="Q48" s="2">
-        <v>-97.345708000000002</v>
+        <v>-97.522767200000004</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="4"/>
       <c r="T48" s="1" t="s">
-        <v>688</v>
+        <v>742</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AA48" t="s">
         <v>27</v>
@@ -6330,7 +6539,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6338,91 +6547,64 @@
       <c r="C49" t="s">
         <v>114</v>
       </c>
-      <c r="K49">
-        <v>682</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49">
+        <v>67107</v>
+      </c>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1" t="s">
-        <v>337</v>
-      </c>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50">
-        <v>66521</v>
-      </c>
-      <c r="I50" t="s">
-        <v>176</v>
-      </c>
-      <c r="J50" t="s">
-        <v>100</v>
-      </c>
       <c r="K50">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="P50" s="2">
-        <v>39.480414099999997</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>-96.177394699999994</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>749</v>
-      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
       <c r="AA50" t="s">
         <v>28</v>
       </c>
@@ -6444,63 +6626,57 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
         <v>82</v>
       </c>
       <c r="H51">
-        <v>66866</v>
+        <v>67117</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K51">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
       <c r="P51" s="2">
-        <v>38.164371600000003</v>
+        <v>38.065479000000003</v>
       </c>
       <c r="Q51" s="2">
-        <v>-97.103965099999996</v>
+        <v>-97.345708000000002</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="4"/>
       <c r="T51" s="1" t="s">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>751</v>
+        <v>688</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="AA51" t="s">
         <v>29</v>
@@ -6523,7 +6699,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6532,31 +6708,33 @@
         <v>114</v>
       </c>
       <c r="K52">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>672</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>427</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="O52" s="1"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6565,139 +6743,149 @@
         <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
         <v>82</v>
       </c>
       <c r="H53">
-        <v>67546</v>
+        <v>66521</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="K53">
-        <v>50</v>
+        <v>685</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M53" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="N53" s="1" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="P53" s="2">
-        <v>38.289691599999998</v>
+        <v>39.480414099999997</v>
       </c>
       <c r="Q53" s="2">
-        <v>-97.779943399999993</v>
+        <v>-96.177394699999994</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="4"/>
       <c r="T53" s="1" t="s">
-        <v>688</v>
+        <v>747</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>688</v>
+        <v>748</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>688</v>
+        <v>749</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>114</v>
       </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54">
+        <v>66866</v>
+      </c>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
+        <v>100</v>
+      </c>
       <c r="K54">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P54" s="2">
+        <v>38.164371600000003</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>-97.103965099999996</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="T54" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="D55" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55">
-        <v>67579</v>
-      </c>
-      <c r="I55" t="s">
-        <v>182</v>
-      </c>
-      <c r="J55" t="s">
-        <v>183</v>
-      </c>
       <c r="K55">
-        <v>60</v>
+        <v>720</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="2">
-        <v>38.266167000000003</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>-98.200824999999995</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>753</v>
-      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
       <c r="AA55" t="s">
         <v>179</v>
       </c>
@@ -6719,64 +6907,62 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>848</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>853</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>840</v>
       </c>
       <c r="G56" t="s">
         <v>82</v>
       </c>
       <c r="H56">
-        <v>67476</v>
+        <v>67869</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>859</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>863</v>
       </c>
       <c r="K56">
-        <v>760</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>304</v>
+        <v>725</v>
+      </c>
+      <c r="L56" s="1">
+        <v>725</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+        <v>864</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>831</v>
+      </c>
       <c r="P56" s="2">
-        <v>38.551245999999999</v>
+        <v>37.258797000000001</v>
       </c>
       <c r="Q56" s="2">
-        <v>-97.429237000000001</v>
+        <v>-100.587281</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>755</v>
-      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6785,36 +6971,41 @@
         <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="G57" t="s">
         <v>82</v>
       </c>
       <c r="H57">
-        <v>67401</v>
+        <v>67546</v>
+      </c>
+      <c r="I57" t="s">
+        <v>133</v>
       </c>
       <c r="J57" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="K57">
-        <v>780</v>
+        <v>50</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O57" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="P57" s="2">
-        <v>38.855463999999998</v>
+        <v>38.289691599999998</v>
       </c>
       <c r="Q57" s="2">
-        <v>-97.614002999999997</v>
+        <v>-97.779943399999993</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="4"/>
@@ -6822,7 +7013,7 @@
         <v>688</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>756</v>
+        <v>688</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>688</v>
@@ -6848,64 +7039,30 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>189</v>
-      </c>
-      <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58">
-        <v>67480</v>
-      </c>
-      <c r="I58" t="s">
-        <v>190</v>
-      </c>
-      <c r="J58" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K58">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="P58" s="2">
-        <v>38.917464000000002</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>-97.374758999999997</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>758</v>
-      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
       <c r="AA58" t="s">
         <v>30</v>
       </c>
@@ -6927,7 +7084,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6936,54 +7093,52 @@
         <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="G59" t="s">
         <v>82</v>
       </c>
       <c r="H59">
-        <v>67482</v>
+        <v>67579</v>
       </c>
       <c r="I59" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="K59">
-        <v>820</v>
+        <v>60</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>264</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O59" s="1"/>
       <c r="P59" s="2">
-        <v>39.026199400000003</v>
+        <v>38.266167000000003</v>
       </c>
       <c r="Q59" s="2">
-        <v>-97.259965699999995</v>
+        <v>-98.200824999999995</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="4"/>
       <c r="T59" s="1" t="s">
-        <v>759</v>
+        <v>688</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>760</v>
+        <v>688</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="AA59" t="s">
         <v>31</v>
@@ -7006,90 +7161,113 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>309</v>
+        <v>184</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
+      </c>
+      <c r="H60">
+        <v>67476</v>
+      </c>
+      <c r="I60" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" t="s">
+        <v>84</v>
       </c>
       <c r="K60">
-        <v>18</v>
+        <v>760</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="M60" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
+      <c r="P60" s="2">
+        <v>38.551245999999999</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>-97.429237000000001</v>
+      </c>
       <c r="R60" s="2"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G61" t="s">
         <v>82</v>
       </c>
       <c r="H61">
-        <v>67151</v>
-      </c>
-      <c r="I61" t="s">
-        <v>194</v>
+        <v>67401</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="K61">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>674</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O61" s="1"/>
       <c r="P61" s="2">
-        <v>38.218391099999998</v>
+        <v>38.855463999999998</v>
       </c>
       <c r="Q61" s="2">
-        <v>-97.229442399999996</v>
+        <v>-97.614002999999997</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="4"/>
       <c r="T61" s="1" t="s">
-        <v>762</v>
+        <v>688</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>764</v>
+        <v>688</v>
       </c>
       <c r="AA61" t="s">
         <v>32</v>
@@ -7112,59 +7290,63 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>82</v>
       </c>
       <c r="H62">
-        <v>66549</v>
+        <v>67480</v>
       </c>
       <c r="I62" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J62" t="s">
-        <v>770</v>
+        <v>111</v>
       </c>
       <c r="K62">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="M62" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="N62" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O62" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="P62" s="2">
-        <v>39.3915431</v>
+        <v>38.917464000000002</v>
       </c>
       <c r="Q62" s="2">
-        <v>-96.410154700000007</v>
+        <v>-97.374758999999997</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="4"/>
       <c r="T62" s="1" t="s">
-        <v>659</v>
+        <v>757</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>765</v>
+        <v>688</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="AA62" t="s">
         <v>33</v>
@@ -7187,7 +7369,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7196,54 +7378,54 @@
         <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>82</v>
       </c>
       <c r="H63">
-        <v>67154</v>
+        <v>67482</v>
       </c>
       <c r="I63" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J63" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>429</v>
+        <v>264</v>
       </c>
       <c r="P63" s="2">
-        <v>37.962503599999998</v>
+        <v>39.026199400000003</v>
       </c>
       <c r="Q63" s="2">
-        <v>-97.150157199999995</v>
+        <v>-97.259965699999995</v>
       </c>
       <c r="R63" s="2"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>688</v>
+        <v>760</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="AA63" t="s">
         <v>34</v>
@@ -7266,58 +7448,30 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" t="s">
-        <v>202</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64">
-        <v>67201</v>
-      </c>
-      <c r="I64" t="s">
-        <v>203</v>
-      </c>
-      <c r="J64" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>880</v>
+        <v>18</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="2">
-        <v>37.739190899999997</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>-97.329066100000006</v>
-      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>768</v>
-      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
       <c r="AA64" t="s">
         <v>200</v>
       </c>
@@ -7339,59 +7493,63 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>82</v>
       </c>
       <c r="H65">
-        <v>67491</v>
+        <v>67151</v>
       </c>
       <c r="I65" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K65">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
+        <v>674</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="P65" s="2">
-        <v>38.385244999999998</v>
+        <v>38.218391099999998</v>
       </c>
       <c r="Q65" s="2">
-        <v>-97.909503999999998</v>
+        <v>-97.229442399999996</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" s="4"/>
       <c r="T65" s="1" t="s">
-        <v>688</v>
+        <v>762</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>688</v>
+        <v>763</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="AA65" t="s">
         <v>35</v>
@@ -7410,6 +7568,269 @@
       </c>
       <c r="AG65" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66">
+        <v>66549</v>
+      </c>
+      <c r="I66" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" t="s">
+        <v>770</v>
+      </c>
+      <c r="K66">
+        <v>845</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="2">
+        <v>39.3915431</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>-96.410154700000007</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" t="s">
+        <v>197</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67">
+        <v>67154</v>
+      </c>
+      <c r="I67" t="s">
+        <v>199</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67">
+        <v>860</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P67" s="2">
+        <v>37.962503599999998</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>-97.150157199999995</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68">
+        <v>67201</v>
+      </c>
+      <c r="I68" t="s">
+        <v>203</v>
+      </c>
+      <c r="J68" t="s">
+        <v>84</v>
+      </c>
+      <c r="K68">
+        <v>880</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="2">
+        <v>37.739190899999997</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>-97.329066100000006</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>852</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+      <c r="K69">
+        <v>890</v>
+      </c>
+      <c r="L69" s="1">
+        <v>890</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70">
+        <v>67491</v>
+      </c>
+      <c r="I70" t="s">
+        <v>205</v>
+      </c>
+      <c r="J70" t="s">
+        <v>84</v>
+      </c>
+      <c r="K70">
+        <v>900</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="2">
+        <v>38.385244999999998</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>-97.909503999999998</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -7423,13 +7844,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -8296,7 +8717,7 @@
         <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D36" t="s">
         <v>644</v>
@@ -8419,1268 +8840,1401 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>831</v>
       </c>
       <c r="D42" t="s">
         <v>644</v>
       </c>
-      <c r="E42">
-        <v>1100000</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>7</v>
+        <v>840</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>563</v>
+        <v>853</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>562</v>
+        <v>859</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B43" t="s">
-        <v>561</v>
+        <v>832</v>
       </c>
       <c r="D43" t="s">
         <v>644</v>
       </c>
-      <c r="E43">
-        <v>375000</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>841</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>252</v>
+        <v>833</v>
       </c>
       <c r="D44" t="s">
         <v>644</v>
       </c>
-      <c r="E44">
-        <v>235800</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>12</v>
+        <v>842</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>560</v>
+        <v>855</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>124</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s">
-        <v>559</v>
+        <v>834</v>
       </c>
       <c r="D45" t="s">
         <v>644</v>
       </c>
-      <c r="E45">
-        <v>388800</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>557</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>835</v>
       </c>
       <c r="D46" t="s">
         <v>644</v>
       </c>
-      <c r="E46">
-        <v>961600</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>34</v>
+        <v>844</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>556</v>
+        <v>854</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>555</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>836</v>
       </c>
       <c r="D47" t="s">
         <v>644</v>
       </c>
-      <c r="E47">
-        <v>84600</v>
-      </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>845</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s">
-        <v>554</v>
+        <v>837</v>
       </c>
       <c r="D48" t="s">
         <v>644</v>
       </c>
-      <c r="E48">
-        <v>540000</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>838</v>
       </c>
       <c r="D49" t="s">
         <v>644</v>
       </c>
-      <c r="E49">
-        <v>837000</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>552</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>839</v>
       </c>
       <c r="D50" t="s">
         <v>644</v>
       </c>
-      <c r="E50">
-        <v>1140000</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
         <v>644</v>
       </c>
       <c r="E51">
-        <v>675000</v>
+        <v>1100000</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>561</v>
       </c>
       <c r="D52" t="s">
         <v>644</v>
       </c>
       <c r="E52">
-        <v>1267000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>375000</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>549</v>
+        <v>252</v>
       </c>
       <c r="D53" t="s">
         <v>644</v>
       </c>
       <c r="E53">
-        <v>400000</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+        <v>235800</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="B54" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D54" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E54">
-        <v>1328500</v>
+        <v>388800</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>547</v>
+        <v>27</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="B55" t="s">
-        <v>541</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E55">
-        <v>400000</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+        <v>961600</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>540</v>
+        <v>425</v>
       </c>
       <c r="D56" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E56">
-        <v>218560</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>536</v>
-      </c>
+        <v>84600</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="D57" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E57">
-        <v>993000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>531</v>
-      </c>
+        <v>540000</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E58">
-        <v>550800</v>
+        <v>837000</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>529</v>
+        <v>96</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
-        <v>527</v>
+        <v>269</v>
       </c>
       <c r="D59" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E59">
-        <v>345600</v>
+        <v>1140000</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>526</v>
+        <v>23</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="K59" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>432</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s">
-        <v>525</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E60">
-        <v>2255500</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="K60" s="3"/>
+        <v>675000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>433</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s">
-        <v>524</v>
+        <v>260</v>
       </c>
       <c r="D61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E61">
-        <v>2255500</v>
+        <v>1267000</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>523</v>
+        <v>28</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>520</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>442</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="D62" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E62">
-        <v>867600</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>515</v>
-      </c>
+        <v>400000</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="B63" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="D63" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E63">
-        <v>1293000</v>
+        <v>1328500</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>511</v>
+        <v>545</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="B64" t="s">
-        <v>641</v>
+        <v>541</v>
       </c>
       <c r="D64" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E64">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="D65" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E65">
-        <v>900000</v>
+        <v>218560</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>506</v>
+        <v>537</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>510</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="D66" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E66">
-        <v>1175000</v>
+        <v>993000</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>520</v>
+        <v>351</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D67" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E67">
-        <v>233100</v>
+        <v>550800</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>530</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="D68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E68">
-        <v>326700</v>
+        <v>345600</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>493</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>540</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="D69" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E69">
-        <v>376200</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>488</v>
-      </c>
+        <v>2255500</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="B70" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="D70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E70">
-        <v>1053000</v>
+        <v>2255500</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>484</v>
+        <v>521</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>542</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="D71" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E71">
-        <v>1040400</v>
+        <v>867600</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>543</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="D72" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E72">
-        <v>1356000</v>
+        <v>1293000</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>544</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s">
-        <v>473</v>
+        <v>641</v>
       </c>
       <c r="D73" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E73">
-        <v>839000</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>469</v>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="B74" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="D74" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E74">
-        <v>529000</v>
+        <v>900000</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="D75" t="s">
         <v>646</v>
       </c>
       <c r="E75">
-        <v>428000</v>
+        <v>1175000</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="B76" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="D76" t="s">
         <v>646</v>
       </c>
       <c r="E76">
-        <v>561000</v>
+        <v>233100</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>458</v>
+        <v>109</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B77" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="D77" t="s">
         <v>646</v>
       </c>
       <c r="E77">
-        <v>460000</v>
+        <v>326700</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B78" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="D78" t="s">
         <v>646</v>
       </c>
       <c r="E78">
-        <v>229000</v>
+        <v>376200</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>446</v>
+        <v>489</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="D79" t="s">
         <v>646</v>
       </c>
       <c r="E79">
-        <v>312000</v>
+        <v>1053000</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B80" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="D80" t="s">
         <v>646</v>
       </c>
       <c r="E80">
-        <v>1400000</v>
+        <v>1040400</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>181</v>
+        <v>482</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="B81" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="D81" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E81">
-        <v>2800000</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="K81" s="3"/>
+        <v>1356000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D82" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E82">
-        <v>3600000</v>
+        <v>839000</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>106</v>
+        <v>471</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>107</v>
+        <v>470</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s">
-        <v>822</v>
+        <v>468</v>
       </c>
       <c r="D83" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E83">
-        <v>6750000</v>
+        <v>529000</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>827</v>
+        <v>467</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="H83" s="3"/>
+        <v>466</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s">
-        <v>436</v>
+        <v>464</v>
+      </c>
+      <c r="D84" t="s">
+        <v>646</v>
+      </c>
+      <c r="E84">
+        <v>428000</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>433</v>
+        <v>461</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s">
-        <v>643</v>
+        <v>459</v>
+      </c>
+      <c r="D85" t="s">
+        <v>646</v>
+      </c>
+      <c r="E85">
+        <v>561000</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H85" s="3"/>
+        <v>457</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>630</v>
+        <v>548</v>
       </c>
       <c r="B86" t="s">
-        <v>778</v>
+        <v>454</v>
       </c>
       <c r="D86" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
       <c r="E86">
-        <v>457000</v>
+        <v>460000</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>787</v>
+        <v>453</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="H86" t="s">
-        <v>796</v>
-      </c>
-      <c r="K86" t="s">
-        <v>797</v>
+        <v>452</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>632</v>
+        <v>549</v>
       </c>
       <c r="B87" t="s">
-        <v>779</v>
+        <v>449</v>
       </c>
       <c r="D87" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
       <c r="E87">
-        <v>140310</v>
+        <v>229000</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>788</v>
+        <v>448</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>800</v>
+        <v>447</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="K87" t="s">
-        <v>799</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>634</v>
+        <v>550</v>
       </c>
       <c r="B88" t="s">
-        <v>780</v>
+        <v>445</v>
       </c>
       <c r="D88" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
       <c r="E88">
-        <v>249000</v>
+        <v>312000</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>789</v>
+        <v>444</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>801</v>
+        <v>443</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>802</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>636</v>
+        <v>551</v>
       </c>
       <c r="B89" t="s">
-        <v>781</v>
+        <v>396</v>
       </c>
       <c r="D89" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
       <c r="E89">
-        <v>130000</v>
+        <v>1400000</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>790</v>
+        <v>181</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>803</v>
+        <v>441</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="K89" t="s">
-        <v>805</v>
+        <v>440</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>642</v>
+        <v>560</v>
       </c>
       <c r="B90" t="s">
-        <v>782</v>
+        <v>438</v>
       </c>
       <c r="D90" t="s">
-        <v>786</v>
+        <v>644</v>
       </c>
       <c r="E90">
-        <v>247500</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="K90" t="s">
-        <v>808</v>
-      </c>
+        <v>2800000</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>640</v>
+        <v>561</v>
       </c>
       <c r="B91" t="s">
-        <v>821</v>
+        <v>437</v>
       </c>
       <c r="D91" t="s">
-        <v>786</v>
+        <v>644</v>
       </c>
       <c r="E91">
-        <v>165600</v>
+        <v>3600000</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>823</v>
+        <v>105</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>824</v>
+        <v>106</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="K91" t="s">
-        <v>826</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>562</v>
+      </c>
+      <c r="B92" t="s">
+        <v>823</v>
+      </c>
+      <c r="D92" t="s">
         <v>644</v>
       </c>
-      <c r="B92" t="s">
-        <v>783</v>
-      </c>
-      <c r="D92" t="s">
-        <v>786</v>
-      </c>
-      <c r="E92">
-        <v>81000</v>
-      </c>
       <c r="F92" s="3" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="K92" t="s">
-        <v>811</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>646</v>
+        <v>570</v>
       </c>
       <c r="B93" t="s">
-        <v>784</v>
-      </c>
-      <c r="D93" t="s">
-        <v>786</v>
-      </c>
-      <c r="E93">
-        <v>302000</v>
+        <v>436</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>793</v>
+        <v>435</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>812</v>
+        <v>434</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="K93" t="s">
-        <v>814</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>650</v>
+        <v>571</v>
       </c>
       <c r="B94" t="s">
-        <v>785</v>
+        <v>643</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>794</v>
+        <v>432</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="K94" t="s">
-        <v>817</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>630</v>
+      </c>
+      <c r="B95" t="s">
+        <v>778</v>
+      </c>
+      <c r="D95" t="s">
+        <v>786</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H95" t="s">
+        <v>796</v>
+      </c>
+      <c r="K95" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>632</v>
+      </c>
+      <c r="B96" t="s">
+        <v>779</v>
+      </c>
+      <c r="D96" t="s">
+        <v>786</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K96" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>634</v>
+      </c>
+      <c r="B97" t="s">
+        <v>780</v>
+      </c>
+      <c r="D97" t="s">
+        <v>786</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>636</v>
+      </c>
+      <c r="B98" t="s">
+        <v>781</v>
+      </c>
+      <c r="D98" t="s">
+        <v>786</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="K98" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>640</v>
+      </c>
+      <c r="B99" t="s">
+        <v>822</v>
+      </c>
+      <c r="D99" t="s">
+        <v>786</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K99" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>642</v>
+      </c>
+      <c r="B100" t="s">
+        <v>782</v>
+      </c>
+      <c r="D100" t="s">
+        <v>786</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K100" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>644</v>
+      </c>
+      <c r="B101" t="s">
+        <v>783</v>
+      </c>
+      <c r="D101" t="s">
+        <v>786</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K101" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>646</v>
+      </c>
+      <c r="B102" t="s">
+        <v>784</v>
+      </c>
+      <c r="D102" t="s">
+        <v>786</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="K102" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>650</v>
+      </c>
+      <c r="B103" t="s">
+        <v>785</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K103" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>940</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B104" t="s">
         <v>642</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4843F9-0BB8-4038-82A3-E7AA89312AC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="871">
   <si>
     <t>Abilene</t>
   </si>
@@ -2491,6 +2492,9 @@
     <t>MHBULK</t>
   </si>
   <si>
+    <t>Manhattan Builk Fuel</t>
+  </si>
+  <si>
     <t>DEERFIELD</t>
   </si>
   <si>
@@ -2516,12 +2520,132 @@
   </si>
   <si>
     <t>TALMAGE BUNKER</t>
+  </si>
+  <si>
+    <t>PLAINS</t>
+  </si>
+  <si>
+    <t>PLAINS BUNKER</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>HOBART BUNKER</t>
+  </si>
+  <si>
+    <t>KISMET</t>
+  </si>
+  <si>
+    <t>KISMET BUNKER</t>
+  </si>
+  <si>
+    <t>LIBERAL</t>
+  </si>
+  <si>
+    <t>KSF</t>
+  </si>
+  <si>
+    <t>WILD HORSE</t>
+  </si>
+  <si>
+    <t>Plains</t>
+  </si>
+  <si>
+    <t>Plains Bunker</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Hobart Bunker</t>
+  </si>
+  <si>
+    <t>Kismet</t>
+  </si>
+  <si>
+    <t>Kismet Bunker</t>
+  </si>
+  <si>
+    <t>Liberal</t>
+  </si>
+  <si>
+    <t>Wild Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plains                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kismet                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobart                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberal                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildhorse                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 Grand Ave                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">303 Delaware                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13160 8 RD                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">215 E 4th                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobart                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberal                            </t>
+  </si>
+  <si>
+    <t>(620) 563-7269</t>
+  </si>
+  <si>
+    <t>(620) 563-7266</t>
+  </si>
+  <si>
+    <t>(620) 563-9261</t>
+  </si>
+  <si>
+    <t>(620) 626-4539</t>
+  </si>
+  <si>
+    <t>Grain, Agronomy, 24 hr fuel</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>WILDHORSE</t>
+  </si>
+  <si>
+    <t>logo.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2620,67 +2744,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B49" totalsRowShown="0">
-  <autoFilter ref="A1:B49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B54" totalsRowShown="0">
+  <autoFilter ref="A1:B54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:B54">
+    <sortCondition ref="A2:A54"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Location"/>
-    <tableColumn id="2" name="Image"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Location"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblLocation" displayName="tblLocation" ref="A1:V65" totalsRowShown="0">
-  <autoFilter ref="A1:V65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblLocation" displayName="tblLocation" ref="A1:V70" totalsRowShown="0">
+  <autoFilter ref="A1:V70" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A2:V70">
+    <sortCondition ref="A2:A70"/>
+  </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="Location"/>
-    <tableColumn id="23" name="Active"/>
-    <tableColumn id="2" name="Seasonal"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="4" name="Address 2"/>
-    <tableColumn id="5" name="City"/>
-    <tableColumn id="6" name="State"/>
-    <tableColumn id="7" name="Zip"/>
-    <tableColumn id="8" name="Phone"/>
-    <tableColumn id="9" name="Services"/>
-    <tableColumn id="10" name="LocationCode"/>
-    <tableColumn id="11" name="LocGLStr" dataDxfId="13"/>
-    <tableColumn id="20" name="TMA_BRANCH_NUMBER" dataDxfId="12"/>
-    <tableColumn id="15" name="LOCNCODE" dataDxfId="11"/>
-    <tableColumn id="19" name="AgLocationCode" dataDxfId="10"/>
-    <tableColumn id="12" name="Latitude" dataDxfId="9"/>
-    <tableColumn id="13" name="Longitude" dataDxfId="8"/>
-    <tableColumn id="14" name="Region" dataDxfId="7"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="6"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="5"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="4"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Location"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Active"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Seasonal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Address"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Address 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="City"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="State"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Zip"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Phone"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Services"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="LocationCode"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="LocGLStr" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="TMA_BRANCH_NUMBER" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="LOCNCODE" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="AgLocationCode" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Latitude" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Longitude" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Region" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="CapacityAppl" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="CapacityFert" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="CapacityFuel" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="CapacityGrain" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M95" totalsRowShown="0">
-  <autoFilter ref="A1:M95"/>
-  <sortState ref="A2:M92">
-    <sortCondition ref="A2:A92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M104" totalsRowShown="0">
+  <autoFilter ref="A1:M104" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState ref="A2:M104">
+    <sortCondition ref="A2:A104"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="BRANCH_NUMBER"/>
-    <tableColumn id="2" name="BRANCH_NAME"/>
-    <tableColumn id="3" name="TYPE"/>
-    <tableColumn id="4" name="REGION"/>
-    <tableColumn id="5" name="CAPACITY"/>
-    <tableColumn id="6" name="DisplayName" dataDxfId="2"/>
-    <tableColumn id="7" name="Address" dataDxfId="1"/>
-    <tableColumn id="8" name="Phone1" dataDxfId="0"/>
-    <tableColumn id="9" name="Phone2"/>
-    <tableColumn id="10" name="Phone3"/>
-    <tableColumn id="11" name="Fax"/>
-    <tableColumn id="12" name="Latitude"/>
-    <tableColumn id="13" name="Longitude"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BRANCH_NUMBER"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="BRANCH_NAME"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="REGION"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CAPACITY"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="DisplayName" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Address" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Phone1" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phone2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Phone3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Fax"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Latitude"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Longitude"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2982,12 +3112,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,18 +3201,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,219 +3297,259 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>870</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>849</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>851</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>818</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>821</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>774</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>775</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>776</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>848</v>
       </c>
       <c r="B42" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>775</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>777</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>852</v>
+      </c>
+      <c r="B53" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3392,15 +3562,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG65"/>
+  <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5095,7 +5263,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>850</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5103,21 +5271,45 @@
       <c r="C27" t="s">
         <v>114</v>
       </c>
+      <c r="D27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F27" t="s">
+        <v>857</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27">
+        <v>67869</v>
+      </c>
+      <c r="I27" t="s">
+        <v>861</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
       <c r="K27">
-        <v>480</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M27" s="1"/>
+        <v>470</v>
+      </c>
+      <c r="L27" s="1">
+        <v>470</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>866</v>
+      </c>
       <c r="N27" s="1" t="s">
-        <v>334</v>
+        <v>833</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="P27" s="2">
+        <v>37.289982999999999</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>-100.526184</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="4"/>
       <c r="T27" s="1"/>
@@ -5126,24 +5318,26 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>114</v>
       </c>
       <c r="K28">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="O28" s="1" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -5155,60 +5349,32 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29">
-        <v>67546</v>
-      </c>
-      <c r="I29" t="s">
-        <v>142</v>
-      </c>
-      <c r="J29" t="s">
-        <v>143</v>
-      </c>
       <c r="K29">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="2">
-        <v>38.232165999999999</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>-97.774975999999995</v>
-      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="AA29" t="s">
         <v>19</v>
       </c>
@@ -5230,7 +5396,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5239,54 +5405,50 @@
         <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
         <v>82</v>
       </c>
       <c r="H30">
-        <v>67456</v>
+        <v>67546</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="K30">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>667</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>422</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O30" s="1"/>
       <c r="P30" s="2">
-        <v>38.574119000000003</v>
+        <v>38.232165999999999</v>
       </c>
       <c r="Q30" s="2">
-        <v>-97.671643000000003</v>
+        <v>-97.774975999999995</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="4"/>
       <c r="T30" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
@@ -5309,7 +5471,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>849</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5318,59 +5480,53 @@
         <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>854</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>844</v>
       </c>
       <c r="G31" t="s">
         <v>82</v>
       </c>
       <c r="H31">
-        <v>67458</v>
+        <v>67859</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>860</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>863</v>
       </c>
       <c r="K31">
-        <v>560</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>225</v>
+        <v>530</v>
+      </c>
+      <c r="L31" s="1">
+        <v>530</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>668</v>
+        <v>865</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>258</v>
+        <v>835</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>258</v>
+        <v>835</v>
       </c>
       <c r="P31" s="2">
-        <v>39.169995700000001</v>
+        <v>37.204175999999997</v>
       </c>
       <c r="Q31" s="2">
-        <v>-97.331413400000002</v>
+        <v>-100.69949800000001</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>851</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5378,23 +5534,45 @@
       <c r="C32" t="s">
         <v>114</v>
       </c>
+      <c r="D32" t="s">
+        <v>856</v>
+      </c>
+      <c r="F32" t="s">
+        <v>858</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>67901</v>
+      </c>
+      <c r="I32" t="s">
+        <v>862</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
       <c r="K32">
-        <v>570</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>297</v>
+        <v>535</v>
+      </c>
+      <c r="L32" s="1">
+        <v>535</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>679</v>
+        <v>867</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>331</v>
+        <v>837</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+        <v>837</v>
+      </c>
+      <c r="P32" s="2">
+        <v>37.035769999999999</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>-100.92472600000001</v>
+      </c>
       <c r="R32" s="2"/>
       <c r="S32" s="4"/>
       <c r="T32" s="1"/>
@@ -5403,7 +5581,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5411,28 +5589,60 @@
       <c r="C33" t="s">
         <v>114</v>
       </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33">
+        <v>67456</v>
+      </c>
+      <c r="I33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
       <c r="K33">
-        <v>40</v>
+        <v>540</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="M33" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="N33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P33" s="2">
+        <v>38.574119000000003</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>-97.671643000000003</v>
+      </c>
       <c r="R33" s="2"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="T33" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5441,50 +5651,54 @@
         <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
         <v>82</v>
       </c>
       <c r="H34">
-        <v>66502</v>
+        <v>67458</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="K34">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M34" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="N34" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O34" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="P34" s="2">
-        <v>39.1816095</v>
+        <v>39.169995700000001</v>
       </c>
       <c r="Q34" s="2">
-        <v>-96.557330500000006</v>
+        <v>-97.331413400000002</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="4"/>
       <c r="T34" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="V34" s="1" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
@@ -5507,7 +5721,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>818</v>
+        <v>284</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5515,35 +5729,21 @@
       <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35">
-        <v>66502</v>
-      </c>
-      <c r="I35" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" t="s">
-        <v>819</v>
-      </c>
       <c r="K35">
-        <v>34</v>
+        <v>570</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M35" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="N35" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="O35" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5554,7 +5754,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5562,56 +5762,24 @@
       <c r="C36" t="s">
         <v>114</v>
       </c>
-      <c r="D36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36">
-        <v>66502</v>
-      </c>
-      <c r="I36" t="s">
-        <v>149</v>
-      </c>
-      <c r="J36" t="s">
-        <v>100</v>
-      </c>
       <c r="K36">
-        <v>575</v>
+        <v>40</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>680</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P36" s="2">
-        <v>39.192815099999997</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>-96.505954700000004</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
       <c r="AA36" t="s">
         <v>150</v>
       </c>
@@ -5633,7 +5801,7 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5642,54 +5810,50 @@
         <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
         <v>82</v>
       </c>
       <c r="H37">
-        <v>67464</v>
+        <v>66502</v>
       </c>
       <c r="I37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="K37">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O37" s="1"/>
       <c r="P37" s="2">
-        <v>38.557795300000002</v>
+        <v>39.1816095</v>
       </c>
       <c r="Q37" s="2">
-        <v>-97.834316099999995</v>
+        <v>-96.557330500000006</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="4"/>
       <c r="T37" s="1" t="s">
-        <v>226</v>
+        <v>688</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>739</v>
+        <v>688</v>
       </c>
       <c r="AA37" t="s">
         <v>24</v>
@@ -5712,7 +5876,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>818</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5720,21 +5884,35 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38">
+        <v>66502</v>
+      </c>
+      <c r="I38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" t="s">
+        <v>819</v>
+      </c>
       <c r="K38">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>669</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>425</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="O38" s="1"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -5745,7 +5923,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5754,49 +5932,59 @@
         <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
         <v>82</v>
       </c>
       <c r="H39">
-        <v>67460</v>
+        <v>66502</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="K39">
-        <v>30</v>
+        <v>575</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M39" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="N39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O39" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="P39" s="2">
-        <v>38.372259999999997</v>
+        <v>39.192815099999997</v>
       </c>
       <c r="Q39" s="2">
-        <v>-97.685670999999999</v>
+        <v>-96.505954700000004</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="T39" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5805,36 +5993,55 @@
         <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
         <v>82</v>
       </c>
       <c r="H40">
-        <v>67460</v>
+        <v>67464</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J40" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>580</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="M40" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P40" s="2">
+        <v>38.557795300000002</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>-97.834316099999995</v>
+      </c>
       <c r="R40" s="2"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>739</v>
+      </c>
       <c r="AA40" t="s">
         <v>155</v>
       </c>
@@ -5856,7 +6063,7 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5864,30 +6071,21 @@
       <c r="C41" t="s">
         <v>114</v>
       </c>
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41">
-        <v>67460</v>
-      </c>
-      <c r="I41" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="1"/>
+      <c r="K41">
+        <v>600</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="M41" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+        <v>669</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -5916,7 +6114,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5924,19 +6122,41 @@
       <c r="C42" t="s">
         <v>114</v>
       </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42">
+        <v>67460</v>
+      </c>
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" t="s">
+        <v>163</v>
+      </c>
       <c r="K42">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="P42" s="2">
+        <v>38.372259999999997</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>-97.685670999999999</v>
+      </c>
       <c r="R42" s="2"/>
       <c r="S42" s="4"/>
       <c r="T42" s="1"/>
@@ -5945,7 +6165,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5954,7 +6174,7 @@
         <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>119</v>
@@ -5966,41 +6186,24 @@
         <v>67460</v>
       </c>
       <c r="I43" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J43" t="s">
         <v>84</v>
       </c>
-      <c r="K43">
-        <v>620</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="2">
-        <v>38.372224000000003</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>-97.668978899999999</v>
-      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>741</v>
-      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="AA43" t="s">
         <v>164</v>
       </c>
@@ -6022,7 +6225,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6031,33 +6234,27 @@
         <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
         <v>82</v>
       </c>
       <c r="H44">
-        <v>67107</v>
+        <v>67460</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
-      </c>
-      <c r="K44">
-        <v>10</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M44" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
@@ -6088,7 +6285,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6096,59 +6293,24 @@
       <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45">
-        <v>67107</v>
-      </c>
-      <c r="I45" t="s">
-        <v>169</v>
-      </c>
-      <c r="J45" t="s">
-        <v>100</v>
-      </c>
       <c r="K45">
-        <v>640</v>
+        <v>32</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>670</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="P45" s="2">
-        <v>38.202722299999998</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>-97.522767200000004</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
       <c r="AA45" t="s">
         <v>172</v>
       </c>
@@ -6170,7 +6332,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6179,34 +6341,53 @@
         <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
         <v>82</v>
       </c>
       <c r="H46">
-        <v>67107</v>
+        <v>67460</v>
       </c>
       <c r="I46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
-      </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="K46">
+        <v>620</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="O46" s="1"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+      <c r="P46" s="2">
+        <v>38.372224000000003</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>-97.668978899999999</v>
+      </c>
       <c r="R46" s="2"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="AA46" t="s">
         <v>167</v>
       </c>
@@ -6228,7 +6409,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6236,15 +6417,34 @@
       <c r="C47" t="s">
         <v>114</v>
       </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47">
+        <v>67107</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
       <c r="K47">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>681</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="2"/>
@@ -6257,57 +6457,66 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
         <v>82</v>
       </c>
       <c r="H48">
-        <v>67117</v>
+        <v>67107</v>
       </c>
       <c r="I48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J48" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K48">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="P48" s="2">
-        <v>38.065479000000003</v>
+        <v>38.202722299999998</v>
       </c>
       <c r="Q48" s="2">
-        <v>-97.345708000000002</v>
+        <v>-97.522767200000004</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="4"/>
       <c r="T48" s="1" t="s">
-        <v>688</v>
+        <v>742</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AA48" t="s">
         <v>27</v>
@@ -6330,7 +6539,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6338,34 +6547,39 @@
       <c r="C49" t="s">
         <v>114</v>
       </c>
-      <c r="K49">
-        <v>682</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49">
+        <v>67107</v>
+      </c>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1" t="s">
-        <v>337</v>
-      </c>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6373,56 +6587,24 @@
       <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50">
-        <v>66521</v>
-      </c>
-      <c r="I50" t="s">
-        <v>176</v>
-      </c>
-      <c r="J50" t="s">
-        <v>100</v>
-      </c>
       <c r="K50">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="P50" s="2">
-        <v>39.480414099999997</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>-96.177394699999994</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>749</v>
-      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
       <c r="AA50" t="s">
         <v>28</v>
       </c>
@@ -6444,63 +6626,57 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
         <v>82</v>
       </c>
       <c r="H51">
-        <v>66866</v>
+        <v>67117</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K51">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
       <c r="P51" s="2">
-        <v>38.164371600000003</v>
+        <v>38.065479000000003</v>
       </c>
       <c r="Q51" s="2">
-        <v>-97.103965099999996</v>
+        <v>-97.345708000000002</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="4"/>
       <c r="T51" s="1" t="s">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>751</v>
+        <v>688</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="AA51" t="s">
         <v>29</v>
@@ -6523,40 +6699,42 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
         <v>114</v>
       </c>
       <c r="K52">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>672</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>427</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="O52" s="1"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6565,139 +6743,149 @@
         <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
         <v>82</v>
       </c>
       <c r="H53">
-        <v>67546</v>
+        <v>66521</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="K53">
-        <v>50</v>
+        <v>685</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M53" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="N53" s="1" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="P53" s="2">
-        <v>38.289691599999998</v>
+        <v>39.480414099999997</v>
       </c>
       <c r="Q53" s="2">
-        <v>-97.779943399999993</v>
+        <v>-96.177394699999994</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="4"/>
       <c r="T53" s="1" t="s">
-        <v>688</v>
+        <v>747</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>688</v>
+        <v>748</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>688</v>
+        <v>749</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>114</v>
       </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54">
+        <v>66866</v>
+      </c>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
+        <v>100</v>
+      </c>
       <c r="K54">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P54" s="2">
+        <v>38.164371600000003</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>-97.103965099999996</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="T54" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="D55" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55">
-        <v>67579</v>
-      </c>
-      <c r="I55" t="s">
-        <v>182</v>
-      </c>
-      <c r="J55" t="s">
-        <v>183</v>
-      </c>
       <c r="K55">
-        <v>60</v>
+        <v>720</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="2">
-        <v>38.266167000000003</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>-98.200824999999995</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>753</v>
-      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
       <c r="AA55" t="s">
         <v>179</v>
       </c>
@@ -6719,64 +6907,62 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>848</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>853</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>840</v>
       </c>
       <c r="G56" t="s">
         <v>82</v>
       </c>
       <c r="H56">
-        <v>67476</v>
+        <v>67869</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>859</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>863</v>
       </c>
       <c r="K56">
-        <v>760</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>304</v>
+        <v>725</v>
+      </c>
+      <c r="L56" s="1">
+        <v>725</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+        <v>864</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>831</v>
+      </c>
       <c r="P56" s="2">
-        <v>38.551245999999999</v>
+        <v>37.258797000000001</v>
       </c>
       <c r="Q56" s="2">
-        <v>-97.429237000000001</v>
+        <v>-100.587281</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="U56" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V56" s="1" t="s">
-        <v>755</v>
-      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6785,36 +6971,41 @@
         <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="G57" t="s">
         <v>82</v>
       </c>
       <c r="H57">
-        <v>67401</v>
+        <v>67546</v>
+      </c>
+      <c r="I57" t="s">
+        <v>133</v>
       </c>
       <c r="J57" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="K57">
-        <v>780</v>
+        <v>50</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>233</v>
+        <v>315</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="O57" s="1"/>
+        <v>328</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>428</v>
+      </c>
       <c r="P57" s="2">
-        <v>38.855463999999998</v>
+        <v>38.289691599999998</v>
       </c>
       <c r="Q57" s="2">
-        <v>-97.614002999999997</v>
+        <v>-97.779943399999993</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="4"/>
@@ -6822,7 +7013,7 @@
         <v>688</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>756</v>
+        <v>688</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>688</v>
@@ -6848,64 +7039,30 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>321</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" t="s">
-        <v>189</v>
-      </c>
-      <c r="F58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>82</v>
-      </c>
-      <c r="H58">
-        <v>67480</v>
-      </c>
-      <c r="I58" t="s">
-        <v>190</v>
-      </c>
-      <c r="J58" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K58">
-        <v>800</v>
+        <v>740</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="P58" s="2">
-        <v>38.917464000000002</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>-97.374758999999997</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V58" s="1" t="s">
-        <v>758</v>
-      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1"/>
       <c r="AA58" t="s">
         <v>30</v>
       </c>
@@ -6927,7 +7084,7 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6936,54 +7093,52 @@
         <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>181</v>
       </c>
       <c r="G59" t="s">
         <v>82</v>
       </c>
       <c r="H59">
-        <v>67482</v>
+        <v>67579</v>
       </c>
       <c r="I59" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J59" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="K59">
-        <v>820</v>
+        <v>60</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>264</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="O59" s="1"/>
       <c r="P59" s="2">
-        <v>39.026199400000003</v>
+        <v>38.266167000000003</v>
       </c>
       <c r="Q59" s="2">
-        <v>-97.259965699999995</v>
+        <v>-98.200824999999995</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="4"/>
       <c r="T59" s="1" t="s">
-        <v>759</v>
+        <v>688</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>760</v>
+        <v>688</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="AA59" t="s">
         <v>31</v>
@@ -7006,34 +7161,64 @@
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>309</v>
+        <v>184</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" t="s">
+        <v>184</v>
+      </c>
+      <c r="G60" t="s">
+        <v>82</v>
+      </c>
+      <c r="H60">
+        <v>67476</v>
+      </c>
+      <c r="I60" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" t="s">
+        <v>84</v>
       </c>
       <c r="K60">
-        <v>18</v>
+        <v>760</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="M60" s="1"/>
+        <v>304</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>653</v>
+      </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
+      <c r="P60" s="2">
+        <v>38.551245999999999</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>-97.429237000000001</v>
+      </c>
       <c r="R60" s="2"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
+      <c r="T60" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7042,54 +7227,47 @@
         <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>187</v>
       </c>
       <c r="G61" t="s">
         <v>82</v>
       </c>
       <c r="H61">
-        <v>67151</v>
-      </c>
-      <c r="I61" t="s">
-        <v>194</v>
+        <v>67401</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="K61">
-        <v>840</v>
+        <v>780</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>674</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="M61" s="1"/>
       <c r="N61" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O61" s="1"/>
       <c r="P61" s="2">
-        <v>38.218391099999998</v>
+        <v>38.855463999999998</v>
       </c>
       <c r="Q61" s="2">
-        <v>-97.229442399999996</v>
+        <v>-97.614002999999997</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="4"/>
       <c r="T61" s="1" t="s">
-        <v>762</v>
+        <v>688</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>764</v>
+        <v>688</v>
       </c>
       <c r="AA61" t="s">
         <v>32</v>
@@ -7112,59 +7290,63 @@
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>82</v>
       </c>
       <c r="H62">
-        <v>66549</v>
+        <v>67480</v>
       </c>
       <c r="I62" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="J62" t="s">
-        <v>770</v>
+        <v>111</v>
       </c>
       <c r="K62">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="M62" s="1"/>
+        <v>234</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>672</v>
+      </c>
       <c r="N62" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="O62" s="1"/>
+        <v>263</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>263</v>
+      </c>
       <c r="P62" s="2">
-        <v>39.3915431</v>
+        <v>38.917464000000002</v>
       </c>
       <c r="Q62" s="2">
-        <v>-96.410154700000007</v>
+        <v>-97.374758999999997</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="4"/>
       <c r="T62" s="1" t="s">
-        <v>659</v>
+        <v>757</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>765</v>
+        <v>688</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="AA62" t="s">
         <v>33</v>
@@ -7187,7 +7369,7 @@
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7196,54 +7378,54 @@
         <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F63" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>82</v>
       </c>
       <c r="H63">
-        <v>67154</v>
+        <v>67482</v>
       </c>
       <c r="I63" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="J63" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K63">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>429</v>
+        <v>264</v>
       </c>
       <c r="P63" s="2">
-        <v>37.962503599999998</v>
+        <v>39.026199400000003</v>
       </c>
       <c r="Q63" s="2">
-        <v>-97.150157199999995</v>
+        <v>-97.259965699999995</v>
       </c>
       <c r="R63" s="2"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>688</v>
+        <v>760</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="AA63" t="s">
         <v>34</v>
@@ -7266,58 +7448,30 @@
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64" t="s">
-        <v>202</v>
-      </c>
-      <c r="G64" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64">
-        <v>67201</v>
-      </c>
-      <c r="I64" t="s">
-        <v>203</v>
-      </c>
-      <c r="J64" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="K64">
-        <v>880</v>
+        <v>18</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="2">
-        <v>37.739190899999997</v>
-      </c>
-      <c r="Q64" s="2">
-        <v>-97.329066100000006</v>
-      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U64" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>768</v>
-      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
       <c r="AA64" t="s">
         <v>200</v>
       </c>
@@ -7339,59 +7493,63 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>82</v>
       </c>
       <c r="H65">
-        <v>67491</v>
+        <v>67151</v>
       </c>
       <c r="I65" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K65">
-        <v>900</v>
+        <v>840</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
+        <v>674</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="P65" s="2">
-        <v>38.385244999999998</v>
+        <v>38.218391099999998</v>
       </c>
       <c r="Q65" s="2">
-        <v>-97.909503999999998</v>
+        <v>-97.229442399999996</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" s="4"/>
       <c r="T65" s="1" t="s">
-        <v>688</v>
+        <v>762</v>
       </c>
       <c r="U65" s="1" t="s">
-        <v>688</v>
+        <v>763</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="AA65" t="s">
         <v>35</v>
@@ -7410,6 +7568,269 @@
       </c>
       <c r="AG65" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66">
+        <v>66549</v>
+      </c>
+      <c r="I66" t="s">
+        <v>196</v>
+      </c>
+      <c r="J66" t="s">
+        <v>770</v>
+      </c>
+      <c r="K66">
+        <v>845</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="2">
+        <v>39.3915431</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>-96.410154700000007</v>
+      </c>
+      <c r="R66" s="2"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="U66" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="V66" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>34</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s">
+        <v>198</v>
+      </c>
+      <c r="F67" t="s">
+        <v>197</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67">
+        <v>67154</v>
+      </c>
+      <c r="I67" t="s">
+        <v>199</v>
+      </c>
+      <c r="J67" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67">
+        <v>860</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P67" s="2">
+        <v>37.962503599999998</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>-97.150157199999995</v>
+      </c>
+      <c r="R67" s="2"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="U67" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V67" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
+        <v>201</v>
+      </c>
+      <c r="F68" t="s">
+        <v>202</v>
+      </c>
+      <c r="G68" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68">
+        <v>67201</v>
+      </c>
+      <c r="I68" t="s">
+        <v>203</v>
+      </c>
+      <c r="J68" t="s">
+        <v>84</v>
+      </c>
+      <c r="K68">
+        <v>880</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="2">
+        <v>37.739190899999997</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>-97.329066100000006</v>
+      </c>
+      <c r="R68" s="2"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U68" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V68" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>852</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+      <c r="K69">
+        <v>890</v>
+      </c>
+      <c r="L69" s="1">
+        <v>890</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70">
+        <v>67491</v>
+      </c>
+      <c r="I70" t="s">
+        <v>205</v>
+      </c>
+      <c r="J70" t="s">
+        <v>84</v>
+      </c>
+      <c r="K70">
+        <v>900</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="2">
+        <v>38.385244999999998</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>-97.909503999999998</v>
+      </c>
+      <c r="R70" s="2"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -7423,13 +7844,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -8296,7 +8717,7 @@
         <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D36" t="s">
         <v>644</v>
@@ -8419,1268 +8840,1401 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>831</v>
       </c>
       <c r="D42" t="s">
         <v>644</v>
       </c>
-      <c r="E42">
-        <v>1100000</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>7</v>
+        <v>840</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>563</v>
+        <v>853</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>562</v>
+        <v>859</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B43" t="s">
-        <v>561</v>
+        <v>832</v>
       </c>
       <c r="D43" t="s">
         <v>644</v>
       </c>
-      <c r="E43">
-        <v>375000</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>841</v>
+      </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>252</v>
+        <v>833</v>
       </c>
       <c r="D44" t="s">
         <v>644</v>
       </c>
-      <c r="E44">
-        <v>235800</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>12</v>
+        <v>842</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>560</v>
+        <v>855</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>124</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="B45" t="s">
-        <v>559</v>
+        <v>834</v>
       </c>
       <c r="D45" t="s">
         <v>644</v>
       </c>
-      <c r="E45">
-        <v>388800</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>557</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>835</v>
       </c>
       <c r="D46" t="s">
         <v>644</v>
       </c>
-      <c r="E46">
-        <v>961600</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>34</v>
+        <v>844</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>556</v>
+        <v>854</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>555</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="B47" t="s">
-        <v>425</v>
+        <v>836</v>
       </c>
       <c r="D47" t="s">
         <v>644</v>
       </c>
-      <c r="E47">
-        <v>84600</v>
-      </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>845</v>
+      </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="B48" t="s">
-        <v>554</v>
+        <v>837</v>
       </c>
       <c r="D48" t="s">
         <v>644</v>
       </c>
-      <c r="E48">
-        <v>540000</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="F48" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>838</v>
       </c>
       <c r="D49" t="s">
         <v>644</v>
       </c>
-      <c r="E49">
-        <v>837000</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>552</v>
-      </c>
+        <v>838</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
-        <v>269</v>
+        <v>839</v>
       </c>
       <c r="D50" t="s">
         <v>644</v>
       </c>
-      <c r="E50">
-        <v>1140000</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>149</v>
-      </c>
+        <v>847</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>294</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D51" t="s">
         <v>644</v>
       </c>
       <c r="E51">
-        <v>675000</v>
+        <v>1100000</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>561</v>
       </c>
       <c r="D52" t="s">
         <v>644</v>
       </c>
       <c r="E52">
-        <v>1267000</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>375000</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>296</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>549</v>
+        <v>252</v>
       </c>
       <c r="D53" t="s">
         <v>644</v>
       </c>
       <c r="E53">
-        <v>400000</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+        <v>235800</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>311</v>
+        <v>262</v>
       </c>
       <c r="B54" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D54" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E54">
-        <v>1328500</v>
+        <v>388800</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>547</v>
+        <v>27</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>543</v>
+        <v>174</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="B55" t="s">
-        <v>541</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E55">
-        <v>400000</v>
-      </c>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+        <v>961600</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s">
-        <v>540</v>
+        <v>425</v>
       </c>
       <c r="D56" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E56">
-        <v>218560</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>536</v>
-      </c>
+        <v>84600</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="D57" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E57">
-        <v>993000</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>531</v>
-      </c>
+        <v>540000</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>351</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
-        <v>352</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E58">
-        <v>550800</v>
+        <v>837000</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>529</v>
+        <v>96</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>361</v>
+        <v>293</v>
       </c>
       <c r="B59" t="s">
-        <v>527</v>
+        <v>269</v>
       </c>
       <c r="D59" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E59">
-        <v>345600</v>
+        <v>1140000</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>526</v>
+        <v>23</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="K59" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>432</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s">
-        <v>525</v>
+        <v>245</v>
       </c>
       <c r="D60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E60">
-        <v>2255500</v>
-      </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="K60" s="3"/>
+        <v>675000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>433</v>
+        <v>295</v>
       </c>
       <c r="B61" t="s">
-        <v>524</v>
+        <v>260</v>
       </c>
       <c r="D61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E61">
-        <v>2255500</v>
+        <v>1267000</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>523</v>
+        <v>28</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>520</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>442</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="D62" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E62">
-        <v>867600</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>515</v>
-      </c>
+        <v>400000</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>443</v>
+        <v>311</v>
       </c>
       <c r="B63" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="D63" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E63">
-        <v>1293000</v>
+        <v>1328500</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>511</v>
+        <v>545</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>445</v>
+        <v>315</v>
       </c>
       <c r="B64" t="s">
-        <v>641</v>
+        <v>541</v>
       </c>
       <c r="D64" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E64">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>447</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="D65" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E65">
-        <v>900000</v>
+        <v>218560</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>506</v>
+        <v>537</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>510</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
       <c r="D66" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E66">
-        <v>1175000</v>
+        <v>993000</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>520</v>
+        <v>351</v>
       </c>
       <c r="B67" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D67" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E67">
-        <v>233100</v>
+        <v>550800</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>530</v>
+        <v>361</v>
       </c>
       <c r="B68" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="D68" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E68">
-        <v>326700</v>
+        <v>345600</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>493</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>540</v>
+        <v>432</v>
       </c>
       <c r="B69" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="D69" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E69">
-        <v>376200</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>488</v>
-      </c>
+        <v>2255500</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="K69" s="3"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>541</v>
+        <v>433</v>
       </c>
       <c r="B70" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="D70" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E70">
-        <v>1053000</v>
+        <v>2255500</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>484</v>
+        <v>521</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>542</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s">
-        <v>483</v>
+        <v>519</v>
       </c>
       <c r="D71" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E71">
-        <v>1040400</v>
+        <v>867600</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>481</v>
+        <v>517</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>543</v>
+        <v>443</v>
       </c>
       <c r="B72" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="D72" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E72">
-        <v>1356000</v>
+        <v>1293000</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>475</v>
+        <v>511</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>474</v>
+        <v>510</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>544</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s">
-        <v>473</v>
+        <v>641</v>
       </c>
       <c r="D73" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E73">
-        <v>839000</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>469</v>
-      </c>
+        <v>500000</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="K73" s="3"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="B74" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="D74" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E74">
-        <v>529000</v>
+        <v>900000</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>546</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="D75" t="s">
         <v>646</v>
       </c>
       <c r="E75">
-        <v>428000</v>
+        <v>1175000</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="B76" t="s">
-        <v>459</v>
+        <v>354</v>
       </c>
       <c r="D76" t="s">
         <v>646</v>
       </c>
       <c r="E76">
-        <v>561000</v>
+        <v>233100</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>458</v>
+        <v>109</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="B77" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="D77" t="s">
         <v>646</v>
       </c>
       <c r="E77">
-        <v>460000</v>
+        <v>326700</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B78" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="D78" t="s">
         <v>646</v>
       </c>
       <c r="E78">
-        <v>229000</v>
+        <v>376200</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>446</v>
+        <v>489</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B79" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="D79" t="s">
         <v>646</v>
       </c>
       <c r="E79">
-        <v>312000</v>
+        <v>1053000</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>442</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B80" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="D80" t="s">
         <v>646</v>
       </c>
       <c r="E80">
-        <v>1400000</v>
+        <v>1040400</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>181</v>
+        <v>482</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="B81" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="D81" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E81">
-        <v>2800000</v>
-      </c>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="K81" s="3"/>
+        <v>1356000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="B82" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D82" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E82">
-        <v>3600000</v>
+        <v>839000</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>105</v>
+        <v>472</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>106</v>
+        <v>471</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>107</v>
+        <v>470</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="B83" t="s">
-        <v>822</v>
+        <v>468</v>
       </c>
       <c r="D83" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E83">
-        <v>6750000</v>
+        <v>529000</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>827</v>
+        <v>467</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="H83" s="3"/>
+        <v>466</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B84" t="s">
-        <v>436</v>
+        <v>464</v>
+      </c>
+      <c r="D84" t="s">
+        <v>646</v>
+      </c>
+      <c r="E84">
+        <v>428000</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>433</v>
+        <v>461</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="B85" t="s">
-        <v>643</v>
+        <v>459</v>
+      </c>
+      <c r="D85" t="s">
+        <v>646</v>
+      </c>
+      <c r="E85">
+        <v>561000</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H85" s="3"/>
+        <v>457</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>630</v>
+        <v>548</v>
       </c>
       <c r="B86" t="s">
-        <v>778</v>
+        <v>454</v>
       </c>
       <c r="D86" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
       <c r="E86">
-        <v>457000</v>
+        <v>460000</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>787</v>
+        <v>453</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="H86" t="s">
-        <v>796</v>
-      </c>
-      <c r="K86" t="s">
-        <v>797</v>
+        <v>452</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>632</v>
+        <v>549</v>
       </c>
       <c r="B87" t="s">
-        <v>779</v>
+        <v>449</v>
       </c>
       <c r="D87" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
       <c r="E87">
-        <v>140310</v>
+        <v>229000</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>788</v>
+        <v>448</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>800</v>
+        <v>447</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="K87" t="s">
-        <v>799</v>
+        <v>446</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>634</v>
+        <v>550</v>
       </c>
       <c r="B88" t="s">
-        <v>780</v>
+        <v>445</v>
       </c>
       <c r="D88" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
       <c r="E88">
-        <v>249000</v>
+        <v>312000</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>789</v>
+        <v>444</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>801</v>
+        <v>443</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>802</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>636</v>
+        <v>551</v>
       </c>
       <c r="B89" t="s">
-        <v>781</v>
+        <v>396</v>
       </c>
       <c r="D89" t="s">
-        <v>786</v>
+        <v>646</v>
       </c>
       <c r="E89">
-        <v>130000</v>
+        <v>1400000</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>790</v>
+        <v>181</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>803</v>
+        <v>441</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="K89" t="s">
-        <v>805</v>
+        <v>440</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>642</v>
+        <v>560</v>
       </c>
       <c r="B90" t="s">
-        <v>782</v>
+        <v>438</v>
       </c>
       <c r="D90" t="s">
-        <v>786</v>
+        <v>644</v>
       </c>
       <c r="E90">
-        <v>247500</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="K90" t="s">
-        <v>808</v>
-      </c>
+        <v>2800000</v>
+      </c>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="K90" s="3"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>640</v>
+        <v>561</v>
       </c>
       <c r="B91" t="s">
-        <v>821</v>
+        <v>437</v>
       </c>
       <c r="D91" t="s">
-        <v>786</v>
+        <v>644</v>
       </c>
       <c r="E91">
-        <v>165600</v>
+        <v>3600000</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>823</v>
+        <v>105</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>824</v>
+        <v>106</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="K91" t="s">
-        <v>826</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
+        <v>562</v>
+      </c>
+      <c r="B92" t="s">
+        <v>823</v>
+      </c>
+      <c r="D92" t="s">
         <v>644</v>
       </c>
-      <c r="B92" t="s">
-        <v>783</v>
-      </c>
-      <c r="D92" t="s">
-        <v>786</v>
-      </c>
-      <c r="E92">
-        <v>81000</v>
-      </c>
       <c r="F92" s="3" t="s">
-        <v>792</v>
+        <v>828</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>809</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>810</v>
-      </c>
-      <c r="K92" t="s">
-        <v>811</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>646</v>
+        <v>570</v>
       </c>
       <c r="B93" t="s">
-        <v>784</v>
-      </c>
-      <c r="D93" t="s">
-        <v>786</v>
-      </c>
-      <c r="E93">
-        <v>302000</v>
+        <v>436</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>793</v>
+        <v>435</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>812</v>
+        <v>434</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="K93" t="s">
-        <v>814</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>650</v>
+        <v>571</v>
       </c>
       <c r="B94" t="s">
-        <v>785</v>
+        <v>643</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>794</v>
+        <v>432</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="K94" t="s">
-        <v>817</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
+        <v>630</v>
+      </c>
+      <c r="B95" t="s">
+        <v>778</v>
+      </c>
+      <c r="D95" t="s">
+        <v>786</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H95" t="s">
+        <v>796</v>
+      </c>
+      <c r="K95" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>632</v>
+      </c>
+      <c r="B96" t="s">
+        <v>779</v>
+      </c>
+      <c r="D96" t="s">
+        <v>786</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="K96" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>634</v>
+      </c>
+      <c r="B97" t="s">
+        <v>780</v>
+      </c>
+      <c r="D97" t="s">
+        <v>786</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>636</v>
+      </c>
+      <c r="B98" t="s">
+        <v>781</v>
+      </c>
+      <c r="D98" t="s">
+        <v>786</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="K98" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>640</v>
+      </c>
+      <c r="B99" t="s">
+        <v>822</v>
+      </c>
+      <c r="D99" t="s">
+        <v>786</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="K99" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>642</v>
+      </c>
+      <c r="B100" t="s">
+        <v>782</v>
+      </c>
+      <c r="D100" t="s">
+        <v>786</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="K100" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>644</v>
+      </c>
+      <c r="B101" t="s">
+        <v>783</v>
+      </c>
+      <c r="D101" t="s">
+        <v>786</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="K101" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>646</v>
+      </c>
+      <c r="B102" t="s">
+        <v>784</v>
+      </c>
+      <c r="D102" t="s">
+        <v>786</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="K102" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>650</v>
+      </c>
+      <c r="B103" t="s">
+        <v>785</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K103" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>940</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B104" t="s">
         <v>642</v>
       </c>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/UploadedFiles/LocationData.xlsx
+++ b/UploadedFiles/LocationData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dashboardProd1\c$\inetpub\wwwroot\MKCoop\UploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E58B847-71BE-4D38-8E50-30670529B97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="872">
   <si>
     <t>Abilene</t>
   </si>
@@ -2491,6 +2492,9 @@
     <t>MHBULK</t>
   </si>
   <si>
+    <t>Manhattan Builk Fuel</t>
+  </si>
+  <si>
     <t>DEERFIELD</t>
   </si>
   <si>
@@ -2516,12 +2520,135 @@
   </si>
   <si>
     <t>TALMAGE BUNKER</t>
+  </si>
+  <si>
+    <t>PLAINS</t>
+  </si>
+  <si>
+    <t>PLAINS BUNKER</t>
+  </si>
+  <si>
+    <t>HOBART</t>
+  </si>
+  <si>
+    <t>HOBART BUNKER</t>
+  </si>
+  <si>
+    <t>KISMET</t>
+  </si>
+  <si>
+    <t>KISMET BUNKER</t>
+  </si>
+  <si>
+    <t>LIBERAL</t>
+  </si>
+  <si>
+    <t>KSF</t>
+  </si>
+  <si>
+    <t>WILD HORSE</t>
+  </si>
+  <si>
+    <t>Plains</t>
+  </si>
+  <si>
+    <t>Plains Bunker</t>
+  </si>
+  <si>
+    <t>Hobart</t>
+  </si>
+  <si>
+    <t>Hobart Bunker</t>
+  </si>
+  <si>
+    <t>Kismet</t>
+  </si>
+  <si>
+    <t>Kismet Bunker</t>
+  </si>
+  <si>
+    <t>Liberal</t>
+  </si>
+  <si>
+    <t>Wild Horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plains                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kismet                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobart                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberal                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wildhorse                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">110 Grand Ave                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">303 Delaware                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13160 8 RD                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">215 E 4th                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hobart                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberal                            </t>
+  </si>
+  <si>
+    <t>(620) 563-7269</t>
+  </si>
+  <si>
+    <t>(620) 563-7266</t>
+  </si>
+  <si>
+    <t>(620) 563-9261</t>
+  </si>
+  <si>
+    <t>(620) 626-4539</t>
+  </si>
+  <si>
+    <t>Grain, Agronomy, 24 hr fuel</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>WILDHORSE</t>
+  </si>
+  <si>
+    <t>logo.png</t>
+  </si>
+  <si>
+    <t>HILLSBORO HOOP SHED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2620,67 +2747,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B49" totalsRowShown="0">
-  <autoFilter ref="A1:B49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblLocationImages" displayName="tblLocationImages" ref="A1:B54" totalsRowShown="0">
+  <autoFilter ref="A1:B54" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B54">
+    <sortCondition ref="A2:A54"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Location"/>
-    <tableColumn id="2" name="Image"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Location"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblLocation" displayName="tblLocation" ref="A1:V65" totalsRowShown="0">
-  <autoFilter ref="A1:V65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblLocation" displayName="tblLocation" ref="A1:V70" totalsRowShown="0">
+  <autoFilter ref="A1:V70" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V70">
+    <sortCondition ref="A2:A70"/>
+  </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" name="Location"/>
-    <tableColumn id="23" name="Active"/>
-    <tableColumn id="2" name="Seasonal"/>
-    <tableColumn id="3" name="Address"/>
-    <tableColumn id="4" name="Address 2"/>
-    <tableColumn id="5" name="City"/>
-    <tableColumn id="6" name="State"/>
-    <tableColumn id="7" name="Zip"/>
-    <tableColumn id="8" name="Phone"/>
-    <tableColumn id="9" name="Services"/>
-    <tableColumn id="10" name="LocationCode"/>
-    <tableColumn id="11" name="LocGLStr" dataDxfId="13"/>
-    <tableColumn id="20" name="TMA_BRANCH_NUMBER" dataDxfId="12"/>
-    <tableColumn id="15" name="LOCNCODE" dataDxfId="11"/>
-    <tableColumn id="19" name="AgLocationCode" dataDxfId="10"/>
-    <tableColumn id="12" name="Latitude" dataDxfId="9"/>
-    <tableColumn id="13" name="Longitude" dataDxfId="8"/>
-    <tableColumn id="14" name="Region" dataDxfId="7"/>
-    <tableColumn id="18" name="CapacityAppl" dataDxfId="6"/>
-    <tableColumn id="16" name="CapacityFert" dataDxfId="5"/>
-    <tableColumn id="17" name="CapacityFuel" dataDxfId="4"/>
-    <tableColumn id="22" name="CapacityGrain" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Location"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="Active"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Seasonal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Address"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Address 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="City"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="State"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Zip"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Phone"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Services"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="LocationCode"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="LocGLStr" dataDxfId="13"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="TMA_BRANCH_NUMBER" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="LOCNCODE" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="AgLocationCode" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Latitude" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Longitude" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Region" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="CapacityAppl" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="CapacityFert" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="CapacityFuel" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="CapacityGrain" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M95" totalsRowShown="0">
-  <autoFilter ref="A1:M95"/>
-  <sortState ref="A2:M92">
-    <sortCondition ref="A2:A92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblTMALocations" displayName="tblTMALocations" ref="A1:M105" totalsRowShown="0">
+  <autoFilter ref="A1:M105" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M105">
+    <sortCondition ref="A2:A105"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" name="BRANCH_NUMBER"/>
-    <tableColumn id="2" name="BRANCH_NAME"/>
-    <tableColumn id="3" name="TYPE"/>
-    <tableColumn id="4" name="REGION"/>
-    <tableColumn id="5" name="CAPACITY"/>
-    <tableColumn id="6" name="DisplayName" dataDxfId="2"/>
-    <tableColumn id="7" name="Address" dataDxfId="1"/>
-    <tableColumn id="8" name="Phone1" dataDxfId="0"/>
-    <tableColumn id="9" name="Phone2"/>
-    <tableColumn id="10" name="Phone3"/>
-    <tableColumn id="11" name="Fax"/>
-    <tableColumn id="12" name="Latitude"/>
-    <tableColumn id="13" name="Longitude"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="BRANCH_NUMBER"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="BRANCH_NAME"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="TYPE"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="REGION"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="CAPACITY"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="DisplayName" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Address" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Phone1" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Phone2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Phone3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Fax"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Latitude"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="Longitude"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2982,12 +3115,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,18 +3204,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3167,219 +3300,259 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>850</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>870</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>849</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>870</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>851</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>870</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>818</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>821</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>774</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>314</v>
+        <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>775</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>776</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>848</v>
       </c>
       <c r="B42" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>775</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>777</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>206</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>852</v>
+      </c>
+      <c r="B53" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3392,15 +3565,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG65"/>
+  <dimension ref="A1:AG70"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3643,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>115</v>
@@ -4346,7 +4517,7 @@
         <v>112</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>115</v>
@@ -4494,7 +4665,7 @@
         <v>282</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="s">
         <v>114</v>
@@ -5095,7 +5266,7 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>316</v>
+        <v>850</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5103,21 +5274,45 @@
       <c r="C27" t="s">
         <v>114</v>
       </c>
+      <c r="D27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F27" t="s">
+        <v>857</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27">
+        <v>67869</v>
+      </c>
+      <c r="I27" t="s">
+        <v>861</v>
+      </c>
+      <c r="J27" t="s">
+        <v>84</v>
+      </c>
       <c r="K27">
-        <v>480</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M27" s="1"/>
+        <v>470</v>
+      </c>
+      <c r="L27" s="1">
+        <v>470</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>866</v>
+      </c>
       <c r="N27" s="1" t="s">
-        <v>334</v>
+        <v>833</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="P27" s="2">
+        <v>37.289982999999999</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>-100.526184</v>
+      </c>
       <c r="R27" s="2"/>
       <c r="S27" s="4"/>
       <c r="T27" s="1"/>
@@ -5126,24 +5321,26 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>114</v>
       </c>
       <c r="K28">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="O28" s="1" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -5155,60 +5352,32 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
         <v>114</v>
       </c>
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" t="s">
-        <v>82</v>
-      </c>
-      <c r="H29">
-        <v>67546</v>
-      </c>
-      <c r="I29" t="s">
-        <v>142</v>
-      </c>
-      <c r="J29" t="s">
-        <v>143</v>
-      </c>
       <c r="K29">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O29" s="1"/>
-      <c r="P29" s="2">
-        <v>38.232165999999999</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>-97.774975999999995</v>
-      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="AA29" t="s">
         <v>19</v>
       </c>
@@ -5230,7 +5399,7 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5239,54 +5408,50 @@
         <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="G30" t="s">
         <v>82</v>
       </c>
       <c r="H30">
-        <v>67456</v>
+        <v>67546</v>
       </c>
       <c r="I30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="K30">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>667</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>422</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="O30" s="1"/>
       <c r="P30" s="2">
-        <v>38.574119000000003</v>
+        <v>38.232165999999999</v>
       </c>
       <c r="Q30" s="2">
-        <v>-97.671643000000003</v>
+        <v>-97.774975999999995</v>
       </c>
       <c r="R30" s="2"/>
       <c r="S30" s="4"/>
       <c r="T30" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
       <c r="AA30" t="s">
         <v>20</v>
@@ -5309,7 +5474,7 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>849</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5318,59 +5483,53 @@
         <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>854</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>844</v>
       </c>
       <c r="G31" t="s">
         <v>82</v>
       </c>
       <c r="H31">
-        <v>67458</v>
+        <v>67859</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>860</v>
       </c>
       <c r="J31" t="s">
-        <v>94</v>
+        <v>863</v>
       </c>
       <c r="K31">
-        <v>560</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>225</v>
+        <v>530</v>
+      </c>
+      <c r="L31" s="1">
+        <v>530</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>668</v>
+        <v>865</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>258</v>
+        <v>835</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>258</v>
+        <v>835</v>
       </c>
       <c r="P31" s="2">
-        <v>39.169995700000001</v>
+        <v>37.204175999999997</v>
       </c>
       <c r="Q31" s="2">
-        <v>-97.331413400000002</v>
+        <v>-100.69949800000001</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="U31" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>733</v>
-      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>284</v>
+        <v>851</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5378,23 +5537,45 @@
       <c r="C32" t="s">
         <v>114</v>
       </c>
+      <c r="D32" t="s">
+        <v>856</v>
+      </c>
+      <c r="F32" t="s">
+        <v>858</v>
+      </c>
+      <c r="G32" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32">
+        <v>67901</v>
+      </c>
+      <c r="I32" t="s">
+        <v>862</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
       <c r="K32">
-        <v>570</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>297</v>
+        <v>535</v>
+      </c>
+      <c r="L32" s="1">
+        <v>535</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>679</v>
+        <v>867</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>331</v>
+        <v>837</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
+        <v>837</v>
+      </c>
+      <c r="P32" s="2">
+        <v>37.035769999999999</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>-100.92472600000001</v>
+      </c>
       <c r="R32" s="2"/>
       <c r="S32" s="4"/>
       <c r="T32" s="1"/>
@@ -5403,7 +5584,7 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5411,28 +5592,60 @@
       <c r="C33" t="s">
         <v>114</v>
       </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33">
+        <v>67456</v>
+      </c>
+      <c r="I33" t="s">
+        <v>145</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
       <c r="K33">
-        <v>40</v>
+        <v>540</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="M33" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>667</v>
+      </c>
       <c r="N33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P33" s="2">
+        <v>38.574119000000003</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>-97.671643000000003</v>
+      </c>
       <c r="R33" s="2"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="T33" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5441,50 +5654,54 @@
         <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G34" t="s">
         <v>82</v>
       </c>
       <c r="H34">
-        <v>66502</v>
+        <v>67458</v>
       </c>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="K34">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="M34" s="1"/>
+        <v>225</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="N34" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="O34" s="1"/>
+        <v>258</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="P34" s="2">
-        <v>39.1816095</v>
+        <v>39.169995700000001</v>
       </c>
       <c r="Q34" s="2">
-        <v>-96.557330500000006</v>
+        <v>-97.331413400000002</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="4"/>
       <c r="T34" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="U34" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="U34" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="V34" s="1" t="s">
-        <v>688</v>
+        <v>733</v>
       </c>
       <c r="AA34" t="s">
         <v>22</v>
@@ -5507,7 +5724,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>818</v>
+        <v>284</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5515,35 +5732,21 @@
       <c r="C35" t="s">
         <v>114</v>
       </c>
-      <c r="D35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>82</v>
-      </c>
-      <c r="H35">
-        <v>66502</v>
-      </c>
-      <c r="I35" t="s">
-        <v>149</v>
-      </c>
-      <c r="J35" t="s">
-        <v>819</v>
-      </c>
       <c r="K35">
-        <v>34</v>
+        <v>570</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="M35" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="N35" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="O35" s="1"/>
+        <v>331</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -5554,7 +5757,7 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5562,56 +5765,24 @@
       <c r="C36" t="s">
         <v>114</v>
       </c>
-      <c r="D36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
-      <c r="G36" t="s">
-        <v>82</v>
-      </c>
-      <c r="H36">
-        <v>66502</v>
-      </c>
-      <c r="I36" t="s">
-        <v>149</v>
-      </c>
-      <c r="J36" t="s">
-        <v>100</v>
-      </c>
       <c r="K36">
-        <v>575</v>
+        <v>40</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>680</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="P36" s="2">
-        <v>39.192815099999997</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>-96.505954700000004</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O36" s="1"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>737</v>
-      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
       <c r="AA36" t="s">
         <v>150</v>
       </c>
@@ -5633,63 +5804,59 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
         <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G37" t="s">
         <v>82</v>
       </c>
       <c r="H37">
-        <v>67464</v>
+        <v>66502</v>
       </c>
       <c r="I37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J37" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="K37">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>424</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="O37" s="1"/>
       <c r="P37" s="2">
-        <v>38.557795300000002</v>
+        <v>39.1816095</v>
       </c>
       <c r="Q37" s="2">
-        <v>-97.834316099999995</v>
+        <v>-96.557330500000006</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="4"/>
       <c r="T37" s="1" t="s">
-        <v>226</v>
+        <v>688</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>739</v>
+        <v>688</v>
       </c>
       <c r="AA37" t="s">
         <v>24</v>
@@ -5712,7 +5879,7 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>818</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5720,21 +5887,35 @@
       <c r="C38" t="s">
         <v>114</v>
       </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38">
+        <v>66502</v>
+      </c>
+      <c r="I38" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" t="s">
+        <v>819</v>
+      </c>
       <c r="K38">
-        <v>600</v>
+        <v>34</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>669</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M38" s="1"/>
       <c r="N38" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>425</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="O38" s="1"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -5745,7 +5926,7 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5754,49 +5935,59 @@
         <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
         <v>82</v>
       </c>
       <c r="H39">
-        <v>67460</v>
+        <v>66502</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="K39">
-        <v>30</v>
+        <v>575</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="M39" s="1"/>
+        <v>226</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="N39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O39" s="1"/>
+        <v>269</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>423</v>
+      </c>
       <c r="P39" s="2">
-        <v>38.372259999999997</v>
+        <v>39.192815099999997</v>
       </c>
       <c r="Q39" s="2">
-        <v>-97.685670999999999</v>
+        <v>-96.505954700000004</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
+      <c r="T39" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5805,36 +5996,55 @@
         <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
         <v>82</v>
       </c>
       <c r="H40">
-        <v>67460</v>
+        <v>67464</v>
       </c>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J40" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>580</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="M40" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="P40" s="2">
+        <v>38.557795300000002</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>-97.834316099999995</v>
+      </c>
       <c r="R40" s="2"/>
       <c r="S40" s="4"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U40" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>739</v>
+      </c>
       <c r="AA40" t="s">
         <v>155</v>
       </c>
@@ -5856,38 +6066,29 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
       </c>
-      <c r="D41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F41" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41">
-        <v>67460</v>
-      </c>
-      <c r="I41" t="s">
-        <v>160</v>
-      </c>
-      <c r="J41" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="1"/>
+      <c r="K41">
+        <v>600</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="M41" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
+        <v>669</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>425</v>
+      </c>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -5916,7 +6117,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5924,19 +6125,41 @@
       <c r="C42" t="s">
         <v>114</v>
       </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42">
+        <v>67460</v>
+      </c>
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" t="s">
+        <v>163</v>
+      </c>
       <c r="K42">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
+      <c r="P42" s="2">
+        <v>38.372259999999997</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>-97.685670999999999</v>
+      </c>
       <c r="R42" s="2"/>
       <c r="S42" s="4"/>
       <c r="T42" s="1"/>
@@ -5945,7 +6168,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5954,7 +6177,7 @@
         <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
         <v>119</v>
@@ -5966,41 +6189,24 @@
         <v>67460</v>
       </c>
       <c r="I43" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J43" t="s">
         <v>84</v>
       </c>
-      <c r="K43">
-        <v>620</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="L43" s="1"/>
       <c r="M43" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="2">
-        <v>38.372224000000003</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>-97.668978899999999</v>
-      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="4"/>
-      <c r="T43" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U43" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>741</v>
-      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="AA43" t="s">
         <v>164</v>
       </c>
@@ -6022,7 +6228,7 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6031,33 +6237,27 @@
         <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
         <v>82</v>
       </c>
       <c r="H44">
-        <v>67107</v>
+        <v>67460</v>
       </c>
       <c r="I44" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
-      </c>
-      <c r="K44">
-        <v>10</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="M44" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>685</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="2"/>
@@ -6088,7 +6288,7 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6096,59 +6296,24 @@
       <c r="C45" t="s">
         <v>114</v>
       </c>
-      <c r="D45" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>82</v>
-      </c>
-      <c r="H45">
-        <v>67107</v>
-      </c>
-      <c r="I45" t="s">
-        <v>169</v>
-      </c>
-      <c r="J45" t="s">
-        <v>100</v>
-      </c>
       <c r="K45">
-        <v>640</v>
+        <v>32</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>670</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M45" s="1"/>
       <c r="N45" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="P45" s="2">
-        <v>38.202722299999998</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>-97.522767200000004</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="4"/>
-      <c r="T45" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="V45" s="1" t="s">
-        <v>744</v>
-      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
       <c r="AA45" t="s">
         <v>172</v>
       </c>
@@ -6170,7 +6335,7 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6179,34 +6344,53 @@
         <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="G46" t="s">
         <v>82</v>
       </c>
       <c r="H46">
-        <v>67107</v>
+        <v>67460</v>
       </c>
       <c r="I46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J46" t="s">
-        <v>171</v>
-      </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="K46">
+        <v>620</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="O46" s="1"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
+      <c r="P46" s="2">
+        <v>38.372224000000003</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>-97.668978899999999</v>
+      </c>
       <c r="R46" s="2"/>
       <c r="S46" s="4"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
+      <c r="T46" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>741</v>
+      </c>
       <c r="AA46" t="s">
         <v>167</v>
       </c>
@@ -6228,7 +6412,7 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6236,15 +6420,34 @@
       <c r="C47" t="s">
         <v>114</v>
       </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47">
+        <v>67107</v>
+      </c>
+      <c r="I47" t="s">
+        <v>83</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
       <c r="K47">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>681</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="2"/>
@@ -6257,57 +6460,66 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>81</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" t="s">
         <v>82</v>
       </c>
       <c r="H48">
-        <v>67117</v>
+        <v>67107</v>
       </c>
       <c r="I48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J48" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K48">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>426</v>
+      </c>
       <c r="P48" s="2">
-        <v>38.065479000000003</v>
+        <v>38.202722299999998</v>
       </c>
       <c r="Q48" s="2">
-        <v>-97.345708000000002</v>
+        <v>-97.522767200000004</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="4"/>
       <c r="T48" s="1" t="s">
-        <v>688</v>
+        <v>742</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AA48" t="s">
         <v>27</v>
@@ -6330,7 +6542,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>167</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6338,91 +6550,64 @@
       <c r="C49" t="s">
         <v>114</v>
       </c>
-      <c r="K49">
-        <v>682</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49">
+        <v>67107</v>
+      </c>
+      <c r="I49" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" t="s">
+        <v>171</v>
+      </c>
+      <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1" t="s">
-        <v>337</v>
-      </c>
+      <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="4"/>
-      <c r="T49" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U49" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>688</v>
-      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="s">
         <v>114</v>
       </c>
-      <c r="D50" t="s">
-        <v>175</v>
-      </c>
-      <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50">
-        <v>66521</v>
-      </c>
-      <c r="I50" t="s">
-        <v>176</v>
-      </c>
-      <c r="J50" t="s">
-        <v>100</v>
-      </c>
       <c r="K50">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="P50" s="2">
-        <v>39.480414099999997</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>-96.177394699999994</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="4"/>
-      <c r="T50" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="U50" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>749</v>
-      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
       <c r="AA50" t="s">
         <v>28</v>
       </c>
@@ -6444,63 +6629,57 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
         <v>82</v>
       </c>
       <c r="H51">
-        <v>66866</v>
+        <v>67117</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K51">
-        <v>700</v>
+        <v>660</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
       <c r="P51" s="2">
-        <v>38.164371600000003</v>
+        <v>38.065479000000003</v>
       </c>
       <c r="Q51" s="2">
-        <v>-97.103965099999996</v>
+        <v>-97.345708000000002</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="4"/>
       <c r="T51" s="1" t="s">
-        <v>750</v>
+        <v>688</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>751</v>
+        <v>688</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="AA51" t="s">
         <v>29</v>
@@ -6523,7 +6702,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6532,31 +6711,33 @@
         <v>114</v>
       </c>
       <c r="K52">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>672</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M52" s="1"/>
       <c r="N52" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>427</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="O52" s="1"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="4"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
+      <c r="T52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6565,139 +6746,149 @@
         <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
         <v>82</v>
       </c>
       <c r="H53">
-        <v>67546</v>
+        <v>66521</v>
       </c>
       <c r="I53" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="K53">
-        <v>50</v>
+        <v>685</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="M53" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="N53" s="1" t="s">
-        <v>328</v>
+        <v>260</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="P53" s="2">
-        <v>38.289691599999998</v>
+        <v>39.480414099999997</v>
       </c>
       <c r="Q53" s="2">
-        <v>-97.779943399999993</v>
+        <v>-96.177394699999994</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="4"/>
       <c r="T53" s="1" t="s">
-        <v>688</v>
+        <v>747</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>688</v>
+        <v>748</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>688</v>
+        <v>749</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>321</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="s">
         <v>114</v>
       </c>
+      <c r="D54" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54">
+        <v>66866</v>
+      </c>
+      <c r="I54" t="s">
+        <v>178</v>
+      </c>
+      <c r="J54" t="s">
+        <v>100</v>
+      </c>
       <c r="K54">
-        <v>740</v>
+        <v>700</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="P54" s="2">
+        <v>38.164371600000003</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>-97.103965099999996</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
+      <c r="T54" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
         <v>114</v>
       </c>
-      <c r="D55" t="s">
-        <v>180</v>
-      </c>
-      <c r="F55" t="s">
-        <v>181</v>
-      </c>
-      <c r="G55" t="s">
-        <v>82</v>
-      </c>
-      <c r="H55">
-        <v>67579</v>
-      </c>
-      <c r="I55" t="s">
-        <v>182</v>
-      </c>
-      <c r="J55" t="s">
-        <v>183</v>
-      </c>
       <c r="K55">
-        <v>60</v>
+        <v>720</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>236</v>
+        <v>320</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="2">
-        <v>38.266167000000003</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>-98.200824999999995</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="U55" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="V55" s="1" t="s">
-        <v>753</v>
-      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
       <c r="AA55" t="s">
         <v>179</v>
       </c>
@@ -6719,64 +6910,62 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>848</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>853</v>
       </c>
       <c r="F56" t="s">
-        <v>184</v>
+        <v>840</v>
       </c>
       <c r="G56" t="s">
         <v>82</v>
       </c>
       <c r="H56">
-        <v>67476</v>
+        <v>67869</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>859</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>863</v>
       </c>
       <c r="K56">
-        <v>760</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>304</v>
+        <v>725</v>
+      </c>
+      <c r="L56" s="1">
+        <v>725</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+        <v>864</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>831</v>
+      </c>
       <c r="P56" s="2">
-        <v>38.551245999999999</v>
+        <v>37.258797000000001</v>
       </c>
       <c r="Q56" s="2">
-        <v>-97.429237000000001</v>
+        <v>-100.587281</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="U56" s="1" t="s">
